--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Community Testing Forms\config-covid-community-testing-master_Aug 24 2022\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>Required</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Create House Hold</t>
+  </si>
+  <si>
+    <t>health_insurance_cover_other</t>
   </si>
 </sst>
 </file>
@@ -620,14 +623,14 @@
   </sheetPr>
   <dimension ref="A1:X995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="96.33203125" bestFit="1" customWidth="1"/>
@@ -1088,8 +1091,12 @@
       <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="13.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
@@ -26672,14 +26679,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26835,7 +26842,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>72</v>
@@ -27009,7 +27016,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-08-30 15-48</v>
+        <v>2022-09-08 15-01</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>43</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
     <t>Create House Hold</t>
   </si>
   <si>
-    <t>health_insurance_cover_other</t>
+    <t>other_health_insurance_cover</t>
   </si>
 </sst>
 </file>
@@ -623,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:X995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="14" spans="1:24" ht="13.2">
       <c r="A14" s="11" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>75</v>
@@ -26679,8 +26679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -26842,7 +26842,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>72</v>
@@ -27016,7 +27016,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-08 15-01</v>
+        <v>2022-09-08 15-38</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>43</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>Required</t>
   </si>
@@ -259,6 +259,39 @@
   </si>
   <si>
     <t>other_health_insurance_cover</t>
+  </si>
+  <si>
+    <t>Select_one health_insurance</t>
+  </si>
+  <si>
+    <t>select_one gender</t>
+  </si>
+  <si>
+    <t>select_one date_of_birth</t>
+  </si>
+  <si>
+    <t>select_one house_member</t>
+  </si>
+  <si>
+    <t>select_one register_house_member</t>
+  </si>
+  <si>
+    <t>Select_one health_insurance_cover</t>
+  </si>
+  <si>
+    <t>Select_one latrine</t>
+  </si>
+  <si>
+    <t>Select_one handwashing_basin</t>
+  </si>
+  <si>
+    <t>Select_one safe_water</t>
+  </si>
+  <si>
+    <t>Select_one treated_water</t>
+  </si>
+  <si>
+    <t>Select_one refuse_disposal</t>
   </si>
 </sst>
 </file>
@@ -624,12 +657,12 @@
   <dimension ref="A1:X995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -710,7 +743,7 @@
     </row>
     <row r="3" spans="1:24" ht="13.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>52</v>
@@ -744,7 +777,7 @@
     </row>
     <row r="4" spans="1:24" ht="13.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -918,7 +951,7 @@
     </row>
     <row r="9" spans="1:24" ht="13.2">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>61</v>
@@ -954,7 +987,7 @@
     </row>
     <row r="10" spans="1:24" ht="13.2">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>60</v>
@@ -1022,7 +1055,7 @@
     </row>
     <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="11" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>62</v>
@@ -1056,7 +1089,7 @@
     </row>
     <row r="13" spans="1:24" ht="13.2">
       <c r="A13" s="11" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>63</v>
@@ -1126,7 +1159,7 @@
     </row>
     <row r="15" spans="1:24" ht="13.2">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>64</v>
@@ -1160,7 +1193,7 @@
     </row>
     <row r="16" spans="1:24" ht="13.2">
       <c r="A16" s="11" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>65</v>
@@ -1194,7 +1227,7 @@
     </row>
     <row r="17" spans="1:24" ht="13.2">
       <c r="A17" s="11" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -1228,7 +1261,7 @@
     </row>
     <row r="18" spans="1:24" ht="13.2">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>67</v>
@@ -1262,7 +1295,7 @@
     </row>
     <row r="19" spans="1:24" ht="13.2">
       <c r="A19" s="11" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>68</v>
@@ -26680,7 +26713,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -27016,7 +27049,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-08 15-38</v>
+        <v>2022-09-08 15-51</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>43</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
   <si>
     <t>Required</t>
   </si>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>Should only be alpa only
-Characters between 3-100</t>
   </si>
   <si>
     <t>Gender</t>
@@ -261,37 +257,16 @@
     <t>other_health_insurance_cover</t>
   </si>
   <si>
-    <t>Select_one health_insurance</t>
-  </si>
-  <si>
     <t>select_one gender</t>
   </si>
   <si>
     <t>select_one date_of_birth</t>
   </si>
   <si>
-    <t>select_one house_member</t>
+    <t>Should only be alpa only, Characters between 3-100</t>
   </si>
   <si>
-    <t>select_one register_house_member</t>
-  </si>
-  <si>
-    <t>Select_one health_insurance_cover</t>
-  </si>
-  <si>
-    <t>Select_one latrine</t>
-  </si>
-  <si>
-    <t>Select_one handwashing_basin</t>
-  </si>
-  <si>
-    <t>Select_one safe_water</t>
-  </si>
-  <si>
-    <t>Select_one treated_water</t>
-  </si>
-  <si>
-    <t>Select_one refuse_disposal</t>
+    <t xml:space="preserve">select_one </t>
   </si>
 </sst>
 </file>
@@ -656,8 +631,8 @@
   </sheetPr>
   <dimension ref="A1:X995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -671,13 +646,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="13.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -705,12 +680,12 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="26.4">
+    <row r="2" spans="1:24" ht="13.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -719,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -743,13 +718,13 @@
     </row>
     <row r="3" spans="1:24" ht="13.2">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -777,13 +752,13 @@
     </row>
     <row r="4" spans="1:24" ht="13.2">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -811,19 +786,19 @@
     </row>
     <row r="5" spans="1:24" ht="13.2">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -847,19 +822,19 @@
     </row>
     <row r="6" spans="1:24" ht="13.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -886,13 +861,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
@@ -920,13 +895,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
@@ -951,19 +926,19 @@
     </row>
     <row r="9" spans="1:24" ht="13.2">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -987,19 +962,19 @@
     </row>
     <row r="10" spans="1:24" ht="13.2">
       <c r="A10" s="7" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1023,15 +998,15 @@
     </row>
     <row r="11" spans="1:24" ht="13.2">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1055,13 +1030,13 @@
     </row>
     <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>4</v>
@@ -1089,19 +1064,19 @@
     </row>
     <row r="13" spans="1:24" ht="13.2">
       <c r="A13" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1128,14 +1103,14 @@
         <v>3</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1159,13 +1134,13 @@
     </row>
     <row r="15" spans="1:24" ht="13.2">
       <c r="A15" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -1193,13 +1168,13 @@
     </row>
     <row r="16" spans="1:24" ht="13.2">
       <c r="A16" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -1227,13 +1202,13 @@
     </row>
     <row r="17" spans="1:24" ht="13.2">
       <c r="A17" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>4</v>
@@ -1261,13 +1236,13 @@
     </row>
     <row r="18" spans="1:24" ht="13.2">
       <c r="A18" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>4</v>
@@ -1295,13 +1270,13 @@
     </row>
     <row r="19" spans="1:24" ht="13.2">
       <c r="A19" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -26713,282 +26688,282 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="21" customFormat="1" ht="14.4">
       <c r="A1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>47</v>
+    </row>
+    <row r="2" spans="1:6" s="21" customFormat="1">
+      <c r="A2" s="22" t="s">
+        <v>6</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="21" customFormat="1">
-      <c r="A2" s="22" t="s">
-        <v>7</v>
+    <row r="3" spans="1:6" s="21" customFormat="1">
+      <c r="A3" s="22" t="s">
+        <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>52</v>
+      <c r="B3" s="21" t="s">
+        <v>51</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1">
-      <c r="A3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" s="21" customFormat="1">
       <c r="A4" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="21" t="s">
+    </row>
+    <row r="5" spans="1:6" s="21" customFormat="1">
+      <c r="A5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="21" customFormat="1">
-      <c r="A5" s="21" t="s">
-        <v>7</v>
+    <row r="6" spans="1:6" s="21" customFormat="1">
+      <c r="A6" s="21" t="s">
+        <v>6</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>56</v>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="21" customFormat="1">
-      <c r="A6" s="21" t="s">
-        <v>7</v>
+      <c r="B7" s="21" t="s">
+        <v>60</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
-        <v>7</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>61</v>
+      <c r="B12" s="21" t="s">
+        <v>62</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>56</v>
+      <c r="C12" s="21" t="s">
+        <v>69</v>
       </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="21" t="s">
-        <v>7</v>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
+      <c r="B13" s="21" t="s">
+        <v>62</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C13" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>60</v>
+      <c r="B17" s="21" t="s">
+        <v>64</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>56</v>
+      <c r="C17" s="21" t="s">
+        <v>54</v>
       </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="21" t="s">
-        <v>26</v>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>62</v>
+      <c r="B18" s="21" t="s">
+        <v>64</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
-        <v>26</v>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>62</v>
+      <c r="B19" s="21" t="s">
+        <v>65</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>56</v>
+      <c r="C19" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
-        <v>26</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>63</v>
+      <c r="B20" s="21" t="s">
+        <v>65</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
-        <v>26</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>64</v>
+      <c r="B21" s="21" t="s">
+        <v>66</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>56</v>
+      <c r="C21" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="21" t="s">
-        <v>26</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>65</v>
+      <c r="B22" s="21" t="s">
+        <v>66</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="21" t="s">
-        <v>26</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="B23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>55</v>
+      <c r="C23" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="21" t="s">
-        <v>26</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="21" t="s">
+        <v>25</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -27000,8 +26975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -27012,50 +26987,51 @@
     <col min="4" max="4" width="5.6640625" style="17" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="34" style="17" customWidth="1"/>
-    <col min="7" max="16" width="7.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="7.6640625" style="17" customWidth="1"/>
     <col min="17" max="26" width="15.109375" style="17" customWidth="1"/>
     <col min="27" max="16384" width="14.44140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
       <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-08 15-51</v>
+        <v>2022-09-13 22-00</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t>Required</t>
   </si>
@@ -255,12 +255,6 @@
   </si>
   <si>
     <t>other_health_insurance_cover</t>
-  </si>
-  <si>
-    <t>select_one gender</t>
-  </si>
-  <si>
-    <t>select_one date_of_birth</t>
   </si>
   <si>
     <t>Should only be alpa only, Characters between 3-100</t>
@@ -631,13 +625,13 @@
   </sheetPr>
   <dimension ref="A1:X995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -694,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -718,7 +712,7 @@
     </row>
     <row r="3" spans="1:24" ht="13.2">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>51</v>
@@ -752,7 +746,7 @@
     </row>
     <row r="4" spans="1:24" ht="13.2">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>53</v>
@@ -926,7 +920,7 @@
     </row>
     <row r="9" spans="1:24" ht="13.2">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
@@ -1030,7 +1024,7 @@
     </row>
     <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>61</v>
@@ -1064,7 +1058,7 @@
     </row>
     <row r="13" spans="1:24" ht="13.2">
       <c r="A13" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>62</v>
@@ -1134,7 +1128,7 @@
     </row>
     <row r="15" spans="1:24" ht="13.2">
       <c r="A15" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>63</v>
@@ -1168,7 +1162,7 @@
     </row>
     <row r="16" spans="1:24" ht="13.2">
       <c r="A16" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>64</v>
@@ -1202,7 +1196,7 @@
     </row>
     <row r="17" spans="1:24" ht="13.2">
       <c r="A17" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>65</v>
@@ -1236,7 +1230,7 @@
     </row>
     <row r="18" spans="1:24" ht="13.2">
       <c r="A18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>66</v>
@@ -1270,7 +1264,7 @@
     </row>
     <row r="19" spans="1:24" ht="13.2">
       <c r="A19" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>67</v>
@@ -26975,7 +26969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -27025,7 +27019,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-13 22-00</v>
+        <v>2022-09-13 22-07</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>42</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>Required</t>
   </si>
@@ -260,7 +260,37 @@
     <t>Should only be alpa only, Characters between 3-100</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one </t>
+    <t>select_one gender</t>
+  </si>
+  <si>
+    <t>select_one date_of_birth</t>
+  </si>
+  <si>
+    <t>select_one house_member</t>
+  </si>
+  <si>
+    <t>select_one register_house_member</t>
+  </si>
+  <si>
+    <t>select_one health_insurance</t>
+  </si>
+  <si>
+    <t>select_one health_insurance_cover</t>
+  </si>
+  <si>
+    <t>select_one latrine</t>
+  </si>
+  <si>
+    <t>select_one handwashing_basin</t>
+  </si>
+  <si>
+    <t>select_one safe_water</t>
+  </si>
+  <si>
+    <t>select_one treated_water</t>
+  </si>
+  <si>
+    <t>select_one refuse_disposal</t>
   </si>
 </sst>
 </file>
@@ -626,12 +656,12 @@
   <dimension ref="A1:X995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -746,7 +776,7 @@
     </row>
     <row r="4" spans="1:24" ht="13.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>53</v>
@@ -920,7 +950,7 @@
     </row>
     <row r="9" spans="1:24" ht="13.2">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
@@ -956,7 +986,7 @@
     </row>
     <row r="10" spans="1:24" ht="13.2">
       <c r="A10" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>59</v>
@@ -1024,7 +1054,7 @@
     </row>
     <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>61</v>
@@ -1058,7 +1088,7 @@
     </row>
     <row r="13" spans="1:24" ht="13.2">
       <c r="A13" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>62</v>
@@ -1128,7 +1158,7 @@
     </row>
     <row r="15" spans="1:24" ht="13.2">
       <c r="A15" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>63</v>
@@ -1162,7 +1192,7 @@
     </row>
     <row r="16" spans="1:24" ht="13.2">
       <c r="A16" s="11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>64</v>
@@ -1196,7 +1226,7 @@
     </row>
     <row r="17" spans="1:24" ht="13.2">
       <c r="A17" s="11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>65</v>
@@ -1230,7 +1260,7 @@
     </row>
     <row r="18" spans="1:24" ht="13.2">
       <c r="A18" s="11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>66</v>
@@ -1264,7 +1294,7 @@
     </row>
     <row r="19" spans="1:24" ht="13.2">
       <c r="A19" s="11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>67</v>
@@ -27019,7 +27049,7 @@
       </c>
       <c r="C2" s="19" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-13 22-07</v>
+        <v>2022-09-13 22-13</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>42</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="125">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -268,20 +268,10 @@
     <t>selected(../health_insurance, 'yes')</t>
   </si>
   <si>
-    <t>${date_of_birth} = 'no'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${date_of_birth} = 'yes'
-</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
     <t>relevant</t>
-  </si>
-  <si>
-    <t>${health_insurance_cover}='other'</t>
   </si>
   <si>
     <t>begin group</t>
@@ -356,15 +346,6 @@
     <t>Family Members' Information</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth?</t>
-  </si>
-  <si>
-    <t>${knows_dob} = 'yes'</t>
-  </si>
-  <si>
-    <t>${knows_dob} = 'no'</t>
-  </si>
-  <si>
     <t>select_one knows_dob</t>
   </si>
   <si>
@@ -396,6 +377,28 @@
   </si>
   <si>
     <t>field-list</t>
+  </si>
+  <si>
+    <t>hm_name</t>
+  </si>
+  <si>
+    <t>Does ${hm_name} know their date of birth?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../date_of_birth, 'yes')
+</t>
+  </si>
+  <si>
+    <t>selected(../date_of_birth, 'no')</t>
+  </si>
+  <si>
+    <t>selected(../knows_dob, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../knows_dob,  'no')</t>
+  </si>
+  <si>
+    <t>selected(../health_insurance, 'other')</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -831,17 +834,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1613,10 +1605,10 @@
   <dimension ref="A1:Y1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1642,13 +1634,13 @@
         <v>22</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>76</v>
@@ -1676,13 +1668,13 @@
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A2" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -1709,13 +1701,13 @@
     </row>
     <row r="3" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A3" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1742,13 +1734,13 @@
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A4" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -1775,13 +1767,13 @@
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A5" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -1808,7 +1800,7 @@
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A6" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1837,7 +1829,7 @@
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A7" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1866,13 +1858,13 @@
     </row>
     <row r="8" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A8" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -2016,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2053,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2152,7 +2144,7 @@
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A16" s="38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -2181,13 +2173,13 @@
     </row>
     <row r="17" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A17" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
@@ -2214,13 +2206,13 @@
     </row>
     <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A18" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -2250,17 +2242,17 @@
         <v>11</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -2284,7 +2276,7 @@
     </row>
     <row r="20" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A20" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -2313,13 +2305,13 @@
     </row>
     <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -2346,10 +2338,10 @@
     </row>
     <row r="22" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A22" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="30"/>
@@ -2377,13 +2369,13 @@
     </row>
     <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A23" s="32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2443,13 +2435,13 @@
     </row>
     <row r="25" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A25" s="32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -2488,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="31"/>
@@ -2516,16 +2508,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2550,7 +2542,7 @@
     </row>
     <row r="28" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A28" s="33" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -2579,7 +2571,7 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2608,13 +2600,13 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -2647,7 +2639,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>2</v>
@@ -2723,7 +2715,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="6" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
@@ -2925,7 +2917,7 @@
     </row>
     <row r="39" spans="1:25" ht="13.2">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -29279,268 +29271,263 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C7 A17:C24">
-    <cfRule type="expression" dxfId="65" priority="36">
+    <cfRule type="expression" dxfId="64" priority="36">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A24:C24 A20:C20">
-    <cfRule type="expression" dxfId="64" priority="37">
+    <cfRule type="expression" dxfId="63" priority="37">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C24">
-    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7 B17:B24">
-    <cfRule type="expression" dxfId="62" priority="39">
+    <cfRule type="expression" dxfId="61" priority="39">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C24">
-    <cfRule type="expression" dxfId="61" priority="41">
+    <cfRule type="expression" dxfId="60" priority="41">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A24:C24 A20:C20">
-    <cfRule type="expression" dxfId="60" priority="42">
+    <cfRule type="expression" dxfId="59" priority="42">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A2:A7 A17:A24">
-    <cfRule type="containsText" dxfId="59" priority="46" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C24">
-    <cfRule type="expression" dxfId="58" priority="36">
+    <cfRule type="expression" dxfId="57" priority="47">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A24">
-    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="56" priority="47">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="55" priority="48">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="54" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="53" priority="50">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="52" priority="51">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="containsText" dxfId="48" priority="66" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="47" priority="66" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="47" priority="67">
+    <cfRule type="expression" dxfId="46" priority="67">
       <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="46" priority="68">
+    <cfRule type="expression" dxfId="45" priority="68">
       <formula>AND($A25="end group", $B25 = "", $C25 = "", $E25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $N25 = "", $O25 = "", $P25 = "", $R25 = "", $S25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="cellIs" dxfId="45" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="43" priority="71">
+    <cfRule type="expression" dxfId="42" priority="71">
       <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="42" priority="72">
+    <cfRule type="expression" dxfId="41" priority="72">
       <formula>AND($A25="end repeat", $B25 = "", $C25 = "", $E25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $N25 = "", $O25 = "", $P25 = "", $R25 = "", $S25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="41" priority="56" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="40" priority="57">
+    <cfRule type="expression" dxfId="39" priority="57">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="39" priority="58">
+    <cfRule type="expression" dxfId="38" priority="58">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="37" priority="60">
+    <cfRule type="expression" dxfId="36" priority="60">
       <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $C26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="36" priority="61">
+    <cfRule type="expression" dxfId="35" priority="61">
       <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $B26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="35" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" dxfId="33" priority="64">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="33" priority="65">
+    <cfRule type="expression" dxfId="32" priority="65">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="27" priority="34">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="26" priority="35">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="20" priority="27">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A30">
-    <cfRule type="cellIs" dxfId="13" priority="-1" operator="equal">
-      <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
@@ -29898,7 +29885,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>2</v>
@@ -29909,7 +29896,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -29920,7 +29907,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>2</v>
@@ -29931,7 +29918,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>9</v>
@@ -30002,7 +29989,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-21 14-06</v>
+        <v>2022-09-22 15-19</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>selected(../health_insurance, 'other')</t>
+  </si>
+  <si>
+    <t>Family Members</t>
   </si>
 </sst>
 </file>
@@ -1605,10 +1608,10 @@
   <dimension ref="A1:Y1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2343,7 +2346,9 @@
       <c r="B22" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="32" t="s">
+        <v>125</v>
+      </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -29989,7 +29994,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-22 15-19</v>
+        <v>2022-09-22 15-33</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="127">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -337,9 +337,6 @@
     <t>house_contact_name</t>
   </si>
   <si>
-    <t>hh_child</t>
-  </si>
-  <si>
     <t>add_family</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
   </si>
   <si>
     <t>hm_age</t>
-  </si>
-  <si>
-    <t>select_one hh_child</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -368,9 +362,6 @@
   </si>
   <si>
     <t>Family Member Name</t>
-  </si>
-  <si>
-    <t>selected(../hh_child, 'yes')</t>
   </si>
   <si>
     <t>appearance</t>
@@ -402,6 +393,18 @@
   </si>
   <si>
     <t>Family Members</t>
+  </si>
+  <si>
+    <t>Do you want to register the household members now?</t>
+  </si>
+  <si>
+    <t>select_one house_member</t>
+  </si>
+  <si>
+    <t>select_one register_house_member</t>
+  </si>
+  <si>
+    <t>selected(../register_house_member, 'yes')</t>
   </si>
 </sst>
 </file>
@@ -1605,22 +1608,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1014"/>
+  <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
@@ -1643,7 +1646,7 @@
         <v>82</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>76</v>
@@ -2011,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2048,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2207,12 +2210,12 @@
       <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
     </row>
-    <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
+    <row r="18" spans="1:25" s="25" customFormat="1" ht="26.4">
       <c r="A18" s="32" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>92</v>
@@ -2241,22 +2244,18 @@
       <c r="Y18" s="26"/>
     </row>
     <row r="19" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A19" s="28" t="s">
-        <v>11</v>
+      <c r="A19" s="32" t="s">
+        <v>124</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>105</v>
+      <c r="B19" s="32" t="s">
+        <v>38</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>87</v>
+      <c r="C19" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="26"/>
@@ -2278,14 +2277,22 @@
       <c r="Y19" s="26"/>
     </row>
     <row r="20" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A20" s="32" t="s">
-        <v>88</v>
+      <c r="A20" s="28" t="s">
+        <v>11</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="E20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="26"/>
@@ -2308,14 +2315,10 @@
     </row>
     <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -2340,14 +2343,14 @@
       <c r="Y21" s="26"/>
     </row>
     <row r="22" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A22" s="33" t="s">
-        <v>90</v>
+      <c r="A22" s="32" t="s">
+        <v>83</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>86</v>
+      <c r="B22" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -2373,14 +2376,14 @@
       <c r="Y22" s="26"/>
     </row>
     <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A23" s="32" t="s">
-        <v>91</v>
+      <c r="A23" s="33" t="s">
+        <v>90</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>118</v>
+      <c r="B23" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2407,13 +2410,13 @@
     </row>
     <row r="24" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A24" s="32" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2440,54 +2443,50 @@
     </row>
     <row r="25" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A25" s="32" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
     </row>
     <row r="26" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A26" s="32" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="44"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="1"/>
@@ -2510,19 +2509,19 @@
     </row>
     <row r="27" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A27" s="32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2545,17 +2544,25 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A28" s="33" t="s">
-        <v>110</v>
+    <row r="28" spans="1:25" s="25" customFormat="1" ht="13.2">
+      <c r="A28" s="32" t="s">
+        <v>7</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="B28" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2576,7 +2583,7 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="33" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2605,14 +2612,10 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>111</v>
-      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -2636,57 +2639,53 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="13.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:25" s="12" customFormat="1" ht="13.2">
+      <c r="A31" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" ht="13.2">
+      <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-    </row>
-    <row r="32" spans="1:25" ht="13.2">
-      <c r="A32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
       <c r="H32" s="22"/>
@@ -2710,17 +2709,19 @@
     </row>
     <row r="33" spans="1:25" ht="13.2">
       <c r="A33" s="6" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
+      <c r="C33" s="5" t="s">
+        <v>74</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="E33" s="6" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
@@ -2745,55 +2746,55 @@
     </row>
     <row r="34" spans="1:25" ht="13.2">
       <c r="A34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+    </row>
+    <row r="35" spans="1:25" ht="13.2">
+      <c r="A35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-    </row>
-    <row r="35" spans="1:25" ht="13.2">
-      <c r="A35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="18"/>
       <c r="H35" s="21"/>
@@ -2817,19 +2818,19 @@
     </row>
     <row r="36" spans="1:25" ht="13.2">
       <c r="A36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>70</v>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="18"/>
       <c r="H36" s="21"/>
       <c r="I36" s="1"/>
@@ -2852,19 +2853,19 @@
     </row>
     <row r="37" spans="1:25" ht="13.2">
       <c r="A37" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>44</v>
+      <c r="B37" s="3" t="s">
+        <v>43</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>71</v>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="18"/>
       <c r="H37" s="21"/>
       <c r="I37" s="1"/>
@@ -2887,19 +2888,19 @@
     </row>
     <row r="38" spans="1:25" ht="13.2">
       <c r="A38" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>45</v>
+      <c r="B38" s="10" t="s">
+        <v>44</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>72</v>
+      <c r="C38" s="9" t="s">
+        <v>71</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="18"/>
       <c r="H38" s="21"/>
       <c r="I38" s="1"/>
@@ -2921,16 +2922,22 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.2">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
+      <c r="A39" s="6" t="s">
+        <v>61</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="21"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2950,7 +2957,9 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -29274,170 +29283,197 @@
       <c r="X1014" s="1"/>
       <c r="Y1014" s="1"/>
     </row>
+    <row r="1015" spans="1:25" ht="13.2">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="1"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1"/>
+      <c r="I1015" s="1"/>
+      <c r="J1015" s="1"/>
+      <c r="K1015" s="1"/>
+      <c r="L1015" s="1"/>
+      <c r="M1015" s="1"/>
+      <c r="N1015" s="1"/>
+      <c r="O1015" s="1"/>
+      <c r="P1015" s="1"/>
+      <c r="Q1015" s="1"/>
+      <c r="R1015" s="1"/>
+      <c r="S1015" s="1"/>
+      <c r="T1015" s="1"/>
+      <c r="U1015" s="1"/>
+      <c r="V1015" s="1"/>
+      <c r="W1015" s="1"/>
+      <c r="X1015" s="1"/>
+      <c r="Y1015" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C24">
+  <conditionalFormatting sqref="A2:C7 A17:C25">
     <cfRule type="expression" dxfId="64" priority="36">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A24:C24 A20:C20">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
     <cfRule type="expression" dxfId="63" priority="37">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C24">
+  <conditionalFormatting sqref="A2:C7 A17:C25">
     <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17:B24">
+  <conditionalFormatting sqref="B2:B7 B17:B25">
     <cfRule type="expression" dxfId="61" priority="39">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C24">
+  <conditionalFormatting sqref="A2:C7 A17:C25">
     <cfRule type="expression" dxfId="60" priority="41">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A24:C24 A20:C20">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
     <cfRule type="expression" dxfId="59" priority="42">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27 A2:A7 A17:A24">
+  <conditionalFormatting sqref="A28 A2:A7 A17:A25">
     <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7 C17:C24">
+  <conditionalFormatting sqref="C2:C7 C17:C25">
     <cfRule type="expression" dxfId="57" priority="47">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7 A17:A24">
+  <conditionalFormatting sqref="A2:A7 A17:A25">
     <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="55" priority="49">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="54" priority="50">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="49" priority="55">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="containsText" dxfId="47" priority="66" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="46" priority="67">
+      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="45" priority="68">
+      <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="42" priority="71">
+      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:C26">
+    <cfRule type="expression" dxfId="41" priority="72">
+      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="39" priority="57">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="38" priority="58">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="36" priority="60">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="35" priority="61">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="33" priority="64">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="32" priority="65">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="containsText" dxfId="47" priority="66" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="46" priority="67">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="45" priority="68">
-      <formula>AND($A25="end group", $B25 = "", $C25 = "", $E25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $N25 = "", $O25 = "", $P25 = "", $R25 = "", $S25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="42" priority="71">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="41" priority="72">
-      <formula>AND($A25="end repeat", $B25 = "", $C25 = "", $E25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $N25 = "", $O25 = "", $P25 = "", $R25 = "", $S25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="39" priority="57">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="38" priority="58">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="36" priority="60">
-      <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $C26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="35" priority="61">
-      <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $B26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="33" priority="64">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="32" priority="65">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
@@ -29505,99 +29541,99 @@
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A29:A30">
     <cfRule type="expression" dxfId="18" priority="8">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A29:A30">
     <cfRule type="expression" dxfId="17" priority="9">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A29:A30">
     <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A29:A30">
     <cfRule type="expression" dxfId="15" priority="11">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A29:A30">
     <cfRule type="expression" dxfId="14" priority="12">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A29">
+  <conditionalFormatting sqref="A29:A30">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="12" priority="183">
-      <formula>COUNTIF($B$2:$B$1095,B8)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B24 B26:B27">
+  <conditionalFormatting sqref="B17:B25 B27:B28">
     <cfRule type="expression" dxfId="11" priority="184">
-      <formula>COUNTIF($B$9:$B$1102,B17)&gt;1</formula>
+      <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
     <cfRule type="expression" dxfId="10" priority="187">
-      <formula>COUNTIF($B$2:$B$1094,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19 A21:C23">
+  <conditionalFormatting sqref="A20:C20 A22:C24">
     <cfRule type="expression" dxfId="9" priority="190">
-      <formula>AND($A19="end group", $B19 = "", $C19 = "", #REF! = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+      <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19 A21:C23">
+  <conditionalFormatting sqref="A20:C20 A22:C24">
     <cfRule type="expression" dxfId="8" priority="193">
-      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", #REF! = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="6" priority="2">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C18">
+  <conditionalFormatting sqref="A18:C19">
     <cfRule type="expression" dxfId="1" priority="215">
-      <formula>AND($A18="end group", $B18 = "", $C18 = "", $E19 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+      <formula>AND($A18="end group", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C18">
+  <conditionalFormatting sqref="A18:C19">
     <cfRule type="expression" dxfId="0" priority="216">
-      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E19 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29609,8 +29645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -29911,26 +29947,12 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29994,7 +30016,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-22 15-33</v>
+        <v>2022-10-03 15-25</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -262,9 +262,6 @@
     <t>constraint_message</t>
   </si>
   <si>
-    <t>selected(../house_member, 'no')</t>
-  </si>
-  <si>
     <t>selected(../health_insurance, 'yes')</t>
   </si>
   <si>
@@ -404,7 +401,10 @@
     <t>select_one register_house_member</t>
   </si>
   <si>
-    <t>selected(../register_house_member, 'yes')</t>
+    <t>selected(../house_member, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../register_house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="74">
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -723,6 +723,102 @@
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1611,10 +1707,10 @@
   <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1622,7 +1718,7 @@
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
@@ -1640,13 +1736,13 @@
         <v>22</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>82</v>
-      </c>
       <c r="F1" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>76</v>
@@ -1674,13 +1770,13 @@
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A2" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -1707,13 +1803,13 @@
     </row>
     <row r="3" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A3" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1740,13 +1836,13 @@
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A4" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -1773,13 +1869,13 @@
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A5" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -1806,7 +1902,7 @@
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A6" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1835,7 +1931,7 @@
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A7" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1864,13 +1960,13 @@
     </row>
     <row r="8" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A8" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -2014,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2051,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2150,7 +2246,7 @@
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A16" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -2179,13 +2275,13 @@
     </row>
     <row r="17" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A17" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="29" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>85</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
@@ -2210,15 +2306,15 @@
       <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
     </row>
-    <row r="18" spans="1:25" s="25" customFormat="1" ht="26.4">
+    <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A18" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -2243,15 +2339,15 @@
       <c r="X18" s="26"/>
       <c r="Y18" s="26"/>
     </row>
-    <row r="19" spans="1:25" s="25" customFormat="1" ht="13.2">
+    <row r="19" spans="1:25" s="25" customFormat="1" ht="26.4">
       <c r="A19" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>38</v>
+      <c r="B19" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -2281,17 +2377,17 @@
         <v>11</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -2315,7 +2411,7 @@
     </row>
     <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -2344,13 +2440,13 @@
     </row>
     <row r="22" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A22" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -2377,13 +2473,13 @@
     </row>
     <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A23" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2410,13 +2506,13 @@
     </row>
     <row r="24" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A24" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2476,13 +2572,13 @@
     </row>
     <row r="26" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A26" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2521,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2549,16 +2645,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="31"/>
@@ -2583,7 +2679,7 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2612,7 +2708,7 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -2641,13 +2737,13 @@
     </row>
     <row r="31" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A31" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -2680,12 +2776,14 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
       <c r="H32" s="22"/>
@@ -2721,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="19"/>
@@ -2756,7 +2854,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
@@ -2791,9 +2889,6 @@
       </c>
       <c r="D35" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="18"/>
@@ -2958,7 +3053,7 @@
     </row>
     <row r="40" spans="1:25" ht="13.2">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -29311,329 +29406,374 @@
       <c r="Y1015" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C25">
-    <cfRule type="expression" dxfId="64" priority="36">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C25">
+    <cfRule type="expression" dxfId="73" priority="36">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="63" priority="37">
+    <cfRule type="expression" dxfId="72" priority="37">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C25">
-    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A20:C25 A19 C19 A17:C18">
+    <cfRule type="cellIs" dxfId="71" priority="38" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17:B25">
-    <cfRule type="expression" dxfId="61" priority="39">
+  <conditionalFormatting sqref="B2:B7 B17 B20:B25">
+    <cfRule type="expression" dxfId="70" priority="39">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C25">
-    <cfRule type="expression" dxfId="60" priority="41">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C25">
+    <cfRule type="expression" dxfId="69" priority="41">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="59" priority="42">
+    <cfRule type="expression" dxfId="68" priority="42">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28 A2:A7 A17:A25">
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="67" priority="46" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C25">
-    <cfRule type="expression" dxfId="57" priority="47">
+    <cfRule type="expression" dxfId="66" priority="47">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A25">
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="48" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="64" priority="49">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="63" priority="50">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="61" priority="52">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="60" priority="53">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="58" priority="55">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="57" priority="56">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="47" priority="66" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="56" priority="66" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="46" priority="67">
+    <cfRule type="expression" dxfId="55" priority="67">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="45" priority="68">
+    <cfRule type="expression" dxfId="54" priority="68">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="69" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="70" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="42" priority="71">
+    <cfRule type="expression" dxfId="51" priority="71">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="41" priority="72">
+    <cfRule type="expression" dxfId="50" priority="72">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="49" priority="73" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="39" priority="57">
+    <cfRule type="expression" dxfId="48" priority="57">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="38" priority="58">
+    <cfRule type="expression" dxfId="47" priority="58">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="37" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="36" priority="60">
+    <cfRule type="expression" dxfId="45" priority="60">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="35" priority="61">
+    <cfRule type="expression" dxfId="44" priority="61">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="62" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="33" priority="64">
+    <cfRule type="expression" dxfId="42" priority="64">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="32" priority="65">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="38" priority="31">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="26" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="33" priority="22">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="30" priority="25">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="24" priority="11">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="23" priority="12">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="12" priority="183">
+    <cfRule type="expression" dxfId="21" priority="183">
       <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B25 B27:B28">
-    <cfRule type="expression" dxfId="11" priority="184">
+  <conditionalFormatting sqref="B27:B28 B20:B25 B17:B18">
+    <cfRule type="expression" dxfId="20" priority="184">
       <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="10" priority="187">
+    <cfRule type="expression" dxfId="19" priority="187">
       <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 A22:C24">
-    <cfRule type="expression" dxfId="9" priority="190">
+    <cfRule type="expression" dxfId="18" priority="190">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 A22:C24">
-    <cfRule type="expression" dxfId="8" priority="193">
+    <cfRule type="expression" dxfId="17" priority="193">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C19">
-    <cfRule type="expression" dxfId="1" priority="215">
-      <formula>AND($A18="end group", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="10" priority="218">
+      <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C19">
-    <cfRule type="expression" dxfId="0" priority="216">
-      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+  <conditionalFormatting sqref="A18:A19 C18:C19">
+    <cfRule type="expression" dxfId="9" priority="219">
+      <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="8" priority="224">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="7" priority="226">
+      <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A19 C18:C19">
+    <cfRule type="expression" dxfId="6" priority="227">
+      <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="5" priority="236">
+      <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="4" priority="237">
+      <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="3" priority="238">
+      <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="2" priority="240">
+      <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="1" priority="241">
+      <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 C18">
+    <cfRule type="expression" dxfId="0" priority="242">
+      <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29645,7 +29785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -29926,7 +30066,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>2</v>
@@ -29937,7 +30077,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -30016,7 +30156,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-03 15-25</v>
+        <v>2022-10-05 19-35</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -280,9 +280,6 @@
     <t>Other Household Members</t>
   </si>
   <si>
-    <t>child</t>
-  </si>
-  <si>
     <t>_Please follow the steps on the next page to add other family members._</t>
   </si>
   <si>
@@ -405,6 +402,9 @@
   </si>
   <si>
     <t>selected(../register_house_member, 'no')</t>
+  </si>
+  <si>
+    <t>hh_member</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,78 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1707,10 +1778,10 @@
   <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18:B19"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1742,7 +1813,7 @@
         <v>81</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>76</v>
@@ -1773,10 +1844,10 @@
         <v>82</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -1806,10 +1877,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1836,13 +1907,13 @@
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A4" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -1869,13 +1940,13 @@
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A5" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -1902,7 +1973,7 @@
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A6" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -1931,7 +2002,7 @@
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A7" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -1963,10 +2034,10 @@
         <v>82</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -2110,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="42"/>
@@ -2147,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="40" t="s">
@@ -2246,7 +2317,7 @@
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A16" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -2308,13 +2379,13 @@
     </row>
     <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A18" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -2341,13 +2412,13 @@
     </row>
     <row r="19" spans="1:25" s="25" customFormat="1" ht="26.4">
       <c r="A19" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -2377,17 +2448,17 @@
         <v>11</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -2411,7 +2482,7 @@
     </row>
     <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -2443,10 +2514,10 @@
         <v>82</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -2473,13 +2544,13 @@
     </row>
     <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A23" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2506,13 +2577,13 @@
     </row>
     <row r="24" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A24" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2572,13 +2643,13 @@
     </row>
     <row r="26" spans="1:25" s="25" customFormat="1" ht="13.2">
       <c r="A26" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2617,7 +2688,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="31"/>
@@ -2645,16 +2716,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="31"/>
@@ -2679,7 +2750,7 @@
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
@@ -2708,7 +2779,7 @@
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
       <c r="A30" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
@@ -2740,10 +2811,10 @@
         <v>82</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -2776,13 +2847,13 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="19"/>
@@ -2854,7 +2925,7 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="19"/>
@@ -3053,7 +3124,7 @@
     </row>
     <row r="40" spans="1:25" ht="13.2">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -29406,374 +29477,409 @@
       <c r="Y1015" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C25">
-    <cfRule type="expression" dxfId="73" priority="36">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 A23 C23">
+    <cfRule type="expression" dxfId="80" priority="43">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="72" priority="37">
+    <cfRule type="expression" dxfId="79" priority="44">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A20:C25 A19 C19 A17:C18">
-    <cfRule type="cellIs" dxfId="71" priority="38" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A17:C18 A24:C25 A23 C23">
+    <cfRule type="cellIs" dxfId="78" priority="45" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17 B20:B25">
-    <cfRule type="expression" dxfId="70" priority="39">
+  <conditionalFormatting sqref="B2:B7 B17 B20:B22 B24:B25">
+    <cfRule type="expression" dxfId="77" priority="46">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C25">
-    <cfRule type="expression" dxfId="69" priority="41">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 A23 C23">
+    <cfRule type="expression" dxfId="76" priority="48">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="68" priority="42">
+    <cfRule type="expression" dxfId="75" priority="49">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28 A2:A7 A17:A25">
-    <cfRule type="containsText" dxfId="67" priority="46" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="74" priority="53" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C25">
-    <cfRule type="expression" dxfId="66" priority="47">
+    <cfRule type="expression" dxfId="73" priority="54">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A25">
-    <cfRule type="cellIs" dxfId="65" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="55" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="64" priority="49">
+    <cfRule type="expression" dxfId="71" priority="56">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="63" priority="50">
+    <cfRule type="expression" dxfId="70" priority="57">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="61" priority="52">
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="60" priority="53">
+    <cfRule type="expression" dxfId="67" priority="60">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="61" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="58" priority="55">
+    <cfRule type="expression" dxfId="65" priority="62">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="57" priority="56">
+    <cfRule type="expression" dxfId="64" priority="63">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="56" priority="66" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="63" priority="73" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="55" priority="67">
+    <cfRule type="expression" dxfId="62" priority="74">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="54" priority="68">
+    <cfRule type="expression" dxfId="61" priority="75">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="53" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="52" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="77" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="51" priority="71">
+    <cfRule type="expression" dxfId="58" priority="78">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="50" priority="72">
+    <cfRule type="expression" dxfId="57" priority="79">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="49" priority="73" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="48" priority="57">
+    <cfRule type="expression" dxfId="55" priority="64">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="47" priority="58">
+    <cfRule type="expression" dxfId="54" priority="65">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="66" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="45" priority="60">
+    <cfRule type="expression" dxfId="52" priority="67">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="44" priority="61">
+    <cfRule type="expression" dxfId="51" priority="68">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="43" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="69" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="42" priority="64">
+    <cfRule type="expression" dxfId="49" priority="71">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="48" priority="72">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="47" priority="36" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="38" priority="31">
+    <cfRule type="expression" dxfId="45" priority="38">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="42" priority="41">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="40" priority="29">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="30" priority="25">
+    <cfRule type="expression" dxfId="37" priority="32">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="34" priority="15">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="33" priority="16">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="31" priority="18">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="30" priority="19">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="21" priority="183">
+    <cfRule type="expression" dxfId="28" priority="190">
       <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28 B20:B25 B17:B18">
-    <cfRule type="expression" dxfId="20" priority="184">
+  <conditionalFormatting sqref="B27:B28 B20:B22 B17:B18 B24:B25">
+    <cfRule type="expression" dxfId="27" priority="191">
       <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="19" priority="187">
+    <cfRule type="expression" dxfId="26" priority="194">
       <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C24">
-    <cfRule type="expression" dxfId="18" priority="190">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 A23 C23">
+    <cfRule type="expression" dxfId="25" priority="197">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C24">
-    <cfRule type="expression" dxfId="17" priority="193">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 A23 C23">
+    <cfRule type="expression" dxfId="24" priority="200">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="10" priority="218">
+    <cfRule type="expression" dxfId="17" priority="225">
       <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="9" priority="219">
+    <cfRule type="expression" dxfId="16" priority="226">
       <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="8" priority="224">
+    <cfRule type="expression" dxfId="15" priority="231">
       <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="7" priority="226">
+    <cfRule type="expression" dxfId="14" priority="233">
       <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="6" priority="227">
+    <cfRule type="expression" dxfId="13" priority="234">
       <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="5" priority="236">
+    <cfRule type="expression" dxfId="12" priority="243">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="4" priority="237">
+    <cfRule type="expression" dxfId="11" priority="244">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="3" priority="238">
+    <cfRule type="expression" dxfId="10" priority="245">
       <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="2" priority="240">
+    <cfRule type="expression" dxfId="9" priority="247">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="1" priority="241">
+    <cfRule type="expression" dxfId="8" priority="248">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="0" priority="242">
+    <cfRule type="expression" dxfId="7" priority="249">
       <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>COUNTIF($B$9:$B$1103,B23)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30066,7 +30172,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>2</v>
@@ -30077,7 +30183,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -30156,7 +30262,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 19-35</v>
+        <v>2022-10-05 19-55</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -289,9 +289,6 @@
     <t>repeat</t>
   </si>
   <si>
-    <t>begin repeat</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
   </si>
   <si>
     <t>hm_age</t>
-  </si>
-  <si>
-    <t>end repeat</t>
   </si>
   <si>
     <t>Health Insurance</t>
@@ -405,6 +399,12 @@
   </si>
   <si>
     <t>hh_member</t>
+  </si>
+  <si>
+    <t>begin_repeat</t>
+  </si>
+  <si>
+    <t>end_repeat</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,18 +515,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -614,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -646,14 +634,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -664,51 +650,194 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1778,10 +1907,10 @@
   <dimension ref="A1:Y1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1790,35 +1919,35 @@
     <col min="2" max="2" width="25.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>111</v>
+      <c r="F1" s="25" t="s">
+        <v>109</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I1" s="1"/>
@@ -1840,20 +1969,20 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1873,20 +2002,20 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1906,20 +2035,20 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A4" s="28" t="s">
-        <v>89</v>
+      <c r="A4" s="26" t="s">
+        <v>88</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1939,20 +2068,20 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A5" s="28" t="s">
-        <v>89</v>
+      <c r="A5" s="26" t="s">
+        <v>88</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>99</v>
+      <c r="C5" s="26" t="s">
+        <v>98</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1972,16 +2101,16 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2001,16 +2130,16 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2030,20 +2159,20 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="C8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2063,22 +2192,22 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2098,22 +2227,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2133,22 +2262,22 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="40"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2168,24 +2297,24 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>115</v>
+      <c r="E12" s="42" t="s">
+        <v>113</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2205,26 +2334,26 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="13.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>116</v>
+      <c r="E13" s="42" t="s">
+        <v>114</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="40" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="1"/>
@@ -2246,22 +2375,22 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="13.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2281,22 +2410,22 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="13.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2316,16 +2445,16 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2344,318 +2473,318 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A17" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-    </row>
-    <row r="18" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A18" s="32" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+    </row>
+    <row r="18" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A18" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+    </row>
+    <row r="19" spans="1:25" s="23" customFormat="1" ht="26.4">
+      <c r="A19" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+    </row>
+    <row r="20" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>38</v>
+      <c r="F20" s="4" t="s">
+        <v>110</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+    </row>
+    <row r="21" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+    </row>
+    <row r="22" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A22" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+    </row>
+    <row r="23" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A23" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+    </row>
+    <row r="24" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A24" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+    </row>
+    <row r="25" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A25" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+    </row>
+    <row r="26" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A26" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-    </row>
-    <row r="19" spans="1:25" s="25" customFormat="1" ht="26.4">
-      <c r="A19" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-    </row>
-    <row r="20" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="C26" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-    </row>
-    <row r="21" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A21" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-    </row>
-    <row r="22" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A22" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-    </row>
-    <row r="23" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A23" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-    </row>
-    <row r="24" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A24" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-    </row>
-    <row r="25" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A25" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-    </row>
-    <row r="26" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A26" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2674,25 +2803,25 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="44" t="s">
-        <v>117</v>
+      <c r="E27" s="42" t="s">
+        <v>115</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2711,25 +2840,25 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" s="25" customFormat="1" ht="13.2">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:25" s="23" customFormat="1" ht="13.2">
+      <c r="A28" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>105</v>
+      <c r="B28" s="30" t="s">
+        <v>104</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>92</v>
+      <c r="C28" s="30" t="s">
+        <v>91</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="44" t="s">
-        <v>118</v>
+      <c r="E28" s="42" t="s">
+        <v>116</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2749,16 +2878,16 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A29" s="33" t="s">
-        <v>106</v>
+      <c r="A29" s="31" t="s">
+        <v>126</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2778,16 +2907,16 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2807,20 +2936,20 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>108</v>
+      <c r="B31" s="21" t="s">
+        <v>106</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>107</v>
+      <c r="C31" s="22" t="s">
+        <v>105</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2847,17 +2976,17 @@
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>125</v>
+      <c r="E32" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="22"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -2893,8 +3022,8 @@
         <v>79</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="22"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2925,11 +3054,11 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="22"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -2961,9 +3090,10 @@
       <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="21"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2983,7 +3113,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="13.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2997,8 +3127,8 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="21"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3018,7 +3148,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3032,8 +3162,8 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="21"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3053,7 +3183,7 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="13.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -3067,8 +3197,8 @@
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="21"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3088,7 +3218,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3102,8 +3232,8 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="21"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -29477,409 +29607,474 @@
       <c r="Y1015" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 A23 C23">
-    <cfRule type="expression" dxfId="80" priority="43">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
+    <cfRule type="expression" dxfId="93" priority="56">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="79" priority="44">
+    <cfRule type="expression" dxfId="92" priority="57">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A17:C18 A24:C25 A23 C23">
-    <cfRule type="cellIs" dxfId="78" priority="45" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A17:C18 A24:C25 C23">
+    <cfRule type="cellIs" dxfId="91" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7 B17 B20:B22 B24:B25">
-    <cfRule type="expression" dxfId="77" priority="46">
+    <cfRule type="expression" dxfId="90" priority="59">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 A23 C23">
-    <cfRule type="expression" dxfId="76" priority="48">
+  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
+    <cfRule type="expression" dxfId="89" priority="61">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="75" priority="49">
+    <cfRule type="expression" dxfId="88" priority="62">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28 A2:A7 A17:A25">
-    <cfRule type="containsText" dxfId="74" priority="53" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A28 A2:A7 A17:A22 A24:A25">
+    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C25">
-    <cfRule type="expression" dxfId="73" priority="54">
+    <cfRule type="expression" dxfId="86" priority="67">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7 A17:A25">
-    <cfRule type="cellIs" dxfId="72" priority="55" operator="equal">
+  <conditionalFormatting sqref="A2:A7 A17:A22 A24:A25">
+    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="71" priority="56">
+    <cfRule type="expression" dxfId="84" priority="69">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="70" priority="57">
+    <cfRule type="expression" dxfId="83" priority="70">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="69" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="68" priority="59">
+    <cfRule type="expression" dxfId="81" priority="72">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="67" priority="60">
+    <cfRule type="expression" dxfId="80" priority="73">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="66" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="65" priority="62">
+    <cfRule type="expression" dxfId="78" priority="75">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="64" priority="63">
+    <cfRule type="expression" dxfId="77" priority="76">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="63" priority="73" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="76" priority="86" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="62" priority="74">
+    <cfRule type="expression" dxfId="75" priority="87">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="61" priority="75">
+    <cfRule type="expression" dxfId="74" priority="88">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="89" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="59" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="58" priority="78">
+    <cfRule type="expression" dxfId="71" priority="91">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="57" priority="79">
+    <cfRule type="expression" dxfId="70" priority="92">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="69" priority="93" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="55" priority="64">
+    <cfRule type="expression" dxfId="68" priority="77">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="54" priority="65">
+    <cfRule type="expression" dxfId="67" priority="78">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="53" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="52" priority="67">
+    <cfRule type="expression" dxfId="65" priority="80">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="51" priority="68">
+    <cfRule type="expression" dxfId="64" priority="81">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="50" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="49" priority="71">
+    <cfRule type="expression" dxfId="62" priority="84">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="48" priority="72">
+    <cfRule type="expression" dxfId="61" priority="85">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="47" priority="36" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="46" priority="37">
+    <cfRule type="expression" dxfId="59" priority="50">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="45" priority="38">
+    <cfRule type="expression" dxfId="58" priority="51">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="42" priority="41">
+    <cfRule type="expression" dxfId="55" priority="54">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="40" priority="29">
+    <cfRule type="expression" dxfId="53" priority="42">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="52" priority="43">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="37" priority="32">
+    <cfRule type="expression" dxfId="50" priority="45">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="49" priority="47">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="34" priority="15">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="47" priority="28">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="33" priority="16">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="46" priority="29">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="31" priority="18">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="44" priority="31">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="30" priority="19">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="43" priority="32">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30">
-    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="28" priority="190">
+    <cfRule type="expression" dxfId="41" priority="203">
       <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28 B20:B22 B17:B18 B24:B25">
-    <cfRule type="expression" dxfId="27" priority="191">
+    <cfRule type="expression" dxfId="40" priority="204">
       <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="26" priority="194">
+    <cfRule type="expression" dxfId="39" priority="207">
       <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 A23 C23">
-    <cfRule type="expression" dxfId="25" priority="197">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
+    <cfRule type="expression" dxfId="38" priority="210">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 A23 C23">
-    <cfRule type="expression" dxfId="24" priority="200">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
+    <cfRule type="expression" dxfId="37" priority="213">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="35" priority="22">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="17" priority="225">
+    <cfRule type="expression" dxfId="30" priority="238">
       <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="16" priority="226">
+    <cfRule type="expression" dxfId="29" priority="239">
       <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="15" priority="231">
+    <cfRule type="expression" dxfId="28" priority="244">
       <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="14" priority="233">
+    <cfRule type="expression" dxfId="27" priority="246">
       <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="13" priority="234">
+    <cfRule type="expression" dxfId="26" priority="247">
       <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="12" priority="243">
+    <cfRule type="expression" dxfId="25" priority="256">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="11" priority="244">
+    <cfRule type="expression" dxfId="24" priority="257">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="10" priority="245">
+    <cfRule type="expression" dxfId="23" priority="258">
       <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="9" priority="247">
+    <cfRule type="expression" dxfId="22" priority="260">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="8" priority="248">
+    <cfRule type="expression" dxfId="21" priority="261">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="7" priority="249">
+    <cfRule type="expression" dxfId="20" priority="262">
       <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>COUNTIF($B$9:$B$1103,B23)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29892,7 +30087,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -30172,7 +30367,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>2</v>
@@ -30183,7 +30378,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
@@ -30210,7 +30405,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -30262,7 +30457,7 @@
       </c>
       <c r="C2" s="14" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 19-55</v>
+        <v>2022-10-05 22-46</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="117">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -196,21 +196,6 @@
     <t>select_one health_insurance_cover</t>
   </si>
   <si>
-    <t>select_one latrine</t>
-  </si>
-  <si>
-    <t>select_one handwashing_basin</t>
-  </si>
-  <si>
-    <t>select_one safe_water</t>
-  </si>
-  <si>
-    <t>select_one treated_water</t>
-  </si>
-  <si>
-    <t>select_one refuse_disposal</t>
-  </si>
-  <si>
     <t>allow_choice_duplicates</t>
   </si>
   <si>
@@ -227,21 +212,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household have a functional latrine?</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household have functional handwashing facilities?</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household have access to safe water?</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household use treated water?</t>
-  </si>
-  <si>
-    <t>Does ${house_name} household have functional refuse disposal facility?</t>
   </si>
   <si>
     <t>Does ${house_name} know their date of birth</t>
@@ -480,7 +450,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,12 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8AF"/>
-        <bgColor rgb="FFE6B8AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,12 +497,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -602,15 +560,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -618,13 +570,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -633,13 +578,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -650,51 +594,152 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFB7B7B7"/>
@@ -857,14 +902,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1112,30 +1149,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCFE2F3"/>
           <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1904,51 +1917,51 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y1015"/>
+  <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>80</v>
+      <c r="D1" s="19" t="s">
+        <v>70</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>81</v>
+      <c r="E1" s="19" t="s">
+        <v>71</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>109</v>
+      <c r="F1" s="19" t="s">
+        <v>99</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>76</v>
+      <c r="G1" s="19" t="s">
+        <v>66</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>78</v>
+      <c r="H1" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1968,21 +1981,21 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>92</v>
+      <c r="C2" s="20" t="s">
+        <v>83</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2001,21 +2014,21 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A3" s="26" t="s">
-        <v>82</v>
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A3" s="20" t="s">
+        <v>72</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>94</v>
+      <c r="B3" s="20" t="s">
+        <v>84</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>95</v>
+      <c r="C3" s="20" t="s">
+        <v>85</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2034,21 +2047,21 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A4" s="26" t="s">
-        <v>88</v>
+    <row r="4" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A4" s="20" t="s">
+        <v>78</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>96</v>
+      <c r="B4" s="20" t="s">
+        <v>86</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>97</v>
+      <c r="C4" s="20" t="s">
+        <v>87</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2067,21 +2080,21 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2100,17 +2113,17 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A6" s="26" t="s">
-        <v>86</v>
+    <row r="6" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A6" s="20" t="s">
+        <v>76</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2129,17 +2142,17 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A7" s="26" t="s">
-        <v>86</v>
+    <row r="7" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A7" s="20" t="s">
+        <v>76</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2158,21 +2171,21 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A8" s="33" t="s">
-        <v>82</v>
+    <row r="8" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A8" s="27" t="s">
+        <v>72</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>100</v>
+      <c r="B8" s="27" t="s">
+        <v>90</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>99</v>
+      <c r="C8" s="28" t="s">
+        <v>89</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2192,22 +2205,22 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2227,22 +2240,22 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2262,22 +2275,22 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>73</v>
+      <c r="C11" s="31" t="s">
+        <v>63</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="38"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2297,24 +2310,24 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="19.2" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>113</v>
+      <c r="E12" s="36" t="s">
+        <v>103</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="38"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2334,27 +2347,27 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="13.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>114</v>
+      <c r="E13" s="36" t="s">
+        <v>104</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="38" t="s">
-        <v>77</v>
+      <c r="F13" s="36"/>
+      <c r="G13" s="32" t="s">
+        <v>67</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>75</v>
+      <c r="H13" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2375,22 +2388,22 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="13.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2410,22 +2423,22 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="13.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2444,17 +2457,17 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A16" s="36" t="s">
-        <v>86</v>
+    <row r="16" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A16" s="30" t="s">
+        <v>76</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2473,318 +2486,318 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A17" s="27" t="s">
-        <v>82</v>
+    <row r="17" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A17" s="21" t="s">
+        <v>72</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>83</v>
+      <c r="B17" s="21" t="s">
+        <v>73</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>84</v>
+      <c r="C17" s="21" t="s">
+        <v>74</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-    </row>
-    <row r="18" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A18" s="30" t="s">
-        <v>120</v>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+    </row>
+    <row r="18" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A18" s="24" t="s">
+        <v>110</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>89</v>
+      <c r="C18" s="24" t="s">
+        <v>79</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-    </row>
-    <row r="19" spans="1:25" s="23" customFormat="1" ht="26.4">
-      <c r="A19" s="30" t="s">
-        <v>121</v>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+    </row>
+    <row r="19" spans="1:25" s="17" customFormat="1" ht="26.4">
+      <c r="A19" s="24" t="s">
+        <v>111</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>119</v>
+      <c r="C19" s="24" t="s">
+        <v>109</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-    </row>
-    <row r="20" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A20" s="26" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+    </row>
+    <row r="20" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+    </row>
+    <row r="21" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+    </row>
+    <row r="22" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+    </row>
+    <row r="23" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A23" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+    </row>
+    <row r="24" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A24" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>85</v>
+      <c r="C24" s="24" t="s">
+        <v>98</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="4" t="s">
-        <v>122</v>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+    </row>
+    <row r="25" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A25" s="24" t="s">
+        <v>53</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>110</v>
+      <c r="B25" s="24" t="s">
+        <v>29</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-    </row>
-    <row r="21" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A21" s="30" t="s">
-        <v>86</v>
+      <c r="C25" s="24" t="s">
+        <v>3</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-    </row>
-    <row r="22" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A22" s="30" t="s">
-        <v>82</v>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+    </row>
+    <row r="26" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A26" s="24" t="s">
+        <v>93</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>87</v>
+      <c r="B26" s="24" t="s">
+        <v>80</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C26" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-    </row>
-    <row r="23" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A23" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-    </row>
-    <row r="24" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A24" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-    </row>
-    <row r="25" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-    </row>
-    <row r="26" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A26" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2803,25 +2816,25 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="42" t="s">
-        <v>115</v>
+      <c r="E27" s="36" t="s">
+        <v>105</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2840,25 +2853,25 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" s="23" customFormat="1" ht="13.2">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:25" s="17" customFormat="1" ht="13.2">
+      <c r="A28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>104</v>
+      <c r="B28" s="24" t="s">
+        <v>94</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>91</v>
+      <c r="C28" s="24" t="s">
+        <v>81</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="42" t="s">
-        <v>116</v>
+      <c r="E28" s="36" t="s">
+        <v>106</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2877,17 +2890,17 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A29" s="31" t="s">
-        <v>126</v>
+    <row r="29" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A29" s="25" t="s">
+        <v>116</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2906,17 +2919,17 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A30" s="31" t="s">
-        <v>86</v>
+    <row r="30" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A30" s="25" t="s">
+        <v>76</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2935,21 +2948,21 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" s="12" customFormat="1" ht="13.2">
-      <c r="A31" s="31" t="s">
-        <v>82</v>
+    <row r="31" spans="1:25" s="7" customFormat="1" ht="13.2">
+      <c r="A31" s="25" t="s">
+        <v>72</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>106</v>
+      <c r="B31" s="15" t="s">
+        <v>96</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>105</v>
+      <c r="C31" s="16" t="s">
+        <v>95</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2969,131 +2982,125 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="13.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="1:25" ht="13.2">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="1:25" ht="13.2">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>2</v>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+    </row>
+    <row r="35" spans="1:25" ht="13.2">
+      <c r="A35" s="24" t="s">
+        <v>76</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-    </row>
-    <row r="33" spans="1:25" ht="13.2">
-      <c r="A33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-    </row>
-    <row r="34" spans="1:25" ht="13.2">
-      <c r="A34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-    </row>
-    <row r="35" spans="1:25" ht="13.2">
-      <c r="A35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="19"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3113,22 +3120,14 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="13.2">
-      <c r="A36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="19"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3148,22 +3147,14 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="13.2">
-      <c r="A37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="19"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3183,22 +3174,14 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="13.2">
-      <c r="A38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="19"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3218,22 +3201,14 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="13.2">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="19"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3253,9 +3228,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="13.2">
-      <c r="A40" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -29444,637 +29417,505 @@
       <c r="X1009" s="1"/>
       <c r="Y1009" s="1"/>
     </row>
-    <row r="1010" spans="1:25" ht="13.2">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
-      <c r="E1010" s="1"/>
-      <c r="F1010" s="1"/>
-      <c r="G1010" s="1"/>
-      <c r="H1010" s="1"/>
-      <c r="I1010" s="1"/>
-      <c r="J1010" s="1"/>
-      <c r="K1010" s="1"/>
-      <c r="L1010" s="1"/>
-      <c r="M1010" s="1"/>
-      <c r="N1010" s="1"/>
-      <c r="O1010" s="1"/>
-      <c r="P1010" s="1"/>
-      <c r="Q1010" s="1"/>
-      <c r="R1010" s="1"/>
-      <c r="S1010" s="1"/>
-      <c r="T1010" s="1"/>
-      <c r="U1010" s="1"/>
-      <c r="V1010" s="1"/>
-      <c r="W1010" s="1"/>
-      <c r="X1010" s="1"/>
-      <c r="Y1010" s="1"/>
-    </row>
-    <row r="1011" spans="1:25" ht="13.2">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
-      <c r="F1011" s="1"/>
-      <c r="G1011" s="1"/>
-      <c r="H1011" s="1"/>
-      <c r="I1011" s="1"/>
-      <c r="J1011" s="1"/>
-      <c r="K1011" s="1"/>
-      <c r="L1011" s="1"/>
-      <c r="M1011" s="1"/>
-      <c r="N1011" s="1"/>
-      <c r="O1011" s="1"/>
-      <c r="P1011" s="1"/>
-      <c r="Q1011" s="1"/>
-      <c r="R1011" s="1"/>
-      <c r="S1011" s="1"/>
-      <c r="T1011" s="1"/>
-      <c r="U1011" s="1"/>
-      <c r="V1011" s="1"/>
-      <c r="W1011" s="1"/>
-      <c r="X1011" s="1"/>
-      <c r="Y1011" s="1"/>
-    </row>
-    <row r="1012" spans="1:25" ht="13.2">
-      <c r="A1012" s="1"/>
-      <c r="B1012" s="1"/>
-      <c r="C1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1"/>
-      <c r="F1012" s="1"/>
-      <c r="G1012" s="1"/>
-      <c r="H1012" s="1"/>
-      <c r="I1012" s="1"/>
-      <c r="J1012" s="1"/>
-      <c r="K1012" s="1"/>
-      <c r="L1012" s="1"/>
-      <c r="M1012" s="1"/>
-      <c r="N1012" s="1"/>
-      <c r="O1012" s="1"/>
-      <c r="P1012" s="1"/>
-      <c r="Q1012" s="1"/>
-      <c r="R1012" s="1"/>
-      <c r="S1012" s="1"/>
-      <c r="T1012" s="1"/>
-      <c r="U1012" s="1"/>
-      <c r="V1012" s="1"/>
-      <c r="W1012" s="1"/>
-      <c r="X1012" s="1"/>
-      <c r="Y1012" s="1"/>
-    </row>
-    <row r="1013" spans="1:25" ht="13.2">
-      <c r="A1013" s="1"/>
-      <c r="B1013" s="1"/>
-      <c r="C1013" s="1"/>
-      <c r="D1013" s="1"/>
-      <c r="E1013" s="1"/>
-      <c r="F1013" s="1"/>
-      <c r="G1013" s="1"/>
-      <c r="H1013" s="1"/>
-      <c r="I1013" s="1"/>
-      <c r="J1013" s="1"/>
-      <c r="K1013" s="1"/>
-      <c r="L1013" s="1"/>
-      <c r="M1013" s="1"/>
-      <c r="N1013" s="1"/>
-      <c r="O1013" s="1"/>
-      <c r="P1013" s="1"/>
-      <c r="Q1013" s="1"/>
-      <c r="R1013" s="1"/>
-      <c r="S1013" s="1"/>
-      <c r="T1013" s="1"/>
-      <c r="U1013" s="1"/>
-      <c r="V1013" s="1"/>
-      <c r="W1013" s="1"/>
-      <c r="X1013" s="1"/>
-      <c r="Y1013" s="1"/>
-    </row>
-    <row r="1014" spans="1:25" ht="13.2">
-      <c r="A1014" s="1"/>
-      <c r="B1014" s="1"/>
-      <c r="C1014" s="1"/>
-      <c r="D1014" s="1"/>
-      <c r="E1014" s="1"/>
-      <c r="F1014" s="1"/>
-      <c r="G1014" s="1"/>
-      <c r="H1014" s="1"/>
-      <c r="I1014" s="1"/>
-      <c r="J1014" s="1"/>
-      <c r="K1014" s="1"/>
-      <c r="L1014" s="1"/>
-      <c r="M1014" s="1"/>
-      <c r="N1014" s="1"/>
-      <c r="O1014" s="1"/>
-      <c r="P1014" s="1"/>
-      <c r="Q1014" s="1"/>
-      <c r="R1014" s="1"/>
-      <c r="S1014" s="1"/>
-      <c r="T1014" s="1"/>
-      <c r="U1014" s="1"/>
-      <c r="V1014" s="1"/>
-      <c r="W1014" s="1"/>
-      <c r="X1014" s="1"/>
-      <c r="Y1014" s="1"/>
-    </row>
-    <row r="1015" spans="1:25" ht="13.2">
-      <c r="A1015" s="1"/>
-      <c r="B1015" s="1"/>
-      <c r="C1015" s="1"/>
-      <c r="D1015" s="1"/>
-      <c r="E1015" s="1"/>
-      <c r="F1015" s="1"/>
-      <c r="G1015" s="1"/>
-      <c r="H1015" s="1"/>
-      <c r="I1015" s="1"/>
-      <c r="J1015" s="1"/>
-      <c r="K1015" s="1"/>
-      <c r="L1015" s="1"/>
-      <c r="M1015" s="1"/>
-      <c r="N1015" s="1"/>
-      <c r="O1015" s="1"/>
-      <c r="P1015" s="1"/>
-      <c r="Q1015" s="1"/>
-      <c r="R1015" s="1"/>
-      <c r="S1015" s="1"/>
-      <c r="T1015" s="1"/>
-      <c r="U1015" s="1"/>
-      <c r="V1015" s="1"/>
-      <c r="W1015" s="1"/>
-      <c r="X1015" s="1"/>
-      <c r="Y1015" s="1"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
-    <cfRule type="expression" dxfId="93" priority="56">
+    <cfRule type="expression" dxfId="99" priority="63">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="92" priority="57">
+    <cfRule type="expression" dxfId="98" priority="64">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A17:C18 A24:C25 C23">
-    <cfRule type="cellIs" dxfId="91" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="65" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7 B17 B20:B22 B24:B25">
-    <cfRule type="expression" dxfId="90" priority="59">
+    <cfRule type="expression" dxfId="96" priority="66">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
-    <cfRule type="expression" dxfId="89" priority="61">
+    <cfRule type="expression" dxfId="95" priority="68">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="88" priority="62">
+    <cfRule type="expression" dxfId="94" priority="69">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28 A2:A7 A17:A22 A24:A25">
-    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="93" priority="73" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C25">
-    <cfRule type="expression" dxfId="86" priority="67">
+    <cfRule type="expression" dxfId="92" priority="74">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A22 A24:A25">
-    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="75" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="84" priority="69">
+    <cfRule type="expression" dxfId="90" priority="76">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="83" priority="70">
+    <cfRule type="expression" dxfId="89" priority="77">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="78" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="81" priority="72">
+    <cfRule type="expression" dxfId="87" priority="79">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="80" priority="73">
+    <cfRule type="expression" dxfId="86" priority="80">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="79" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="78" priority="75">
+    <cfRule type="expression" dxfId="84" priority="82">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="77" priority="76">
+    <cfRule type="expression" dxfId="83" priority="83">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="76" priority="86" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="82" priority="93" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="75" priority="87">
+    <cfRule type="expression" dxfId="81" priority="94">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="74" priority="88">
+    <cfRule type="expression" dxfId="80" priority="95">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="73" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="97" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="71" priority="91">
+    <cfRule type="expression" dxfId="77" priority="98">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="70" priority="92">
+    <cfRule type="expression" dxfId="76" priority="99">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="69" priority="93" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="75" priority="100" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="68" priority="77">
+    <cfRule type="expression" dxfId="74" priority="84">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="67" priority="78">
+    <cfRule type="expression" dxfId="73" priority="85">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="66" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="86" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="65" priority="80">
+    <cfRule type="expression" dxfId="71" priority="87">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="64" priority="81">
+    <cfRule type="expression" dxfId="70" priority="88">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="63" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="89" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="62" priority="84">
+    <cfRule type="expression" dxfId="68" priority="91">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="61" priority="85">
+    <cfRule type="expression" dxfId="67" priority="92">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="66" priority="56" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="59" priority="50">
+    <cfRule type="expression" dxfId="65" priority="57">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="58" priority="51">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="61" priority="61">
+      <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="60" priority="62">
+      <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="59" priority="49">
+      <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="58" priority="50">
+      <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="56" priority="52">
+      <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="55" priority="54">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="54" priority="55">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="53" priority="42">
-      <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="52" priority="43">
-      <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="50" priority="45">
-      <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="49" priority="47">
-      <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="48" priority="48">
-      <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="53" priority="35">
       <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="46" priority="29">
+    <cfRule type="expression" dxfId="52" priority="36">
       <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="37" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="44" priority="31">
+    <cfRule type="expression" dxfId="50" priority="38">
       <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="43" priority="32">
+    <cfRule type="expression" dxfId="49" priority="39">
       <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="48" priority="40" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="41" priority="203">
-      <formula>COUNTIF($B$2:$B$1096,B8)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28 B20:B22 B17:B18 B24:B25">
-    <cfRule type="expression" dxfId="40" priority="204">
-      <formula>COUNTIF($B$9:$B$1103,B17)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="39" priority="207">
-      <formula>COUNTIF($B$2:$B$1095,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
-    <cfRule type="expression" dxfId="38" priority="210">
+    <cfRule type="expression" dxfId="47" priority="217">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
-    <cfRule type="expression" dxfId="37" priority="213">
+    <cfRule type="expression" dxfId="46" priority="220">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="36" priority="21">
+    <cfRule type="expression" dxfId="45" priority="28">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="44" priority="29">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="30" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="42" priority="31">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="32" priority="25">
+    <cfRule type="expression" dxfId="41" priority="32">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="30" priority="238">
+    <cfRule type="expression" dxfId="39" priority="245">
       <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="29" priority="239">
+    <cfRule type="expression" dxfId="38" priority="246">
       <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="28" priority="244">
+    <cfRule type="expression" dxfId="37" priority="251">
       <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="27" priority="246">
+    <cfRule type="expression" dxfId="36" priority="253">
       <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="26" priority="247">
+    <cfRule type="expression" dxfId="35" priority="254">
       <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="25" priority="256">
+    <cfRule type="expression" dxfId="34" priority="263">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="24" priority="257">
+    <cfRule type="expression" dxfId="33" priority="264">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="23" priority="258">
+    <cfRule type="expression" dxfId="32" priority="265">
       <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="22" priority="260">
+    <cfRule type="expression" dxfId="31" priority="267">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="21" priority="261">
+    <cfRule type="expression" dxfId="30" priority="268">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="20" priority="262">
+    <cfRule type="expression" dxfId="29" priority="269">
       <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="26" priority="23">
       <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="15" priority="18">
-      <formula>COUNTIF($B$9:$B$1103,B23)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="9" priority="270">
+      <formula>COUNTIF($B$2:$B$1090,B8)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B28 B17:B18 B20:B25">
+    <cfRule type="expression" dxfId="8" priority="271">
+      <formula>COUNTIF($B$9:$B$1097,B17)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="expression" dxfId="7" priority="275">
+      <formula>COUNTIF($B$2:$B$1089,B2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $E35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $N35 = "", $O35 = "", $P35 = "", $R35 = "", $S35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $E35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $N35 = "", $O35 = "", $P35 = "", $R35 = "", $S35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30087,7 +29928,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A10" sqref="A10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -30097,303 +29938,303 @@
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1" ht="14.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="14.4">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="16" customFormat="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" s="11" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>63</v>
+      <c r="B2" s="11" t="s">
+        <v>58</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="16" customFormat="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" s="11" customFormat="1">
+      <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>64</v>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="16" customFormat="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" s="11" customFormat="1">
+      <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="16" customFormat="1">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:6" s="11" customFormat="1">
+      <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="16" customFormat="1">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:6" s="11" customFormat="1">
+      <c r="A6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>65</v>
+      <c r="B12" s="11" t="s">
+        <v>60</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>66</v>
+      <c r="B13" s="11" t="s">
+        <v>61</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>67</v>
+      <c r="B14" s="11" t="s">
+        <v>62</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30410,62 +30251,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="34" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="7.6640625" style="12" customWidth="1"/>
-    <col min="17" max="26" width="15.109375" style="12" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="34" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="7.6640625" style="7" customWidth="1"/>
+    <col min="17" max="26" width="15.109375" style="7" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 22-46</v>
+        <v>2022-10-05 23-17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -365,9 +365,6 @@
     <t>selected(../house_member, 'yes')</t>
   </si>
   <si>
-    <t>selected(../register_house_member, 'no')</t>
-  </si>
-  <si>
     <t>hh_member</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>end_repeat</t>
+  </si>
+  <si>
+    <t>selected(../inputs/user/repeat-relevant/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1923,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="23" spans="1:25" s="17" customFormat="1" ht="13.2">
       <c r="A23" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>108</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="29" spans="1:25" s="7" customFormat="1" ht="13.2">
       <c r="A29" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -2995,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -30298,7 +30298,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-17</v>
+        <v>2022-10-05 23-26</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -374,7 +374,7 @@
     <t>end_repeat</t>
   </si>
   <si>
-    <t>selected(../inputs/user/repeat-relevant/house_member, 'no')</t>
+    <t>selected(../repeat-relevant/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1920,7 @@
   <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
@@ -30298,7 +30298,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-26</v>
+        <v>2022-10-05 23-32</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -638,7 +638,221 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="111">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
@@ -808,28 +1022,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -852,12 +1044,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF76A5AF"/>
+        <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -869,80 +1061,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1920,10 +2038,10 @@
   <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2490,8 +2608,8 @@
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>73</v>
+      <c r="B17" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>74</v>
@@ -2688,8 +2806,8 @@
       <c r="A23" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>113</v>
+      <c r="B23" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>108</v>
@@ -2728,7 +2846,6 @@
         <v>98</v>
       </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -29418,504 +29535,559 @@
       <c r="Y1009" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
-    <cfRule type="expression" dxfId="99" priority="63">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A24:C25">
+    <cfRule type="expression" dxfId="110" priority="63">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="98" priority="64">
+  <conditionalFormatting sqref="A2:C7 A25:C25 A21:C21">
+    <cfRule type="expression" dxfId="109" priority="64">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A17:C18 A24:C25 C23">
-    <cfRule type="cellIs" dxfId="97" priority="65" operator="equal">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A24:C25 A18:C18 A17 C17 B23:C23">
+    <cfRule type="cellIs" dxfId="108" priority="65" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B17 B20:B22 B24:B25">
-    <cfRule type="expression" dxfId="96" priority="66">
+  <conditionalFormatting sqref="B2:B7 B20:B22 B24:B25">
+    <cfRule type="expression" dxfId="107" priority="66">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A20:C22 A24:C25 C23">
-    <cfRule type="expression" dxfId="95" priority="68">
+  <conditionalFormatting sqref="A2:C7 A20:C22 A24:C25">
+    <cfRule type="expression" dxfId="106" priority="68">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A17:C17 A25:C25 A21:C21">
-    <cfRule type="expression" dxfId="94" priority="69">
+  <conditionalFormatting sqref="A2:C7 A25:C25 A21:C21">
+    <cfRule type="expression" dxfId="105" priority="69">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $N2 = "", $O2 = "", $P2 = "", $R2 = "", $S2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28 A2:A7 A17:A22 A24:A25">
-    <cfRule type="containsText" dxfId="93" priority="73" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="104" priority="73" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7 C17:C25">
-    <cfRule type="expression" dxfId="92" priority="74">
+    <cfRule type="expression" dxfId="103" priority="74">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A7 A17:A22 A24:A25">
-    <cfRule type="cellIs" dxfId="91" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="75" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="90" priority="76">
+    <cfRule type="expression" dxfId="101" priority="76">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="89" priority="77">
+    <cfRule type="expression" dxfId="100" priority="77">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="88" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="78" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="87" priority="79">
+    <cfRule type="expression" dxfId="98" priority="79">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="86" priority="80">
+    <cfRule type="expression" dxfId="97" priority="80">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="85" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="81" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="84" priority="82">
+    <cfRule type="expression" dxfId="95" priority="82">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="83" priority="83">
+    <cfRule type="expression" dxfId="94" priority="83">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $N28 = "", $O28 = "", $P28 = "", $R28 = "", $S28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="82" priority="93" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="93" priority="93" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="81" priority="94">
+    <cfRule type="expression" dxfId="92" priority="94">
       <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="80" priority="95">
+    <cfRule type="expression" dxfId="91" priority="95">
       <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="96" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="78" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="97" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="77" priority="98">
+    <cfRule type="expression" dxfId="88" priority="98">
       <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="76" priority="99">
+    <cfRule type="expression" dxfId="87" priority="99">
       <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $N26 = "", $O26 = "", $P26 = "", $R26 = "", $S26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="75" priority="100" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="86" priority="100" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="74" priority="84">
+    <cfRule type="expression" dxfId="85" priority="84">
       <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="73" priority="85">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="72" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="71" priority="87">
+    <cfRule type="expression" dxfId="82" priority="87">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="70" priority="88">
+    <cfRule type="expression" dxfId="81" priority="88">
       <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="69" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="89" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="68" priority="91">
+    <cfRule type="expression" dxfId="79" priority="91">
       <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="67" priority="92">
+    <cfRule type="expression" dxfId="78" priority="92">
       <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $N27 = "", $O27 = "", $P27 = "", $R27 = "", $S27 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="66" priority="56" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="77" priority="56" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="65" priority="57">
+    <cfRule type="expression" dxfId="76" priority="57">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="64" priority="58">
+    <cfRule type="expression" dxfId="75" priority="58">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="59" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="72" priority="61">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="71" priority="62">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="59" priority="49">
+    <cfRule type="expression" dxfId="70" priority="49">
       <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="58" priority="50">
+    <cfRule type="expression" dxfId="69" priority="50">
       <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="51" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="56" priority="52">
+    <cfRule type="expression" dxfId="67" priority="52">
       <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="55" priority="54">
+    <cfRule type="expression" dxfId="66" priority="54">
       <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="65" priority="55">
       <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $I8 = "", $J8 = "", $K8 = "", $L8 = "", $N8 = "", $O8 = "", $P8 = "", $R8 = "", $S8 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="53" priority="35">
+    <cfRule type="expression" dxfId="64" priority="35">
       <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="52" priority="36">
+    <cfRule type="expression" dxfId="63" priority="36">
       <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="51" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="37" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="50" priority="38">
+    <cfRule type="expression" dxfId="61" priority="38">
       <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="49" priority="39">
+    <cfRule type="expression" dxfId="60" priority="39">
       <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $N30 = "", $O30 = "", $P30 = "", $R30 = "", $S30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="containsText" dxfId="48" priority="40" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
-    <cfRule type="expression" dxfId="47" priority="217">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24">
+    <cfRule type="expression" dxfId="58" priority="217">
       <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24 C23">
-    <cfRule type="expression" dxfId="46" priority="220">
+  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24">
+    <cfRule type="expression" dxfId="57" priority="220">
       <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $N20 = "", $O20 = "", $P20 = "", $R20 = "", $S20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="45" priority="28">
+    <cfRule type="expression" dxfId="56" priority="28">
       <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="44" priority="29">
+    <cfRule type="expression" dxfId="55" priority="29">
       <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="43" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="42" priority="31">
+    <cfRule type="expression" dxfId="53" priority="31">
       <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="52" priority="32">
       <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $N31 = "", $O31 = "", $P31 = "", $R31 = "", $S31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="39" priority="245">
+    <cfRule type="expression" dxfId="50" priority="245">
       <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="38" priority="246">
+    <cfRule type="expression" dxfId="49" priority="246">
       <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="37" priority="251">
+    <cfRule type="expression" dxfId="48" priority="251">
       <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="36" priority="253">
+    <cfRule type="expression" dxfId="47" priority="253">
       <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="35" priority="254">
+    <cfRule type="expression" dxfId="46" priority="254">
       <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="34" priority="263">
+    <cfRule type="expression" dxfId="45" priority="263">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="33" priority="264">
+    <cfRule type="expression" dxfId="44" priority="264">
       <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="32" priority="265">
+    <cfRule type="expression" dxfId="43" priority="265">
       <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="31" priority="267">
+    <cfRule type="expression" dxfId="42" priority="267">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="30" priority="268">
+    <cfRule type="expression" dxfId="41" priority="268">
       <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $N19 = "", $O19 = "", $P19 = "", $R19 = "", $S19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="29" priority="269">
+    <cfRule type="expression" dxfId="40" priority="269">
       <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $N18 = "", $O18 = "", $P18 = "", $R18 = "", $S18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="28" priority="21">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="26" priority="23">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="25" priority="24">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="22" priority="14">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+      <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="32" priority="11">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="31" priority="12">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $N29 = "", $O29 = "", $P29 = "", $R29 = "", $S29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="9" priority="270">
+    <cfRule type="expression" dxfId="29" priority="270">
       <formula>COUNTIF($B$2:$B$1090,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28 B17:B18 B20:B25">
-    <cfRule type="expression" dxfId="8" priority="271">
+    <cfRule type="expression" dxfId="28" priority="271">
       <formula>COUNTIF($B$9:$B$1097,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B7">
-    <cfRule type="expression" dxfId="7" priority="275">
+    <cfRule type="expression" dxfId="27" priority="275">
       <formula>COUNTIF($B$2:$B$1089,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND($A35="end group", $B35 = "", $C35 = "", $E35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $N35 = "", $O35 = "", $P35 = "", $R35 = "", $S35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $E35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $N35 = "", $O35 = "", $P35 = "", $R35 = "", $S35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A35))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17 C17">
+    <cfRule type="expression" dxfId="19" priority="292">
+      <formula>AND($A17="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="18" priority="293">
+      <formula>AND($A17="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17 C17">
+    <cfRule type="expression" dxfId="17" priority="294">
+      <formula>AND($A17="end group", $B23 = "", $C17 = "", $E17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $N17 = "", $O17 = "", $P17 = "", $R17 = "", $S17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="16" priority="295">
+      <formula>AND($A17="end group", $B23 = "", $C17 = "", $E17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $N17 = "", $O17 = "", $P17 = "", $R17 = "", $S17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="15" priority="298">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17 C17">
+    <cfRule type="expression" dxfId="14" priority="299">
+      <formula>AND($A17="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="13" priority="300">
+      <formula>AND($A17="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17 C17">
+    <cfRule type="expression" dxfId="12" priority="301">
+      <formula>AND($A17="end repeat", $B23 = "", $C17 = "", $E17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $N17 = "", $O17 = "", $P17 = "", $R17 = "", $S17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="11" priority="302">
+      <formula>AND($A17="end repeat", $B23 = "", $C17 = "", $E17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $N17 = "", $O17 = "", $P17 = "", $R17 = "", $S17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 A23">
+    <cfRule type="expression" dxfId="10" priority="311">
+      <formula>AND($A23="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 A23">
+    <cfRule type="expression" dxfId="9" priority="313">
+      <formula>AND($A23="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="8" priority="315">
+      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="7" priority="316">
+      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="6" priority="317">
+      <formula>AND($A23="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="5" priority="318">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="4" priority="319">
+      <formula>AND($A23="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="3" priority="320">
+      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="2" priority="321">
+      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="1" priority="322">
+      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="0" priority="323">
+      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $N23 = "", $O23 = "", $P23 = "", $R23 = "", $S23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30298,7 +30470,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-32</v>
+        <v>2022-10-05 23-41</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -374,7 +374,7 @@
     <t>end_repeat</t>
   </si>
   <si>
-    <t>selected(../repeat-relevant/house_member, 'no')</t>
+    <t>selected(../hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2038,10 @@
   <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30470,7 +30470,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-41</v>
+        <v>2022-10-05 23-47</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -374,7 +374,7 @@
     <t>end_repeat</t>
   </si>
   <si>
-    <t>selected(../hh_member/house_member, 'no')</t>
+    <t>selected(../house_contact_name/hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2038,10 @@
   <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30470,7 +30470,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-05 23-47</v>
+        <v>2022-10-06 15-03</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -374,7 +374,7 @@
     <t>end_repeat</t>
   </si>
   <si>
-    <t>selected(../house_contact_name/hh_member/house_member, 'no')</t>
+    <t>selected(../../../house_contact_name/hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2038,10 @@
   <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30470,7 +30470,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-06 15-03</v>
+        <v>2022-10-06 15-13</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -374,7 +374,7 @@
     <t>end_repeat</t>
   </si>
   <si>
-    <t>selected(../../../house_contact_name/hh_member/house_member, 'no')</t>
+    <t>selected(../../../../../inputs/user/house_contact_name/hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2041,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2050,7 +2050,7 @@
     <col min="2" max="2" width="25.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
@@ -30470,7 +30470,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-06 15-13</v>
+        <v>2022-10-06 15-16</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -374,7 +374,7 @@
     <t>end_repeat</t>
   </si>
   <si>
-    <t>selected(../../../../../inputs/user/house_contact_name/hh_member/house_member, 'no')</t>
+    <t>selected(../../hh_member/house_member, 'no')</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2041,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -30470,7 +30470,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-06 15-16</v>
+        <v>2022-10-06 15-22</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -343,12 +343,18 @@
   <si>
     <t>../../../inputs/user/facility_id</t>
   </si>
+  <si>
+    <t>facility_id</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -427,8 +433,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +536,18 @@
         <bgColor rgb="FFDADADA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -571,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -643,6 +666,8 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2009,13 +2034,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD5"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2191,16 +2216,16 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>22</v>
+      <c r="B5" s="37" t="s">
+        <v>106</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>68</v>
+      <c r="C5" s="38" t="s">
+        <v>107</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -2226,10 +2251,14 @@
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A6" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -2285,21 +2314,17 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A8" s="22" t="s">
-        <v>52</v>
+      <c r="A8" s="15" t="s">
+        <v>56</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2318,24 +2343,22 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="13.2">
-      <c r="A9" s="25" t="s">
-        <v>1</v>
+    <row r="9" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A9" s="22" t="s">
+        <v>52</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>37</v>
+      <c r="B9" s="22" t="s">
+        <v>70</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>0</v>
+      <c r="C9" s="23" t="s">
+        <v>69</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2356,21 +2379,21 @@
     </row>
     <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="25" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2392,13 +2415,13 @@
     </row>
     <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>2</v>
@@ -2426,24 +2449,22 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="19.2" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>5</v>
+    <row r="12" spans="1:26" ht="13.2">
+      <c r="A12" s="25" t="s">
+        <v>41</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>32</v>
+      <c r="B12" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>4</v>
+      <c r="C12" s="26" t="s">
+        <v>45</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="29"/>
       <c r="I12" s="27"/>
       <c r="J12" s="1"/>
@@ -2464,30 +2485,26 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="13.2">
-      <c r="A13" s="25" t="s">
-        <v>7</v>
+    <row r="13" spans="1:26" ht="19.2" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>5</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>28</v>
+      <c r="B13" s="30" t="s">
+        <v>32</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>6</v>
+      <c r="C13" s="30" t="s">
+        <v>4</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>46</v>
-      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2508,22 +2525,28 @@
     </row>
     <row r="14" spans="1:26" ht="13.2">
       <c r="A14" s="25" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="E14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2547,17 +2570,17 @@
         <v>1</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="1"/>
@@ -2578,13 +2601,19 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" ht="13.2">
+    <row r="16" spans="1:26" ht="13.2">
       <c r="A16" s="25" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -2608,49 +2637,45 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" s="12" customFormat="1" ht="13.2">
+      <c r="A18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A18" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2676,15 +2701,15 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" s="12" customFormat="1" ht="26.4">
+    <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>35</v>
+      <c r="B19" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2710,24 +2735,20 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A20" s="15" t="s">
-        <v>11</v>
+    <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
+      <c r="A20" s="19" t="s">
+        <v>87</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>71</v>
+      <c r="B20" s="17" t="s">
+        <v>35</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>55</v>
+      <c r="C20" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="13"/>
@@ -2749,15 +2770,23 @@
       <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A21" s="19" t="s">
-        <v>56</v>
+      <c r="A21" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="13"/>
@@ -2780,14 +2809,10 @@
     </row>
     <row r="22" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A22" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -2813,14 +2838,14 @@
       <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A23" s="20" t="s">
-        <v>90</v>
+      <c r="A23" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>53</v>
+      <c r="B23" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2847,16 +2872,17 @@
       <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A24" s="19" t="s">
-        <v>58</v>
+      <c r="A24" s="20" t="s">
+        <v>90</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>78</v>
+      <c r="B24" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
@@ -2881,16 +2907,15 @@
     </row>
     <row r="25" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A25" s="19" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
@@ -2915,13 +2940,13 @@
     </row>
     <row r="26" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A26" s="19" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -2929,42 +2954,38 @@
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="19" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="1"/>
@@ -2987,19 +3008,19 @@
     </row>
     <row r="28" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A28" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -3023,18 +3044,26 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A29" s="20" t="s">
-        <v>91</v>
+    <row r="29" spans="1:26" s="12" customFormat="1" ht="13.2">
+      <c r="A29" s="19" t="s">
+        <v>7</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="B29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3053,13 +3082,11 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A30" s="32" t="s">
-        <v>52</v>
+    <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A30" s="20" t="s">
+        <v>91</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>92</v>
-      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -3086,11 +3113,11 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A31" s="34" t="s">
-        <v>93</v>
+      <c r="A31" s="32" t="s">
+        <v>52</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>94</v>
+      <c r="B31" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3099,9 +3126,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="36" t="s">
-        <v>103</v>
-      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3124,7 +3149,7 @@
         <v>93</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3134,7 +3159,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3158,7 +3183,7 @@
         <v>93</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3168,7 +3193,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3188,10 +3213,12 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A34" s="36" t="s">
-        <v>56</v>
+      <c r="A34" s="34" t="s">
+        <v>93</v>
       </c>
-      <c r="B34" s="36"/>
+      <c r="B34" s="35" t="s">
+        <v>96</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -3199,7 +3226,9 @@
       <c r="G34" s="11"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="36" t="s">
+        <v>105</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3217,11 +3246,11 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
+      <c r="A35" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -3247,16 +3276,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="13.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+    <row r="36" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -30519,525 +30550,553 @@
       <c r="Y1009" s="1"/>
       <c r="Z1009" s="1"/>
     </row>
+    <row r="1010" spans="1:26" ht="13.2">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="1"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+      <c r="H1010" s="1"/>
+      <c r="I1010" s="1"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A24:C25">
+  <conditionalFormatting sqref="A2:C8 A21:C23 A25:C26">
     <cfRule type="expression" dxfId="103" priority="69">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A25:C25 A21:C21">
+  <conditionalFormatting sqref="A2:C8 A26:C26 A22:C22">
     <cfRule type="expression" dxfId="102" priority="70">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A19 C19 A24:C25 A18:C18 A17 C17 B23:C23">
+  <conditionalFormatting sqref="A2:C8 A21:C23 A20 C20 A25:C26 A19:C19 A18 C18 B24:C24">
     <cfRule type="cellIs" dxfId="101" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7 B20:B22 B24:B25">
+  <conditionalFormatting sqref="B2:B8 B21:B23 B25:B26">
     <cfRule type="expression" dxfId="100" priority="72">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A20:C22 A24:C25">
+  <conditionalFormatting sqref="A2:C8 A21:C23 A25:C26">
     <cfRule type="expression" dxfId="99" priority="74">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C7 A25:C25 A21:C21">
+  <conditionalFormatting sqref="A2:C8 A26:C26 A22:C22">
     <cfRule type="expression" dxfId="98" priority="75">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28 A2:A7 A17:A22 A24:A25">
+  <conditionalFormatting sqref="A29 A2:A8 A18:A23 A25:A26">
     <cfRule type="containsText" dxfId="97" priority="79" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7 C17:C25">
+  <conditionalFormatting sqref="C2:C8 C18:C26">
     <cfRule type="expression" dxfId="96" priority="80">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7 A17:A22 A24:A25">
+  <conditionalFormatting sqref="A2:A8 A18:A23 A25:A26">
     <cfRule type="cellIs" dxfId="95" priority="81" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="94" priority="82">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="93" priority="83">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="cellIs" dxfId="92" priority="84" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="91" priority="85">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="90" priority="86">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="88" priority="88">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="87" priority="89">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="containsText" dxfId="86" priority="99" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="85" priority="100">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="84" priority="101">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="cellIs" dxfId="83" priority="102" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="cellIs" dxfId="82" priority="103" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="81" priority="104">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C27">
+    <cfRule type="expression" dxfId="80" priority="105">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="containsText" dxfId="79" priority="106" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="94" priority="82">
+    <cfRule type="expression" dxfId="78" priority="90">
       <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="93" priority="83">
+    <cfRule type="expression" dxfId="77" priority="91">
       <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="92" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="91" priority="85">
+    <cfRule type="expression" dxfId="75" priority="93">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="74" priority="94">
       <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="88" priority="88">
+    <cfRule type="expression" dxfId="72" priority="97">
       <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="87" priority="89">
+    <cfRule type="expression" dxfId="71" priority="98">
       <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="containsText" dxfId="86" priority="99" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A26))))</formula>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="containsText" dxfId="70" priority="62" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="85" priority="100">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="69" priority="63">
+      <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="84" priority="101">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $E26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "", $O26 = "", $P26 = "", $Q26 = "", $S26 = "", $T26 = "")</formula>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="68" priority="64">
+      <formula>AND($A9="end group", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="83" priority="102" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="cellIs" dxfId="82" priority="103" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="81" priority="104">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="expression" dxfId="80" priority="105">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $E26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "", $O26 = "", $P26 = "", $Q26 = "", $S26 = "", $T26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="containsText" dxfId="79" priority="106" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="78" priority="90">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="77" priority="91">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="75" priority="93">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="74" priority="94">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $B27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="72" priority="97">
-      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="71" priority="98">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="70" priority="62" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="69" priority="63">
-      <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="68" priority="64">
-      <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $J8 = "", $K8 = "", $L8 = "", $M8 = "", $O8 = "", $P8 = "", $Q8 = "", $S8 = "", $T8 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="expression" dxfId="65" priority="67">
-      <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
+      <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A9">
     <cfRule type="expression" dxfId="64" priority="68">
-      <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $J8 = "", $K8 = "", $L8 = "", $M8 = "", $O8 = "", $P8 = "", $Q8 = "", $S8 = "", $T8 = "")</formula>
+      <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="63" priority="55">
-      <formula>AND($A8="begin group", NOT($B8 = ""))</formula>
+      <formula>AND($A9="begin group", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="62" priority="56">
-      <formula>AND($A8="end group", $B8 = "", $C8 = "", $E8 = "", $J8 = "", $K8 = "", $L8 = "", $M8 = "", $O8 = "", $P8 = "", $Q8 = "", $S8 = "", $T8 = "")</formula>
+      <formula>AND($A9="end group", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="61" priority="57" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="60" priority="58">
-      <formula>AND(AND(NOT($A8 = "end group"), NOT($A8 = "end repeat"), NOT($A8 = "")), $B8 = "")</formula>
+      <formula>AND(AND(NOT($A9 = "end group"), NOT($A9 = "end repeat"), NOT($A9 = "")), $B9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="59" priority="60">
-      <formula>AND($A8="begin repeat", NOT($B8 = ""))</formula>
+      <formula>AND($A9="begin repeat", NOT($B9 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="58" priority="61">
-      <formula>AND($A8="end repeat", $B8 = "", $C8 = "", $E8 = "", $J8 = "", $K8 = "", $L8 = "", $M8 = "", $O8 = "", $P8 = "", $Q8 = "", $S8 = "", $T8 = "")</formula>
+      <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="57" priority="41">
-      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="56" priority="42">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $E35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "", $O35 = "", $P35 = "", $Q35 = "", $S35 = "", $T35 = "")</formula>
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="54" priority="44">
-      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="53" priority="45">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $E35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "", $O35 = "", $P35 = "", $Q35 = "", $S35 = "", $T35 = "")</formula>
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
+  <conditionalFormatting sqref="A36">
     <cfRule type="containsText" dxfId="52" priority="46" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A35))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24">
+  <conditionalFormatting sqref="A21:C21 A23:C23 A25:C25">
     <cfRule type="expression" dxfId="51" priority="223">
-      <formula>AND($A20="end group", $B20 = "", $C20 = "", #REF! = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+      <formula>AND($A21="end group", $B21 = "", $C21 = "", #REF! = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 A22:C22 A24:C24">
+  <conditionalFormatting sqref="A21:C21 A23:C23 A25:C25">
     <cfRule type="expression" dxfId="50" priority="226">
-      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", #REF! = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", #REF! = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="49" priority="251">
+      <formula>AND($A20="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 C19:C20">
+    <cfRule type="expression" dxfId="48" priority="252">
+      <formula>AND($A19="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="47" priority="257">
+      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="46" priority="259">
+      <formula>AND($A20="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 C19:C20">
+    <cfRule type="expression" dxfId="45" priority="260">
+      <formula>AND($A19="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 C20">
+    <cfRule type="expression" dxfId="44" priority="269">
+      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="43" priority="270">
+      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="42" priority="271">
+      <formula>AND($A19="end group", #REF! = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 C20">
+    <cfRule type="expression" dxfId="41" priority="273">
+      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="40" priority="274">
+      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 C19">
+    <cfRule type="expression" dxfId="39" priority="275">
+      <formula>AND($A19="end repeat", #REF! = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="49" priority="251">
-      <formula>AND($A19="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="48" priority="252">
-      <formula>AND($A18="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="47" priority="257">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="46" priority="259">
-      <formula>AND($A19="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A19 C18:C19">
-    <cfRule type="expression" dxfId="45" priority="260">
-      <formula>AND($A18="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="44" priority="269">
-      <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="43" priority="270">
-      <formula>AND($A19="end group", $B18 = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="42" priority="271">
-      <formula>AND($A18="end group", #REF! = "", $C18 = "", $E20 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 C19">
-    <cfRule type="expression" dxfId="41" priority="273">
-      <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="40" priority="274">
-      <formula>AND($A19="end repeat", $B18 = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 C18">
-    <cfRule type="expression" dxfId="39" priority="275">
-      <formula>AND($A18="end repeat", #REF! = "", $C18 = "", $E20 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="34" priority="14">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="33" priority="15">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="31" priority="17">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="expression" dxfId="30" priority="18">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
+  <conditionalFormatting sqref="A30">
     <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 C17">
+  <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="28" priority="298">
-      <formula>AND($A17="begin group", NOT($B23 = ""))</formula>
+      <formula>AND($A18="begin group", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="27" priority="299">
-      <formula>AND($A17="begin group", NOT($B23 = ""))</formula>
+      <formula>AND($A18="begin group", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 C17">
+  <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="26" priority="300">
-      <formula>AND($A17="end group", $B23 = "", $C17 = "", $E17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "", $Q17 = "", $S17 = "", $T17 = "")</formula>
+      <formula>AND($A18="end group", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="25" priority="301">
-      <formula>AND($A17="end group", $B23 = "", $C17 = "", $E17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "", $Q17 = "", $S17 = "", $T17 = "")</formula>
+      <formula>AND($A18="end group", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="24" priority="304">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B23 = "")</formula>
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 C17">
+  <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="23" priority="305">
-      <formula>AND($A17="begin repeat", NOT($B23 = ""))</formula>
+      <formula>AND($A18="begin repeat", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="22" priority="306">
-      <formula>AND($A17="begin repeat", NOT($B23 = ""))</formula>
+      <formula>AND($A18="begin repeat", NOT($B24 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 C17">
+  <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="21" priority="307">
-      <formula>AND($A17="end repeat", $B23 = "", $C17 = "", $E17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "", $Q17 = "", $S17 = "", $T17 = "")</formula>
+      <formula>AND($A18="end repeat", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B24">
     <cfRule type="expression" dxfId="20" priority="308">
-      <formula>AND($A17="end repeat", $B23 = "", $C17 = "", $E17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "", $Q17 = "", $S17 = "", $T17 = "")</formula>
+      <formula>AND($A18="end repeat", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 A23">
+  <conditionalFormatting sqref="C24 A24">
     <cfRule type="expression" dxfId="19" priority="317">
-      <formula>AND($A23="begin group", NOT($B17 = ""))</formula>
+      <formula>AND($A24="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 A23">
+  <conditionalFormatting sqref="C24 A24">
     <cfRule type="expression" dxfId="18" priority="319">
-      <formula>AND($A23="begin repeat", NOT($B17 = ""))</formula>
+      <formula>AND($A24="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="17" priority="321">
-      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="16" priority="322">
-      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="15" priority="323">
-      <formula>AND($A23="begin group", NOT($B17 = ""))</formula>
+      <formula>AND($A24="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="14" priority="324">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B17 = "")</formula>
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="13" priority="325">
-      <formula>AND($A23="begin repeat", NOT($B17 = ""))</formula>
+      <formula>AND($A24="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="12" priority="326">
-      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="11" priority="327">
-      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="expression" dxfId="10" priority="328">
-      <formula>AND($A23="end group", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
+  <conditionalFormatting sqref="A24">
     <cfRule type="expression" dxfId="9" priority="329">
-      <formula>AND($A23="end repeat", $B17 = "", $C23 = "", #REF! = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "", $O23 = "", $P23 = "", $Q23 = "", $S23 = "", $T23 = "")</formula>
+      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="2" priority="335">
-      <formula>COUNTIF($B$2:$B$1090,B8)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1091,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28 B17:B18 B20:B25">
+  <conditionalFormatting sqref="B28:B29 B18:B19 B21:B26">
     <cfRule type="expression" dxfId="1" priority="336">
-      <formula>COUNTIF($B$9:$B$1097,B17)&gt;1</formula>
+      <formula>COUNTIF($B$10:$B$1098,B18)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7">
+  <conditionalFormatting sqref="B2:B8">
     <cfRule type="expression" dxfId="0" priority="339">
-      <formula>COUNTIF($B$2:$B$1089,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1090,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31254,7 +31313,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-28 22-39</v>
+        <v>2022-10-28 23-51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>house_member</t>
-  </si>
-  <si>
-    <t>house_name</t>
   </si>
   <si>
     <t>contact:house_hold:create</t>
@@ -257,9 +254,6 @@
   </si>
   <si>
     <t>field-list</t>
-  </si>
-  <si>
-    <t>hm_name</t>
   </si>
   <si>
     <t>Does ${hm_name} know their date of birth?</t>
@@ -2037,10 +2031,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2068,37 +2062,37 @@
         <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2115,13 +2109,13 @@
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A2" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -2149,13 +2143,13 @@
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2183,13 +2177,13 @@
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2217,13 +2211,13 @@
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A5" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="14"/>
@@ -2251,13 +2245,13 @@
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2285,7 +2279,7 @@
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2315,7 +2309,7 @@
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2345,13 +2339,13 @@
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A9" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -2382,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>0</v>
@@ -2415,7 +2409,7 @@
     </row>
     <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>27</v>
@@ -2451,13 +2445,13 @@
     </row>
     <row r="12" spans="1:26" ht="13.2">
       <c r="A12" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2499,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2537,15 +2531,15 @@
         <v>2</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2639,7 +2633,7 @@
     </row>
     <row r="17" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A17" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2669,13 +2663,13 @@
     </row>
     <row r="18" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A18" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2703,13 +2697,13 @@
     </row>
     <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2737,13 +2731,13 @@
     </row>
     <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
       <c r="A20" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2774,17 +2768,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="18"/>
@@ -2809,7 +2803,7 @@
     </row>
     <row r="22" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A22" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2839,13 +2833,13 @@
     </row>
     <row r="23" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A23" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2873,13 +2867,13 @@
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A24" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2907,13 +2901,13 @@
     </row>
     <row r="25" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A25" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
@@ -2940,7 +2934,7 @@
     </row>
     <row r="26" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A26" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>27</v>
@@ -2974,13 +2968,13 @@
     </row>
     <row r="27" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -3020,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -3049,16 +3043,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3084,7 +3078,7 @@
     </row>
     <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A30" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -3114,10 +3108,10 @@
     </row>
     <row r="31" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A31" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3146,10 +3140,10 @@
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A32" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3159,7 +3153,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3180,10 +3174,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3193,7 +3187,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3214,10 +3208,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3227,7 +3221,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3248,7 +3242,7 @@
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A35" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="11"/>
@@ -3278,7 +3272,7 @@
     </row>
     <row r="36" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A36" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -31135,7 +31129,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>25</v>
@@ -31146,7 +31140,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>26</v>
@@ -31223,7 +31217,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -31234,7 +31228,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -31301,19 +31295,19 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-28 23-51</v>
+        <v>2022-10-31 21-06</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -157,9 +157,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>Does ${house_name} know their date of birth</t>
-  </si>
-  <si>
     <t>Age limit =&gt; 10 years=&lt;100</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Are there other family members currently living in ${house_name}'s homestead?</t>
   </si>
   <si>
     <t>knows_dob</t>
@@ -342,6 +336,12 @@
   </si>
   <si>
     <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>Does ${name} know their date of birth</t>
+  </si>
+  <si>
+    <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2031,10 +2031,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2062,37 +2062,37 @@
         <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A2" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A3" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2211,13 +2211,13 @@
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A5" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="14"/>
@@ -2245,13 +2245,13 @@
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A7" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A8" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2339,13 +2339,13 @@
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -2451,7 +2451,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2493,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2531,15 +2531,15 @@
         <v>2</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="17" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A17" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="18" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2697,13 +2697,13 @@
     </row>
     <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2731,13 +2731,13 @@
     </row>
     <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
       <c r="A20" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2768,17 +2768,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="18"/>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="22" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A22" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="23" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A23" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2867,13 +2867,13 @@
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A24" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="25" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A25" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="27" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -3043,16 +3043,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A30" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="31" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A31" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A32" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3153,7 +3153,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3187,7 +3187,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3221,7 +3221,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A35" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="11"/>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="36" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A36" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -31217,7 +31217,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -31228,7 +31228,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 21-06</v>
+        <v>2022-10-31 22-06</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -250,9 +250,6 @@
     <t>field-list</t>
   </si>
   <si>
-    <t>Does ${hm_name} know their date of birth?</t>
-  </si>
-  <si>
     <t xml:space="preserve">selected(../date_of_birth, 'yes')
 </t>
   </si>
@@ -341,7 +338,10 @@
     <t>Does ${name} know their date of birth</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../house_contact_name/name}'s homestead?</t>
+  </si>
+  <si>
+    <t>Does ${../repeat/name} know their date of birth?</t>
   </si>
 </sst>
 </file>
@@ -2031,10 +2031,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2071,7 +2071,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>45</v>
@@ -2080,19 +2080,19 @@
         <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2214,10 +2214,10 @@
         <v>56</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="14"/>
@@ -2451,7 +2451,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2493,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
@@ -2531,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
@@ -2666,7 +2666,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>52</v>
@@ -2695,15 +2695,15 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
+    <row r="19" spans="1:26" s="12" customFormat="1" ht="26.4">
       <c r="A19" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2731,13 +2731,13 @@
     </row>
     <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
       <c r="A20" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>74</v>
@@ -2867,13 +2867,13 @@
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A24" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2974,7 +2974,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
@@ -3052,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
       <c r="A30" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -3111,7 +3111,7 @@
         <v>50</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A32" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3153,7 +3153,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3187,7 +3187,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3221,7 +3221,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-06</v>
+        <v>2022-10-31 22-11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -338,10 +338,10 @@
     <t>Does ${name} know their date of birth</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../house_contact_name/name}'s homestead?</t>
+    <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Does ${../repeat/name} know their date of birth?</t>
+    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2031,10 +2031,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2703,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2974,7 +2974,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-11</v>
+        <v>2022-10-31 22-46</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -338,10 +338,10 @@
     <t>Does ${name} know their date of birth</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth?</t>
+    <t>Are there other family members currently living in ${../house_contact_name/name}'s homestead?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
+    <t>Does ${name} know their date of birth?</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2034,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2703,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2974,7 +2974,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-46</v>
+        <v>2022-10-31 22-49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -338,10 +338,10 @@
     <t>Does ${name} know their date of birth</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../house_contact_name/name}'s homestead?</t>
+    <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth?</t>
+    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2034,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2703,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2974,7 +2974,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-49</v>
+        <v>2022-10-31 22-53</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -341,7 +341,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../house_contact_name/hh_member/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-53</v>
+        <v>2022-10-31 22-55</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -341,7 +341,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../house_contact_name/hh_member/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../hh_member/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-55</v>
+        <v>2022-10-31 22-59</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -341,7 +341,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../hh_member/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../inputs/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 22-59</v>
+        <v>2022-10-31 23-09</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -341,7 +341,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../inputs/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-09</v>
+        <v>2022-10-31 23-11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -341,7 +341,7 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${../inputs/user/house_contact_name/name}'s homestead?</t>
+    <t>Are there other family members currently living in ${inputs/user/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2034,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-11</v>
+        <v>2022-10-31 23-14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -275,9 +275,6 @@
     <t>select_one register_house_member</t>
   </si>
   <si>
-    <t>selected(../house_member, 'yes')</t>
-  </si>
-  <si>
     <t>hh_member</t>
   </si>
   <si>
@@ -341,7 +338,19 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${inputs/user/house_contact_name/name}'s homestead?</t>
+    <t>num_hh_members</t>
+  </si>
+  <si>
+    <t>Number of household members?</t>
+  </si>
+  <si>
+    <t>selected(../house_member,'yes')</t>
+  </si>
+  <si>
+    <t>selected(../register_house_member, 'yes')</t>
+  </si>
+  <si>
+    <t>Are there other family members currently living in ${/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -588,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -662,6 +671,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2028,13 +2040,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1010"/>
+  <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2043,7 +2055,7 @@
     <col min="2" max="2" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
@@ -2071,7 +2083,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>45</v>
@@ -2080,19 +2092,19 @@
         <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2214,10 +2226,10 @@
         <v>56</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="14"/>
@@ -2451,7 +2463,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2666,7 +2678,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>52</v>
@@ -2703,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2729,18 +2741,20 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" spans="1:26" s="12" customFormat="1" ht="26.4">
-      <c r="A20" s="19" t="s">
-        <v>82</v>
+    <row r="20" spans="1:26" s="12" customFormat="1" ht="13.2">
+      <c r="A20" s="39" t="s">
+        <v>7</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>35</v>
+      <c r="B20" s="39" t="s">
+        <v>104</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>80</v>
+      <c r="C20" s="39" t="s">
+        <v>105</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -2750,7 +2764,6 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
@@ -2763,24 +2776,20 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A21" s="15" t="s">
-        <v>11</v>
+    <row r="21" spans="1:26" s="12" customFormat="1" ht="26.4">
+      <c r="A21" s="19" t="s">
+        <v>82</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>68</v>
+      <c r="B21" s="17" t="s">
+        <v>35</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>53</v>
+      <c r="C21" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="13"/>
@@ -2802,15 +2811,23 @@
       <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A22" s="19" t="s">
-        <v>54</v>
+      <c r="A22" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="13"/>
@@ -2833,14 +2850,10 @@
     </row>
     <row r="23" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A23" s="19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -2866,14 +2879,14 @@
       <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A24" s="20" t="s">
-        <v>85</v>
+      <c r="A24" s="19" t="s">
+        <v>50</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>51</v>
+      <c r="B24" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2900,16 +2913,17 @@
       <c r="Z24" s="13"/>
     </row>
     <row r="25" spans="1:26" s="12" customFormat="1" ht="13.2">
-      <c r="A25" s="19" t="s">
-        <v>56</v>
+      <c r="A25" s="20" t="s">
+        <v>84</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>22</v>
+      <c r="B25" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
@@ -2934,16 +2948,15 @@
     </row>
     <row r="26" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A26" s="19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
@@ -2968,13 +2981,13 @@
     </row>
     <row r="27" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A27" s="19" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -2982,42 +2995,38 @@
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A28" s="19" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="1"/>
@@ -3040,19 +3049,19 @@
     </row>
     <row r="29" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A29" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -3076,18 +3085,26 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A30" s="20" t="s">
-        <v>86</v>
+    <row r="30" spans="1:26" s="12" customFormat="1" ht="13.2">
+      <c r="A30" s="19" t="s">
+        <v>7</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="B30" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3106,13 +3123,11 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A31" s="32" t="s">
-        <v>50</v>
+    <row r="31" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A31" s="20" t="s">
+        <v>85</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>87</v>
-      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -3139,22 +3154,22 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A32" s="34" t="s">
-        <v>88</v>
+      <c r="A32" s="32" t="s">
+        <v>50</v>
       </c>
-      <c r="B32" s="35" t="s">
-        <v>89</v>
+      <c r="B32" s="33" t="s">
+        <v>86</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="36" t="s">
-        <v>98</v>
-      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3174,10 +3189,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3187,7 +3202,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3208,10 +3223,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3221,7 +3236,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3241,10 +3256,12 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
-      <c r="A35" s="36" t="s">
-        <v>54</v>
+      <c r="A35" s="34" t="s">
+        <v>87</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -3252,7 +3269,9 @@
       <c r="G35" s="11"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3270,11 +3289,11 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" s="3" customFormat="1" ht="13.2">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:26" s="3" customFormat="1" ht="14.4">
+      <c r="A36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -3300,16 +3319,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="13.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+    <row r="37" spans="1:26" s="3" customFormat="1" ht="13.2">
+      <c r="A37" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -30572,170 +30593,198 @@
       <c r="Y1010" s="1"/>
       <c r="Z1010" s="1"/>
     </row>
+    <row r="1011" spans="1:26" ht="13.2">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="1"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+      <c r="H1011" s="1"/>
+      <c r="I1011" s="1"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C8 A21:C23 A25:C26">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A26:C27">
     <cfRule type="expression" dxfId="103" priority="69">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A26:C26 A22:C22">
+  <conditionalFormatting sqref="A2:C8 A27:C27 A23:C23">
     <cfRule type="expression" dxfId="102" priority="70">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A21:C23 A20 C20 A25:C26 A19:C19 A18 C18 B24:C24">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A21 C21 A26:C27 A19:C19 A18 C18 B25:C25">
     <cfRule type="cellIs" dxfId="101" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8 B21:B23 B25:B26">
+  <conditionalFormatting sqref="B2:B8 B22:B24 B26:B27">
     <cfRule type="expression" dxfId="100" priority="72">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A21:C23 A25:C26">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A26:C27">
     <cfRule type="expression" dxfId="99" priority="74">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A26:C26 A22:C22">
+  <conditionalFormatting sqref="A2:C8 A27:C27 A23:C23">
     <cfRule type="expression" dxfId="98" priority="75">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29 A2:A8 A18:A23 A25:A26">
+  <conditionalFormatting sqref="A30 A2:A8 A18:A19 A26:A27 A21:A24">
     <cfRule type="containsText" dxfId="97" priority="79" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C8 C18:C26">
+  <conditionalFormatting sqref="C2:C8 C18:C19 C21:C27">
     <cfRule type="expression" dxfId="96" priority="80">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A8 A18:A23 A25:A26">
+  <conditionalFormatting sqref="A2:A8 A18:A19 A26:A27 A21:A24">
     <cfRule type="cellIs" dxfId="95" priority="81" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="94" priority="82">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="93" priority="83">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="cellIs" dxfId="92" priority="84" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="91" priority="85">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $C30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="90" priority="86">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="88" priority="88">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="87" priority="89">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="containsText" dxfId="86" priority="99" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="85" priority="100">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="84" priority="101">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="cellIs" dxfId="83" priority="102" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="cellIs" dxfId="82" priority="103" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="81" priority="104">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="80" priority="105">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="containsText" dxfId="79" priority="106" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="94" priority="82">
+    <cfRule type="expression" dxfId="78" priority="90">
       <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="93" priority="83">
+    <cfRule type="expression" dxfId="77" priority="91">
       <formula>AND($A29="end group", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="cellIs" dxfId="92" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="91" priority="85">
+    <cfRule type="expression" dxfId="75" priority="93">
       <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="74" priority="94">
       <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B29 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="88" priority="88">
+    <cfRule type="expression" dxfId="72" priority="97">
       <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="87" priority="89">
+    <cfRule type="expression" dxfId="71" priority="98">
       <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $E29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "", $O29 = "", $P29 = "", $Q29 = "", $S29 = "", $T29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="containsText" dxfId="86" priority="99" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="85" priority="100">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="84" priority="101">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="83" priority="102" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="cellIs" dxfId="82" priority="103" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="81" priority="104">
-      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
-    <cfRule type="expression" dxfId="80" priority="105">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $E27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "", $O27 = "", $P27 = "", $Q27 = "", $S27 = "", $T27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="containsText" dxfId="79" priority="106" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="78" priority="90">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="77" priority="91">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="75" priority="93">
-      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="74" priority="94">
-      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="72" priority="97">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C28">
-    <cfRule type="expression" dxfId="71" priority="98">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $E28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "", $O28 = "", $P28 = "", $Q28 = "", $S28 = "", $T28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
@@ -30803,99 +30852,99 @@
       <formula>AND($A9="end repeat", $B9 = "", $C9 = "", $E9 = "", $J9 = "", $K9 = "", $L9 = "", $M9 = "", $O9 = "", $P9 = "", $Q9 = "", $S9 = "", $T9 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="57" priority="41">
-      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
+      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="56" priority="42">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="cellIs" dxfId="55" priority="43" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="54" priority="44">
-      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
+      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="53" priority="45">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $E37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A37">
     <cfRule type="containsText" dxfId="52" priority="46" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A36))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A37))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21 A23:C23 A25:C25">
+  <conditionalFormatting sqref="A22:C22 A24:C24 A26:C26">
     <cfRule type="expression" dxfId="51" priority="223">
-      <formula>AND($A21="end group", $B21 = "", $C21 = "", #REF! = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+      <formula>AND($A22="end group", $B22 = "", $C22 = "", #REF! = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "", $O22 = "", $P22 = "", $Q22 = "", $S22 = "", $T22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21 A23:C23 A25:C25">
+  <conditionalFormatting sqref="A22:C22 A24:C24 A26:C26">
     <cfRule type="expression" dxfId="50" priority="226">
-      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", #REF! = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
+      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", #REF! = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "", $O22 = "", $P22 = "", $Q22 = "", $S22 = "", $T22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="49" priority="251">
-      <formula>AND($A20="begin group", NOT($B19 = ""))</formula>
+      <formula>AND($A21="begin group", NOT($B19 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 C19:C20">
+  <conditionalFormatting sqref="A19 C19 C21 A21">
     <cfRule type="expression" dxfId="48" priority="252">
       <formula>AND($A19="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="47" priority="257">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B19 = "")</formula>
+      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $B19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="46" priority="259">
-      <formula>AND($A20="begin repeat", NOT($B19 = ""))</formula>
+      <formula>AND($A21="begin repeat", NOT($B19 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 C19:C20">
+  <conditionalFormatting sqref="A19 C19 C21 A21">
     <cfRule type="expression" dxfId="45" priority="260">
       <formula>AND($A19="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 C20">
+  <conditionalFormatting sqref="A21 C21">
     <cfRule type="expression" dxfId="44" priority="269">
-      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+      <formula>AND($A21="end group", $B19 = "", $C21 = "", $E23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="43" priority="270">
-      <formula>AND($A20="end group", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+      <formula>AND($A21="end group", $B19 = "", $C21 = "", $E23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
     <cfRule type="expression" dxfId="42" priority="271">
-      <formula>AND($A19="end group", #REF! = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
+      <formula>AND($A19="end group", #REF! = "", $C19 = "", $E22 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 C20">
+  <conditionalFormatting sqref="A21 C21">
     <cfRule type="expression" dxfId="41" priority="273">
-      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+      <formula>AND($A21="end repeat", $B19 = "", $C21 = "", $E23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
     <cfRule type="expression" dxfId="40" priority="274">
-      <formula>AND($A20="end repeat", $B19 = "", $C20 = "", $E22 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "", $O20 = "", $P20 = "", $Q20 = "", $S20 = "", $T20 = "")</formula>
+      <formula>AND($A21="end repeat", $B19 = "", $C21 = "", $E23 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "", $O21 = "", $P21 = "", $Q21 = "", $S21 = "", $T21 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 C19">
     <cfRule type="expression" dxfId="39" priority="275">
-      <formula>AND($A19="end repeat", #REF! = "", $C19 = "", $E21 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
+      <formula>AND($A19="end repeat", #REF! = "", $C19 = "", $E22 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "", $O19 = "", $P19 = "", $Q19 = "", $S19 = "", $T19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
@@ -30903,194 +30952,194 @@
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A25">
     <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A25">
     <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A24))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A25">
     <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="34" priority="14">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="33" priority="15">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $E31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "", $O31 = "", $P31 = "", $Q31 = "", $S31 = "", $T31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="31" priority="17">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="expression" dxfId="30" priority="18">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $E30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "", $O30 = "", $P30 = "", $Q30 = "", $S30 = "", $T30 = "")</formula>
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $E31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "", $O31 = "", $P31 = "", $Q31 = "", $S31 = "", $T31 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A30))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="28" priority="298">
-      <formula>AND($A18="begin group", NOT($B24 = ""))</formula>
+      <formula>AND($A18="begin group", NOT($B25 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="27" priority="299">
-      <formula>AND($A18="begin group", NOT($B24 = ""))</formula>
+      <formula>AND($A18="begin group", NOT($B25 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="26" priority="300">
-      <formula>AND($A18="end group", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
+      <formula>AND($A18="end group", $B25 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="25" priority="301">
-      <formula>AND($A18="end group", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
+      <formula>AND($A18="end group", $B25 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="24" priority="304">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B24 = "")</formula>
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="23" priority="305">
-      <formula>AND($A18="begin repeat", NOT($B24 = ""))</formula>
+      <formula>AND($A18="begin repeat", NOT($B25 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="22" priority="306">
-      <formula>AND($A18="begin repeat", NOT($B24 = ""))</formula>
+      <formula>AND($A18="begin repeat", NOT($B25 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 C18">
     <cfRule type="expression" dxfId="21" priority="307">
-      <formula>AND($A18="end repeat", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
+      <formula>AND($A18="end repeat", $B25 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="20" priority="308">
-      <formula>AND($A18="end repeat", $B24 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
+      <formula>AND($A18="end repeat", $B25 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24 A24">
+  <conditionalFormatting sqref="C25 A25">
     <cfRule type="expression" dxfId="19" priority="317">
-      <formula>AND($A24="begin group", NOT($B18 = ""))</formula>
+      <formula>AND($A25="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24 A24">
+  <conditionalFormatting sqref="C25 A25">
     <cfRule type="expression" dxfId="18" priority="319">
-      <formula>AND($A24="begin repeat", NOT($B18 = ""))</formula>
+      <formula>AND($A25="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="17" priority="321">
-      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
+      <formula>AND($A25="end group", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", $O25 = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="16" priority="322">
-      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
+      <formula>AND($A25="end repeat", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", $O25 = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="15" priority="323">
-      <formula>AND($A24="begin group", NOT($B18 = ""))</formula>
+      <formula>AND($A25="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="14" priority="324">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $B18 = "")</formula>
+      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="13" priority="325">
-      <formula>AND($A24="begin repeat", NOT($B18 = ""))</formula>
+      <formula>AND($A25="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="12" priority="326">
-      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
+      <formula>AND($A25="end group", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", $O25 = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="11" priority="327">
-      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
+      <formula>AND($A25="end repeat", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", $O25 = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A25">
     <cfRule type="expression" dxfId="10" priority="328">
-      <formula>AND($A24="end group", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
+      <formula>AND($A25="end group", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", $O25 = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A25">
     <cfRule type="expression" dxfId="9" priority="329">
-      <formula>AND($A24="end repeat", $B18 = "", $C24 = "", #REF! = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "", $O24 = "", $P24 = "", $Q24 = "", $S24 = "", $T24 = "")</formula>
+      <formula>AND($A25="end repeat", $B18 = "", $C25 = "", #REF! = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "", $O25 = "", $P25 = "", $Q25 = "", $S25 = "", $T25 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A35">
+  <conditionalFormatting sqref="A34:A36">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A35">
+  <conditionalFormatting sqref="A34:A36">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="A32">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A33">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A33">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="2" priority="335">
-      <formula>COUNTIF($B$2:$B$1091,B9)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1092,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B29 B18:B19 B21:B26">
+  <conditionalFormatting sqref="B29:B30 B18:B19 B22:B27">
     <cfRule type="expression" dxfId="1" priority="336">
-      <formula>COUNTIF($B$10:$B$1098,B18)&gt;1</formula>
+      <formula>COUNTIF($B$10:$B$1099,B18)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
     <cfRule type="expression" dxfId="0" priority="339">
-      <formula>COUNTIF($B$2:$B$1090,B2)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1091,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31307,7 +31356,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-14</v>
+        <v>2022-10-31 23-51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -338,6 +338,9 @@
     <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
+    <t>Are there other family members currently living in ${house_contact_name/name}'s homestead?</t>
+  </si>
+  <si>
     <t>num_hh_members</t>
   </si>
   <si>
@@ -348,9 +351,6 @@
   </si>
   <si>
     <t>selected(../register_house_member, 'yes')</t>
-  </si>
-  <si>
-    <t>Are there other family members currently living in ${/house_contact_name/name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2046,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2715,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2746,14 +2746,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>74</v>
@@ -31356,7 +31356,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-51</v>
+        <v>2022-10-31 23-53</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -284,9 +284,6 @@
     <t>end_repeat</t>
   </si>
   <si>
-    <t>meta</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -335,10 +332,10 @@
     <t>Does ${name} know their date of birth</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth?</t>
+    <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
   <si>
-    <t>Are there other family members currently living in ${house_contact_name/name}'s homestead?</t>
+    <t>Does ${name} know their date of birth?</t>
   </si>
   <si>
     <t>num_hh_members</t>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>selected(../register_house_member, 'yes')</t>
+  </si>
+  <si>
+    <t>meta_final</t>
   </si>
 </sst>
 </file>
@@ -2043,10 +2043,10 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2083,7 +2083,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>45</v>
@@ -2092,19 +2092,19 @@
         <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2226,10 +2226,10 @@
         <v>56</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="14"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="25" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>22</v>
@@ -2463,7 +2463,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2707,7 +2707,7 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" s="12" customFormat="1" ht="26.4">
+    <row r="19" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A19" s="19" t="s">
         <v>81</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2746,14 +2746,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>74</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="26" spans="1:26" s="12" customFormat="1" ht="13.2">
       <c r="A26" s="19" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>22</v>
@@ -3158,10 +3158,10 @@
         <v>50</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A33" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3202,7 +3202,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A34" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3236,7 +3236,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="14.4">
       <c r="A35" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -3270,7 +3270,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -31356,7 +31356,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 23-53</v>
+        <v>2022-11-01 11-28</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -329,9 +329,6 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth</t>
-  </si>
-  <si>
     <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
   <si>
@@ -350,7 +347,13 @@
     <t>selected(../register_house_member, 'yes')</t>
   </si>
   <si>
-    <t>meta_final</t>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>hh_name</t>
+  </si>
+  <si>
+    <t>Does ${hh_name} know their date of birth</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +554,12 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE5B8B7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -597,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -673,6 +682,9 @@
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2043,10 +2055,10 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2387,8 +2399,8 @@
       <c r="A10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>22</v>
+      <c r="B10" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>0</v>
@@ -2463,7 +2475,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2715,7 +2727,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2746,14 +2758,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2822,7 +2834,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>74</v>
@@ -2950,7 +2962,7 @@
       <c r="A26" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -3021,7 +3033,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -3158,7 +3170,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>100</v>
@@ -30622,7 +30634,7 @@
       <c r="Z1011" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C8 A22:C24 A26:C27">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A27:C27 A26 C26">
     <cfRule type="expression" dxfId="103" priority="69">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
@@ -30632,17 +30644,17 @@
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A22:C24 A21 C21 A26:C27 A19:C19 A18 C18 B25:C25">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A21 C21 A27:C27 A19:C19 A18 C18 B25:C25 A26 C26">
     <cfRule type="cellIs" dxfId="101" priority="71" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8 B22:B24 B26:B27">
+  <conditionalFormatting sqref="B2:B8 B22:B24 B27">
     <cfRule type="expression" dxfId="100" priority="72">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C8 A22:C24 A26:C27">
+  <conditionalFormatting sqref="A2:C8 A22:C24 A27:C27 A26 C26">
     <cfRule type="expression" dxfId="99" priority="74">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
@@ -30882,12 +30894,12 @@
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A37))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22 A24:C24 A26:C26">
+  <conditionalFormatting sqref="A22:C22 A24:C24 A26 C26">
     <cfRule type="expression" dxfId="51" priority="223">
       <formula>AND($A22="end group", $B22 = "", $C22 = "", #REF! = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "", $O22 = "", $P22 = "", $Q22 = "", $S22 = "", $T22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22 A24:C24 A26:C26">
+  <conditionalFormatting sqref="A22:C22 A24:C24 A26 C26">
     <cfRule type="expression" dxfId="50" priority="226">
       <formula>AND($A22="end repeat", $B22 = "", $C22 = "", #REF! = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "", $O22 = "", $P22 = "", $Q22 = "", $S22 = "", $T22 = "")</formula>
     </cfRule>
@@ -31132,7 +31144,7 @@
       <formula>COUNTIF($B$2:$B$1092,B9)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B30 B18:B19 B22:B27">
+  <conditionalFormatting sqref="B29:B30 B18:B19 B22:B25 B27">
     <cfRule type="expression" dxfId="1" priority="336">
       <formula>COUNTIF($B$10:$B$1099,B18)&gt;1</formula>
     </cfRule>
@@ -31356,7 +31368,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-01 11-28</v>
+        <v>2022-11-01 12-02</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -332,9 +332,6 @@
     <t>Are there other family members currently living in ${name}'s homestead?</t>
   </si>
   <si>
-    <t>Does ${name} know their date of birth?</t>
-  </si>
-  <si>
     <t>num_hh_members</t>
   </si>
   <si>
@@ -354,6 +351,12 @@
   </si>
   <si>
     <t>Does ${hh_name} know their date of birth</t>
+  </si>
+  <si>
+    <t>hm_name</t>
+  </si>
+  <si>
+    <t>Does ${hm_name} know their date of birth?</t>
   </si>
 </sst>
 </file>
@@ -2055,10 +2058,10 @@
   <dimension ref="A1:Z1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2400,7 +2403,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>0</v>
@@ -2475,7 +2478,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>2</v>
@@ -2758,14 +2761,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="39"/>
       <c r="E20" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2834,7 +2837,7 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>74</v>
@@ -2963,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>72</v>
@@ -3033,7 +3036,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -3170,7 +3173,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>100</v>
@@ -31368,7 +31371,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-01 12-02</v>
+        <v>2022-11-01 12-06</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -2061,7 +2061,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -31371,7 +31371,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-01 12-06</v>
+        <v>2022-11-01 12-27</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="208">
   <si>
     <t>type</t>
   </si>
@@ -423,20 +423,6 @@
   </si>
   <si>
     <t>cohort</t>
-  </si>
-  <si>
-    <t>dob_validation_message</t>
-  </si>
-  <si>
-    <t>if(../dob_calendar &gt; today(), 'Date of birth should not be greater than today.', if(../dob_calendar &gt; date-time(decimal-date-time(today() - (int(../c_cohort_constraint_lower) * 365)))
-and ../dob_calendar &lt; date-time(decimal-date-time(today() - (int(../c_cohort_constraint_upper) * 365))), concat('Age must be between ', ${c_cohort_constraint_lower}, ' and ', ${c_cohort_constraint_upper}, '.'), concat('Age must be between ', ${c_cohort_constraint_lower}, ' and ', ${c_cohort_constraint_upper}, '.')))</t>
-  </si>
-  <si>
-    <t>. &lt;= date-time(decimal-date-time(today() - (int(../c_cohort_constraint_lower) * 365)))
-and . &gt;= date-time(decimal-date-time(today() - (int(../c_cohort_constraint_upper) * 365))) and . &lt;= today()</t>
-  </si>
-  <si>
-    <t>${dob_validation_message}</t>
   </si>
   <si>
     <t>c_dob_calendar2</t>
@@ -939,6 +925,34 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -1012,34 +1026,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1533,13 +1519,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z881"/>
+  <dimension ref="A1:Z879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2848,7 +2834,7 @@
         <v>97</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>98</v>
@@ -2892,7 +2878,7 @@
         <v>97</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>103</v>
@@ -3174,14 +3160,14 @@
         <v>82</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3604,137 +3590,139 @@
       <c r="Z57" s="6"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="E60" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="I61" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -3755,32 +3743,24 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>138</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -3802,7 +3782,7 @@
         <v>38</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>51</v>
@@ -3874,7 +3854,7 @@
         <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>51</v>
@@ -3885,7 +3865,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -3910,7 +3890,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>51</v>
@@ -3920,8 +3900,8 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="6" t="s">
-        <v>147</v>
+      <c r="I66" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3946,7 +3926,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>51</v>
@@ -3992,7 +3972,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="6" t="s">
         <v>150</v>
       </c>
       <c r="J68" s="6"/>
@@ -4014,119 +3994,115 @@
       <c r="Z68" s="6"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6" t="s">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6" t="s">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
+      <c r="A71" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>38</v>
+      <c r="A72" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>51</v>
@@ -4136,9 +4112,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -4158,43 +4132,45 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
+      <c r="A73" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>51</v>
@@ -4224,106 +4200,102 @@
       <c r="Z74" s="8"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
+      <c r="A75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
+      <c r="A76" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
+      <c r="A77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -4353,22 +4325,26 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="K79" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -4387,9 +4363,11 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -4399,7 +4377,9 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+      <c r="L80" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -4417,27 +4397,23 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>162</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -4458,19 +4434,23 @@
         <v>28</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
+      <c r="I82" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -4489,23 +4469,25 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -4523,13 +4505,13 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -4537,13 +4519,11 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
@@ -4564,11 +4544,9 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4578,7 +4556,9 @@
         <v>163</v>
       </c>
       <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="K85" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -4595,116 +4575,112 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
+    <row r="86" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+    </row>
+    <row r="87" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
+      <c r="A88" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
     </row>
     <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>51</v>
@@ -4734,193 +4710,181 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
+      <c r="A90" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
     </row>
     <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="8"/>
-      <c r="Y91" s="8"/>
-      <c r="Z91" s="8"/>
-    </row>
-    <row r="92" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="A91" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-    </row>
-    <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="20"/>
-      <c r="T93" s="20"/>
-      <c r="U93" s="20"/>
-      <c r="V93" s="20"/>
-      <c r="W93" s="20"/>
-      <c r="X93" s="20"/>
-      <c r="Y93" s="20"/>
-      <c r="Z93" s="20"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+    </row>
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+    </row>
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -4947,34 +4911,34 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
-      <c r="W97" s="4"/>
-      <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="Z97" s="4"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -5002,9 +4966,9 @@
       <c r="Z98" s="6"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="6"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -5030,65 +4994,65 @@
       <c r="Z99" s="6"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="7"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -5116,7 +5080,7 @@
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="7"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5396,7 +5360,7 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5424,7 +5388,7 @@
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -5452,7 +5416,7 @@
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="7"/>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -5480,7 +5444,7 @@
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="7"/>
+      <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -5536,7 +5500,7 @@
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="C118" s="18"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -5564,7 +5528,7 @@
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="18"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5620,7 +5584,7 @@
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="18"/>
+      <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -5676,9 +5640,9 @@
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="18"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="E123" s="18"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -5704,7 +5668,7 @@
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="18"/>
+      <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -5732,9 +5696,9 @@
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="18"/>
+      <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="18"/>
+      <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -5927,59 +5891,59 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6"/>
+      <c r="T132" s="6"/>
+      <c r="U132" s="6"/>
+      <c r="V132" s="6"/>
+      <c r="W132" s="6"/>
+      <c r="X132" s="6"/>
+      <c r="Y132" s="6"/>
+      <c r="Z132" s="6"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6"/>
+      <c r="V133" s="6"/>
+      <c r="W133" s="6"/>
+      <c r="X133" s="6"/>
+      <c r="Y133" s="6"/>
+      <c r="Z133" s="6"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
@@ -6011,59 +5975,59 @@
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="6"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="7"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
-      <c r="U135" s="6"/>
-      <c r="V135" s="6"/>
-      <c r="W135" s="6"/>
-      <c r="X135" s="6"/>
-      <c r="Y135" s="6"/>
-      <c r="Z135" s="6"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-      <c r="T136" s="6"/>
-      <c r="U136" s="6"/>
-      <c r="V136" s="6"/>
-      <c r="W136" s="6"/>
-      <c r="X136" s="6"/>
-      <c r="Y136" s="6"/>
-      <c r="Z136" s="6"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
@@ -6096,7 +6060,7 @@
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="18"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6208,7 +6172,7 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="18"/>
+      <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6317,38 +6281,38 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="21"/>
+      <c r="O146" s="21"/>
+      <c r="P146" s="21"/>
+      <c r="Q146" s="21"/>
+      <c r="R146" s="21"/>
+      <c r="S146" s="21"/>
+      <c r="T146" s="21"/>
+      <c r="U146" s="21"/>
+      <c r="V146" s="21"/>
+      <c r="W146" s="21"/>
+      <c r="X146" s="21"/>
+      <c r="Y146" s="21"/>
+      <c r="Z146" s="21"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="7"/>
+      <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -6373,33 +6337,33 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
-      <c r="M148" s="21"/>
-      <c r="N148" s="21"/>
-      <c r="O148" s="21"/>
-      <c r="P148" s="21"/>
-      <c r="Q148" s="21"/>
-      <c r="R148" s="21"/>
-      <c r="S148" s="21"/>
-      <c r="T148" s="21"/>
-      <c r="U148" s="21"/>
-      <c r="V148" s="21"/>
-      <c r="W148" s="21"/>
-      <c r="X148" s="21"/>
-      <c r="Y148" s="21"/>
-      <c r="Z148" s="21"/>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
@@ -6460,7 +6424,7 @@
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="18"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -6516,58 +6480,58 @@
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="20"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
       <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="4"/>
-      <c r="X153" s="4"/>
-      <c r="Y153" s="4"/>
-      <c r="Z153" s="4"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="20"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="20"/>
+      <c r="T153" s="20"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
       <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
-      <c r="S154" s="4"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="4"/>
-      <c r="X154" s="4"/>
-      <c r="Y154" s="4"/>
-      <c r="Z154" s="4"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="20"/>
+      <c r="T154" s="20"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
@@ -6575,10 +6539,10 @@
       <c r="C155" s="4"/>
       <c r="D155" s="20"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="15"/>
+      <c r="F155" s="4"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
-      <c r="I155" s="4"/>
+      <c r="I155" s="20"/>
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
@@ -6600,13 +6564,13 @@
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="7"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
-      <c r="I156" s="4"/>
+      <c r="I156" s="20"/>
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
@@ -6626,116 +6590,116 @@
       <c r="Z156" s="20"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
-      <c r="N157" s="20"/>
-      <c r="O157" s="20"/>
-      <c r="P157" s="20"/>
-      <c r="Q157" s="20"/>
-      <c r="R157" s="20"/>
-      <c r="S157" s="20"/>
-      <c r="T157" s="20"/>
-      <c r="U157" s="20"/>
-      <c r="V157" s="20"/>
-      <c r="W157" s="20"/>
-      <c r="X157" s="20"/>
-      <c r="Y157" s="20"/>
-      <c r="Z157" s="20"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="6"/>
+      <c r="W157" s="6"/>
+      <c r="X157" s="6"/>
+      <c r="Y157" s="6"/>
+      <c r="Z157" s="6"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
-      <c r="N158" s="20"/>
-      <c r="O158" s="20"/>
-      <c r="P158" s="20"/>
-      <c r="Q158" s="20"/>
-      <c r="R158" s="20"/>
-      <c r="S158" s="20"/>
-      <c r="T158" s="20"/>
-      <c r="U158" s="20"/>
-      <c r="V158" s="20"/>
-      <c r="W158" s="20"/>
-      <c r="X158" s="20"/>
-      <c r="Y158" s="20"/>
-      <c r="Z158" s="20"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6"/>
-      <c r="T159" s="6"/>
-      <c r="U159" s="6"/>
-      <c r="V159" s="6"/>
-      <c r="W159" s="6"/>
-      <c r="X159" s="6"/>
-      <c r="Y159" s="6"/>
-      <c r="Z159" s="6"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-      <c r="T160" s="6"/>
-      <c r="U160" s="6"/>
-      <c r="V160" s="6"/>
-      <c r="W160" s="6"/>
-      <c r="X160" s="6"/>
-      <c r="Y160" s="6"/>
-      <c r="Z160" s="6"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="6"/>
+      <c r="W158" s="6"/>
+      <c r="X158" s="6"/>
+      <c r="Y158" s="6"/>
+      <c r="Z158" s="6"/>
+    </row>
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="21"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
+      <c r="M159" s="21"/>
+      <c r="N159" s="21"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="21"/>
+      <c r="Q159" s="21"/>
+      <c r="R159" s="21"/>
+      <c r="S159" s="21"/>
+      <c r="T159" s="21"/>
+      <c r="U159" s="21"/>
+      <c r="V159" s="21"/>
+      <c r="W159" s="21"/>
+      <c r="X159" s="21"/>
+      <c r="Y159" s="21"/>
+      <c r="Z159" s="21"/>
+    </row>
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="21"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
+      <c r="M160" s="21"/>
+      <c r="N160" s="21"/>
+      <c r="O160" s="21"/>
+      <c r="P160" s="21"/>
+      <c r="Q160" s="21"/>
+      <c r="R160" s="21"/>
+      <c r="S160" s="21"/>
+      <c r="T160" s="21"/>
+      <c r="U160" s="21"/>
+      <c r="V160" s="21"/>
+      <c r="W160" s="21"/>
+      <c r="X160" s="21"/>
+      <c r="Y160" s="21"/>
+      <c r="Z160" s="21"/>
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
@@ -7101,33 +7065,33 @@
       <c r="Y173" s="21"/>
       <c r="Z173" s="21"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
-      <c r="I174" s="21"/>
-      <c r="J174" s="21"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="21"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="21"/>
-      <c r="O174" s="21"/>
-      <c r="P174" s="21"/>
-      <c r="Q174" s="21"/>
-      <c r="R174" s="21"/>
-      <c r="S174" s="21"/>
-      <c r="T174" s="21"/>
-      <c r="U174" s="21"/>
-      <c r="V174" s="21"/>
-      <c r="W174" s="21"/>
-      <c r="X174" s="21"/>
-      <c r="Y174" s="21"/>
-      <c r="Z174" s="21"/>
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+      <c r="U174" s="6"/>
+      <c r="V174" s="6"/>
+      <c r="W174" s="6"/>
+      <c r="X174" s="6"/>
+      <c r="Y174" s="6"/>
+      <c r="Z174" s="6"/>
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
@@ -7157,33 +7121,33 @@
       <c r="Y175" s="21"/>
       <c r="Z175" s="21"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6"/>
-      <c r="T176" s="6"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="6"/>
-      <c r="W176" s="6"/>
-      <c r="X176" s="6"/>
-      <c r="Y176" s="6"/>
-      <c r="Z176" s="6"/>
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="21"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="21"/>
+      <c r="J176" s="21"/>
+      <c r="K176" s="21"/>
+      <c r="L176" s="21"/>
+      <c r="M176" s="21"/>
+      <c r="N176" s="21"/>
+      <c r="O176" s="21"/>
+      <c r="P176" s="21"/>
+      <c r="Q176" s="21"/>
+      <c r="R176" s="21"/>
+      <c r="S176" s="21"/>
+      <c r="T176" s="21"/>
+      <c r="U176" s="21"/>
+      <c r="V176" s="21"/>
+      <c r="W176" s="21"/>
+      <c r="X176" s="21"/>
+      <c r="Y176" s="21"/>
+      <c r="Z176" s="21"/>
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
@@ -10406,60 +10370,10 @@
       <c r="Z291" s="21"/>
     </row>
     <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="21"/>
-      <c r="B292" s="21"/>
-      <c r="C292" s="21"/>
-      <c r="D292" s="21"/>
-      <c r="E292" s="21"/>
-      <c r="F292" s="21"/>
-      <c r="G292" s="21"/>
-      <c r="H292" s="21"/>
-      <c r="I292" s="21"/>
-      <c r="J292" s="21"/>
-      <c r="K292" s="21"/>
-      <c r="L292" s="21"/>
-      <c r="M292" s="21"/>
-      <c r="N292" s="21"/>
-      <c r="O292" s="21"/>
-      <c r="P292" s="21"/>
-      <c r="Q292" s="21"/>
-      <c r="R292" s="21"/>
-      <c r="S292" s="21"/>
-      <c r="T292" s="21"/>
-      <c r="U292" s="21"/>
-      <c r="V292" s="21"/>
-      <c r="W292" s="21"/>
-      <c r="X292" s="21"/>
-      <c r="Y292" s="21"/>
-      <c r="Z292" s="21"/>
+      <c r="D292" s="22"/>
     </row>
     <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="21"/>
-      <c r="B293" s="21"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="21"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="21"/>
-      <c r="H293" s="21"/>
-      <c r="I293" s="21"/>
-      <c r="J293" s="21"/>
-      <c r="K293" s="21"/>
-      <c r="L293" s="21"/>
-      <c r="M293" s="21"/>
-      <c r="N293" s="21"/>
-      <c r="O293" s="21"/>
-      <c r="P293" s="21"/>
-      <c r="Q293" s="21"/>
-      <c r="R293" s="21"/>
-      <c r="S293" s="21"/>
-      <c r="T293" s="21"/>
-      <c r="U293" s="21"/>
-      <c r="V293" s="21"/>
-      <c r="W293" s="21"/>
-      <c r="X293" s="21"/>
-      <c r="Y293" s="21"/>
-      <c r="Z293" s="21"/>
+      <c r="D293" s="22"/>
     </row>
     <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D294" s="22"/>
@@ -12219,39 +12133,33 @@
     <row r="879" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D879" s="22"/>
     </row>
-    <row r="880" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D880" s="22"/>
-    </row>
-    <row r="881" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D881" s="22"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A41 A47:A881 A44:A45">
+  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A879">
     <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 G1:Z881 A47:F881 A44:F45 B42:F43">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
     <cfRule type="expression" dxfId="33" priority="19">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 G1:Z881 A47:F881 A44:F45 B42:F43">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
     <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36 C1:C45 C47:C881">
+  <conditionalFormatting sqref="E36 C1:C45 C47:C879">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B36 B39:B45 B47:B881">
+  <conditionalFormatting sqref="B1:B36 B39:B45 B47:B879">
     <cfRule type="expression" dxfId="30" priority="26">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A41 A47:A881 A44:A45">
+  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A879">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
@@ -12316,12 +12224,12 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H881">
+  <conditionalFormatting sqref="H1:H879">
     <cfRule type="expression" dxfId="16" priority="41">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 G1:Z881 A47:F881 A44:F45 B42:F43">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
     <cfRule type="expression" dxfId="15" priority="42">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
@@ -12336,73 +12244,73 @@
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I881">
+  <conditionalFormatting sqref="I1:I879">
     <cfRule type="expression" dxfId="12" priority="348">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 G1:Z881 A47:F881 A44:F45 B42:F43">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
     <cfRule type="expression" dxfId="11" priority="351">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 G1:Z881 A47:F881 A44:F45 B42:F43">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
     <cfRule type="expression" dxfId="10" priority="361">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="9" priority="614">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$999, "begin group") = COUNTIF($A$1:$A$999, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="8" priority="615">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$990, "begin group") = COUNTIF($A$1:$A$999, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B36 B39:B45 B47:B881">
-    <cfRule type="expression" dxfId="7" priority="616">
-      <formula>COUNTIF($B$2:$B$998,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A42))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="2" priority="684">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$997, "begin group") = COUNTIF($A$1:$A$997, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="1" priority="685">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$988, "begin group") = COUNTIF($A$1:$A$997, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B36 B39:B45 B47:B879">
+    <cfRule type="expression" dxfId="0" priority="686">
+      <formula>COUNTIF($B$2:$B$996,B2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D881">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D879">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12432,7 +12340,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12447,30 +12355,30 @@
         <v>129</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -12480,16 +12388,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -12510,16 +12418,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -12529,16 +12437,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>182</v>
-      </c>
       <c r="C6" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12559,19 +12467,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12580,19 +12488,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>190</v>
-      </c>
       <c r="C9" s="25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12612,16 +12520,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12631,16 +12539,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -15525,46 +15433,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>197</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>206</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44866.965906018515</v>
+        <v>44866.969532986113</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="202">
   <si>
     <t>type</t>
   </si>
@@ -426,26 +426,6 @@
   </si>
   <si>
     <t>c_dob_calendar2</t>
-  </si>
-  <si>
-    <t>dob_calendar_format2</t>
-  </si>
-  <si>
-    <t>_Date of birth is ${c_dob_calendar2}_</t>
-  </si>
-  <si>
-    <t>age_years</t>
-  </si>
-  <si>
-    <t>selected(../cohort, 'over_5')
-and selected(../knows_dob, 'no')</t>
-  </si>
-  <si>
-    <t>. &gt;= int(../c_cohort_constraint_lower) 
-and . &lt;= int(../c_cohort_constraint_upper)</t>
-  </si>
-  <si>
-    <t>Age must be between ${c_cohort_constraint_lower} and${c_cohort_constraint_upper}</t>
   </si>
   <si>
     <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
@@ -1519,13 +1499,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z879"/>
+  <dimension ref="A1:Z877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2834,7 +2814,7 @@
         <v>97</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>98</v>
@@ -2878,7 +2858,7 @@
         <v>97</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>103</v>
@@ -3160,14 +3140,14 @@
         <v>82</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="31" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3627,22 +3607,22 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -3663,32 +3643,24 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -3710,7 +3682,7 @@
         <v>38</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>51</v>
@@ -3721,7 +3693,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3746,7 +3718,7 @@
         <v>38</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>51</v>
@@ -3757,7 +3729,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -3782,7 +3754,7 @@
         <v>38</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>51</v>
@@ -3793,7 +3765,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -3818,7 +3790,7 @@
         <v>38</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>51</v>
@@ -3828,8 +3800,8 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="6" t="s">
-        <v>143</v>
+      <c r="I64" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -3854,7 +3826,7 @@
         <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>51</v>
@@ -3865,7 +3837,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -3890,7 +3862,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>51</v>
@@ -3900,8 +3872,8 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="4" t="s">
-        <v>146</v>
+      <c r="I66" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3922,119 +3894,115 @@
       <c r="Z66" s="6"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6" t="s">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
+      <c r="A69" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>38</v>
+      <c r="A70" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>51</v>
@@ -4044,9 +4012,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -4066,43 +4032,45 @@
       <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
+      <c r="A71" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>51</v>
@@ -4132,106 +4100,102 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
+      <c r="A73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
+      <c r="A74" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
+      <c r="A75" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -4261,22 +4225,26 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
+      <c r="K77" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -4295,9 +4263,11 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -4307,7 +4277,9 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
+      <c r="L78" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -4325,27 +4297,23 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>158</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
@@ -4366,19 +4334,23 @@
         <v>28</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="I80" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -4397,23 +4369,25 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -4431,13 +4405,13 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -4445,13 +4419,11 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -4472,21 +4444,21 @@
         <v>38</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+      <c r="K83" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -4503,116 +4475,112 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
+    <row r="84" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+    </row>
+    <row r="85" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
     </row>
     <row r="86" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
-      <c r="X86" s="11"/>
-      <c r="Y86" s="11"/>
-      <c r="Z86" s="11"/>
+      <c r="A86" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
     </row>
     <row r="87" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>51</v>
@@ -4642,193 +4610,181 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="8"/>
+      <c r="A88" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
     </row>
     <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="8"/>
-    </row>
-    <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+      <c r="A89" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
-      <c r="X90" s="11"/>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="11"/>
-    </row>
-    <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="20"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="20"/>
-      <c r="V91" s="20"/>
-      <c r="W91" s="20"/>
-      <c r="X91" s="20"/>
-      <c r="Y91" s="20"/>
-      <c r="Z91" s="20"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20"/>
+    </row>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+    </row>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -4855,34 +4811,34 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="W95" s="4"/>
-      <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -4910,9 +4866,9 @@
       <c r="Z96" s="6"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="6"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -4938,65 +4894,65 @@
       <c r="Z97" s="6"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
-      <c r="Z98" s="6"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
-      <c r="Z99" s="6"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="7"/>
+      <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -5024,7 +4980,7 @@
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="7"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -5304,7 +5260,7 @@
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5332,7 +5288,7 @@
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5360,7 +5316,7 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="7"/>
+      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5388,7 +5344,7 @@
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="7"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -5444,7 +5400,7 @@
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="18"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -5472,7 +5428,7 @@
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="18"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -5528,7 +5484,7 @@
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="18"/>
+      <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5584,9 +5540,9 @@
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="18"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+      <c r="E121" s="18"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -5612,7 +5568,7 @@
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="18"/>
+      <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -5640,9 +5596,9 @@
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="18"/>
+      <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="18"/>
+      <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -5835,59 +5791,59 @@
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+      <c r="U130" s="6"/>
+      <c r="V130" s="6"/>
+      <c r="W130" s="6"/>
+      <c r="X130" s="6"/>
+      <c r="Y130" s="6"/>
+      <c r="Z130" s="6"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="6"/>
+      <c r="T131" s="6"/>
+      <c r="U131" s="6"/>
+      <c r="V131" s="6"/>
+      <c r="W131" s="6"/>
+      <c r="X131" s="6"/>
+      <c r="Y131" s="6"/>
+      <c r="Z131" s="6"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
@@ -5919,59 +5875,59 @@
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="6"/>
+      <c r="B133" s="4"/>
       <c r="C133" s="7"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6"/>
-      <c r="T133" s="6"/>
-      <c r="U133" s="6"/>
-      <c r="V133" s="6"/>
-      <c r="W133" s="6"/>
-      <c r="X133" s="6"/>
-      <c r="Y133" s="6"/>
-      <c r="Z133" s="6"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-      <c r="T134" s="6"/>
-      <c r="U134" s="6"/>
-      <c r="V134" s="6"/>
-      <c r="W134" s="6"/>
-      <c r="X134" s="6"/>
-      <c r="Y134" s="6"/>
-      <c r="Z134" s="6"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="4"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
@@ -6004,7 +5960,7 @@
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="C136" s="18"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -6116,7 +6072,7 @@
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="18"/>
+      <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6225,38 +6181,38 @@
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
-      <c r="Y144" s="4"/>
-      <c r="Z144" s="4"/>
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="21"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="21"/>
+      <c r="M144" s="21"/>
+      <c r="N144" s="21"/>
+      <c r="O144" s="21"/>
+      <c r="P144" s="21"/>
+      <c r="Q144" s="21"/>
+      <c r="R144" s="21"/>
+      <c r="S144" s="21"/>
+      <c r="T144" s="21"/>
+      <c r="U144" s="21"/>
+      <c r="V144" s="21"/>
+      <c r="W144" s="21"/>
+      <c r="X144" s="21"/>
+      <c r="Y144" s="21"/>
+      <c r="Z144" s="21"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="7"/>
+      <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -6281,33 +6237,33 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="21"/>
-      <c r="N146" s="21"/>
-      <c r="O146" s="21"/>
-      <c r="P146" s="21"/>
-      <c r="Q146" s="21"/>
-      <c r="R146" s="21"/>
-      <c r="S146" s="21"/>
-      <c r="T146" s="21"/>
-      <c r="U146" s="21"/>
-      <c r="V146" s="21"/>
-      <c r="W146" s="21"/>
-      <c r="X146" s="21"/>
-      <c r="Y146" s="21"/>
-      <c r="Z146" s="21"/>
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
@@ -6368,7 +6324,7 @@
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="18"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -6424,58 +6380,58 @@
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="20"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
       <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="4"/>
-      <c r="X151" s="4"/>
-      <c r="Y151" s="4"/>
-      <c r="Z151" s="4"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="20"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="20"/>
+      <c r="Q151" s="20"/>
+      <c r="R151" s="20"/>
+      <c r="S151" s="20"/>
+      <c r="T151" s="20"/>
+      <c r="U151" s="20"/>
+      <c r="V151" s="20"/>
+      <c r="W151" s="20"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
       <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-      <c r="S152" s="4"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="4"/>
-      <c r="X152" s="4"/>
-      <c r="Y152" s="4"/>
-      <c r="Z152" s="4"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="20"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="20"/>
+      <c r="Q152" s="20"/>
+      <c r="R152" s="20"/>
+      <c r="S152" s="20"/>
+      <c r="T152" s="20"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="20"/>
+      <c r="W152" s="20"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
+      <c r="Z152" s="20"/>
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
@@ -6483,10 +6439,10 @@
       <c r="C153" s="4"/>
       <c r="D153" s="20"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="15"/>
+      <c r="F153" s="4"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
-      <c r="I153" s="4"/>
+      <c r="I153" s="20"/>
       <c r="J153" s="20"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
@@ -6508,13 +6464,13 @@
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="7"/>
+      <c r="C154" s="4"/>
       <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
+      <c r="E154" s="4"/>
       <c r="F154" s="20"/>
       <c r="G154" s="20"/>
       <c r="H154" s="20"/>
-      <c r="I154" s="4"/>
+      <c r="I154" s="20"/>
       <c r="J154" s="20"/>
       <c r="K154" s="20"/>
       <c r="L154" s="20"/>
@@ -6534,116 +6490,116 @@
       <c r="Z154" s="20"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="20"/>
-      <c r="N155" s="20"/>
-      <c r="O155" s="20"/>
-      <c r="P155" s="20"/>
-      <c r="Q155" s="20"/>
-      <c r="R155" s="20"/>
-      <c r="S155" s="20"/>
-      <c r="T155" s="20"/>
-      <c r="U155" s="20"/>
-      <c r="V155" s="20"/>
-      <c r="W155" s="20"/>
-      <c r="X155" s="20"/>
-      <c r="Y155" s="20"/>
-      <c r="Z155" s="20"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="6"/>
+      <c r="W155" s="6"/>
+      <c r="X155" s="6"/>
+      <c r="Y155" s="6"/>
+      <c r="Z155" s="6"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20"/>
-      <c r="N156" s="20"/>
-      <c r="O156" s="20"/>
-      <c r="P156" s="20"/>
-      <c r="Q156" s="20"/>
-      <c r="R156" s="20"/>
-      <c r="S156" s="20"/>
-      <c r="T156" s="20"/>
-      <c r="U156" s="20"/>
-      <c r="V156" s="20"/>
-      <c r="W156" s="20"/>
-      <c r="X156" s="20"/>
-      <c r="Y156" s="20"/>
-      <c r="Z156" s="20"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
-      <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-      <c r="T157" s="6"/>
-      <c r="U157" s="6"/>
-      <c r="V157" s="6"/>
-      <c r="W157" s="6"/>
-      <c r="X157" s="6"/>
-      <c r="Y157" s="6"/>
-      <c r="Z157" s="6"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6"/>
-      <c r="T158" s="6"/>
-      <c r="U158" s="6"/>
-      <c r="V158" s="6"/>
-      <c r="W158" s="6"/>
-      <c r="X158" s="6"/>
-      <c r="Y158" s="6"/>
-      <c r="Z158" s="6"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="6"/>
+      <c r="W156" s="6"/>
+      <c r="X156" s="6"/>
+      <c r="Y156" s="6"/>
+      <c r="Z156" s="6"/>
+    </row>
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="21"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
+      <c r="J157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="21"/>
+      <c r="M157" s="21"/>
+      <c r="N157" s="21"/>
+      <c r="O157" s="21"/>
+      <c r="P157" s="21"/>
+      <c r="Q157" s="21"/>
+      <c r="R157" s="21"/>
+      <c r="S157" s="21"/>
+      <c r="T157" s="21"/>
+      <c r="U157" s="21"/>
+      <c r="V157" s="21"/>
+      <c r="W157" s="21"/>
+      <c r="X157" s="21"/>
+      <c r="Y157" s="21"/>
+      <c r="Z157" s="21"/>
+    </row>
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="21"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="21"/>
+      <c r="O158" s="21"/>
+      <c r="P158" s="21"/>
+      <c r="Q158" s="21"/>
+      <c r="R158" s="21"/>
+      <c r="S158" s="21"/>
+      <c r="T158" s="21"/>
+      <c r="U158" s="21"/>
+      <c r="V158" s="21"/>
+      <c r="W158" s="21"/>
+      <c r="X158" s="21"/>
+      <c r="Y158" s="21"/>
+      <c r="Z158" s="21"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
@@ -7009,33 +6965,33 @@
       <c r="Y171" s="21"/>
       <c r="Z171" s="21"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="21"/>
-      <c r="B172" s="21"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="21"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="21"/>
-      <c r="I172" s="21"/>
-      <c r="J172" s="21"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="21"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="21"/>
-      <c r="O172" s="21"/>
-      <c r="P172" s="21"/>
-      <c r="Q172" s="21"/>
-      <c r="R172" s="21"/>
-      <c r="S172" s="21"/>
-      <c r="T172" s="21"/>
-      <c r="U172" s="21"/>
-      <c r="V172" s="21"/>
-      <c r="W172" s="21"/>
-      <c r="X172" s="21"/>
-      <c r="Y172" s="21"/>
-      <c r="Z172" s="21"/>
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6"/>
+      <c r="T172" s="6"/>
+      <c r="U172" s="6"/>
+      <c r="V172" s="6"/>
+      <c r="W172" s="6"/>
+      <c r="X172" s="6"/>
+      <c r="Y172" s="6"/>
+      <c r="Z172" s="6"/>
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21"/>
@@ -7065,33 +7021,33 @@
       <c r="Y173" s="21"/>
       <c r="Z173" s="21"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-      <c r="M174" s="6"/>
-      <c r="N174" s="6"/>
-      <c r="O174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
-      <c r="R174" s="6"/>
-      <c r="S174" s="6"/>
-      <c r="T174" s="6"/>
-      <c r="U174" s="6"/>
-      <c r="V174" s="6"/>
-      <c r="W174" s="6"/>
-      <c r="X174" s="6"/>
-      <c r="Y174" s="6"/>
-      <c r="Z174" s="6"/>
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="21"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
+      <c r="J174" s="21"/>
+      <c r="K174" s="21"/>
+      <c r="L174" s="21"/>
+      <c r="M174" s="21"/>
+      <c r="N174" s="21"/>
+      <c r="O174" s="21"/>
+      <c r="P174" s="21"/>
+      <c r="Q174" s="21"/>
+      <c r="R174" s="21"/>
+      <c r="S174" s="21"/>
+      <c r="T174" s="21"/>
+      <c r="U174" s="21"/>
+      <c r="V174" s="21"/>
+      <c r="W174" s="21"/>
+      <c r="X174" s="21"/>
+      <c r="Y174" s="21"/>
+      <c r="Z174" s="21"/>
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
@@ -10314,60 +10270,10 @@
       <c r="Z289" s="21"/>
     </row>
     <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="21"/>
-      <c r="B290" s="21"/>
-      <c r="C290" s="21"/>
-      <c r="D290" s="21"/>
-      <c r="E290" s="21"/>
-      <c r="F290" s="21"/>
-      <c r="G290" s="21"/>
-      <c r="H290" s="21"/>
-      <c r="I290" s="21"/>
-      <c r="J290" s="21"/>
-      <c r="K290" s="21"/>
-      <c r="L290" s="21"/>
-      <c r="M290" s="21"/>
-      <c r="N290" s="21"/>
-      <c r="O290" s="21"/>
-      <c r="P290" s="21"/>
-      <c r="Q290" s="21"/>
-      <c r="R290" s="21"/>
-      <c r="S290" s="21"/>
-      <c r="T290" s="21"/>
-      <c r="U290" s="21"/>
-      <c r="V290" s="21"/>
-      <c r="W290" s="21"/>
-      <c r="X290" s="21"/>
-      <c r="Y290" s="21"/>
-      <c r="Z290" s="21"/>
+      <c r="D290" s="22"/>
     </row>
     <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="21"/>
-      <c r="B291" s="21"/>
-      <c r="C291" s="21"/>
-      <c r="D291" s="21"/>
-      <c r="E291" s="21"/>
-      <c r="F291" s="21"/>
-      <c r="G291" s="21"/>
-      <c r="H291" s="21"/>
-      <c r="I291" s="21"/>
-      <c r="J291" s="21"/>
-      <c r="K291" s="21"/>
-      <c r="L291" s="21"/>
-      <c r="M291" s="21"/>
-      <c r="N291" s="21"/>
-      <c r="O291" s="21"/>
-      <c r="P291" s="21"/>
-      <c r="Q291" s="21"/>
-      <c r="R291" s="21"/>
-      <c r="S291" s="21"/>
-      <c r="T291" s="21"/>
-      <c r="U291" s="21"/>
-      <c r="V291" s="21"/>
-      <c r="W291" s="21"/>
-      <c r="X291" s="21"/>
-      <c r="Y291" s="21"/>
-      <c r="Z291" s="21"/>
+      <c r="D291" s="22"/>
     </row>
     <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D292" s="22"/>
@@ -12127,39 +12033,33 @@
     <row r="877" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D877" s="22"/>
     </row>
-    <row r="878" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D878" s="22"/>
-    </row>
-    <row r="879" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D879" s="22"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A879">
+  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A877">
     <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
     <cfRule type="expression" dxfId="33" priority="19">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
     <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36 C1:C45 C47:C879">
+  <conditionalFormatting sqref="E36 C1:C45 C47:C877">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B36 B39:B45 B47:B879">
+  <conditionalFormatting sqref="B1:B36 B39:B45 B47:B877">
     <cfRule type="expression" dxfId="30" priority="26">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A879">
+  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A877">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
@@ -12224,12 +12124,12 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H879">
+  <conditionalFormatting sqref="H1:H877">
     <cfRule type="expression" dxfId="16" priority="41">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
     <cfRule type="expression" dxfId="15" priority="42">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
@@ -12244,17 +12144,17 @@
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I879">
+  <conditionalFormatting sqref="I1:I877">
     <cfRule type="expression" dxfId="12" priority="348">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
     <cfRule type="expression" dxfId="11" priority="351">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z879 A47:F879">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
     <cfRule type="expression" dxfId="10" priority="361">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
@@ -12295,22 +12195,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="2" priority="684">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$997, "begin group") = COUNTIF($A$1:$A$997, "end group"))</formula>
+    <cfRule type="expression" dxfId="2" priority="754">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$995, "begin group") = COUNTIF($A$1:$A$995, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="685">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$988, "begin group") = COUNTIF($A$1:$A$997, "end group")))</formula>
+    <cfRule type="expression" dxfId="1" priority="755">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$986, "begin group") = COUNTIF($A$1:$A$995, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B36 B39:B45 B47:B879">
-    <cfRule type="expression" dxfId="0" priority="686">
-      <formula>COUNTIF($B$2:$B$996,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B2:B36 B39:B45 B47:B877">
+    <cfRule type="expression" dxfId="0" priority="756">
+      <formula>COUNTIF($B$2:$B$994,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D879">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D877">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12340,7 +12240,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12355,30 +12255,30 @@
         <v>129</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -12388,16 +12288,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -12418,16 +12318,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -12437,16 +12337,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>180</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12467,19 +12367,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12488,19 +12388,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>188</v>
-      </c>
       <c r="E9" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12520,16 +12420,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12539,16 +12439,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -15433,46 +15333,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44866.969532986113</v>
+        <v>44866.971178009262</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -178,9 +178,6 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>${phone1}</t>
-  </si>
-  <si>
     <t>NO_LABEL</t>
   </si>
   <si>
@@ -644,6 +641,9 @@
   </si>
   <si>
     <t>selected(../child,'yes')</t>
+  </si>
+  <si>
+    <t>${primary_phone}</t>
   </si>
 </sst>
 </file>
@@ -1502,10 +1502,10 @@
   <dimension ref="A1:Z877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2083,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2136,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -2168,10 +2168,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2202,10 +2202,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2236,10 +2236,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2330,10 +2330,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2366,10 +2366,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>40</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>43</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>40</v>
@@ -2474,10 +2474,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2485,7 +2485,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2507,26 +2507,26 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2552,10 +2552,10 @@
         <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2563,7 +2563,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2585,21 +2585,21 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2626,10 +2626,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2659,31 +2659,31 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="4"/>
@@ -2706,10 +2706,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2717,7 +2717,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="4"/>
@@ -2742,10 +2742,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2753,7 +2753,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2775,17 +2775,17 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2811,31 +2811,31 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -2855,31 +2855,31 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -2902,10 +2902,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -2913,7 +2913,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -2938,10 +2938,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2949,7 +2949,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -2974,10 +2974,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2985,7 +2985,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -3068,10 +3068,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -3101,13 +3101,13 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>40</v>
@@ -3137,17 +3137,17 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>199</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>200</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3173,17 +3173,17 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3242,14 +3242,14 @@
         <v>14</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>27</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3469,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>40</v>
@@ -3502,10 +3502,10 @@
         <v>38</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -3513,7 +3513,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>42</v>
@@ -3574,10 +3574,10 @@
         <v>38</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3585,7 +3585,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3613,7 +3613,7 @@
         <v>45</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3621,7 +3621,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3646,10 +3646,10 @@
         <v>38</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3657,7 +3657,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3682,10 +3682,10 @@
         <v>38</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3693,7 +3693,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3718,10 +3718,10 @@
         <v>38</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3729,7 +3729,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -3754,10 +3754,10 @@
         <v>38</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -3765,7 +3765,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -3790,10 +3790,10 @@
         <v>38</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3801,7 +3801,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -3826,10 +3826,10 @@
         <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -3837,7 +3837,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -3862,10 +3862,10 @@
         <v>38</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3873,7 +3873,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3898,10 +3898,10 @@
         <v>38</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3909,7 +3909,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3934,10 +3934,10 @@
         <v>38</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3945,7 +3945,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3970,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -4002,10 +4002,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -4036,10 +4036,10 @@
         <v>28</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -4070,10 +4070,10 @@
         <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -4161,13 +4161,13 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -4228,10 +4228,10 @@
         <v>14</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -4312,7 +4312,7 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -4337,7 +4337,7 @@
         <v>33</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -4383,7 +4383,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -4408,10 +4408,10 @@
         <v>38</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -4419,7 +4419,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -4453,7 +4453,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="6" t="s">
@@ -4480,7 +4480,7 @@
         <v>14</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -4512,10 +4512,10 @@
         <v>28</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4546,10 +4546,10 @@
         <v>28</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4580,10 +4580,10 @@
         <v>28</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -12209,7 +12209,7 @@
       <formula>COUNTIF($B$2:$B$994,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" sqref="D2:D877">
       <formula1>"yes,no"</formula1>
     </dataValidation>
@@ -12240,7 +12240,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12252,33 +12252,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -12288,16 +12288,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -12318,16 +12318,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>170</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>171</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -12337,16 +12337,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>174</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12367,19 +12367,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>179</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12388,19 +12388,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>182</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>183</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12420,16 +12420,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12439,16 +12439,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -15333,46 +15333,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>190</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44866.971178009262</v>
+        <v>44866.972633912039</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>194</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="200">
   <si>
     <t>type</t>
   </si>
@@ -473,14 +473,6 @@
   </si>
   <si>
     <t>../person_age_years</t>
-  </si>
-  <si>
-    <t>c_age_string</t>
-  </si>
-  <si>
-    <t>if(../c_person_age_in_years &lt;= 5, 
-concat(${c_person_age_in_years}, ' years ', ${c_patient_mod_mnths}, ' months old'),
-concat(${c_person_age_in_years}, ' years old'))</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -1499,13 +1491,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z877"/>
+  <dimension ref="A1:Z876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2075,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2814,7 +2806,7 @@
         <v>96</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>97</v>
@@ -2858,7 +2850,7 @@
         <v>96</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>102</v>
@@ -3140,14 +3132,14 @@
         <v>81</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3930,79 +3922,77 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="A68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+    </row>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>50</v>
@@ -4036,7 +4026,7 @@
         <v>28</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>50</v>
@@ -4066,75 +4056,75 @@
       <c r="Z71" s="8"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
+      <c r="A72" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
+      <c r="A73" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -4161,14 +4151,10 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -4195,18 +4181,26 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
+      <c r="K76" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4225,27 +4219,23 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -4266,7 +4256,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -4278,7 +4268,7 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -4300,19 +4290,23 @@
         <v>28</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="I79" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -4331,10 +4325,10 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>50</v>
@@ -4345,13 +4339,11 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -4372,10 +4364,10 @@
         <v>38</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -4383,7 +4375,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -4408,21 +4400,21 @@
         <v>38</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>154</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="K82" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -4439,80 +4431,78 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
+    <row r="83" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
     </row>
     <row r="84" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="11"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="11"/>
-      <c r="X84" s="11"/>
-      <c r="Y84" s="11"/>
-      <c r="Z84" s="11"/>
+      <c r="A84" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="8"/>
     </row>
     <row r="85" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>50</v>
@@ -4546,7 +4536,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>50</v>
@@ -4576,131 +4566,125 @@
       <c r="Z86" s="8"/>
     </row>
     <row r="87" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
-      <c r="Y87" s="8"/>
-      <c r="Z87" s="8"/>
+      <c r="A87" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
     </row>
     <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
-    </row>
-    <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
-      <c r="V89" s="20"/>
-      <c r="W89" s="20"/>
-      <c r="X89" s="20"/>
-      <c r="Y89" s="20"/>
-      <c r="Z89" s="20"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+    </row>
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -4727,64 +4711,64 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="6"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
-      <c r="Z93" s="4"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="4"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -4810,9 +4794,9 @@
       <c r="Z94" s="6"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="6"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -4866,32 +4850,32 @@
       <c r="Z96" s="6"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
@@ -4924,7 +4908,7 @@
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="7"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -5232,7 +5216,7 @@
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5288,7 +5272,7 @@
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="7"/>
+      <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5372,7 +5356,7 @@
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="18"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -5456,7 +5440,7 @@
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="18"/>
+      <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -5484,7 +5468,7 @@
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="18"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5514,7 +5498,7 @@
       <c r="B120" s="4"/>
       <c r="C120" s="18"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+      <c r="E120" s="18"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -5540,9 +5524,9 @@
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="18"/>
+      <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="18"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -5763,36 +5747,36 @@
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+      <c r="U129" s="6"/>
+      <c r="V129" s="6"/>
+      <c r="W129" s="6"/>
+      <c r="X129" s="6"/>
+      <c r="Y129" s="6"/>
+      <c r="Z129" s="6"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -5820,7 +5804,7 @@
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
+      <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -5847,36 +5831,36 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="6"/>
-      <c r="T132" s="6"/>
-      <c r="U132" s="6"/>
-      <c r="V132" s="6"/>
-      <c r="W132" s="6"/>
-      <c r="X132" s="6"/>
-      <c r="Y132" s="6"/>
-      <c r="Z132" s="6"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="7"/>
+      <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -5904,7 +5888,7 @@
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5932,7 +5916,7 @@
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="7"/>
+      <c r="C135" s="18"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -5960,7 +5944,7 @@
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="18"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -5988,7 +5972,7 @@
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="7"/>
+      <c r="C137" s="18"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -6016,7 +6000,7 @@
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="18"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6044,7 +6028,7 @@
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="7"/>
+      <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -6072,7 +6056,7 @@
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6100,7 +6084,7 @@
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="7"/>
+      <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6128,7 +6112,7 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6153,66 +6137,66 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="21"/>
-      <c r="J144" s="21"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="21"/>
-      <c r="M144" s="21"/>
-      <c r="N144" s="21"/>
-      <c r="O144" s="21"/>
-      <c r="P144" s="21"/>
-      <c r="Q144" s="21"/>
-      <c r="R144" s="21"/>
-      <c r="S144" s="21"/>
-      <c r="T144" s="21"/>
-      <c r="U144" s="21"/>
-      <c r="V144" s="21"/>
-      <c r="W144" s="21"/>
-      <c r="X144" s="21"/>
-      <c r="Y144" s="21"/>
-      <c r="Z144" s="21"/>
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+      <c r="J143" s="21"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="21"/>
+      <c r="M143" s="21"/>
+      <c r="N143" s="21"/>
+      <c r="O143" s="21"/>
+      <c r="P143" s="21"/>
+      <c r="Q143" s="21"/>
+      <c r="R143" s="21"/>
+      <c r="S143" s="21"/>
+      <c r="T143" s="21"/>
+      <c r="U143" s="21"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="21"/>
+      <c r="X143" s="21"/>
+      <c r="Y143" s="21"/>
+      <c r="Z143" s="21"/>
+    </row>
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+      <c r="Z144" s="4"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -6240,7 +6224,7 @@
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="7"/>
+      <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -6268,7 +6252,7 @@
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -6296,7 +6280,7 @@
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="7"/>
+      <c r="C148" s="18"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -6324,7 +6308,7 @@
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="18"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -6352,38 +6336,38 @@
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="20"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
       <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
-      <c r="Y150" s="4"/>
-      <c r="Z150" s="4"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="20"/>
+      <c r="O150" s="20"/>
+      <c r="P150" s="20"/>
+      <c r="Q150" s="20"/>
+      <c r="R150" s="20"/>
+      <c r="S150" s="20"/>
+      <c r="T150" s="20"/>
+      <c r="U150" s="20"/>
+      <c r="V150" s="20"/>
+      <c r="W150" s="20"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="20"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="15"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
       <c r="G151" s="20"/>
       <c r="H151" s="20"/>
       <c r="I151" s="4"/>
@@ -6408,13 +6392,13 @@
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="7"/>
+      <c r="C152" s="4"/>
       <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="4"/>
+      <c r="I152" s="20"/>
       <c r="J152" s="20"/>
       <c r="K152" s="20"/>
       <c r="L152" s="20"/>
@@ -6439,7 +6423,7 @@
       <c r="C153" s="4"/>
       <c r="D153" s="20"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
+      <c r="F153" s="20"/>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
@@ -6462,32 +6446,32 @@
       <c r="Z153" s="20"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="20"/>
-      <c r="O154" s="20"/>
-      <c r="P154" s="20"/>
-      <c r="Q154" s="20"/>
-      <c r="R154" s="20"/>
-      <c r="S154" s="20"/>
-      <c r="T154" s="20"/>
-      <c r="U154" s="20"/>
-      <c r="V154" s="20"/>
-      <c r="W154" s="20"/>
-      <c r="X154" s="20"/>
-      <c r="Y154" s="20"/>
-      <c r="Z154" s="20"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+      <c r="U154" s="6"/>
+      <c r="V154" s="6"/>
+      <c r="W154" s="6"/>
+      <c r="X154" s="6"/>
+      <c r="Y154" s="6"/>
+      <c r="Z154" s="6"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
@@ -6517,33 +6501,33 @@
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-      <c r="O156" s="6"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6"/>
-      <c r="T156" s="6"/>
-      <c r="U156" s="6"/>
-      <c r="V156" s="6"/>
-      <c r="W156" s="6"/>
-      <c r="X156" s="6"/>
-      <c r="Y156" s="6"/>
-      <c r="Z156" s="6"/>
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="21"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
+      <c r="J156" s="21"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="21"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="21"/>
+      <c r="O156" s="21"/>
+      <c r="P156" s="21"/>
+      <c r="Q156" s="21"/>
+      <c r="R156" s="21"/>
+      <c r="S156" s="21"/>
+      <c r="T156" s="21"/>
+      <c r="U156" s="21"/>
+      <c r="V156" s="21"/>
+      <c r="W156" s="21"/>
+      <c r="X156" s="21"/>
+      <c r="Y156" s="21"/>
+      <c r="Z156" s="21"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="21"/>
@@ -6937,61 +6921,61 @@
       <c r="Y170" s="21"/>
       <c r="Z170" s="21"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="21"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="21"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="21"/>
-      <c r="I171" s="21"/>
-      <c r="J171" s="21"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="21"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="21"/>
-      <c r="O171" s="21"/>
-      <c r="P171" s="21"/>
-      <c r="Q171" s="21"/>
-      <c r="R171" s="21"/>
-      <c r="S171" s="21"/>
-      <c r="T171" s="21"/>
-      <c r="U171" s="21"/>
-      <c r="V171" s="21"/>
-      <c r="W171" s="21"/>
-      <c r="X171" s="21"/>
-      <c r="Y171" s="21"/>
-      <c r="Z171" s="21"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
-      <c r="O172" s="6"/>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="6"/>
-      <c r="S172" s="6"/>
-      <c r="T172" s="6"/>
-      <c r="U172" s="6"/>
-      <c r="V172" s="6"/>
-      <c r="W172" s="6"/>
-      <c r="X172" s="6"/>
-      <c r="Y172" s="6"/>
-      <c r="Z172" s="6"/>
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6"/>
+      <c r="T171" s="6"/>
+      <c r="U171" s="6"/>
+      <c r="V171" s="6"/>
+      <c r="W171" s="6"/>
+      <c r="X171" s="6"/>
+      <c r="Y171" s="6"/>
+      <c r="Z171" s="6"/>
+    </row>
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="21"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="21"/>
+      <c r="J172" s="21"/>
+      <c r="K172" s="21"/>
+      <c r="L172" s="21"/>
+      <c r="M172" s="21"/>
+      <c r="N172" s="21"/>
+      <c r="O172" s="21"/>
+      <c r="P172" s="21"/>
+      <c r="Q172" s="21"/>
+      <c r="R172" s="21"/>
+      <c r="S172" s="21"/>
+      <c r="T172" s="21"/>
+      <c r="U172" s="21"/>
+      <c r="V172" s="21"/>
+      <c r="W172" s="21"/>
+      <c r="X172" s="21"/>
+      <c r="Y172" s="21"/>
+      <c r="Z172" s="21"/>
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21"/>
@@ -10241,77 +10225,52 @@
       <c r="Y288" s="21"/>
       <c r="Z288" s="21"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="21"/>
-      <c r="B289" s="21"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="21"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
-      <c r="H289" s="21"/>
-      <c r="I289" s="21"/>
-      <c r="J289" s="21"/>
-      <c r="K289" s="21"/>
-      <c r="L289" s="21"/>
-      <c r="M289" s="21"/>
-      <c r="N289" s="21"/>
-      <c r="O289" s="21"/>
-      <c r="P289" s="21"/>
-      <c r="Q289" s="21"/>
-      <c r="R289" s="21"/>
-      <c r="S289" s="21"/>
-      <c r="T289" s="21"/>
-      <c r="U289" s="21"/>
-      <c r="V289" s="21"/>
-      <c r="W289" s="21"/>
-      <c r="X289" s="21"/>
-      <c r="Y289" s="21"/>
-      <c r="Z289" s="21"/>
-    </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D289" s="22"/>
+    </row>
+    <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D290" s="22"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D291" s="22"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D292" s="22"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D293" s="22"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D294" s="22"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D295" s="22"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D296" s="22"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D297" s="22"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D298" s="22"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D299" s="22"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D300" s="22"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D301" s="22"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D302" s="22"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D303" s="22"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D304" s="22"/>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12030,36 +11989,33 @@
     <row r="876" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D876" s="22"/>
     </row>
-    <row r="877" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D877" s="22"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A877">
+  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A876">
     <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
     <cfRule type="expression" dxfId="33" priority="19">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
     <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36 C1:C45 C47:C877">
+  <conditionalFormatting sqref="E36 C1:C45 C47:C876">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B36 B39:B45 B47:B877">
+  <conditionalFormatting sqref="B1:B36 B39:B45 B47:B876">
     <cfRule type="expression" dxfId="30" priority="26">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A877">
+  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A876">
     <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
@@ -12124,12 +12080,12 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H877">
+  <conditionalFormatting sqref="H1:H876">
     <cfRule type="expression" dxfId="16" priority="41">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
     <cfRule type="expression" dxfId="15" priority="42">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
@@ -12144,17 +12100,17 @@
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I877">
+  <conditionalFormatting sqref="I1:I876">
     <cfRule type="expression" dxfId="12" priority="348">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
     <cfRule type="expression" dxfId="11" priority="351">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z877 A47:F877">
+  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
     <cfRule type="expression" dxfId="10" priority="361">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
@@ -12195,22 +12151,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="2" priority="754">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$995, "begin group") = COUNTIF($A$1:$A$995, "end group"))</formula>
+    <cfRule type="expression" dxfId="2" priority="789">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$994, "begin group") = COUNTIF($A$1:$A$994, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="755">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$986, "begin group") = COUNTIF($A$1:$A$995, "end group")))</formula>
+    <cfRule type="expression" dxfId="1" priority="790">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$985, "begin group") = COUNTIF($A$1:$A$994, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B36 B39:B45 B47:B877">
-    <cfRule type="expression" dxfId="0" priority="756">
-      <formula>COUNTIF($B$2:$B$994,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B2:B36 B39:B45 B47:B876">
+    <cfRule type="expression" dxfId="0" priority="791">
+      <formula>COUNTIF($B$2:$B$993,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D877">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D876">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12240,7 +12196,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12255,30 +12211,30 @@
         <v>128</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -12288,16 +12244,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -12318,16 +12274,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>170</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -12337,16 +12293,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>173</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12367,19 +12323,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="D8" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>178</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12388,19 +12344,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>182</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12420,16 +12376,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12439,16 +12395,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -15333,46 +15289,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>188</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44866.972633912039</v>
+        <v>44866.973762384259</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="191">
   <si>
     <t>type</t>
   </si>
@@ -253,19 +253,6 @@
   </si>
   <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>dob_calendar_format1</t>
-  </si>
-  <si>
-    <t>_Date of birth is ${c_dob_calendar1}_</t>
-  </si>
-  <si>
-    <t>selected(../cohort, 'under_5')
-or selected(../knows_dob, 'yes')</t>
-  </si>
-  <si>
-    <t>../hh_age_years != ''</t>
   </si>
   <si>
     <t>hh_age_years</t>
@@ -428,18 +415,6 @@
     <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
   </si>
   <si>
-    <t>ephemeral_months</t>
-  </si>
-  <si>
-    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
-  </si>
-  <si>
-    <t>ephemeral_years</t>
-  </si>
-  <si>
-    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
-  </si>
-  <si>
     <t>dob_approx</t>
   </si>
   <si>
@@ -463,12 +438,6 @@
     <t>if(../dob_calendar != '',floor( difference-in-months( ../dob_iso, today() ) div 12 ),../age_years)</t>
   </si>
   <si>
-    <t>person_age_months</t>
-  </si>
-  <si>
-    <t>if(../dob_calendar != '',difference-in-months( ../dob_iso, today() ),(../age_years)*12 + ../age_months)</t>
-  </si>
-  <si>
     <t>c_person_age_in_years</t>
   </si>
   <si>
@@ -636,6 +605,9 @@
   </si>
   <si>
     <t>${primary_phone}</t>
+  </si>
+  <si>
+    <t>Family Members</t>
   </si>
 </sst>
 </file>
@@ -645,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -722,6 +694,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -807,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -891,19 +870,14 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <strike/>
@@ -921,6 +895,77 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1491,13 +1536,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z876"/>
+  <dimension ref="A1:Z872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1853,9 @@
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
@@ -2075,7 +2122,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2130,7 +2177,9 @@
       <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -2576,143 +2625,141 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="C32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="15" t="s">
-        <v>90</v>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="J34" s="8"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -2730,23 +2777,23 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>38</v>
+      <c r="A35" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -2766,68 +2813,76 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
+      <c r="H36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -2846,34 +2901,26 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="A38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="C38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L38" s="4"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="14"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2894,10 +2941,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -2905,7 +2952,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -2930,10 +2977,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2941,7 +2988,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -2962,23 +3009,17 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="A41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="14"/>
@@ -2998,9 +3039,7 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A42" s="32"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3028,83 +3067,91 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
+      <c r="A43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A44" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="B44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31" t="s">
+        <v>188</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -3127,87 +3174,89 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
+      <c r="A47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -3229,23 +3278,19 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>119</v>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>190</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3268,13 +3313,15 @@
       <c r="Z49" s="6"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="7"/>
+      <c r="A50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3301,23 +3348,29 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="K51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -3338,10 +3391,10 @@
         <v>28</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3356,7 +3409,7 @@
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -3377,100 +3430,96 @@
       <c r="A53" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6" t="s">
+      <c r="B53" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6" t="s">
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
+      <c r="L53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -3491,22 +3540,22 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -3526,83 +3575,83 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
+      <c r="A57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>50</v>
@@ -3613,7 +3662,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3638,7 +3687,7 @@
         <v>38</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>50</v>
@@ -3649,7 +3698,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3674,7 +3723,7 @@
         <v>38</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>50</v>
@@ -3684,8 +3733,8 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="6" t="s">
-        <v>134</v>
+      <c r="I61" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3710,7 +3759,7 @@
         <v>38</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>50</v>
@@ -3721,7 +3770,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -3742,155 +3791,149 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="6" t="s">
+      <c r="B63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="A64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="A66" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>38</v>
+      <c r="A67" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>50</v>
@@ -3900,9 +3943,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="15" t="s">
-        <v>145</v>
-      </c>
+      <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -3922,12 +3963,10 @@
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A68" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -3954,142 +3993,144 @@
       <c r="Z68" s="11"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
+      <c r="A69" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="8"/>
+      <c r="A70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
+      <c r="A71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
+      <c r="A72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -4099,7 +4140,9 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+      <c r="L73" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
@@ -4117,14 +4160,12 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>147</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -4133,7 +4174,9 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
+      <c r="L74" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
@@ -4151,19 +4194,27 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="I75" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+      <c r="L75" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
@@ -4181,26 +4232,24 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+      <c r="I76" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="J76" s="6"/>
-      <c r="K76" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4219,23 +4268,25 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+      <c r="I77" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
@@ -4253,23 +4304,27 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+      <c r="I78" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="K78" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
@@ -4285,159 +4340,147 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>33</v>
+    <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="6" t="s">
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+    </row>
+    <row r="80" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+    </row>
+    <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+    </row>
+    <row r="82" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8"/>
     </row>
     <row r="83" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -4464,199 +4507,179 @@
       <c r="Z83" s="11"/>
     </row>
     <row r="84" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="8"/>
-    </row>
-    <row r="85" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="8"/>
-    </row>
-    <row r="86" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="8"/>
-    </row>
-    <row r="87" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="A84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-    </row>
-    <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+    </row>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+    </row>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+    </row>
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="20"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="20"/>
-      <c r="V88" s="20"/>
-      <c r="W88" s="20"/>
-      <c r="X88" s="20"/>
-      <c r="Y88" s="20"/>
-      <c r="Z88" s="20"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4682,9 +4705,9 @@
       <c r="Z90" s="6"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -4710,149 +4733,149 @@
       <c r="Z91" s="6"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
-      <c r="Z96" s="6"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="7"/>
+      <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -4880,7 +4903,7 @@
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="7"/>
+      <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -5104,7 +5127,7 @@
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5132,7 +5155,7 @@
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="7"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -5216,7 +5239,7 @@
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="7"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5244,7 +5267,7 @@
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="7"/>
+      <c r="C111" s="18"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5272,7 +5295,7 @@
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="18"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5300,7 +5323,7 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="18"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5386,7 +5409,7 @@
       <c r="B116" s="4"/>
       <c r="C116" s="18"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="E116" s="18"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5412,7 +5435,7 @@
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="18"/>
+      <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -5468,7 +5491,7 @@
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="18"/>
+      <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5496,9 +5519,9 @@
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="18"/>
+      <c r="C120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="18"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -5635,92 +5658,92 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+      <c r="U125" s="6"/>
+      <c r="V125" s="6"/>
+      <c r="W125" s="6"/>
+      <c r="X125" s="6"/>
+      <c r="Y125" s="6"/>
+      <c r="Z125" s="6"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="6"/>
+      <c r="T126" s="6"/>
+      <c r="U126" s="6"/>
+      <c r="V126" s="6"/>
+      <c r="W126" s="6"/>
+      <c r="X126" s="6"/>
+      <c r="Y126" s="6"/>
+      <c r="Z126" s="6"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+      <c r="U127" s="6"/>
+      <c r="V127" s="6"/>
+      <c r="W127" s="6"/>
+      <c r="X127" s="6"/>
+      <c r="Y127" s="6"/>
+      <c r="Z127" s="6"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -5747,87 +5770,87 @@
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-      <c r="T129" s="6"/>
-      <c r="U129" s="6"/>
-      <c r="V129" s="6"/>
-      <c r="W129" s="6"/>
-      <c r="X129" s="6"/>
-      <c r="Y129" s="6"/>
-      <c r="Z129" s="6"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="6"/>
+      <c r="B130" s="4"/>
       <c r="C130" s="7"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-      <c r="R130" s="6"/>
-      <c r="S130" s="6"/>
-      <c r="T130" s="6"/>
-      <c r="U130" s="6"/>
-      <c r="V130" s="6"/>
-      <c r="W130" s="6"/>
-      <c r="X130" s="6"/>
-      <c r="Y130" s="6"/>
-      <c r="Z130" s="6"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6"/>
-      <c r="S131" s="6"/>
-      <c r="T131" s="6"/>
-      <c r="U131" s="6"/>
-      <c r="V131" s="6"/>
-      <c r="W131" s="6"/>
-      <c r="X131" s="6"/>
-      <c r="Y131" s="6"/>
-      <c r="Z131" s="6"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
@@ -5860,7 +5883,7 @@
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="C133" s="18"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -5916,7 +5939,7 @@
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="18"/>
+      <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -5972,7 +5995,7 @@
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="18"/>
+      <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -6025,38 +6048,38 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+      <c r="O139" s="21"/>
+      <c r="P139" s="21"/>
+      <c r="Q139" s="21"/>
+      <c r="R139" s="21"/>
+      <c r="S139" s="21"/>
+      <c r="T139" s="21"/>
+      <c r="U139" s="21"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="21"/>
+      <c r="X139" s="21"/>
+      <c r="Y139" s="21"/>
+      <c r="Z139" s="21"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="7"/>
+      <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6084,7 +6107,7 @@
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6112,7 +6135,7 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="7"/>
+      <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6137,38 +6160,38 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="21"/>
-      <c r="I143" s="21"/>
-      <c r="J143" s="21"/>
-      <c r="K143" s="21"/>
-      <c r="L143" s="21"/>
-      <c r="M143" s="21"/>
-      <c r="N143" s="21"/>
-      <c r="O143" s="21"/>
-      <c r="P143" s="21"/>
-      <c r="Q143" s="21"/>
-      <c r="R143" s="21"/>
-      <c r="S143" s="21"/>
-      <c r="T143" s="21"/>
-      <c r="U143" s="21"/>
-      <c r="V143" s="21"/>
-      <c r="W143" s="21"/>
-      <c r="X143" s="21"/>
-      <c r="Y143" s="21"/>
-      <c r="Z143" s="21"/>
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="18"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -6225,281 +6248,281 @@
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="20"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="20"/>
+      <c r="R146" s="20"/>
+      <c r="S146" s="20"/>
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="20"/>
+      <c r="W146" s="20"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
       <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="20"/>
+      <c r="R147" s="20"/>
+      <c r="S147" s="20"/>
+      <c r="T147" s="20"/>
+      <c r="U147" s="20"/>
+      <c r="V147" s="20"/>
+      <c r="W147" s="20"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="20"/>
+      <c r="Z147" s="20"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="20"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="20"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="20"/>
+      <c r="Q148" s="20"/>
+      <c r="R148" s="20"/>
+      <c r="S148" s="20"/>
+      <c r="T148" s="20"/>
+      <c r="U148" s="20"/>
+      <c r="V148" s="20"/>
+      <c r="W148" s="20"/>
+      <c r="X148" s="20"/>
+      <c r="Y148" s="20"/>
+      <c r="Z148" s="20"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="20"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="4"/>
-      <c r="X149" s="4"/>
-      <c r="Y149" s="4"/>
-      <c r="Z149" s="4"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="20"/>
+      <c r="O149" s="20"/>
+      <c r="P149" s="20"/>
+      <c r="Q149" s="20"/>
+      <c r="R149" s="20"/>
+      <c r="S149" s="20"/>
+      <c r="T149" s="20"/>
+      <c r="U149" s="20"/>
+      <c r="V149" s="20"/>
+      <c r="W149" s="20"/>
+      <c r="X149" s="20"/>
+      <c r="Y149" s="20"/>
+      <c r="Z149" s="20"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="20"/>
-      <c r="N150" s="20"/>
-      <c r="O150" s="20"/>
-      <c r="P150" s="20"/>
-      <c r="Q150" s="20"/>
-      <c r="R150" s="20"/>
-      <c r="S150" s="20"/>
-      <c r="T150" s="20"/>
-      <c r="U150" s="20"/>
-      <c r="V150" s="20"/>
-      <c r="W150" s="20"/>
-      <c r="X150" s="20"/>
-      <c r="Y150" s="20"/>
-      <c r="Z150" s="20"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
+      <c r="T150" s="6"/>
+      <c r="U150" s="6"/>
+      <c r="V150" s="6"/>
+      <c r="W150" s="6"/>
+      <c r="X150" s="6"/>
+      <c r="Y150" s="6"/>
+      <c r="Z150" s="6"/>
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="20"/>
-      <c r="K151" s="20"/>
-      <c r="L151" s="20"/>
-      <c r="M151" s="20"/>
-      <c r="N151" s="20"/>
-      <c r="O151" s="20"/>
-      <c r="P151" s="20"/>
-      <c r="Q151" s="20"/>
-      <c r="R151" s="20"/>
-      <c r="S151" s="20"/>
-      <c r="T151" s="20"/>
-      <c r="U151" s="20"/>
-      <c r="V151" s="20"/>
-      <c r="W151" s="20"/>
-      <c r="X151" s="20"/>
-      <c r="Y151" s="20"/>
-      <c r="Z151" s="20"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="20"/>
-      <c r="M152" s="20"/>
-      <c r="N152" s="20"/>
-      <c r="O152" s="20"/>
-      <c r="P152" s="20"/>
-      <c r="Q152" s="20"/>
-      <c r="R152" s="20"/>
-      <c r="S152" s="20"/>
-      <c r="T152" s="20"/>
-      <c r="U152" s="20"/>
-      <c r="V152" s="20"/>
-      <c r="W152" s="20"/>
-      <c r="X152" s="20"/>
-      <c r="Y152" s="20"/>
-      <c r="Z152" s="20"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
-      <c r="M153" s="20"/>
-      <c r="N153" s="20"/>
-      <c r="O153" s="20"/>
-      <c r="P153" s="20"/>
-      <c r="Q153" s="20"/>
-      <c r="R153" s="20"/>
-      <c r="S153" s="20"/>
-      <c r="T153" s="20"/>
-      <c r="U153" s="20"/>
-      <c r="V153" s="20"/>
-      <c r="W153" s="20"/>
-      <c r="X153" s="20"/>
-      <c r="Y153" s="20"/>
-      <c r="Z153" s="20"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6"/>
-      <c r="T154" s="6"/>
-      <c r="U154" s="6"/>
-      <c r="V154" s="6"/>
-      <c r="W154" s="6"/>
-      <c r="X154" s="6"/>
-      <c r="Y154" s="6"/>
-      <c r="Z154" s="6"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6"/>
-      <c r="T155" s="6"/>
-      <c r="U155" s="6"/>
-      <c r="V155" s="6"/>
-      <c r="W155" s="6"/>
-      <c r="X155" s="6"/>
-      <c r="Y155" s="6"/>
-      <c r="Z155" s="6"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
+      <c r="T151" s="6"/>
+      <c r="U151" s="6"/>
+      <c r="V151" s="6"/>
+      <c r="W151" s="6"/>
+      <c r="X151" s="6"/>
+      <c r="Y151" s="6"/>
+      <c r="Z151" s="6"/>
+    </row>
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="21"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
+      <c r="J152" s="21"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="21"/>
+      <c r="M152" s="21"/>
+      <c r="N152" s="21"/>
+      <c r="O152" s="21"/>
+      <c r="P152" s="21"/>
+      <c r="Q152" s="21"/>
+      <c r="R152" s="21"/>
+      <c r="S152" s="21"/>
+      <c r="T152" s="21"/>
+      <c r="U152" s="21"/>
+      <c r="V152" s="21"/>
+      <c r="W152" s="21"/>
+      <c r="X152" s="21"/>
+      <c r="Y152" s="21"/>
+      <c r="Z152" s="21"/>
+    </row>
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
+      <c r="J153" s="21"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="21"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="21"/>
+      <c r="P153" s="21"/>
+      <c r="Q153" s="21"/>
+      <c r="R153" s="21"/>
+      <c r="S153" s="21"/>
+      <c r="T153" s="21"/>
+      <c r="U153" s="21"/>
+      <c r="V153" s="21"/>
+      <c r="W153" s="21"/>
+      <c r="X153" s="21"/>
+      <c r="Y153" s="21"/>
+      <c r="Z153" s="21"/>
+    </row>
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="21"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
+      <c r="J154" s="21"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="21"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="21"/>
+      <c r="O154" s="21"/>
+      <c r="P154" s="21"/>
+      <c r="Q154" s="21"/>
+      <c r="R154" s="21"/>
+      <c r="S154" s="21"/>
+      <c r="T154" s="21"/>
+      <c r="U154" s="21"/>
+      <c r="V154" s="21"/>
+      <c r="W154" s="21"/>
+      <c r="X154" s="21"/>
+      <c r="Y154" s="21"/>
+      <c r="Z154" s="21"/>
+    </row>
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="21"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="21"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="21"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="21"/>
+      <c r="O155" s="21"/>
+      <c r="P155" s="21"/>
+      <c r="Q155" s="21"/>
+      <c r="R155" s="21"/>
+      <c r="S155" s="21"/>
+      <c r="T155" s="21"/>
+      <c r="U155" s="21"/>
+      <c r="V155" s="21"/>
+      <c r="W155" s="21"/>
+      <c r="X155" s="21"/>
+      <c r="Y155" s="21"/>
+      <c r="Z155" s="21"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="21"/>
@@ -6809,33 +6832,33 @@
       <c r="Y166" s="21"/>
       <c r="Z166" s="21"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="21"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="21"/>
-      <c r="I167" s="21"/>
-      <c r="J167" s="21"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="21"/>
-      <c r="M167" s="21"/>
-      <c r="N167" s="21"/>
-      <c r="O167" s="21"/>
-      <c r="P167" s="21"/>
-      <c r="Q167" s="21"/>
-      <c r="R167" s="21"/>
-      <c r="S167" s="21"/>
-      <c r="T167" s="21"/>
-      <c r="U167" s="21"/>
-      <c r="V167" s="21"/>
-      <c r="W167" s="21"/>
-      <c r="X167" s="21"/>
-      <c r="Y167" s="21"/>
-      <c r="Z167" s="21"/>
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6"/>
+      <c r="V167" s="6"/>
+      <c r="W167" s="6"/>
+      <c r="X167" s="6"/>
+      <c r="Y167" s="6"/>
+      <c r="Z167" s="6"/>
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21"/>
@@ -6921,33 +6944,33 @@
       <c r="Y170" s="21"/>
       <c r="Z170" s="21"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
-      <c r="O171" s="6"/>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
-      <c r="R171" s="6"/>
-      <c r="S171" s="6"/>
-      <c r="T171" s="6"/>
-      <c r="U171" s="6"/>
-      <c r="V171" s="6"/>
-      <c r="W171" s="6"/>
-      <c r="X171" s="6"/>
-      <c r="Y171" s="6"/>
-      <c r="Z171" s="6"/>
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="21"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="21"/>
+      <c r="J171" s="21"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="21"/>
+      <c r="M171" s="21"/>
+      <c r="N171" s="21"/>
+      <c r="O171" s="21"/>
+      <c r="P171" s="21"/>
+      <c r="Q171" s="21"/>
+      <c r="R171" s="21"/>
+      <c r="S171" s="21"/>
+      <c r="T171" s="21"/>
+      <c r="U171" s="21"/>
+      <c r="V171" s="21"/>
+      <c r="W171" s="21"/>
+      <c r="X171" s="21"/>
+      <c r="Y171" s="21"/>
+      <c r="Z171" s="21"/>
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21"/>
@@ -10114,116 +10137,16 @@
       <c r="Z284" s="21"/>
     </row>
     <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="21"/>
-      <c r="B285" s="21"/>
-      <c r="C285" s="21"/>
-      <c r="D285" s="21"/>
-      <c r="E285" s="21"/>
-      <c r="F285" s="21"/>
-      <c r="G285" s="21"/>
-      <c r="H285" s="21"/>
-      <c r="I285" s="21"/>
-      <c r="J285" s="21"/>
-      <c r="K285" s="21"/>
-      <c r="L285" s="21"/>
-      <c r="M285" s="21"/>
-      <c r="N285" s="21"/>
-      <c r="O285" s="21"/>
-      <c r="P285" s="21"/>
-      <c r="Q285" s="21"/>
-      <c r="R285" s="21"/>
-      <c r="S285" s="21"/>
-      <c r="T285" s="21"/>
-      <c r="U285" s="21"/>
-      <c r="V285" s="21"/>
-      <c r="W285" s="21"/>
-      <c r="X285" s="21"/>
-      <c r="Y285" s="21"/>
-      <c r="Z285" s="21"/>
+      <c r="D285" s="22"/>
     </row>
     <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="21"/>
-      <c r="B286" s="21"/>
-      <c r="C286" s="21"/>
-      <c r="D286" s="21"/>
-      <c r="E286" s="21"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="21"/>
-      <c r="H286" s="21"/>
-      <c r="I286" s="21"/>
-      <c r="J286" s="21"/>
-      <c r="K286" s="21"/>
-      <c r="L286" s="21"/>
-      <c r="M286" s="21"/>
-      <c r="N286" s="21"/>
-      <c r="O286" s="21"/>
-      <c r="P286" s="21"/>
-      <c r="Q286" s="21"/>
-      <c r="R286" s="21"/>
-      <c r="S286" s="21"/>
-      <c r="T286" s="21"/>
-      <c r="U286" s="21"/>
-      <c r="V286" s="21"/>
-      <c r="W286" s="21"/>
-      <c r="X286" s="21"/>
-      <c r="Y286" s="21"/>
-      <c r="Z286" s="21"/>
+      <c r="D286" s="22"/>
     </row>
     <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="21"/>
-      <c r="B287" s="21"/>
-      <c r="C287" s="21"/>
-      <c r="D287" s="21"/>
-      <c r="E287" s="21"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="21"/>
-      <c r="H287" s="21"/>
-      <c r="I287" s="21"/>
-      <c r="J287" s="21"/>
-      <c r="K287" s="21"/>
-      <c r="L287" s="21"/>
-      <c r="M287" s="21"/>
-      <c r="N287" s="21"/>
-      <c r="O287" s="21"/>
-      <c r="P287" s="21"/>
-      <c r="Q287" s="21"/>
-      <c r="R287" s="21"/>
-      <c r="S287" s="21"/>
-      <c r="T287" s="21"/>
-      <c r="U287" s="21"/>
-      <c r="V287" s="21"/>
-      <c r="W287" s="21"/>
-      <c r="X287" s="21"/>
-      <c r="Y287" s="21"/>
-      <c r="Z287" s="21"/>
+      <c r="D287" s="22"/>
     </row>
     <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="21"/>
-      <c r="B288" s="21"/>
-      <c r="C288" s="21"/>
-      <c r="D288" s="21"/>
-      <c r="E288" s="21"/>
-      <c r="F288" s="21"/>
-      <c r="G288" s="21"/>
-      <c r="H288" s="21"/>
-      <c r="I288" s="21"/>
-      <c r="J288" s="21"/>
-      <c r="K288" s="21"/>
-      <c r="L288" s="21"/>
-      <c r="M288" s="21"/>
-      <c r="N288" s="21"/>
-      <c r="O288" s="21"/>
-      <c r="P288" s="21"/>
-      <c r="Q288" s="21"/>
-      <c r="R288" s="21"/>
-      <c r="S288" s="21"/>
-      <c r="T288" s="21"/>
-      <c r="U288" s="21"/>
-      <c r="V288" s="21"/>
-      <c r="W288" s="21"/>
-      <c r="X288" s="21"/>
-      <c r="Y288" s="21"/>
-      <c r="Z288" s="21"/>
+      <c r="D288" s="22"/>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D289" s="22"/>
@@ -11977,196 +11900,214 @@
     <row r="872" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D872" s="22"/>
     </row>
-    <row r="873" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D873" s="22"/>
-    </row>
-    <row r="874" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D874" s="22"/>
-    </row>
-    <row r="875" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D875" s="22"/>
-    </row>
-    <row r="876" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D876" s="22"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A876">
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A872">
+    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
-    <cfRule type="expression" dxfId="33" priority="19">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36 C1:C45 C47:C876">
-    <cfRule type="expression" dxfId="31" priority="25">
+  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C872">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B36 B39:B45 B47:B876">
-    <cfRule type="expression" dxfId="30" priority="26">
+  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B872">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A41 A44:A45 A47:A876">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A872">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="27" priority="30" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="33" priority="36" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="notContainsText" dxfId="26" priority="31" operator="notContains" text="required">
+    <cfRule type="notContainsText" dxfId="32" priority="37" operator="notContains" text="required">
       <formula>ISERROR(SEARCH(("required"),(D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="22" priority="35" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="28" priority="41" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="20" priority="37" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="19" priority="38" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="25" priority="44" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="18" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="45" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Z1">
-    <cfRule type="cellIs" dxfId="17" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="46" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H876">
-    <cfRule type="expression" dxfId="16" priority="41">
+  <conditionalFormatting sqref="H1:H872">
+    <cfRule type="expression" dxfId="22" priority="47">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
-    <cfRule type="expression" dxfId="15" priority="42">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+    <cfRule type="expression" dxfId="21" priority="48">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I876">
-    <cfRule type="expression" dxfId="12" priority="348">
+  <conditionalFormatting sqref="I1:I872">
+    <cfRule type="expression" dxfId="18" priority="354">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
-    <cfRule type="expression" dxfId="11" priority="351">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+    <cfRule type="expression" dxfId="17" priority="357">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 C37:F38 A39:F41 A1:F36 F46 A44:F45 B42:F43 G1:Z876 A47:F876">
-    <cfRule type="expression" dxfId="10" priority="361">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+    <cfRule type="expression" dxfId="16" priority="367">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A42))))</formula>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A41))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $E42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $M42 = "", $N42 = "", $O42 = "", $Q42 = "", $R42 = "")</formula>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>AND($A49="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND($A49="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND($A49="end group", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>AND($A49="end repeat", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B872">
+    <cfRule type="expression" dxfId="2" priority="940">
+      <formula>COUNTIF($B$2:$B$989,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="2" priority="789">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$994, "begin group") = COUNTIF($A$1:$A$994, "end group"))</formula>
+    <cfRule type="expression" dxfId="1" priority="944">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$990, "begin group") = COUNTIF($A$1:$A$990, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="790">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$985, "begin group") = COUNTIF($A$1:$A$994, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B36 B39:B45 B47:B876">
-    <cfRule type="expression" dxfId="0" priority="791">
-      <formula>COUNTIF($B$2:$B$993,B2)&gt;1</formula>
+    <cfRule type="expression" dxfId="0" priority="945">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$981, "begin group") = COUNTIF($A$1:$A$990, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D876">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D872">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12196,7 +12137,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12208,33 +12149,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -12244,16 +12185,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -12274,16 +12215,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -12293,16 +12234,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12323,19 +12264,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12344,19 +12285,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12376,16 +12317,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12395,16 +12336,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -15289,46 +15230,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44866.973762384259</v>
+        <v>44866.984626851852</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="186">
   <si>
     <t>type</t>
   </si>
@@ -413,23 +413,6 @@
   </si>
   <si>
     <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
-  </si>
-  <si>
-    <t>dob_approx</t>
-  </si>
-  <si>
-    <t>date(concat(string(../ephemeral_years),'-',if(../ephemeral_months&lt;10, concat('0',string(../ephemeral_months)), ../ephemeral_months),'-',string(format-date-time(today(), "%d"))))</t>
-  </si>
-  <si>
-    <t>if(../dob_calendar != '', 
-../dob_calendar,
-../dob_approx )</t>
-  </si>
-  <si>
-    <t>dob_iso</t>
-  </si>
-  <si>
-    <t>decimal-date-time(../dob_raw)</t>
   </si>
   <si>
     <t>person_age_years</t>
@@ -1536,13 +1519,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z872"/>
+  <dimension ref="A1:Z869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2105,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2817,7 +2800,7 @@
         <v>92</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>93</v>
@@ -2861,7 +2844,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>98</v>
@@ -3143,14 +3126,14 @@
         <v>77</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3286,7 +3269,7 @@
         <v>109</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3683,119 +3666,115 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="A61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="A62" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>38</v>
+      <c r="A63" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>50</v>
@@ -3805,9 +3784,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -3827,185 +3804,185 @@
       <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="A64" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
+      <c r="A65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
+      <c r="A66" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
+      <c r="A67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="K69" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4024,13 +4001,13 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -4040,7 +4017,9 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+      <c r="L70" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
@@ -4058,10 +4037,14 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -4070,7 +4053,9 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+      <c r="L71" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -4088,27 +4073,27 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="I72" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J72" s="6"/>
-      <c r="K72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -4126,23 +4111,25 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
@@ -4160,23 +4147,25 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="I74" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
@@ -4194,10 +4183,10 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>50</v>
@@ -4208,13 +4197,13 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="K75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
@@ -4230,322 +4219,296 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>1</v>
+    <row r="76" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="6" t="s">
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+    </row>
+    <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+    </row>
+    <row r="78" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
     </row>
     <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="A79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="11"/>
-      <c r="Z79" s="11"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
     </row>
     <row r="80" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="8"/>
+      <c r="A80" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
     </row>
     <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="8"/>
-    </row>
-    <row r="82" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="8"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="8"/>
-    </row>
-    <row r="83" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="A81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-    </row>
-    <row r="84" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+    </row>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="7"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="3"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -4595,7 +4558,7 @@
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -4621,35 +4584,35 @@
       <c r="Z87" s="6"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -4678,92 +4641,92 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="7"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4791,7 +4754,7 @@
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="7"/>
+      <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -5043,7 +5006,7 @@
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5071,7 +5034,7 @@
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -5127,7 +5090,7 @@
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="7"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5155,7 +5118,7 @@
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="7"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -5183,7 +5146,7 @@
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="C108" s="18"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -5211,7 +5174,7 @@
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="C109" s="18"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -5239,7 +5202,7 @@
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="18"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5267,7 +5230,7 @@
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="18"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5325,7 +5288,7 @@
       <c r="B113" s="4"/>
       <c r="C113" s="18"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="E113" s="18"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -5379,7 +5342,7 @@
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="18"/>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -5407,9 +5370,9 @@
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="18"/>
+      <c r="C116" s="4"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="18"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -5574,176 +5537,176 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
-      <c r="Y122" s="4"/>
-      <c r="Z122" s="4"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6"/>
+      <c r="V122" s="6"/>
+      <c r="W122" s="6"/>
+      <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="6"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
-      <c r="Y123" s="4"/>
-      <c r="Z123" s="4"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+      <c r="U123" s="6"/>
+      <c r="V123" s="6"/>
+      <c r="W123" s="6"/>
+      <c r="X123" s="6"/>
+      <c r="Y123" s="6"/>
+      <c r="Z123" s="6"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="4"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="V124" s="6"/>
+      <c r="W124" s="6"/>
+      <c r="X124" s="6"/>
+      <c r="Y124" s="6"/>
+      <c r="Z124" s="6"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="6"/>
-      <c r="T125" s="6"/>
-      <c r="U125" s="6"/>
-      <c r="V125" s="6"/>
-      <c r="W125" s="6"/>
-      <c r="X125" s="6"/>
-      <c r="Y125" s="6"/>
-      <c r="Z125" s="6"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
-      <c r="R126" s="6"/>
-      <c r="S126" s="6"/>
-      <c r="T126" s="6"/>
-      <c r="U126" s="6"/>
-      <c r="V126" s="6"/>
-      <c r="W126" s="6"/>
-      <c r="X126" s="6"/>
-      <c r="Y126" s="6"/>
-      <c r="Z126" s="6"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="6"/>
-      <c r="S127" s="6"/>
-      <c r="T127" s="6"/>
-      <c r="U127" s="6"/>
-      <c r="V127" s="6"/>
-      <c r="W127" s="6"/>
-      <c r="X127" s="6"/>
-      <c r="Y127" s="6"/>
-      <c r="Z127" s="6"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="7"/>
+      <c r="C128" s="18"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -5771,7 +5734,7 @@
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -5799,7 +5762,7 @@
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="7"/>
+      <c r="C130" s="18"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -5827,7 +5790,7 @@
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="18"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -5855,7 +5818,7 @@
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="7"/>
+      <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -5883,7 +5846,7 @@
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="18"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -5911,7 +5874,7 @@
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="7"/>
+      <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5939,7 +5902,7 @@
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -5964,33 +5927,33 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="21"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21"/>
+      <c r="O136" s="21"/>
+      <c r="P136" s="21"/>
+      <c r="Q136" s="21"/>
+      <c r="R136" s="21"/>
+      <c r="S136" s="21"/>
+      <c r="T136" s="21"/>
+      <c r="U136" s="21"/>
+      <c r="V136" s="21"/>
+      <c r="W136" s="21"/>
+      <c r="X136" s="21"/>
+      <c r="Y136" s="21"/>
+      <c r="Z136" s="21"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
@@ -6048,38 +6011,38 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="21"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
-      <c r="K139" s="21"/>
-      <c r="L139" s="21"/>
-      <c r="M139" s="21"/>
-      <c r="N139" s="21"/>
-      <c r="O139" s="21"/>
-      <c r="P139" s="21"/>
-      <c r="Q139" s="21"/>
-      <c r="R139" s="21"/>
-      <c r="S139" s="21"/>
-      <c r="T139" s="21"/>
-      <c r="U139" s="21"/>
-      <c r="V139" s="21"/>
-      <c r="W139" s="21"/>
-      <c r="X139" s="21"/>
-      <c r="Y139" s="21"/>
-      <c r="Z139" s="21"/>
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+      <c r="Z139" s="4"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6107,7 +6070,7 @@
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="7"/>
+      <c r="C141" s="18"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6135,7 +6098,7 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6163,86 +6126,86 @@
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="20"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="20"/>
+      <c r="O143" s="20"/>
+      <c r="P143" s="20"/>
+      <c r="Q143" s="20"/>
+      <c r="R143" s="20"/>
+      <c r="S143" s="20"/>
+      <c r="T143" s="20"/>
+      <c r="U143" s="20"/>
+      <c r="V143" s="20"/>
+      <c r="W143" s="20"/>
+      <c r="X143" s="20"/>
+      <c r="Y143" s="20"/>
+      <c r="Z143" s="20"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
-      <c r="Y144" s="4"/>
-      <c r="Z144" s="4"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="20"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="20"/>
+      <c r="R144" s="20"/>
+      <c r="S144" s="20"/>
+      <c r="T144" s="20"/>
+      <c r="U144" s="20"/>
+      <c r="V144" s="20"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="20"/>
+      <c r="Y144" s="20"/>
+      <c r="Z144" s="20"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="20"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
-      <c r="Y145" s="4"/>
-      <c r="Z145" s="4"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="20"/>
+      <c r="R145" s="20"/>
+      <c r="S145" s="20"/>
+      <c r="T145" s="20"/>
+      <c r="U145" s="20"/>
+      <c r="V145" s="20"/>
+      <c r="W145" s="20"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="20"/>
+      <c r="Z145" s="20"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
@@ -6250,10 +6213,10 @@
       <c r="C146" s="4"/>
       <c r="D146" s="20"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="15"/>
+      <c r="F146" s="20"/>
       <c r="G146" s="20"/>
       <c r="H146" s="20"/>
-      <c r="I146" s="4"/>
+      <c r="I146" s="20"/>
       <c r="J146" s="20"/>
       <c r="K146" s="20"/>
       <c r="L146" s="20"/>
@@ -6273,144 +6236,144 @@
       <c r="Z146" s="20"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20"/>
-      <c r="L147" s="20"/>
-      <c r="M147" s="20"/>
-      <c r="N147" s="20"/>
-      <c r="O147" s="20"/>
-      <c r="P147" s="20"/>
-      <c r="Q147" s="20"/>
-      <c r="R147" s="20"/>
-      <c r="S147" s="20"/>
-      <c r="T147" s="20"/>
-      <c r="U147" s="20"/>
-      <c r="V147" s="20"/>
-      <c r="W147" s="20"/>
-      <c r="X147" s="20"/>
-      <c r="Y147" s="20"/>
-      <c r="Z147" s="20"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="6"/>
+      <c r="W147" s="6"/>
+      <c r="X147" s="6"/>
+      <c r="Y147" s="6"/>
+      <c r="Z147" s="6"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="20"/>
-      <c r="L148" s="20"/>
-      <c r="M148" s="20"/>
-      <c r="N148" s="20"/>
-      <c r="O148" s="20"/>
-      <c r="P148" s="20"/>
-      <c r="Q148" s="20"/>
-      <c r="R148" s="20"/>
-      <c r="S148" s="20"/>
-      <c r="T148" s="20"/>
-      <c r="U148" s="20"/>
-      <c r="V148" s="20"/>
-      <c r="W148" s="20"/>
-      <c r="X148" s="20"/>
-      <c r="Y148" s="20"/>
-      <c r="Z148" s="20"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
-      <c r="J149" s="20"/>
-      <c r="K149" s="20"/>
-      <c r="L149" s="20"/>
-      <c r="M149" s="20"/>
-      <c r="N149" s="20"/>
-      <c r="O149" s="20"/>
-      <c r="P149" s="20"/>
-      <c r="Q149" s="20"/>
-      <c r="R149" s="20"/>
-      <c r="S149" s="20"/>
-      <c r="T149" s="20"/>
-      <c r="U149" s="20"/>
-      <c r="V149" s="20"/>
-      <c r="W149" s="20"/>
-      <c r="X149" s="20"/>
-      <c r="Y149" s="20"/>
-      <c r="Z149" s="20"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-      <c r="T150" s="6"/>
-      <c r="U150" s="6"/>
-      <c r="V150" s="6"/>
-      <c r="W150" s="6"/>
-      <c r="X150" s="6"/>
-      <c r="Y150" s="6"/>
-      <c r="Z150" s="6"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
-      <c r="R151" s="6"/>
-      <c r="S151" s="6"/>
-      <c r="T151" s="6"/>
-      <c r="U151" s="6"/>
-      <c r="V151" s="6"/>
-      <c r="W151" s="6"/>
-      <c r="X151" s="6"/>
-      <c r="Y151" s="6"/>
-      <c r="Z151" s="6"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6"/>
+      <c r="V148" s="6"/>
+      <c r="W148" s="6"/>
+      <c r="X148" s="6"/>
+      <c r="Y148" s="6"/>
+      <c r="Z148" s="6"/>
+    </row>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
+      <c r="M149" s="21"/>
+      <c r="N149" s="21"/>
+      <c r="O149" s="21"/>
+      <c r="P149" s="21"/>
+      <c r="Q149" s="21"/>
+      <c r="R149" s="21"/>
+      <c r="S149" s="21"/>
+      <c r="T149" s="21"/>
+      <c r="U149" s="21"/>
+      <c r="V149" s="21"/>
+      <c r="W149" s="21"/>
+      <c r="X149" s="21"/>
+      <c r="Y149" s="21"/>
+      <c r="Z149" s="21"/>
+    </row>
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="21"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="21"/>
+      <c r="O150" s="21"/>
+      <c r="P150" s="21"/>
+      <c r="Q150" s="21"/>
+      <c r="R150" s="21"/>
+      <c r="S150" s="21"/>
+      <c r="T150" s="21"/>
+      <c r="U150" s="21"/>
+      <c r="V150" s="21"/>
+      <c r="W150" s="21"/>
+      <c r="X150" s="21"/>
+      <c r="Y150" s="21"/>
+      <c r="Z150" s="21"/>
+    </row>
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
+      <c r="J151" s="21"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="21"/>
+      <c r="M151" s="21"/>
+      <c r="N151" s="21"/>
+      <c r="O151" s="21"/>
+      <c r="P151" s="21"/>
+      <c r="Q151" s="21"/>
+      <c r="R151" s="21"/>
+      <c r="S151" s="21"/>
+      <c r="T151" s="21"/>
+      <c r="U151" s="21"/>
+      <c r="V151" s="21"/>
+      <c r="W151" s="21"/>
+      <c r="X151" s="21"/>
+      <c r="Y151" s="21"/>
+      <c r="Z151" s="21"/>
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
@@ -6748,33 +6711,33 @@
       <c r="Y163" s="21"/>
       <c r="Z163" s="21"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="21"/>
-      <c r="I164" s="21"/>
-      <c r="J164" s="21"/>
-      <c r="K164" s="21"/>
-      <c r="L164" s="21"/>
-      <c r="M164" s="21"/>
-      <c r="N164" s="21"/>
-      <c r="O164" s="21"/>
-      <c r="P164" s="21"/>
-      <c r="Q164" s="21"/>
-      <c r="R164" s="21"/>
-      <c r="S164" s="21"/>
-      <c r="T164" s="21"/>
-      <c r="U164" s="21"/>
-      <c r="V164" s="21"/>
-      <c r="W164" s="21"/>
-      <c r="X164" s="21"/>
-      <c r="Y164" s="21"/>
-      <c r="Z164" s="21"/>
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="6"/>
+      <c r="W164" s="6"/>
+      <c r="X164" s="6"/>
+      <c r="Y164" s="6"/>
+      <c r="Z164" s="6"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
@@ -6832,33 +6795,33 @@
       <c r="Y166" s="21"/>
       <c r="Z166" s="21"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
-      <c r="O167" s="6"/>
-      <c r="P167" s="6"/>
-      <c r="Q167" s="6"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="6"/>
-      <c r="T167" s="6"/>
-      <c r="U167" s="6"/>
-      <c r="V167" s="6"/>
-      <c r="W167" s="6"/>
-      <c r="X167" s="6"/>
-      <c r="Y167" s="6"/>
-      <c r="Z167" s="6"/>
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="21"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="21"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="21"/>
+      <c r="M167" s="21"/>
+      <c r="N167" s="21"/>
+      <c r="O167" s="21"/>
+      <c r="P167" s="21"/>
+      <c r="Q167" s="21"/>
+      <c r="R167" s="21"/>
+      <c r="S167" s="21"/>
+      <c r="T167" s="21"/>
+      <c r="U167" s="21"/>
+      <c r="V167" s="21"/>
+      <c r="W167" s="21"/>
+      <c r="X167" s="21"/>
+      <c r="Y167" s="21"/>
+      <c r="Z167" s="21"/>
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21"/>
@@ -10053,88 +10016,13 @@
       <c r="Z281" s="21"/>
     </row>
     <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="21"/>
-      <c r="B282" s="21"/>
-      <c r="C282" s="21"/>
-      <c r="D282" s="21"/>
-      <c r="E282" s="21"/>
-      <c r="F282" s="21"/>
-      <c r="G282" s="21"/>
-      <c r="H282" s="21"/>
-      <c r="I282" s="21"/>
-      <c r="J282" s="21"/>
-      <c r="K282" s="21"/>
-      <c r="L282" s="21"/>
-      <c r="M282" s="21"/>
-      <c r="N282" s="21"/>
-      <c r="O282" s="21"/>
-      <c r="P282" s="21"/>
-      <c r="Q282" s="21"/>
-      <c r="R282" s="21"/>
-      <c r="S282" s="21"/>
-      <c r="T282" s="21"/>
-      <c r="U282" s="21"/>
-      <c r="V282" s="21"/>
-      <c r="W282" s="21"/>
-      <c r="X282" s="21"/>
-      <c r="Y282" s="21"/>
-      <c r="Z282" s="21"/>
+      <c r="D282" s="22"/>
     </row>
     <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="21"/>
-      <c r="B283" s="21"/>
-      <c r="C283" s="21"/>
-      <c r="D283" s="21"/>
-      <c r="E283" s="21"/>
-      <c r="F283" s="21"/>
-      <c r="G283" s="21"/>
-      <c r="H283" s="21"/>
-      <c r="I283" s="21"/>
-      <c r="J283" s="21"/>
-      <c r="K283" s="21"/>
-      <c r="L283" s="21"/>
-      <c r="M283" s="21"/>
-      <c r="N283" s="21"/>
-      <c r="O283" s="21"/>
-      <c r="P283" s="21"/>
-      <c r="Q283" s="21"/>
-      <c r="R283" s="21"/>
-      <c r="S283" s="21"/>
-      <c r="T283" s="21"/>
-      <c r="U283" s="21"/>
-      <c r="V283" s="21"/>
-      <c r="W283" s="21"/>
-      <c r="X283" s="21"/>
-      <c r="Y283" s="21"/>
-      <c r="Z283" s="21"/>
+      <c r="D283" s="22"/>
     </row>
     <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="21"/>
-      <c r="B284" s="21"/>
-      <c r="C284" s="21"/>
-      <c r="D284" s="21"/>
-      <c r="E284" s="21"/>
-      <c r="F284" s="21"/>
-      <c r="G284" s="21"/>
-      <c r="H284" s="21"/>
-      <c r="I284" s="21"/>
-      <c r="J284" s="21"/>
-      <c r="K284" s="21"/>
-      <c r="L284" s="21"/>
-      <c r="M284" s="21"/>
-      <c r="N284" s="21"/>
-      <c r="O284" s="21"/>
-      <c r="P284" s="21"/>
-      <c r="Q284" s="21"/>
-      <c r="R284" s="21"/>
-      <c r="S284" s="21"/>
-      <c r="T284" s="21"/>
-      <c r="U284" s="21"/>
-      <c r="V284" s="21"/>
-      <c r="W284" s="21"/>
-      <c r="X284" s="21"/>
-      <c r="Y284" s="21"/>
-      <c r="Z284" s="21"/>
+      <c r="D284" s="22"/>
     </row>
     <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D285" s="22"/>
@@ -11891,42 +11779,33 @@
     <row r="869" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D869" s="22"/>
     </row>
-    <row r="870" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D870" s="22"/>
-    </row>
-    <row r="871" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D871" s="22"/>
-    </row>
-    <row r="872" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D872" s="22"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A872">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A869">
     <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
     <cfRule type="expression" dxfId="39" priority="25">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C872">
+  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C869">
     <cfRule type="expression" dxfId="37" priority="31">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B872">
+  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B869">
     <cfRule type="expression" dxfId="36" priority="32">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A872">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A869">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
@@ -11991,12 +11870,12 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H872">
+  <conditionalFormatting sqref="H1:H869">
     <cfRule type="expression" dxfId="22" priority="47">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
     <cfRule type="expression" dxfId="21" priority="48">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
@@ -12011,17 +11890,17 @@
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I872">
+  <conditionalFormatting sqref="I1:I869">
     <cfRule type="expression" dxfId="18" priority="354">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
     <cfRule type="expression" dxfId="17" priority="357">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z872 A50:F872">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
     <cfRule type="expression" dxfId="16" priority="367">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
@@ -12091,23 +11970,23 @@
       <formula>AND($A49="end repeat", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B872">
-    <cfRule type="expression" dxfId="2" priority="940">
-      <formula>COUNTIF($B$2:$B$989,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B869">
+    <cfRule type="expression" dxfId="2" priority="1016">
+      <formula>COUNTIF($B$2:$B$986,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="944">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$990, "begin group") = COUNTIF($A$1:$A$990, "end group"))</formula>
+    <cfRule type="expression" dxfId="1" priority="1020">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$987, "begin group") = COUNTIF($A$1:$A$987, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="945">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$981, "begin group") = COUNTIF($A$1:$A$990, "end group")))</formula>
+    <cfRule type="expression" dxfId="0" priority="1021">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$978, "begin group") = COUNTIF($A$1:$A$987, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D872">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D869">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12137,7 +12016,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12152,30 +12031,30 @@
         <v>124</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -12185,16 +12064,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -12215,16 +12094,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -12234,16 +12113,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>160</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12264,19 +12143,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12285,19 +12164,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>168</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12317,16 +12196,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12336,16 +12215,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -15230,46 +15109,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44866.984626851852</v>
+        <v>44866.993092939818</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -407,18 +407,6 @@
   </si>
   <si>
     <t>cohort</t>
-  </si>
-  <si>
-    <t>c_dob_calendar2</t>
-  </si>
-  <si>
-    <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
-  </si>
-  <si>
-    <t>person_age_years</t>
-  </si>
-  <si>
-    <t>if(../dob_calendar != '',floor( difference-in-months( ../dob_iso, today() ) div 12 ),../age_years)</t>
   </si>
   <si>
     <t>c_person_age_in_years</t>
@@ -1519,13 +1507,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z869"/>
+  <dimension ref="A1:Z866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2093,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2800,7 +2788,7 @@
         <v>92</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>93</v>
@@ -2844,7 +2832,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>98</v>
@@ -3126,14 +3114,14 @@
         <v>77</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3269,7 +3257,7 @@
         <v>109</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3558,119 +3546,115 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="A58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="A59" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>38</v>
+      <c r="A60" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>50</v>
@@ -3680,9 +3664,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -3702,185 +3684,185 @@
       <c r="Z60" s="8"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>51</v>
+      <c r="A61" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
+      <c r="A62" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
+      <c r="A63" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
+      <c r="A64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="K66" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -3899,13 +3881,13 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3915,7 +3897,9 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+      <c r="L67" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
@@ -3933,10 +3917,14 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3945,7 +3933,9 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="L68" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -3963,27 +3953,27 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J69" s="6"/>
-      <c r="K69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -4001,10 +3991,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>50</v>
@@ -4014,12 +4004,12 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="I70" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
@@ -4037,25 +4027,25 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="I71" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -4073,10 +4063,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>50</v>
@@ -4087,13 +4077,13 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="K72" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -4109,322 +4099,296 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>1</v>
+    <row r="73" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+    </row>
+    <row r="74" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+    </row>
+    <row r="75" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
     </row>
     <row r="76" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="A76" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
     </row>
     <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
+      <c r="A77" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
     </row>
     <row r="78" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-    </row>
-    <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-    </row>
-    <row r="80" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="A78" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-    </row>
-    <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="20"/>
-      <c r="T81" s="20"/>
-      <c r="U81" s="20"/>
-      <c r="V81" s="20"/>
-      <c r="W81" s="20"/>
-      <c r="X81" s="20"/>
-      <c r="Y81" s="20"/>
-      <c r="Z81" s="20"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+    </row>
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+    </row>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="7"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="3"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -4474,7 +4438,7 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4500,35 +4464,35 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -4557,92 +4521,92 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="7"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -4670,7 +4634,7 @@
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="7"/>
+      <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4922,7 +4886,7 @@
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -4950,7 +4914,7 @@
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -5006,7 +4970,7 @@
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="7"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5034,7 +4998,7 @@
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="7"/>
+      <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -5062,7 +5026,7 @@
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="18"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -5090,7 +5054,7 @@
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="18"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5118,7 +5082,7 @@
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -5146,7 +5110,7 @@
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="18"/>
+      <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -5204,7 +5168,7 @@
       <c r="B110" s="4"/>
       <c r="C110" s="18"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="18"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -5258,7 +5222,7 @@
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="18"/>
+      <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5286,9 +5250,9 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="18"/>
+      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="18"/>
+      <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -5453,176 +5417,176 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-      <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
-      <c r="Y119" s="4"/>
-      <c r="Z119" s="4"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+      <c r="U119" s="6"/>
+      <c r="V119" s="6"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="6"/>
+      <c r="Y119" s="6"/>
+      <c r="Z119" s="6"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
-      <c r="Z120" s="4"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
+      <c r="Z120" s="6"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="T121" s="4"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="4"/>
-      <c r="W121" s="4"/>
-      <c r="X121" s="4"/>
-      <c r="Y121" s="4"/>
-      <c r="Z121" s="4"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+      <c r="U121" s="6"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="6"/>
+      <c r="X121" s="6"/>
+      <c r="Y121" s="6"/>
+      <c r="Z121" s="6"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="6"/>
-      <c r="T122" s="6"/>
-      <c r="U122" s="6"/>
-      <c r="V122" s="6"/>
-      <c r="W122" s="6"/>
-      <c r="X122" s="6"/>
-      <c r="Y122" s="6"/>
-      <c r="Z122" s="6"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="6"/>
-      <c r="U123" s="6"/>
-      <c r="V123" s="6"/>
-      <c r="W123" s="6"/>
-      <c r="X123" s="6"/>
-      <c r="Y123" s="6"/>
-      <c r="Z123" s="6"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6"/>
-      <c r="T124" s="6"/>
-      <c r="U124" s="6"/>
-      <c r="V124" s="6"/>
-      <c r="W124" s="6"/>
-      <c r="X124" s="6"/>
-      <c r="Y124" s="6"/>
-      <c r="Z124" s="6"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="7"/>
+      <c r="C125" s="18"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -5650,7 +5614,7 @@
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -5678,7 +5642,7 @@
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="7"/>
+      <c r="C127" s="18"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -5706,7 +5670,7 @@
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="18"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -5734,7 +5698,7 @@
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="7"/>
+      <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -5762,7 +5726,7 @@
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="18"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -5790,7 +5754,7 @@
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="7"/>
+      <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -5818,7 +5782,7 @@
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -5843,33 +5807,33 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="21"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21"/>
+      <c r="O133" s="21"/>
+      <c r="P133" s="21"/>
+      <c r="Q133" s="21"/>
+      <c r="R133" s="21"/>
+      <c r="S133" s="21"/>
+      <c r="T133" s="21"/>
+      <c r="U133" s="21"/>
+      <c r="V133" s="21"/>
+      <c r="W133" s="21"/>
+      <c r="X133" s="21"/>
+      <c r="Y133" s="21"/>
+      <c r="Z133" s="21"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
@@ -5927,38 +5891,38 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
-      <c r="N136" s="21"/>
-      <c r="O136" s="21"/>
-      <c r="P136" s="21"/>
-      <c r="Q136" s="21"/>
-      <c r="R136" s="21"/>
-      <c r="S136" s="21"/>
-      <c r="T136" s="21"/>
-      <c r="U136" s="21"/>
-      <c r="V136" s="21"/>
-      <c r="W136" s="21"/>
-      <c r="X136" s="21"/>
-      <c r="Y136" s="21"/>
-      <c r="Z136" s="21"/>
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -5986,7 +5950,7 @@
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="7"/>
+      <c r="C138" s="18"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6014,7 +5978,7 @@
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -6042,86 +6006,86 @@
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="20"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="20"/>
+      <c r="O140" s="20"/>
+      <c r="P140" s="20"/>
+      <c r="Q140" s="20"/>
+      <c r="R140" s="20"/>
+      <c r="S140" s="20"/>
+      <c r="T140" s="20"/>
+      <c r="U140" s="20"/>
+      <c r="V140" s="20"/>
+      <c r="W140" s="20"/>
+      <c r="X140" s="20"/>
+      <c r="Y140" s="20"/>
+      <c r="Z140" s="20"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="20"/>
+      <c r="O141" s="20"/>
+      <c r="P141" s="20"/>
+      <c r="Q141" s="20"/>
+      <c r="R141" s="20"/>
+      <c r="S141" s="20"/>
+      <c r="T141" s="20"/>
+      <c r="U141" s="20"/>
+      <c r="V141" s="20"/>
+      <c r="W141" s="20"/>
+      <c r="X141" s="20"/>
+      <c r="Y141" s="20"/>
+      <c r="Z141" s="20"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="20"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="20"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="20"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="20"/>
+      <c r="Q142" s="20"/>
+      <c r="R142" s="20"/>
+      <c r="S142" s="20"/>
+      <c r="T142" s="20"/>
+      <c r="U142" s="20"/>
+      <c r="V142" s="20"/>
+      <c r="W142" s="20"/>
+      <c r="X142" s="20"/>
+      <c r="Y142" s="20"/>
+      <c r="Z142" s="20"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
@@ -6129,10 +6093,10 @@
       <c r="C143" s="4"/>
       <c r="D143" s="20"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="15"/>
+      <c r="F143" s="20"/>
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
-      <c r="I143" s="4"/>
+      <c r="I143" s="20"/>
       <c r="J143" s="20"/>
       <c r="K143" s="20"/>
       <c r="L143" s="20"/>
@@ -6152,144 +6116,144 @@
       <c r="Z143" s="20"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="20"/>
-      <c r="O144" s="20"/>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="20"/>
-      <c r="R144" s="20"/>
-      <c r="S144" s="20"/>
-      <c r="T144" s="20"/>
-      <c r="U144" s="20"/>
-      <c r="V144" s="20"/>
-      <c r="W144" s="20"/>
-      <c r="X144" s="20"/>
-      <c r="Y144" s="20"/>
-      <c r="Z144" s="20"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+      <c r="U144" s="6"/>
+      <c r="V144" s="6"/>
+      <c r="W144" s="6"/>
+      <c r="X144" s="6"/>
+      <c r="Y144" s="6"/>
+      <c r="Z144" s="6"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="20"/>
-      <c r="L145" s="20"/>
-      <c r="M145" s="20"/>
-      <c r="N145" s="20"/>
-      <c r="O145" s="20"/>
-      <c r="P145" s="20"/>
-      <c r="Q145" s="20"/>
-      <c r="R145" s="20"/>
-      <c r="S145" s="20"/>
-      <c r="T145" s="20"/>
-      <c r="U145" s="20"/>
-      <c r="V145" s="20"/>
-      <c r="W145" s="20"/>
-      <c r="X145" s="20"/>
-      <c r="Y145" s="20"/>
-      <c r="Z145" s="20"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="20"/>
-      <c r="O146" s="20"/>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="20"/>
-      <c r="R146" s="20"/>
-      <c r="S146" s="20"/>
-      <c r="T146" s="20"/>
-      <c r="U146" s="20"/>
-      <c r="V146" s="20"/>
-      <c r="W146" s="20"/>
-      <c r="X146" s="20"/>
-      <c r="Y146" s="20"/>
-      <c r="Z146" s="20"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="6"/>
-      <c r="T147" s="6"/>
-      <c r="U147" s="6"/>
-      <c r="V147" s="6"/>
-      <c r="W147" s="6"/>
-      <c r="X147" s="6"/>
-      <c r="Y147" s="6"/>
-      <c r="Z147" s="6"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
-      <c r="U148" s="6"/>
-      <c r="V148" s="6"/>
-      <c r="W148" s="6"/>
-      <c r="X148" s="6"/>
-      <c r="Y148" s="6"/>
-      <c r="Z148" s="6"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+      <c r="U145" s="6"/>
+      <c r="V145" s="6"/>
+      <c r="W145" s="6"/>
+      <c r="X145" s="6"/>
+      <c r="Y145" s="6"/>
+      <c r="Z145" s="6"/>
+    </row>
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="21"/>
+      <c r="O146" s="21"/>
+      <c r="P146" s="21"/>
+      <c r="Q146" s="21"/>
+      <c r="R146" s="21"/>
+      <c r="S146" s="21"/>
+      <c r="T146" s="21"/>
+      <c r="U146" s="21"/>
+      <c r="V146" s="21"/>
+      <c r="W146" s="21"/>
+      <c r="X146" s="21"/>
+      <c r="Y146" s="21"/>
+      <c r="Z146" s="21"/>
+    </row>
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
+      <c r="M147" s="21"/>
+      <c r="N147" s="21"/>
+      <c r="O147" s="21"/>
+      <c r="P147" s="21"/>
+      <c r="Q147" s="21"/>
+      <c r="R147" s="21"/>
+      <c r="S147" s="21"/>
+      <c r="T147" s="21"/>
+      <c r="U147" s="21"/>
+      <c r="V147" s="21"/>
+      <c r="W147" s="21"/>
+      <c r="X147" s="21"/>
+      <c r="Y147" s="21"/>
+      <c r="Z147" s="21"/>
+    </row>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="21"/>
+      <c r="O148" s="21"/>
+      <c r="P148" s="21"/>
+      <c r="Q148" s="21"/>
+      <c r="R148" s="21"/>
+      <c r="S148" s="21"/>
+      <c r="T148" s="21"/>
+      <c r="U148" s="21"/>
+      <c r="V148" s="21"/>
+      <c r="W148" s="21"/>
+      <c r="X148" s="21"/>
+      <c r="Y148" s="21"/>
+      <c r="Z148" s="21"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21"/>
@@ -6627,33 +6591,33 @@
       <c r="Y160" s="21"/>
       <c r="Z160" s="21"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="21"/>
-      <c r="O161" s="21"/>
-      <c r="P161" s="21"/>
-      <c r="Q161" s="21"/>
-      <c r="R161" s="21"/>
-      <c r="S161" s="21"/>
-      <c r="T161" s="21"/>
-      <c r="U161" s="21"/>
-      <c r="V161" s="21"/>
-      <c r="W161" s="21"/>
-      <c r="X161" s="21"/>
-      <c r="Y161" s="21"/>
-      <c r="Z161" s="21"/>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="6"/>
+      <c r="W161" s="6"/>
+      <c r="X161" s="6"/>
+      <c r="Y161" s="6"/>
+      <c r="Z161" s="6"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
@@ -6711,33 +6675,33 @@
       <c r="Y163" s="21"/>
       <c r="Z163" s="21"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-      <c r="T164" s="6"/>
-      <c r="U164" s="6"/>
-      <c r="V164" s="6"/>
-      <c r="W164" s="6"/>
-      <c r="X164" s="6"/>
-      <c r="Y164" s="6"/>
-      <c r="Z164" s="6"/>
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="21"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="21"/>
+      <c r="M164" s="21"/>
+      <c r="N164" s="21"/>
+      <c r="O164" s="21"/>
+      <c r="P164" s="21"/>
+      <c r="Q164" s="21"/>
+      <c r="R164" s="21"/>
+      <c r="S164" s="21"/>
+      <c r="T164" s="21"/>
+      <c r="U164" s="21"/>
+      <c r="V164" s="21"/>
+      <c r="W164" s="21"/>
+      <c r="X164" s="21"/>
+      <c r="Y164" s="21"/>
+      <c r="Z164" s="21"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
@@ -9932,88 +9896,13 @@
       <c r="Z278" s="21"/>
     </row>
     <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="21"/>
-      <c r="B279" s="21"/>
-      <c r="C279" s="21"/>
-      <c r="D279" s="21"/>
-      <c r="E279" s="21"/>
-      <c r="F279" s="21"/>
-      <c r="G279" s="21"/>
-      <c r="H279" s="21"/>
-      <c r="I279" s="21"/>
-      <c r="J279" s="21"/>
-      <c r="K279" s="21"/>
-      <c r="L279" s="21"/>
-      <c r="M279" s="21"/>
-      <c r="N279" s="21"/>
-      <c r="O279" s="21"/>
-      <c r="P279" s="21"/>
-      <c r="Q279" s="21"/>
-      <c r="R279" s="21"/>
-      <c r="S279" s="21"/>
-      <c r="T279" s="21"/>
-      <c r="U279" s="21"/>
-      <c r="V279" s="21"/>
-      <c r="W279" s="21"/>
-      <c r="X279" s="21"/>
-      <c r="Y279" s="21"/>
-      <c r="Z279" s="21"/>
+      <c r="D279" s="22"/>
     </row>
     <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="21"/>
-      <c r="B280" s="21"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="21"/>
-      <c r="F280" s="21"/>
-      <c r="G280" s="21"/>
-      <c r="H280" s="21"/>
-      <c r="I280" s="21"/>
-      <c r="J280" s="21"/>
-      <c r="K280" s="21"/>
-      <c r="L280" s="21"/>
-      <c r="M280" s="21"/>
-      <c r="N280" s="21"/>
-      <c r="O280" s="21"/>
-      <c r="P280" s="21"/>
-      <c r="Q280" s="21"/>
-      <c r="R280" s="21"/>
-      <c r="S280" s="21"/>
-      <c r="T280" s="21"/>
-      <c r="U280" s="21"/>
-      <c r="V280" s="21"/>
-      <c r="W280" s="21"/>
-      <c r="X280" s="21"/>
-      <c r="Y280" s="21"/>
-      <c r="Z280" s="21"/>
+      <c r="D280" s="22"/>
     </row>
     <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="21"/>
-      <c r="B281" s="21"/>
-      <c r="C281" s="21"/>
-      <c r="D281" s="21"/>
-      <c r="E281" s="21"/>
-      <c r="F281" s="21"/>
-      <c r="G281" s="21"/>
-      <c r="H281" s="21"/>
-      <c r="I281" s="21"/>
-      <c r="J281" s="21"/>
-      <c r="K281" s="21"/>
-      <c r="L281" s="21"/>
-      <c r="M281" s="21"/>
-      <c r="N281" s="21"/>
-      <c r="O281" s="21"/>
-      <c r="P281" s="21"/>
-      <c r="Q281" s="21"/>
-      <c r="R281" s="21"/>
-      <c r="S281" s="21"/>
-      <c r="T281" s="21"/>
-      <c r="U281" s="21"/>
-      <c r="V281" s="21"/>
-      <c r="W281" s="21"/>
-      <c r="X281" s="21"/>
-      <c r="Y281" s="21"/>
-      <c r="Z281" s="21"/>
+      <c r="D281" s="22"/>
     </row>
     <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D282" s="22"/>
@@ -11770,42 +11659,33 @@
     <row r="866" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D866" s="22"/>
     </row>
-    <row r="867" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D867" s="22"/>
-    </row>
-    <row r="868" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D868" s="22"/>
-    </row>
-    <row r="869" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D869" s="22"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A869">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A866">
     <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
     <cfRule type="expression" dxfId="39" priority="25">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C869">
+  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C866">
     <cfRule type="expression" dxfId="37" priority="31">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B869">
+  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B866">
     <cfRule type="expression" dxfId="36" priority="32">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A869">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A866">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
@@ -11870,12 +11750,12 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H869">
+  <conditionalFormatting sqref="H1:H866">
     <cfRule type="expression" dxfId="22" priority="47">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
     <cfRule type="expression" dxfId="21" priority="48">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
@@ -11890,17 +11770,17 @@
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I869">
+  <conditionalFormatting sqref="I1:I866">
     <cfRule type="expression" dxfId="18" priority="354">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
     <cfRule type="expression" dxfId="17" priority="357">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z869 A50:F869">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
     <cfRule type="expression" dxfId="16" priority="367">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
@@ -11970,23 +11850,23 @@
       <formula>AND($A49="end repeat", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B869">
-    <cfRule type="expression" dxfId="2" priority="1016">
-      <formula>COUNTIF($B$2:$B$986,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B866">
+    <cfRule type="expression" dxfId="2" priority="1130">
+      <formula>COUNTIF($B$2:$B$983,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1020">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$987, "begin group") = COUNTIF($A$1:$A$987, "end group"))</formula>
+    <cfRule type="expression" dxfId="1" priority="1134">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$984, "begin group") = COUNTIF($A$1:$A$984, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="1021">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$978, "begin group") = COUNTIF($A$1:$A$987, "end group")))</formula>
+    <cfRule type="expression" dxfId="0" priority="1135">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$975, "begin group") = COUNTIF($A$1:$A$984, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D869">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D866">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12016,7 +11896,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12031,30 +11911,30 @@
         <v>124</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -12064,16 +11944,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -12094,16 +11974,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -12113,16 +11993,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="C6" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12143,19 +12023,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12164,19 +12044,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>162</v>
-      </c>
       <c r="C9" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12196,16 +12076,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12215,16 +12095,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -15109,46 +14989,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>169</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44866.993092939818</v>
+        <v>44866.997278240742</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="186">
   <si>
     <t>type</t>
   </si>
@@ -409,6 +409,15 @@
     <t>cohort</t>
   </si>
   <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>person_age_years</t>
+  </si>
+  <si>
+    <t>if(../dob_calendar != '',floor( difference-in-months( ../dob_iso, today() ) div 12 ),../age_years)</t>
+  </si>
+  <si>
     <t>c_person_age_in_years</t>
   </si>
   <si>
@@ -579,6 +588,9 @@
   </si>
   <si>
     <t>Family Members</t>
+  </si>
+  <si>
+    <t>Does ${hh_member_name} know their date of birth?</t>
   </si>
 </sst>
 </file>
@@ -848,7 +860,507 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -1507,13 +2019,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z866"/>
+  <dimension ref="A1:Z870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2605,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2788,7 +3300,7 @@
         <v>92</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>93</v>
@@ -2832,7 +3344,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>98</v>
@@ -3114,14 +3626,14 @@
         <v>77</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3257,7 +3769,7 @@
         <v>109</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3546,149 +4058,158 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="8"/>
-      <c r="Y59" s="8"/>
-      <c r="Z59" s="8"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
+      <c r="C60" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>28</v>
+      <c r="A61" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>50</v>
@@ -3698,7 +4219,9 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="I61" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -3718,11 +4241,15 @@
       <c r="Z61" s="8"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="A62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -3748,147 +4275,143 @@
       <c r="Z62" s="11"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
+      <c r="A63" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
+      <c r="A64" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -3897,9 +4420,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
@@ -3917,13 +4438,13 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3933,9 +4454,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -3953,27 +4472,19 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -3991,24 +4502,26 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="K70" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4027,25 +4540,25 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+      <c r="L71" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -4063,10 +4576,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>50</v>
@@ -4076,14 +4589,12 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="6" t="s">
-        <v>135</v>
-      </c>
+      <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -4099,148 +4610,164 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>51</v>
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-    </row>
-    <row r="74" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-    </row>
-    <row r="75" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-    </row>
-    <row r="76" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+    </row>
+    <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-    </row>
-    <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -4266,179 +4793,199 @@
       <c r="Z77" s="11"/>
     </row>
     <row r="78" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+    </row>
+    <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+    </row>
+    <row r="80" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+    </row>
+    <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="20"/>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="20"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+    </row>
+    <row r="82" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B82" s="4"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4464,9 +5011,9 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
+      <c r="A85" s="4"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4492,149 +5039,149 @@
       <c r="Z85" s="6"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4662,7 +5209,7 @@
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -4886,7 +5433,7 @@
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="7"/>
+      <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -4914,7 +5461,7 @@
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="7"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4998,7 +5545,7 @@
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -5026,7 +5573,7 @@
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="18"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -5054,7 +5601,7 @@
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="18"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5082,7 +5629,7 @@
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="18"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -5168,7 +5715,7 @@
       <c r="B110" s="4"/>
       <c r="C110" s="18"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="18"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -5194,7 +5741,7 @@
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="18"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5250,7 +5797,7 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="18"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5278,9 +5825,9 @@
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="18"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="E114" s="18"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -5417,92 +5964,92 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="6"/>
-      <c r="U119" s="6"/>
-      <c r="V119" s="6"/>
-      <c r="W119" s="6"/>
-      <c r="X119" s="6"/>
-      <c r="Y119" s="6"/>
-      <c r="Z119" s="6"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="6"/>
-      <c r="U120" s="6"/>
-      <c r="V120" s="6"/>
-      <c r="W120" s="6"/>
-      <c r="X120" s="6"/>
-      <c r="Y120" s="6"/>
-      <c r="Z120" s="6"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
-      <c r="R121" s="6"/>
-      <c r="S121" s="6"/>
-      <c r="T121" s="6"/>
-      <c r="U121" s="6"/>
-      <c r="V121" s="6"/>
-      <c r="W121" s="6"/>
-      <c r="X121" s="6"/>
-      <c r="Y121" s="6"/>
-      <c r="Z121" s="6"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="7"/>
+      <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -5529,87 +6076,87 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
-      <c r="Y123" s="4"/>
-      <c r="Z123" s="4"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+      <c r="U123" s="6"/>
+      <c r="V123" s="6"/>
+      <c r="W123" s="6"/>
+      <c r="X123" s="6"/>
+      <c r="Y123" s="6"/>
+      <c r="Z123" s="6"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="7"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="4"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="V124" s="6"/>
+      <c r="W124" s="6"/>
+      <c r="X124" s="6"/>
+      <c r="Y124" s="6"/>
+      <c r="Z124" s="6"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+      <c r="U125" s="6"/>
+      <c r="V125" s="6"/>
+      <c r="W125" s="6"/>
+      <c r="X125" s="6"/>
+      <c r="Y125" s="6"/>
+      <c r="Z125" s="6"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
@@ -5642,7 +6189,7 @@
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="18"/>
+      <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -5698,7 +6245,7 @@
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="C129" s="18"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -5754,7 +6301,7 @@
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="C131" s="18"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -5807,38 +6354,38 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
-      <c r="O133" s="21"/>
-      <c r="P133" s="21"/>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21"/>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21"/>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21"/>
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5866,7 +6413,7 @@
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="7"/>
+      <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -5894,7 +6441,7 @@
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -5919,38 +6466,38 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="21"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+      <c r="O137" s="21"/>
+      <c r="P137" s="21"/>
+      <c r="Q137" s="21"/>
+      <c r="R137" s="21"/>
+      <c r="S137" s="21"/>
+      <c r="T137" s="21"/>
+      <c r="U137" s="21"/>
+      <c r="V137" s="21"/>
+      <c r="W137" s="21"/>
+      <c r="X137" s="21"/>
+      <c r="Y137" s="21"/>
+      <c r="Z137" s="21"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="18"/>
+      <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6007,281 +6554,281 @@
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="20"/>
+      <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="20"/>
-      <c r="O140" s="20"/>
-      <c r="P140" s="20"/>
-      <c r="Q140" s="20"/>
-      <c r="R140" s="20"/>
-      <c r="S140" s="20"/>
-      <c r="T140" s="20"/>
-      <c r="U140" s="20"/>
-      <c r="V140" s="20"/>
-      <c r="W140" s="20"/>
-      <c r="X140" s="20"/>
-      <c r="Y140" s="20"/>
-      <c r="Z140" s="20"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
+      <c r="Z140" s="4"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="20"/>
-      <c r="N141" s="20"/>
-      <c r="O141" s="20"/>
-      <c r="P141" s="20"/>
-      <c r="Q141" s="20"/>
-      <c r="R141" s="20"/>
-      <c r="S141" s="20"/>
-      <c r="T141" s="20"/>
-      <c r="U141" s="20"/>
-      <c r="V141" s="20"/>
-      <c r="W141" s="20"/>
-      <c r="X141" s="20"/>
-      <c r="Y141" s="20"/>
-      <c r="Z141" s="20"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+      <c r="Z141" s="4"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="20"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="20"/>
-      <c r="N142" s="20"/>
-      <c r="O142" s="20"/>
-      <c r="P142" s="20"/>
-      <c r="Q142" s="20"/>
-      <c r="R142" s="20"/>
-      <c r="S142" s="20"/>
-      <c r="T142" s="20"/>
-      <c r="U142" s="20"/>
-      <c r="V142" s="20"/>
-      <c r="W142" s="20"/>
-      <c r="X142" s="20"/>
-      <c r="Y142" s="20"/>
-      <c r="Z142" s="20"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
+      <c r="Z142" s="4"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="20"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
-      <c r="N143" s="20"/>
-      <c r="O143" s="20"/>
-      <c r="P143" s="20"/>
-      <c r="Q143" s="20"/>
-      <c r="R143" s="20"/>
-      <c r="S143" s="20"/>
-      <c r="T143" s="20"/>
-      <c r="U143" s="20"/>
-      <c r="V143" s="20"/>
-      <c r="W143" s="20"/>
-      <c r="X143" s="20"/>
-      <c r="Y143" s="20"/>
-      <c r="Z143" s="20"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="6"/>
-      <c r="T144" s="6"/>
-      <c r="U144" s="6"/>
-      <c r="V144" s="6"/>
-      <c r="W144" s="6"/>
-      <c r="X144" s="6"/>
-      <c r="Y144" s="6"/>
-      <c r="Z144" s="6"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="20"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="20"/>
+      <c r="Q144" s="20"/>
+      <c r="R144" s="20"/>
+      <c r="S144" s="20"/>
+      <c r="T144" s="20"/>
+      <c r="U144" s="20"/>
+      <c r="V144" s="20"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="20"/>
+      <c r="Y144" s="20"/>
+      <c r="Z144" s="20"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6"/>
-      <c r="T145" s="6"/>
-      <c r="U145" s="6"/>
-      <c r="V145" s="6"/>
-      <c r="W145" s="6"/>
-      <c r="X145" s="6"/>
-      <c r="Y145" s="6"/>
-      <c r="Z145" s="6"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="21"/>
-      <c r="N146" s="21"/>
-      <c r="O146" s="21"/>
-      <c r="P146" s="21"/>
-      <c r="Q146" s="21"/>
-      <c r="R146" s="21"/>
-      <c r="S146" s="21"/>
-      <c r="T146" s="21"/>
-      <c r="U146" s="21"/>
-      <c r="V146" s="21"/>
-      <c r="W146" s="21"/>
-      <c r="X146" s="21"/>
-      <c r="Y146" s="21"/>
-      <c r="Z146" s="21"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="21"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="21"/>
-      <c r="M147" s="21"/>
-      <c r="N147" s="21"/>
-      <c r="O147" s="21"/>
-      <c r="P147" s="21"/>
-      <c r="Q147" s="21"/>
-      <c r="R147" s="21"/>
-      <c r="S147" s="21"/>
-      <c r="T147" s="21"/>
-      <c r="U147" s="21"/>
-      <c r="V147" s="21"/>
-      <c r="W147" s="21"/>
-      <c r="X147" s="21"/>
-      <c r="Y147" s="21"/>
-      <c r="Z147" s="21"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
-      <c r="M148" s="21"/>
-      <c r="N148" s="21"/>
-      <c r="O148" s="21"/>
-      <c r="P148" s="21"/>
-      <c r="Q148" s="21"/>
-      <c r="R148" s="21"/>
-      <c r="S148" s="21"/>
-      <c r="T148" s="21"/>
-      <c r="U148" s="21"/>
-      <c r="V148" s="21"/>
-      <c r="W148" s="21"/>
-      <c r="X148" s="21"/>
-      <c r="Y148" s="21"/>
-      <c r="Z148" s="21"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="21"/>
-      <c r="M149" s="21"/>
-      <c r="N149" s="21"/>
-      <c r="O149" s="21"/>
-      <c r="P149" s="21"/>
-      <c r="Q149" s="21"/>
-      <c r="R149" s="21"/>
-      <c r="S149" s="21"/>
-      <c r="T149" s="21"/>
-      <c r="U149" s="21"/>
-      <c r="V149" s="21"/>
-      <c r="W149" s="21"/>
-      <c r="X149" s="21"/>
-      <c r="Y149" s="21"/>
-      <c r="Z149" s="21"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="20"/>
+      <c r="Q145" s="20"/>
+      <c r="R145" s="20"/>
+      <c r="S145" s="20"/>
+      <c r="T145" s="20"/>
+      <c r="U145" s="20"/>
+      <c r="V145" s="20"/>
+      <c r="W145" s="20"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="20"/>
+      <c r="Z145" s="20"/>
+    </row>
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="20"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="20"/>
+      <c r="Q146" s="20"/>
+      <c r="R146" s="20"/>
+      <c r="S146" s="20"/>
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="20"/>
+      <c r="W146" s="20"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
+    </row>
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="20"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="20"/>
+      <c r="Q147" s="20"/>
+      <c r="R147" s="20"/>
+      <c r="S147" s="20"/>
+      <c r="T147" s="20"/>
+      <c r="U147" s="20"/>
+      <c r="V147" s="20"/>
+      <c r="W147" s="20"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="20"/>
+      <c r="Z147" s="20"/>
+    </row>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6"/>
+      <c r="V148" s="6"/>
+      <c r="W148" s="6"/>
+      <c r="X148" s="6"/>
+      <c r="Y148" s="6"/>
+      <c r="Z148" s="6"/>
+    </row>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+      <c r="U149" s="6"/>
+      <c r="V149" s="6"/>
+      <c r="W149" s="6"/>
+      <c r="X149" s="6"/>
+      <c r="Y149" s="6"/>
+      <c r="Z149" s="6"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21"/>
@@ -6591,33 +7138,33 @@
       <c r="Y160" s="21"/>
       <c r="Z160" s="21"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6"/>
-      <c r="T161" s="6"/>
-      <c r="U161" s="6"/>
-      <c r="V161" s="6"/>
-      <c r="W161" s="6"/>
-      <c r="X161" s="6"/>
-      <c r="Y161" s="6"/>
-      <c r="Z161" s="6"/>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="21"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="21"/>
+      <c r="M161" s="21"/>
+      <c r="N161" s="21"/>
+      <c r="O161" s="21"/>
+      <c r="P161" s="21"/>
+      <c r="Q161" s="21"/>
+      <c r="R161" s="21"/>
+      <c r="S161" s="21"/>
+      <c r="T161" s="21"/>
+      <c r="U161" s="21"/>
+      <c r="V161" s="21"/>
+      <c r="W161" s="21"/>
+      <c r="X161" s="21"/>
+      <c r="Y161" s="21"/>
+      <c r="Z161" s="21"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
@@ -6703,33 +7250,33 @@
       <c r="Y164" s="21"/>
       <c r="Z164" s="21"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
-      <c r="J165" s="21"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="21"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="21"/>
-      <c r="O165" s="21"/>
-      <c r="P165" s="21"/>
-      <c r="Q165" s="21"/>
-      <c r="R165" s="21"/>
-      <c r="S165" s="21"/>
-      <c r="T165" s="21"/>
-      <c r="U165" s="21"/>
-      <c r="V165" s="21"/>
-      <c r="W165" s="21"/>
-      <c r="X165" s="21"/>
-      <c r="Y165" s="21"/>
-      <c r="Z165" s="21"/>
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="6"/>
+      <c r="W165" s="6"/>
+      <c r="X165" s="6"/>
+      <c r="Y165" s="6"/>
+      <c r="Z165" s="6"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="21"/>
@@ -9896,16 +10443,116 @@
       <c r="Z278" s="21"/>
     </row>
     <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="22"/>
+      <c r="A279" s="21"/>
+      <c r="B279" s="21"/>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="21"/>
+      <c r="H279" s="21"/>
+      <c r="I279" s="21"/>
+      <c r="J279" s="21"/>
+      <c r="K279" s="21"/>
+      <c r="L279" s="21"/>
+      <c r="M279" s="21"/>
+      <c r="N279" s="21"/>
+      <c r="O279" s="21"/>
+      <c r="P279" s="21"/>
+      <c r="Q279" s="21"/>
+      <c r="R279" s="21"/>
+      <c r="S279" s="21"/>
+      <c r="T279" s="21"/>
+      <c r="U279" s="21"/>
+      <c r="V279" s="21"/>
+      <c r="W279" s="21"/>
+      <c r="X279" s="21"/>
+      <c r="Y279" s="21"/>
+      <c r="Z279" s="21"/>
     </row>
     <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="22"/>
+      <c r="A280" s="21"/>
+      <c r="B280" s="21"/>
+      <c r="C280" s="21"/>
+      <c r="D280" s="21"/>
+      <c r="E280" s="21"/>
+      <c r="F280" s="21"/>
+      <c r="G280" s="21"/>
+      <c r="H280" s="21"/>
+      <c r="I280" s="21"/>
+      <c r="J280" s="21"/>
+      <c r="K280" s="21"/>
+      <c r="L280" s="21"/>
+      <c r="M280" s="21"/>
+      <c r="N280" s="21"/>
+      <c r="O280" s="21"/>
+      <c r="P280" s="21"/>
+      <c r="Q280" s="21"/>
+      <c r="R280" s="21"/>
+      <c r="S280" s="21"/>
+      <c r="T280" s="21"/>
+      <c r="U280" s="21"/>
+      <c r="V280" s="21"/>
+      <c r="W280" s="21"/>
+      <c r="X280" s="21"/>
+      <c r="Y280" s="21"/>
+      <c r="Z280" s="21"/>
     </row>
     <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="22"/>
+      <c r="A281" s="21"/>
+      <c r="B281" s="21"/>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="21"/>
+      <c r="G281" s="21"/>
+      <c r="H281" s="21"/>
+      <c r="I281" s="21"/>
+      <c r="J281" s="21"/>
+      <c r="K281" s="21"/>
+      <c r="L281" s="21"/>
+      <c r="M281" s="21"/>
+      <c r="N281" s="21"/>
+      <c r="O281" s="21"/>
+      <c r="P281" s="21"/>
+      <c r="Q281" s="21"/>
+      <c r="R281" s="21"/>
+      <c r="S281" s="21"/>
+      <c r="T281" s="21"/>
+      <c r="U281" s="21"/>
+      <c r="V281" s="21"/>
+      <c r="W281" s="21"/>
+      <c r="X281" s="21"/>
+      <c r="Y281" s="21"/>
+      <c r="Z281" s="21"/>
     </row>
     <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="22"/>
+      <c r="A282" s="21"/>
+      <c r="B282" s="21"/>
+      <c r="C282" s="21"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="21"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="21"/>
+      <c r="H282" s="21"/>
+      <c r="I282" s="21"/>
+      <c r="J282" s="21"/>
+      <c r="K282" s="21"/>
+      <c r="L282" s="21"/>
+      <c r="M282" s="21"/>
+      <c r="N282" s="21"/>
+      <c r="O282" s="21"/>
+      <c r="P282" s="21"/>
+      <c r="Q282" s="21"/>
+      <c r="R282" s="21"/>
+      <c r="S282" s="21"/>
+      <c r="T282" s="21"/>
+      <c r="U282" s="21"/>
+      <c r="V282" s="21"/>
+      <c r="W282" s="21"/>
+      <c r="X282" s="21"/>
+      <c r="Y282" s="21"/>
+      <c r="Z282" s="21"/>
     </row>
     <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D283" s="22"/>
@@ -11659,214 +12306,471 @@
     <row r="866" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D866" s="22"/>
     </row>
+    <row r="867" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D867" s="22"/>
+    </row>
+    <row r="868" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D868" s="22"/>
+    </row>
+    <row r="869" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D869" s="22"/>
+    </row>
+    <row r="870" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D870" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A866">
-    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A61:A870">
+    <cfRule type="containsText" dxfId="89" priority="78" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
-    <cfRule type="expression" dxfId="39" priority="25">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870 N58:Z60 K58:K60 I58:I60">
+    <cfRule type="expression" dxfId="88" priority="79">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870 N58:Z60 K58:K60 I58:I60">
+    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C866">
-    <cfRule type="expression" dxfId="37" priority="31">
+  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C56 C61:C870">
+    <cfRule type="expression" dxfId="86" priority="85">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B866">
-    <cfRule type="expression" dxfId="36" priority="32">
+  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B56 B61:B870">
+    <cfRule type="expression" dxfId="85" priority="86">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A866">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A61:A870">
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="89" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="33" priority="36" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="82" priority="90" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="notContainsText" dxfId="32" priority="37" operator="notContains" text="required">
+    <cfRule type="notContainsText" dxfId="81" priority="91" operator="notContains" text="required">
       <formula>ISERROR(SEARCH(("required"),(D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="92" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="79" priority="93" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="78" priority="94" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="28" priority="41" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="77" priority="95" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="76" priority="96" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="97" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="25" priority="44" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="74" priority="98" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="24" priority="45" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="99" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Z1">
-    <cfRule type="cellIs" dxfId="23" priority="46" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="100" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H866">
-    <cfRule type="expression" dxfId="22" priority="47">
+  <conditionalFormatting sqref="H1:H57 H61:H870">
+    <cfRule type="expression" dxfId="71" priority="101">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
-    <cfRule type="expression" dxfId="21" priority="48">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870 N58:Z60 K58:K60 I58:I60">
+    <cfRule type="expression" dxfId="70" priority="102">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="69" priority="68">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I866">
-    <cfRule type="expression" dxfId="18" priority="354">
+  <conditionalFormatting sqref="I1:I870">
+    <cfRule type="expression" dxfId="67" priority="408">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
-    <cfRule type="expression" dxfId="17" priority="357">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870">
+    <cfRule type="expression" dxfId="66" priority="411">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z866 A50:F866">
-    <cfRule type="expression" dxfId="16" priority="367">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870">
+    <cfRule type="expression" dxfId="65" priority="421">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="64" priority="61" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A41))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="63" priority="62">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="59" priority="66">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="58" priority="67">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>AND($A49="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>AND($A49="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>AND($A49="end group", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>AND($A49="end repeat", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B866">
-    <cfRule type="expression" dxfId="2" priority="1130">
-      <formula>COUNTIF($B$2:$B$983,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B56 B61:B870">
+    <cfRule type="expression" dxfId="51" priority="1184">
+      <formula>COUNTIF($B$2:$B$987,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1134">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$984, "begin group") = COUNTIF($A$1:$A$984, "end group"))</formula>
+    <cfRule type="expression" dxfId="50" priority="1188">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$988, "begin group") = COUNTIF($A$1:$A$988, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="1135">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$975, "begin group") = COUNTIF($A$1:$A$984, "end group")))</formula>
+    <cfRule type="expression" dxfId="49" priority="1189">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$979, "begin group") = COUNTIF($A$1:$A$988, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="47" priority="46">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="44" priority="49">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="43" priority="50">
+      <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="41" priority="52">
+      <formula>COUNTIF($B$2:$B$1120,B57)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="40" priority="53">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="39" priority="54">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:M60">
+    <cfRule type="expression" dxfId="37" priority="34">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:M60">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M58:M60">
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>AND($M58 = "", $A58 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:M60">
+    <cfRule type="expression" dxfId="34" priority="43">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:H58 H59:H60">
+    <cfRule type="expression" dxfId="33" priority="22">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:H58 H59:H60">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="31" priority="24">
+      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="30" priority="25">
+      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="28" priority="27">
+      <formula>COUNTIF($B$2:$B$1119,B58)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:H58 H59:H60">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58:Z60">
+    <cfRule type="expression" dxfId="26" priority="1190">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58:Z60">
+    <cfRule type="expression" dxfId="25" priority="1191">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:M60">
+    <cfRule type="expression" dxfId="24" priority="1192">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:L60">
+    <cfRule type="expression" dxfId="23" priority="1194">
+      <formula>AND(NOT($I58 = ""), $K58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:M60">
+    <cfRule type="expression" dxfId="22" priority="1195">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:K60 A58:I58 H59:I60">
+    <cfRule type="expression" dxfId="21" priority="1202">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $F58 = "", $G58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $L58 = "", $N58 = "", $O58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:K60 A58:I58 H59:I60">
+    <cfRule type="expression" dxfId="20" priority="1206">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $F58 = "", $G58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $L58 = "", $N58 = "", $O58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:G59">
+    <cfRule type="expression" dxfId="18" priority="12">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:G59">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>COUNTIF($B$2:$B$1118,B59)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:G59">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:G59">
+    <cfRule type="expression" dxfId="11" priority="19">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:G59">
+    <cfRule type="expression" dxfId="10" priority="20">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:G60">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:G60">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>COUNTIF($B$2:$B$1117,B60)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:G60">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:G60">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:G60">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D866">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D870">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11896,7 +12800,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -11911,30 +12815,30 @@
         <v>124</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -11944,16 +12848,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -11974,16 +12878,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -11993,16 +12897,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12023,19 +12927,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>153</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12044,19 +12948,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12076,16 +12980,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12095,16 +12999,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -14989,46 +15893,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44866.997278240742</v>
+        <v>44867.006648495371</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="205">
   <si>
     <t>type</t>
   </si>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>selected(../cohort, 'under_5')
+or selected(../knows_dob, 'yes')</t>
   </si>
   <si>
     <t>hh_age_years</t>
@@ -409,7 +413,51 @@
     <t>cohort</t>
   </si>
   <si>
+    <t>${dob_validation_message}</t>
+  </si>
+  <si>
+    <t>c_dob_calendar2</t>
+  </si>
+  <si>
+    <t>dob_calendar_format2</t>
+  </si>
+  <si>
+    <t>_Date of birth is ${c_dob_calendar2}_</t>
+  </si>
+  <si>
     <t>age_years</t>
+  </si>
+  <si>
+    <t>format-date-time(date(../dob_iso),'%Y-%m-%d')</t>
+  </si>
+  <si>
+    <t>ephemeral_months</t>
+  </si>
+  <si>
+    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
+  </si>
+  <si>
+    <t>ephemeral_years</t>
+  </si>
+  <si>
+    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+  </si>
+  <si>
+    <t>dob_approx</t>
+  </si>
+  <si>
+    <t>date(concat(string(../ephemeral_years),'-',if(../ephemeral_months&lt;10, concat('0',string(../ephemeral_months)), ../ephemeral_months),'-',string(format-date-time(today(), "%d"))))</t>
+  </si>
+  <si>
+    <t>if(../dob_calendar != '', 
+../dob_calendar,
+../dob_approx )</t>
+  </si>
+  <si>
+    <t>dob_iso</t>
+  </si>
+  <si>
+    <t>decimal-date-time(../dob_raw)</t>
   </si>
   <si>
     <t>person_age_years</t>
@@ -591,6 +639,18 @@
   </si>
   <si>
     <t>Does ${hh_member_name} know their date of birth?</t>
+  </si>
+  <si>
+    <t>age_months</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>Months must between 0 and 11</t>
   </si>
 </sst>
 </file>
@@ -860,7 +920,596 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="149">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF980000"/>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -2019,10 +2668,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z870"/>
+  <dimension ref="A1:Z882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
@@ -2605,7 +3254,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3112,7 +3761,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -3123,7 +3772,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -3145,31 +3794,31 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="4"/>
@@ -3192,7 +3841,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>50</v>
@@ -3203,7 +3852,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="4"/>
@@ -3228,7 +3877,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>50</v>
@@ -3239,7 +3888,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -3264,14 +3913,14 @@
         <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -3297,31 +3946,31 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -3341,31 +3990,31 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -3388,7 +4037,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>50</v>
@@ -3399,7 +4048,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -3424,10 +4073,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -3435,7 +4084,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -3460,10 +4109,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -3471,7 +4120,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -3554,10 +4203,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -3590,10 +4239,10 @@
         <v>61</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>40</v>
@@ -3623,17 +4272,17 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3662,14 +4311,14 @@
         <v>74</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -3728,14 +4377,14 @@
         <v>14</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>27</v>
@@ -3763,13 +4412,13 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3800,10 +4449,10 @@
         <v>74</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -3837,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -3957,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>40</v>
@@ -3990,7 +4639,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>50</v>
@@ -4001,7 +4650,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -4065,7 +4714,7 @@
         <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>40</v>
@@ -4094,28 +4743,31 @@
       <c r="Z57" s="6"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -4131,25 +4783,24 @@
       <c r="Z58" s="6"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="8"/>
+      <c r="A59" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -4169,24 +4820,23 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -4205,219 +4855,253 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B63" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+    </row>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K66" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -4438,20 +5122,22 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="I68" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -4472,16 +5158,22 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="I69" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -4502,28 +5194,27 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="I70" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
+      <c r="M70" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -4539,26 +5230,27 @@
       <c r="Z70" s="6"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="A71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="4"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -4576,25 +5268,26 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -4611,381 +5304,385 @@
       <c r="Z72" s="6"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+    </row>
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+    </row>
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="B75" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+    </row>
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+    </row>
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+    </row>
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+    </row>
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+    </row>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+    </row>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-    </row>
-    <row r="77" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-    </row>
-    <row r="78" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-    </row>
-    <row r="79" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-    </row>
-    <row r="80" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="8"/>
-    </row>
-    <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-    </row>
-    <row r="82" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20"/>
-      <c r="X82" s="20"/>
-      <c r="Y82" s="20"/>
-      <c r="Z82" s="20"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4994,7 +5691,9 @@
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+      <c r="L84" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
@@ -5011,18 +5710,28 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
+      <c r="A85" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+      <c r="I85" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
+      <c r="L85" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
@@ -5039,43 +5748,59 @@
       <c r="Z85" s="6"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
+      <c r="A86" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="A87" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
+      <c r="I87" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
@@ -5095,17 +5820,27 @@
       <c r="Z87" s="6"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="4"/>
+      <c r="A88" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
+      <c r="I88" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="K88" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -5122,184 +5857,212 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
-      <c r="Z93" s="4"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+    <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
+    </row>
+    <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+    </row>
+    <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+    </row>
+    <row r="92" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+    </row>
+    <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+    </row>
+    <row r="94" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="20"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="3"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -5320,64 +6083,64 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="W96" s="4"/>
-      <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
-      <c r="W97" s="4"/>
-      <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="Z97" s="4"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -5404,120 +6167,120 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
-      <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="Z100" s="4"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="Z101" s="4"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="6"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5573,7 +6336,7 @@
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="7"/>
+      <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -5685,7 +6448,7 @@
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="18"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -5713,7 +6476,7 @@
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="18"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5741,7 +6504,7 @@
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="18"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5797,7 +6560,7 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="18"/>
+      <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5825,9 +6588,9 @@
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="18"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="18"/>
+      <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -5881,7 +6644,7 @@
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -5909,7 +6672,7 @@
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -6021,7 +6784,7 @@
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="18"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -6049,7 +6812,7 @@
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="C122" s="18"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -6076,94 +6839,94 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="6"/>
-      <c r="U123" s="6"/>
-      <c r="V123" s="6"/>
-      <c r="W123" s="6"/>
-      <c r="X123" s="6"/>
-      <c r="Y123" s="6"/>
-      <c r="Z123" s="6"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6"/>
-      <c r="T124" s="6"/>
-      <c r="U124" s="6"/>
-      <c r="V124" s="6"/>
-      <c r="W124" s="6"/>
-      <c r="X124" s="6"/>
-      <c r="Y124" s="6"/>
-      <c r="Z124" s="6"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="6"/>
-      <c r="T125" s="6"/>
-      <c r="U125" s="6"/>
-      <c r="V125" s="6"/>
-      <c r="W125" s="6"/>
-      <c r="X125" s="6"/>
-      <c r="Y125" s="6"/>
-      <c r="Z125" s="6"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="7"/>
+      <c r="C126" s="18"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="E126" s="18"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -6217,7 +6980,7 @@
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="7"/>
+      <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -6245,7 +7008,7 @@
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="18"/>
+      <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -6273,7 +7036,7 @@
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="7"/>
+      <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -6301,7 +7064,7 @@
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="18"/>
+      <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -6329,7 +7092,7 @@
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="7"/>
+      <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -6385,7 +7148,7 @@
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="7"/>
+      <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -6412,92 +7175,92 @@
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+      <c r="U135" s="6"/>
+      <c r="V135" s="6"/>
+      <c r="W135" s="6"/>
+      <c r="X135" s="6"/>
+      <c r="Y135" s="6"/>
+      <c r="Z135" s="6"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="7"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="21"/>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
-      <c r="K137" s="21"/>
-      <c r="L137" s="21"/>
-      <c r="M137" s="21"/>
-      <c r="N137" s="21"/>
-      <c r="O137" s="21"/>
-      <c r="P137" s="21"/>
-      <c r="Q137" s="21"/>
-      <c r="R137" s="21"/>
-      <c r="S137" s="21"/>
-      <c r="T137" s="21"/>
-      <c r="U137" s="21"/>
-      <c r="V137" s="21"/>
-      <c r="W137" s="21"/>
-      <c r="X137" s="21"/>
-      <c r="Y137" s="21"/>
-      <c r="Z137" s="21"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="6"/>
+      <c r="T136" s="6"/>
+      <c r="U136" s="6"/>
+      <c r="V136" s="6"/>
+      <c r="W136" s="6"/>
+      <c r="X136" s="6"/>
+      <c r="Y136" s="6"/>
+      <c r="Z136" s="6"/>
+    </row>
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="6"/>
+      <c r="T137" s="6"/>
+      <c r="U137" s="6"/>
+      <c r="V137" s="6"/>
+      <c r="W137" s="6"/>
+      <c r="X137" s="6"/>
+      <c r="Y137" s="6"/>
+      <c r="Z137" s="6"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6525,7 +7288,7 @@
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="7"/>
+      <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -6553,7 +7316,7 @@
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6581,7 +7344,7 @@
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="7"/>
+      <c r="C141" s="18"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6609,7 +7372,7 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="18"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6637,7 +7400,7 @@
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="7"/>
+      <c r="C143" s="18"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -6665,506 +7428,506 @@
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="20"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="20"/>
-      <c r="O144" s="20"/>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="20"/>
-      <c r="R144" s="20"/>
-      <c r="S144" s="20"/>
-      <c r="T144" s="20"/>
-      <c r="U144" s="20"/>
-      <c r="V144" s="20"/>
-      <c r="W144" s="20"/>
-      <c r="X144" s="20"/>
-      <c r="Y144" s="20"/>
-      <c r="Z144" s="20"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+      <c r="Z144" s="4"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
       <c r="I145" s="4"/>
-      <c r="J145" s="20"/>
-      <c r="K145" s="20"/>
-      <c r="L145" s="20"/>
-      <c r="M145" s="20"/>
-      <c r="N145" s="20"/>
-      <c r="O145" s="20"/>
-      <c r="P145" s="20"/>
-      <c r="Q145" s="20"/>
-      <c r="R145" s="20"/>
-      <c r="S145" s="20"/>
-      <c r="T145" s="20"/>
-      <c r="U145" s="20"/>
-      <c r="V145" s="20"/>
-      <c r="W145" s="20"/>
-      <c r="X145" s="20"/>
-      <c r="Y145" s="20"/>
-      <c r="Z145" s="20"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="20"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="20"/>
-      <c r="O146" s="20"/>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="20"/>
-      <c r="R146" s="20"/>
-      <c r="S146" s="20"/>
-      <c r="T146" s="20"/>
-      <c r="U146" s="20"/>
-      <c r="V146" s="20"/>
-      <c r="W146" s="20"/>
-      <c r="X146" s="20"/>
-      <c r="Y146" s="20"/>
-      <c r="Z146" s="20"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="20"/>
+      <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20"/>
-      <c r="L147" s="20"/>
-      <c r="M147" s="20"/>
-      <c r="N147" s="20"/>
-      <c r="O147" s="20"/>
-      <c r="P147" s="20"/>
-      <c r="Q147" s="20"/>
-      <c r="R147" s="20"/>
-      <c r="S147" s="20"/>
-      <c r="T147" s="20"/>
-      <c r="U147" s="20"/>
-      <c r="V147" s="20"/>
-      <c r="W147" s="20"/>
-      <c r="X147" s="20"/>
-      <c r="Y147" s="20"/>
-      <c r="Z147" s="20"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
-      <c r="U148" s="6"/>
-      <c r="V148" s="6"/>
-      <c r="W148" s="6"/>
-      <c r="X148" s="6"/>
-      <c r="Y148" s="6"/>
-      <c r="Z148" s="6"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
-      <c r="R149" s="6"/>
-      <c r="S149" s="6"/>
-      <c r="T149" s="6"/>
-      <c r="U149" s="6"/>
-      <c r="V149" s="6"/>
-      <c r="W149" s="6"/>
-      <c r="X149" s="6"/>
-      <c r="Y149" s="6"/>
-      <c r="Z149" s="6"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="21"/>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="21"/>
-      <c r="N150" s="21"/>
-      <c r="O150" s="21"/>
-      <c r="P150" s="21"/>
-      <c r="Q150" s="21"/>
-      <c r="R150" s="21"/>
-      <c r="S150" s="21"/>
-      <c r="T150" s="21"/>
-      <c r="U150" s="21"/>
-      <c r="V150" s="21"/>
-      <c r="W150" s="21"/>
-      <c r="X150" s="21"/>
-      <c r="Y150" s="21"/>
-      <c r="Z150" s="21"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="21"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="21"/>
-      <c r="J151" s="21"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="21"/>
-      <c r="M151" s="21"/>
-      <c r="N151" s="21"/>
-      <c r="O151" s="21"/>
-      <c r="P151" s="21"/>
-      <c r="Q151" s="21"/>
-      <c r="R151" s="21"/>
-      <c r="S151" s="21"/>
-      <c r="T151" s="21"/>
-      <c r="U151" s="21"/>
-      <c r="V151" s="21"/>
-      <c r="W151" s="21"/>
-      <c r="X151" s="21"/>
-      <c r="Y151" s="21"/>
-      <c r="Z151" s="21"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="21"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="21"/>
-      <c r="I152" s="21"/>
-      <c r="J152" s="21"/>
-      <c r="K152" s="21"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="21"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="21"/>
-      <c r="P152" s="21"/>
-      <c r="Q152" s="21"/>
-      <c r="R152" s="21"/>
-      <c r="S152" s="21"/>
-      <c r="T152" s="21"/>
-      <c r="U152" s="21"/>
-      <c r="V152" s="21"/>
-      <c r="W152" s="21"/>
-      <c r="X152" s="21"/>
-      <c r="Y152" s="21"/>
-      <c r="Z152" s="21"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="21"/>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="21"/>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="21"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="21"/>
-      <c r="O153" s="21"/>
-      <c r="P153" s="21"/>
-      <c r="Q153" s="21"/>
-      <c r="R153" s="21"/>
-      <c r="S153" s="21"/>
-      <c r="T153" s="21"/>
-      <c r="U153" s="21"/>
-      <c r="V153" s="21"/>
-      <c r="W153" s="21"/>
-      <c r="X153" s="21"/>
-      <c r="Y153" s="21"/>
-      <c r="Z153" s="21"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="21"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="21"/>
-      <c r="J154" s="21"/>
-      <c r="K154" s="21"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="21"/>
-      <c r="O154" s="21"/>
-      <c r="P154" s="21"/>
-      <c r="Q154" s="21"/>
-      <c r="R154" s="21"/>
-      <c r="S154" s="21"/>
-      <c r="T154" s="21"/>
-      <c r="U154" s="21"/>
-      <c r="V154" s="21"/>
-      <c r="W154" s="21"/>
-      <c r="X154" s="21"/>
-      <c r="Y154" s="21"/>
-      <c r="Z154" s="21"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
-      <c r="J155" s="21"/>
-      <c r="K155" s="21"/>
-      <c r="L155" s="21"/>
-      <c r="M155" s="21"/>
-      <c r="N155" s="21"/>
-      <c r="O155" s="21"/>
-      <c r="P155" s="21"/>
-      <c r="Q155" s="21"/>
-      <c r="R155" s="21"/>
-      <c r="S155" s="21"/>
-      <c r="T155" s="21"/>
-      <c r="U155" s="21"/>
-      <c r="V155" s="21"/>
-      <c r="W155" s="21"/>
-      <c r="X155" s="21"/>
-      <c r="Y155" s="21"/>
-      <c r="Z155" s="21"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="21"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="21"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="21"/>
-      <c r="O156" s="21"/>
-      <c r="P156" s="21"/>
-      <c r="Q156" s="21"/>
-      <c r="R156" s="21"/>
-      <c r="S156" s="21"/>
-      <c r="T156" s="21"/>
-      <c r="U156" s="21"/>
-      <c r="V156" s="21"/>
-      <c r="W156" s="21"/>
-      <c r="X156" s="21"/>
-      <c r="Y156" s="21"/>
-      <c r="Z156" s="21"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="21"/>
-      <c r="B157" s="21"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="21"/>
-      <c r="O157" s="21"/>
-      <c r="P157" s="21"/>
-      <c r="Q157" s="21"/>
-      <c r="R157" s="21"/>
-      <c r="S157" s="21"/>
-      <c r="T157" s="21"/>
-      <c r="U157" s="21"/>
-      <c r="V157" s="21"/>
-      <c r="W157" s="21"/>
-      <c r="X157" s="21"/>
-      <c r="Y157" s="21"/>
-      <c r="Z157" s="21"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="21"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="21"/>
-      <c r="O158" s="21"/>
-      <c r="P158" s="21"/>
-      <c r="Q158" s="21"/>
-      <c r="R158" s="21"/>
-      <c r="S158" s="21"/>
-      <c r="T158" s="21"/>
-      <c r="U158" s="21"/>
-      <c r="V158" s="21"/>
-      <c r="W158" s="21"/>
-      <c r="X158" s="21"/>
-      <c r="Y158" s="21"/>
-      <c r="Z158" s="21"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="21"/>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="21"/>
-      <c r="J159" s="21"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="21"/>
-      <c r="M159" s="21"/>
-      <c r="N159" s="21"/>
-      <c r="O159" s="21"/>
-      <c r="P159" s="21"/>
-      <c r="Q159" s="21"/>
-      <c r="R159" s="21"/>
-      <c r="S159" s="21"/>
-      <c r="T159" s="21"/>
-      <c r="U159" s="21"/>
-      <c r="V159" s="21"/>
-      <c r="W159" s="21"/>
-      <c r="X159" s="21"/>
-      <c r="Y159" s="21"/>
-      <c r="Z159" s="21"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="21"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="21"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="21"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="21"/>
-      <c r="O160" s="21"/>
-      <c r="P160" s="21"/>
-      <c r="Q160" s="21"/>
-      <c r="R160" s="21"/>
-      <c r="S160" s="21"/>
-      <c r="T160" s="21"/>
-      <c r="U160" s="21"/>
-      <c r="V160" s="21"/>
-      <c r="W160" s="21"/>
-      <c r="X160" s="21"/>
-      <c r="Y160" s="21"/>
-      <c r="Z160" s="21"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="21"/>
-      <c r="O161" s="21"/>
-      <c r="P161" s="21"/>
-      <c r="Q161" s="21"/>
-      <c r="R161" s="21"/>
-      <c r="S161" s="21"/>
-      <c r="T161" s="21"/>
-      <c r="U161" s="21"/>
-      <c r="V161" s="21"/>
-      <c r="W161" s="21"/>
-      <c r="X161" s="21"/>
-      <c r="Y161" s="21"/>
-      <c r="Z161" s="21"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
+    </row>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="21"/>
+      <c r="M149" s="21"/>
+      <c r="N149" s="21"/>
+      <c r="O149" s="21"/>
+      <c r="P149" s="21"/>
+      <c r="Q149" s="21"/>
+      <c r="R149" s="21"/>
+      <c r="S149" s="21"/>
+      <c r="T149" s="21"/>
+      <c r="U149" s="21"/>
+      <c r="V149" s="21"/>
+      <c r="W149" s="21"/>
+      <c r="X149" s="21"/>
+      <c r="Y149" s="21"/>
+      <c r="Z149" s="21"/>
+    </row>
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
+      <c r="Z150" s="4"/>
+    </row>
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
+      <c r="Z151" s="4"/>
+    </row>
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
+      <c r="Z152" s="4"/>
+    </row>
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
+      <c r="Z153" s="4"/>
+    </row>
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
+      <c r="Z154" s="4"/>
+    </row>
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+      <c r="S155" s="4"/>
+      <c r="T155" s="4"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="4"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="4"/>
+      <c r="Z155" s="4"/>
+    </row>
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="20"/>
+      <c r="O156" s="20"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+      <c r="Z156" s="20"/>
+    </row>
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
+      <c r="Q157" s="20"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="20"/>
+      <c r="T157" s="20"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="20"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="20"/>
+    </row>
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="20"/>
+      <c r="O158" s="20"/>
+      <c r="P158" s="20"/>
+      <c r="Q158" s="20"/>
+      <c r="R158" s="20"/>
+      <c r="S158" s="20"/>
+      <c r="T158" s="20"/>
+      <c r="U158" s="20"/>
+      <c r="V158" s="20"/>
+      <c r="W158" s="20"/>
+      <c r="X158" s="20"/>
+      <c r="Y158" s="20"/>
+      <c r="Z158" s="20"/>
+    </row>
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="20"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="20"/>
+      <c r="Q159" s="20"/>
+      <c r="R159" s="20"/>
+      <c r="S159" s="20"/>
+      <c r="T159" s="20"/>
+      <c r="U159" s="20"/>
+      <c r="V159" s="20"/>
+      <c r="W159" s="20"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+      <c r="Z159" s="20"/>
+    </row>
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="6"/>
+      <c r="X160" s="6"/>
+      <c r="Y160" s="6"/>
+      <c r="Z160" s="6"/>
+    </row>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="6"/>
+      <c r="W161" s="6"/>
+      <c r="X161" s="6"/>
+      <c r="Y161" s="6"/>
+      <c r="Z161" s="6"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
@@ -7250,33 +8013,33 @@
       <c r="Y164" s="21"/>
       <c r="Z164" s="21"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6"/>
-      <c r="T165" s="6"/>
-      <c r="U165" s="6"/>
-      <c r="V165" s="6"/>
-      <c r="W165" s="6"/>
-      <c r="X165" s="6"/>
-      <c r="Y165" s="6"/>
-      <c r="Z165" s="6"/>
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="21"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
+      <c r="J165" s="21"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="21"/>
+      <c r="M165" s="21"/>
+      <c r="N165" s="21"/>
+      <c r="O165" s="21"/>
+      <c r="P165" s="21"/>
+      <c r="Q165" s="21"/>
+      <c r="R165" s="21"/>
+      <c r="S165" s="21"/>
+      <c r="T165" s="21"/>
+      <c r="U165" s="21"/>
+      <c r="V165" s="21"/>
+      <c r="W165" s="21"/>
+      <c r="X165" s="21"/>
+      <c r="Y165" s="21"/>
+      <c r="Z165" s="21"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="21"/>
@@ -7586,33 +8349,33 @@
       <c r="Y176" s="21"/>
       <c r="Z176" s="21"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="21"/>
-      <c r="B177" s="21"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="21"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="21"/>
-      <c r="I177" s="21"/>
-      <c r="J177" s="21"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="21"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="21"/>
-      <c r="O177" s="21"/>
-      <c r="P177" s="21"/>
-      <c r="Q177" s="21"/>
-      <c r="R177" s="21"/>
-      <c r="S177" s="21"/>
-      <c r="T177" s="21"/>
-      <c r="U177" s="21"/>
-      <c r="V177" s="21"/>
-      <c r="W177" s="21"/>
-      <c r="X177" s="21"/>
-      <c r="Y177" s="21"/>
-      <c r="Z177" s="21"/>
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6"/>
+      <c r="T177" s="6"/>
+      <c r="U177" s="6"/>
+      <c r="V177" s="6"/>
+      <c r="W177" s="6"/>
+      <c r="X177" s="6"/>
+      <c r="Y177" s="6"/>
+      <c r="Z177" s="6"/>
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21"/>
@@ -10555,69 +11318,369 @@
       <c r="Z282" s="21"/>
     </row>
     <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="22"/>
+      <c r="A283" s="21"/>
+      <c r="B283" s="21"/>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="21"/>
+      <c r="H283" s="21"/>
+      <c r="I283" s="21"/>
+      <c r="J283" s="21"/>
+      <c r="K283" s="21"/>
+      <c r="L283" s="21"/>
+      <c r="M283" s="21"/>
+      <c r="N283" s="21"/>
+      <c r="O283" s="21"/>
+      <c r="P283" s="21"/>
+      <c r="Q283" s="21"/>
+      <c r="R283" s="21"/>
+      <c r="S283" s="21"/>
+      <c r="T283" s="21"/>
+      <c r="U283" s="21"/>
+      <c r="V283" s="21"/>
+      <c r="W283" s="21"/>
+      <c r="X283" s="21"/>
+      <c r="Y283" s="21"/>
+      <c r="Z283" s="21"/>
     </row>
     <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="22"/>
+      <c r="A284" s="21"/>
+      <c r="B284" s="21"/>
+      <c r="C284" s="21"/>
+      <c r="D284" s="21"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21"/>
+      <c r="I284" s="21"/>
+      <c r="J284" s="21"/>
+      <c r="K284" s="21"/>
+      <c r="L284" s="21"/>
+      <c r="M284" s="21"/>
+      <c r="N284" s="21"/>
+      <c r="O284" s="21"/>
+      <c r="P284" s="21"/>
+      <c r="Q284" s="21"/>
+      <c r="R284" s="21"/>
+      <c r="S284" s="21"/>
+      <c r="T284" s="21"/>
+      <c r="U284" s="21"/>
+      <c r="V284" s="21"/>
+      <c r="W284" s="21"/>
+      <c r="X284" s="21"/>
+      <c r="Y284" s="21"/>
+      <c r="Z284" s="21"/>
     </row>
     <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="22"/>
+      <c r="A285" s="21"/>
+      <c r="B285" s="21"/>
+      <c r="C285" s="21"/>
+      <c r="D285" s="21"/>
+      <c r="E285" s="21"/>
+      <c r="F285" s="21"/>
+      <c r="G285" s="21"/>
+      <c r="H285" s="21"/>
+      <c r="I285" s="21"/>
+      <c r="J285" s="21"/>
+      <c r="K285" s="21"/>
+      <c r="L285" s="21"/>
+      <c r="M285" s="21"/>
+      <c r="N285" s="21"/>
+      <c r="O285" s="21"/>
+      <c r="P285" s="21"/>
+      <c r="Q285" s="21"/>
+      <c r="R285" s="21"/>
+      <c r="S285" s="21"/>
+      <c r="T285" s="21"/>
+      <c r="U285" s="21"/>
+      <c r="V285" s="21"/>
+      <c r="W285" s="21"/>
+      <c r="X285" s="21"/>
+      <c r="Y285" s="21"/>
+      <c r="Z285" s="21"/>
     </row>
     <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="22"/>
+      <c r="A286" s="21"/>
+      <c r="B286" s="21"/>
+      <c r="C286" s="21"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="21"/>
+      <c r="F286" s="21"/>
+      <c r="G286" s="21"/>
+      <c r="H286" s="21"/>
+      <c r="I286" s="21"/>
+      <c r="J286" s="21"/>
+      <c r="K286" s="21"/>
+      <c r="L286" s="21"/>
+      <c r="M286" s="21"/>
+      <c r="N286" s="21"/>
+      <c r="O286" s="21"/>
+      <c r="P286" s="21"/>
+      <c r="Q286" s="21"/>
+      <c r="R286" s="21"/>
+      <c r="S286" s="21"/>
+      <c r="T286" s="21"/>
+      <c r="U286" s="21"/>
+      <c r="V286" s="21"/>
+      <c r="W286" s="21"/>
+      <c r="X286" s="21"/>
+      <c r="Y286" s="21"/>
+      <c r="Z286" s="21"/>
     </row>
     <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="22"/>
+      <c r="A287" s="21"/>
+      <c r="B287" s="21"/>
+      <c r="C287" s="21"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="21"/>
+      <c r="F287" s="21"/>
+      <c r="G287" s="21"/>
+      <c r="H287" s="21"/>
+      <c r="I287" s="21"/>
+      <c r="J287" s="21"/>
+      <c r="K287" s="21"/>
+      <c r="L287" s="21"/>
+      <c r="M287" s="21"/>
+      <c r="N287" s="21"/>
+      <c r="O287" s="21"/>
+      <c r="P287" s="21"/>
+      <c r="Q287" s="21"/>
+      <c r="R287" s="21"/>
+      <c r="S287" s="21"/>
+      <c r="T287" s="21"/>
+      <c r="U287" s="21"/>
+      <c r="V287" s="21"/>
+      <c r="W287" s="21"/>
+      <c r="X287" s="21"/>
+      <c r="Y287" s="21"/>
+      <c r="Z287" s="21"/>
     </row>
     <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="22"/>
-    </row>
-    <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="22"/>
-    </row>
-    <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="22"/>
-    </row>
-    <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="22"/>
-    </row>
-    <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="22"/>
-    </row>
-    <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="22"/>
-    </row>
-    <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="22"/>
-    </row>
-    <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="21"/>
+      <c r="B288" s="21"/>
+      <c r="C288" s="21"/>
+      <c r="D288" s="21"/>
+      <c r="E288" s="21"/>
+      <c r="F288" s="21"/>
+      <c r="G288" s="21"/>
+      <c r="H288" s="21"/>
+      <c r="I288" s="21"/>
+      <c r="J288" s="21"/>
+      <c r="K288" s="21"/>
+      <c r="L288" s="21"/>
+      <c r="M288" s="21"/>
+      <c r="N288" s="21"/>
+      <c r="O288" s="21"/>
+      <c r="P288" s="21"/>
+      <c r="Q288" s="21"/>
+      <c r="R288" s="21"/>
+      <c r="S288" s="21"/>
+      <c r="T288" s="21"/>
+      <c r="U288" s="21"/>
+      <c r="V288" s="21"/>
+      <c r="W288" s="21"/>
+      <c r="X288" s="21"/>
+      <c r="Y288" s="21"/>
+      <c r="Z288" s="21"/>
+    </row>
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="21"/>
+      <c r="B289" s="21"/>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21"/>
+      <c r="I289" s="21"/>
+      <c r="J289" s="21"/>
+      <c r="K289" s="21"/>
+      <c r="L289" s="21"/>
+      <c r="M289" s="21"/>
+      <c r="N289" s="21"/>
+      <c r="O289" s="21"/>
+      <c r="P289" s="21"/>
+      <c r="Q289" s="21"/>
+      <c r="R289" s="21"/>
+      <c r="S289" s="21"/>
+      <c r="T289" s="21"/>
+      <c r="U289" s="21"/>
+      <c r="V289" s="21"/>
+      <c r="W289" s="21"/>
+      <c r="X289" s="21"/>
+      <c r="Y289" s="21"/>
+      <c r="Z289" s="21"/>
+    </row>
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="21"/>
+      <c r="B290" s="21"/>
+      <c r="C290" s="21"/>
+      <c r="D290" s="21"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="21"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="21"/>
+      <c r="J290" s="21"/>
+      <c r="K290" s="21"/>
+      <c r="L290" s="21"/>
+      <c r="M290" s="21"/>
+      <c r="N290" s="21"/>
+      <c r="O290" s="21"/>
+      <c r="P290" s="21"/>
+      <c r="Q290" s="21"/>
+      <c r="R290" s="21"/>
+      <c r="S290" s="21"/>
+      <c r="T290" s="21"/>
+      <c r="U290" s="21"/>
+      <c r="V290" s="21"/>
+      <c r="W290" s="21"/>
+      <c r="X290" s="21"/>
+      <c r="Y290" s="21"/>
+      <c r="Z290" s="21"/>
+    </row>
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="21"/>
+      <c r="B291" s="21"/>
+      <c r="C291" s="21"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="21"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="21"/>
+      <c r="H291" s="21"/>
+      <c r="I291" s="21"/>
+      <c r="J291" s="21"/>
+      <c r="K291" s="21"/>
+      <c r="L291" s="21"/>
+      <c r="M291" s="21"/>
+      <c r="N291" s="21"/>
+      <c r="O291" s="21"/>
+      <c r="P291" s="21"/>
+      <c r="Q291" s="21"/>
+      <c r="R291" s="21"/>
+      <c r="S291" s="21"/>
+      <c r="T291" s="21"/>
+      <c r="U291" s="21"/>
+      <c r="V291" s="21"/>
+      <c r="W291" s="21"/>
+      <c r="X291" s="21"/>
+      <c r="Y291" s="21"/>
+      <c r="Z291" s="21"/>
+    </row>
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="21"/>
+      <c r="B292" s="21"/>
+      <c r="C292" s="21"/>
+      <c r="D292" s="21"/>
+      <c r="E292" s="21"/>
+      <c r="F292" s="21"/>
+      <c r="G292" s="21"/>
+      <c r="H292" s="21"/>
+      <c r="I292" s="21"/>
+      <c r="J292" s="21"/>
+      <c r="K292" s="21"/>
+      <c r="L292" s="21"/>
+      <c r="M292" s="21"/>
+      <c r="N292" s="21"/>
+      <c r="O292" s="21"/>
+      <c r="P292" s="21"/>
+      <c r="Q292" s="21"/>
+      <c r="R292" s="21"/>
+      <c r="S292" s="21"/>
+      <c r="T292" s="21"/>
+      <c r="U292" s="21"/>
+      <c r="V292" s="21"/>
+      <c r="W292" s="21"/>
+      <c r="X292" s="21"/>
+      <c r="Y292" s="21"/>
+      <c r="Z292" s="21"/>
+    </row>
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="21"/>
+      <c r="B293" s="21"/>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
+      <c r="E293" s="21"/>
+      <c r="F293" s="21"/>
+      <c r="G293" s="21"/>
+      <c r="H293" s="21"/>
+      <c r="I293" s="21"/>
+      <c r="J293" s="21"/>
+      <c r="K293" s="21"/>
+      <c r="L293" s="21"/>
+      <c r="M293" s="21"/>
+      <c r="N293" s="21"/>
+      <c r="O293" s="21"/>
+      <c r="P293" s="21"/>
+      <c r="Q293" s="21"/>
+      <c r="R293" s="21"/>
+      <c r="S293" s="21"/>
+      <c r="T293" s="21"/>
+      <c r="U293" s="21"/>
+      <c r="V293" s="21"/>
+      <c r="W293" s="21"/>
+      <c r="X293" s="21"/>
+      <c r="Y293" s="21"/>
+      <c r="Z293" s="21"/>
+    </row>
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="21"/>
+      <c r="B294" s="21"/>
+      <c r="C294" s="21"/>
+      <c r="D294" s="21"/>
+      <c r="E294" s="21"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="21"/>
+      <c r="H294" s="21"/>
+      <c r="I294" s="21"/>
+      <c r="J294" s="21"/>
+      <c r="K294" s="21"/>
+      <c r="L294" s="21"/>
+      <c r="M294" s="21"/>
+      <c r="N294" s="21"/>
+      <c r="O294" s="21"/>
+      <c r="P294" s="21"/>
+      <c r="Q294" s="21"/>
+      <c r="R294" s="21"/>
+      <c r="S294" s="21"/>
+      <c r="T294" s="21"/>
+      <c r="U294" s="21"/>
+      <c r="V294" s="21"/>
+      <c r="W294" s="21"/>
+      <c r="X294" s="21"/>
+      <c r="Y294" s="21"/>
+      <c r="Z294" s="21"/>
+    </row>
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D295" s="22"/>
     </row>
-    <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D296" s="22"/>
     </row>
-    <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D297" s="22"/>
     </row>
-    <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D298" s="22"/>
     </row>
-    <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D299" s="22"/>
     </row>
-    <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D300" s="22"/>
     </row>
-    <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D301" s="22"/>
     </row>
-    <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D302" s="22"/>
     </row>
-    <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D303" s="22"/>
     </row>
-    <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D304" s="22"/>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12318,459 +13381,790 @@
     <row r="870" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D870" s="22"/>
     </row>
+    <row r="871" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D871" s="22"/>
+    </row>
+    <row r="872" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D872" s="22"/>
+    </row>
+    <row r="873" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D873" s="22"/>
+    </row>
+    <row r="874" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D874" s="22"/>
+    </row>
+    <row r="875" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D875" s="22"/>
+    </row>
+    <row r="876" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D876" s="22"/>
+    </row>
+    <row r="877" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D877" s="22"/>
+    </row>
+    <row r="878" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D878" s="22"/>
+    </row>
+    <row r="879" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D879" s="22"/>
+    </row>
+    <row r="880" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D880" s="22"/>
+    </row>
+    <row r="881" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D881" s="22"/>
+    </row>
+    <row r="882" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D882" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A61:A870">
-    <cfRule type="containsText" dxfId="89" priority="78" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A73:A882">
+    <cfRule type="containsText" dxfId="148" priority="138" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870 N58:Z60 K58:K60 I58:I60">
-    <cfRule type="expression" dxfId="88" priority="79">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 N70:Z72 K70:K72 I70:I72 J67:Z69 R66:Z66 J58:Z65">
+    <cfRule type="expression" dxfId="147" priority="139">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870 N58:Z60 K58:K60 I58:I60">
-    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 N70:Z72 K70:K72 I70:I72 J67:Z69 R66:Z66 J58:Z65">
+    <cfRule type="cellIs" dxfId="146" priority="141" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C56 C61:C870">
-    <cfRule type="expression" dxfId="86" priority="85">
+  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C56 C73:C882">
+    <cfRule type="expression" dxfId="145" priority="145">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B56 B61:B870">
-    <cfRule type="expression" dxfId="85" priority="86">
+  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B56 B73:B882">
+    <cfRule type="expression" dxfId="144" priority="146">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A61:A870">
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A73:A882">
+    <cfRule type="cellIs" dxfId="143" priority="147" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="83" priority="89" operator="notEqual">
+    <cfRule type="cellIs" dxfId="142" priority="149" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="82" priority="90" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="141" priority="150" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="notContainsText" dxfId="81" priority="91" operator="notContains" text="required">
+    <cfRule type="notContainsText" dxfId="140" priority="151" operator="notContains" text="required">
       <formula>ISERROR(SEARCH(("required"),(D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="80" priority="92" operator="notEqual">
+    <cfRule type="cellIs" dxfId="139" priority="152" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="79" priority="93" operator="notEqual">
+    <cfRule type="cellIs" dxfId="138" priority="153" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="78" priority="94" operator="notEqual">
+    <cfRule type="cellIs" dxfId="137" priority="154" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="77" priority="95" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="136" priority="155" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="76" priority="96" operator="notEqual">
+    <cfRule type="cellIs" dxfId="135" priority="156" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="75" priority="97" operator="notEqual">
+    <cfRule type="cellIs" dxfId="134" priority="157" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="74" priority="98" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="133" priority="158" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="73" priority="99" operator="notEqual">
+    <cfRule type="cellIs" dxfId="132" priority="159" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Z1">
-    <cfRule type="cellIs" dxfId="72" priority="100" operator="notEqual">
+    <cfRule type="cellIs" dxfId="131" priority="160" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H57 H61:H870">
-    <cfRule type="expression" dxfId="71" priority="101">
+  <conditionalFormatting sqref="H1:H57 H73:H882">
+    <cfRule type="expression" dxfId="130" priority="161">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870 N58:Z60 K58:K60 I58:I60">
-    <cfRule type="expression" dxfId="70" priority="102">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 N70:Z72 K70:K72 I70:I72 J67:Z69 R66:Z66 J58:Z65">
+    <cfRule type="expression" dxfId="129" priority="162">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="69" priority="68">
+    <cfRule type="expression" dxfId="128" priority="128">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="127" priority="129" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I870">
-    <cfRule type="expression" dxfId="67" priority="408">
+  <conditionalFormatting sqref="I1:I57 I70:I882">
+    <cfRule type="expression" dxfId="126" priority="468">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870">
-    <cfRule type="expression" dxfId="66" priority="411">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 J67:Z69 R66:Z66 J58:Z65">
+    <cfRule type="expression" dxfId="125" priority="471">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A61:Z870">
-    <cfRule type="expression" dxfId="65" priority="421">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 J67:Z69 R66:Z66 J58:Z65">
+    <cfRule type="expression" dxfId="124" priority="481">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="containsText" dxfId="64" priority="61" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="123" priority="121" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A41))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="63" priority="62">
+    <cfRule type="expression" dxfId="122" priority="122">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="121" priority="123">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="125" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="59" priority="66">
+    <cfRule type="expression" dxfId="118" priority="126">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="58" priority="67">
+    <cfRule type="expression" dxfId="117" priority="127">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="115" priority="116">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="114" priority="117">
       <formula>AND($A49="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="113" priority="118">
       <formula>AND($A49="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="53" priority="59">
+    <cfRule type="expression" dxfId="112" priority="119">
       <formula>AND($A49="end group", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="52" priority="60">
+    <cfRule type="expression" dxfId="111" priority="120">
       <formula>AND($A49="end repeat", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B56 B61:B870">
-    <cfRule type="expression" dxfId="51" priority="1184">
-      <formula>COUNTIF($B$2:$B$987,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B56 B73:B882">
+    <cfRule type="expression" dxfId="110" priority="1244">
+      <formula>COUNTIF($B$2:$B$999,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="50" priority="1188">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$988, "begin group") = COUNTIF($A$1:$A$988, "end group"))</formula>
+    <cfRule type="expression" dxfId="109" priority="1248">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1000, "begin group") = COUNTIF($A$1:$A$1000, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="49" priority="1189">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$979, "begin group") = COUNTIF($A$1:$A$988, "end group")))</formula>
+    <cfRule type="expression" dxfId="108" priority="1249">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$991, "begin group") = COUNTIF($A$1:$A$1000, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="47" priority="46">
+    <cfRule type="expression" dxfId="106" priority="106">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="105" priority="107">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="44" priority="49">
+    <cfRule type="expression" dxfId="103" priority="109">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="43" priority="50">
+    <cfRule type="expression" dxfId="102" priority="110">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="41" priority="52">
-      <formula>COUNTIF($B$2:$B$1120,B57)&gt;1</formula>
+    <cfRule type="expression" dxfId="100" priority="112">
+      <formula>COUNTIF($B$2:$B$1132,B57)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="40" priority="53">
+    <cfRule type="expression" dxfId="99" priority="113">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="39" priority="54">
+    <cfRule type="expression" dxfId="98" priority="114">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A70">
+    <cfRule type="containsText" dxfId="97" priority="81" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:M72">
+    <cfRule type="expression" dxfId="96" priority="94">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:M72">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M70:M72">
+    <cfRule type="expression" dxfId="94" priority="97">
+      <formula>AND($M70 = "", $A70 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:M72">
+    <cfRule type="expression" dxfId="93" priority="103">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:H70 H71:H72">
+    <cfRule type="expression" dxfId="92" priority="82">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:H70 H71:H72">
+    <cfRule type="cellIs" dxfId="91" priority="83" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="expression" dxfId="90" priority="84">
+      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="89" priority="85">
+      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="87" priority="87">
+      <formula>COUNTIF($B$2:$B$1131,B70)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:H70 H71:H72">
+    <cfRule type="expression" dxfId="86" priority="89">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N70:Z72">
+    <cfRule type="expression" dxfId="85" priority="1250">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N70:Z72">
+    <cfRule type="expression" dxfId="84" priority="1251">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:M72">
+    <cfRule type="expression" dxfId="83" priority="1252">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $E70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $M70 = "", $N70 = "", $O70 = "", $Q70 = "", $R70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:L72">
+    <cfRule type="expression" dxfId="82" priority="1254">
+      <formula>AND(NOT($I70 = ""), $K70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:M72">
+    <cfRule type="expression" dxfId="81" priority="1255">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $E70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $M70 = "", $N70 = "", $O70 = "", $Q70 = "", $R70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70:K72 A70:I70 H71:I72">
+    <cfRule type="expression" dxfId="80" priority="1262">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $F70 = "", $G70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $L70 = "", $N70 = "", $O70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K70:K72 A70:I70 H71:I72">
+    <cfRule type="expression" dxfId="79" priority="1266">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $F70 = "", $G70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $L70 = "", $N70 = "", $O70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="containsText" dxfId="78" priority="71" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A71))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:G71">
+    <cfRule type="expression" dxfId="77" priority="72">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:G71">
+    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="75" priority="74">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" dxfId="74" priority="75">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="expression" dxfId="72" priority="77">
+      <formula>COUNTIF($B$2:$B$1130,B71)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:G71">
+    <cfRule type="expression" dxfId="71" priority="78">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:G71">
+    <cfRule type="expression" dxfId="70" priority="79">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:G71">
+    <cfRule type="expression" dxfId="69" priority="80">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="containsText" dxfId="68" priority="61" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A72))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:G72">
+    <cfRule type="expression" dxfId="67" priority="62">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:G72">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="expression" dxfId="65" priority="64">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" dxfId="64" priority="65">
+      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" dxfId="62" priority="67">
+      <formula>COUNTIF($B$2:$B$1129,B72)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:G72">
+    <cfRule type="expression" dxfId="61" priority="68">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:G72">
+    <cfRule type="expression" dxfId="60" priority="69">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:G72">
+    <cfRule type="expression" dxfId="59" priority="70">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A69">
+    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A68))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:I69">
+    <cfRule type="expression" dxfId="57" priority="50">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:I69">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="expression" dxfId="55" priority="52">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="expression" dxfId="54" priority="53">
+      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A69">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B69">
+    <cfRule type="expression" dxfId="52" priority="55">
+      <formula>COUNTIF($B$2:$B$1127,B68)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68:H69">
+    <cfRule type="expression" dxfId="51" priority="56">
+      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:I69">
+    <cfRule type="expression" dxfId="50" priority="57">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:I69">
+    <cfRule type="expression" dxfId="49" priority="58">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $M68 = "", $N68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:I69">
+    <cfRule type="expression" dxfId="48" priority="59">
+      <formula>AND($I68 = "", $A68 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:I69">
+    <cfRule type="expression" dxfId="47" priority="60">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $M68 = "", $N68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A67))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:I67">
+    <cfRule type="expression" dxfId="45" priority="38">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:I67">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="expression" dxfId="43" priority="40">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="42" priority="41">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
+    <cfRule type="expression" dxfId="40" priority="43">
+      <formula>COUNTIF($B$2:$B$1126,B67)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="expression" dxfId="39" priority="44">
+      <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:I67">
+    <cfRule type="expression" dxfId="38" priority="45">
+      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:I67">
+    <cfRule type="expression" dxfId="37" priority="46">
+      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="36" priority="47">
+      <formula>AND($I67 = "", $A67 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:I67">
+    <cfRule type="expression" dxfId="35" priority="48">
+      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:H66">
+    <cfRule type="expression" dxfId="33" priority="26">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:H66">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="expression" dxfId="31" priority="28">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="30" priority="29">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="28" priority="31">
+      <formula>COUNTIF($B$2:$B$1125,B66)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="expression" dxfId="27" priority="32">
+      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:H66">
+    <cfRule type="expression" dxfId="26" priority="33">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:H66">
+    <cfRule type="expression" dxfId="25" priority="34">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q66">
+    <cfRule type="expression" dxfId="24" priority="23">
+      <formula>AND($I66 = "", $A66 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:H66">
+    <cfRule type="expression" dxfId="23" priority="36">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(I66))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:Q66">
+    <cfRule type="expression" dxfId="21" priority="14">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:Q66">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="19" priority="16">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>COUNTIF($B$2:$B$1125,J66)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P66">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:Q66">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:Q66">
+    <cfRule type="expression" dxfId="13" priority="22">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:Q66">
+    <cfRule type="expression" dxfId="12" priority="24">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A65">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L58:M60">
-    <cfRule type="expression" dxfId="37" priority="34">
+  <conditionalFormatting sqref="A58:I65">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L58:M60">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+  <conditionalFormatting sqref="A58:I65">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M58:M60">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>AND($M58 = "", $A58 = "calculate")</formula>
+  <conditionalFormatting sqref="C58:C65">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L58:M60">
-    <cfRule type="expression" dxfId="34" priority="43">
+  <conditionalFormatting sqref="B58:B65">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:A65">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B65">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>COUNTIF($B$2:$B$1117,B58)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:H65">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT($G58 = ""), $H58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:I65">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:H58 H59:H60">
-    <cfRule type="expression" dxfId="33" priority="22">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+  <conditionalFormatting sqref="A58:I65">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:H58 H59:H60">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
-      <formula>"note"</formula>
+  <conditionalFormatting sqref="I58:I65">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>AND($I58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="31" priority="24">
-      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="30" priority="25">
-      <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="28" priority="27">
-      <formula>COUNTIF($B$2:$B$1119,B58)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:H58 H59:H60">
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N58:Z60">
-    <cfRule type="expression" dxfId="26" priority="1190">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N58:Z60">
-    <cfRule type="expression" dxfId="25" priority="1191">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58:M60">
-    <cfRule type="expression" dxfId="24" priority="1192">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $E58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58:L60">
-    <cfRule type="expression" dxfId="23" priority="1194">
-      <formula>AND(NOT($I58 = ""), $K58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58:M60">
-    <cfRule type="expression" dxfId="22" priority="1195">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $E58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $M58 = "", $N58 = "", $O58 = "", $Q58 = "", $R58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:K60 A58:I58 H59:I60">
-    <cfRule type="expression" dxfId="21" priority="1202">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $F58 = "", $G58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $L58 = "", $N58 = "", $O58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:K60 A58:I58 H59:I60">
-    <cfRule type="expression" dxfId="20" priority="1206">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $F58 = "", $G58 = "", $H58 = "", #REF! = "", $I58 = "", $K58 = "", $L58 = "", $N58 = "", $O58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A59))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:G59">
-    <cfRule type="expression" dxfId="18" priority="12">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:G59">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $C59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>AND(AND(NOT($A59 = "end group"), NOT($A59 = "end repeat"), NOT($A59 = "")), $B59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>COUNTIF($B$2:$B$1118,B59)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:G59">
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:G59">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:G59">
-    <cfRule type="expression" dxfId="10" priority="20">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $M59 = "", $N59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A60))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:G60">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:G60">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $C60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>AND(AND(NOT($A60 = "end group"), NOT($A60 = "end repeat"), NOT($A60 = "")), $B60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>COUNTIF($B$2:$B$1117,B60)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:G60">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:G60">
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:G60">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $M60 = "", $N60 = "")</formula>
+  <conditionalFormatting sqref="A58:I65">
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D870">
+    <dataValidation type="list" allowBlank="1" sqref="L66 D2:D882">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12800,7 +14194,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12812,33 +14206,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -12848,16 +14242,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -12878,16 +14272,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -12897,16 +14291,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -12927,19 +14321,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -12948,19 +14342,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -12980,16 +14374,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -12999,16 +14393,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -15893,46 +17287,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44867.006648495371</v>
+        <v>44867.014315509259</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="205">
   <si>
     <t>type</t>
   </si>
@@ -920,56 +920,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="149">
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF980000"/>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -983,16 +939,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
@@ -1003,150 +952,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1199,14 +1006,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1932,14 +1731,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -2007,26 +1798,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2668,13 +2439,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z882"/>
+  <dimension ref="A1:Z881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5047,7 +4818,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>50</v>
@@ -5058,22 +4829,16 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="6" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
@@ -5089,7 +4854,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>50</v>
@@ -5100,7 +4865,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -5125,7 +4890,7 @@
         <v>38</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>50</v>
@@ -5135,8 +4900,8 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="6" t="s">
-        <v>138</v>
+      <c r="I68" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -5161,23 +4926,24 @@
         <v>38</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
+      <c r="M69" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -5193,28 +4959,28 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="A70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="6" t="s">
-        <v>142</v>
-      </c>
+      <c r="I70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="6" t="s">
-        <v>142</v>
-      </c>
+      <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -5230,23 +4996,23 @@
       <c r="Z70" s="6"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="A71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="4"/>
+      <c r="E71" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="K71" s="6"/>
@@ -5267,118 +5033,115 @@
       <c r="Z71" s="6"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
+      <c r="A72" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>143</v>
+      <c r="A73" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>51</v>
+      <c r="A74" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>50</v>
@@ -5412,7 +5175,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>50</v>
@@ -5442,75 +5205,75 @@
       <c r="Z76" s="8"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
+      <c r="A77" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
-      <c r="X78" s="11"/>
-      <c r="Y78" s="11"/>
-      <c r="Z78" s="11"/>
+      <c r="A78" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -5537,14 +5300,10 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>146</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -5571,18 +5330,26 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="K81" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5601,27 +5368,25 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
@@ -5642,7 +5407,7 @@
         <v>28</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>50</v>
@@ -5656,7 +5421,7 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -5678,7 +5443,7 @@
         <v>28</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>50</v>
@@ -5688,11 +5453,13 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="I84" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -5711,10 +5478,10 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>50</v>
@@ -5725,13 +5492,11 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
@@ -5752,10 +5517,10 @@
         <v>38</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -5763,7 +5528,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -5788,10 +5553,10 @@
         <v>38</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -5799,10 +5564,12 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="K87" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -5819,84 +5586,80 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>26</v>
+    <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
     </row>
     <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="6" t="s">
+      <c r="A89" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="11"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
     </row>
     <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>50</v>
@@ -5930,7 +5693,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>50</v>
@@ -5960,131 +5723,125 @@
       <c r="Z91" s="8"/>
     </row>
     <row r="92" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="8"/>
+      <c r="A92" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
     </row>
     <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="11"/>
-      <c r="X93" s="11"/>
-      <c r="Y93" s="11"/>
-      <c r="Z93" s="11"/>
-    </row>
-    <row r="94" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="20"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20"/>
-      <c r="V94" s="20"/>
-      <c r="W94" s="20"/>
-      <c r="X94" s="20"/>
-      <c r="Y94" s="20"/>
-      <c r="Z94" s="20"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="20"/>
+      <c r="X93" s="20"/>
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="20"/>
+    </row>
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="W95" s="4"/>
-      <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -6111,64 +5868,64 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="6"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="7"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="W98" s="4"/>
-      <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
+      <c r="C99" s="4"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -6194,9 +5951,9 @@
       <c r="Z99" s="6"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="6"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -6250,32 +6007,32 @@
       <c r="Z101" s="6"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
@@ -6308,7 +6065,7 @@
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="7"/>
+      <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -6616,7 +6373,7 @@
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -6672,7 +6429,7 @@
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="7"/>
+      <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -6756,7 +6513,7 @@
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="C120" s="18"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -6840,7 +6597,7 @@
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="18"/>
+      <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -6868,7 +6625,7 @@
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="C124" s="18"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -6898,7 +6655,7 @@
       <c r="B125" s="4"/>
       <c r="C125" s="18"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
+      <c r="E125" s="18"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -6924,9 +6681,9 @@
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="18"/>
+      <c r="C126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="18"/>
+      <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -7147,36 +6904,36 @@
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4"/>
-      <c r="T134" s="4"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
-      <c r="Y134" s="4"/>
-      <c r="Z134" s="4"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="6"/>
+      <c r="T134" s="6"/>
+      <c r="U134" s="6"/>
+      <c r="V134" s="6"/>
+      <c r="W134" s="6"/>
+      <c r="X134" s="6"/>
+      <c r="Y134" s="6"/>
+      <c r="Z134" s="6"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -7204,7 +6961,7 @@
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
+      <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -7231,36 +6988,36 @@
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-      <c r="T137" s="6"/>
-      <c r="U137" s="6"/>
-      <c r="V137" s="6"/>
-      <c r="W137" s="6"/>
-      <c r="X137" s="6"/>
-      <c r="Y137" s="6"/>
-      <c r="Z137" s="6"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="7"/>
+      <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -7288,7 +7045,7 @@
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -7316,7 +7073,7 @@
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="7"/>
+      <c r="C140" s="18"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -7344,7 +7101,7 @@
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="18"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -7372,7 +7129,7 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="7"/>
+      <c r="C142" s="18"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -7400,7 +7157,7 @@
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="18"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -7428,7 +7185,7 @@
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="7"/>
+      <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -7456,7 +7213,7 @@
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -7484,7 +7241,7 @@
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="7"/>
+      <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -7512,7 +7269,7 @@
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -7537,66 +7294,66 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="21"/>
-      <c r="M149" s="21"/>
-      <c r="N149" s="21"/>
-      <c r="O149" s="21"/>
-      <c r="P149" s="21"/>
-      <c r="Q149" s="21"/>
-      <c r="R149" s="21"/>
-      <c r="S149" s="21"/>
-      <c r="T149" s="21"/>
-      <c r="U149" s="21"/>
-      <c r="V149" s="21"/>
-      <c r="W149" s="21"/>
-      <c r="X149" s="21"/>
-      <c r="Y149" s="21"/>
-      <c r="Z149" s="21"/>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="21"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="21"/>
+      <c r="O148" s="21"/>
+      <c r="P148" s="21"/>
+      <c r="Q148" s="21"/>
+      <c r="R148" s="21"/>
+      <c r="S148" s="21"/>
+      <c r="T148" s="21"/>
+      <c r="U148" s="21"/>
+      <c r="V148" s="21"/>
+      <c r="W148" s="21"/>
+      <c r="X148" s="21"/>
+      <c r="Y148" s="21"/>
+      <c r="Z148" s="21"/>
+    </row>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
+      <c r="Z149" s="4"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -7624,7 +7381,7 @@
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -7652,7 +7409,7 @@
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -7680,7 +7437,7 @@
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="7"/>
+      <c r="C153" s="18"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -7708,7 +7465,7 @@
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="18"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -7736,38 +7493,38 @@
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="20"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
       <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="4"/>
-      <c r="X155" s="4"/>
-      <c r="Y155" s="4"/>
-      <c r="Z155" s="4"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="20"/>
+      <c r="O155" s="20"/>
+      <c r="P155" s="20"/>
+      <c r="Q155" s="20"/>
+      <c r="R155" s="20"/>
+      <c r="S155" s="20"/>
+      <c r="T155" s="20"/>
+      <c r="U155" s="20"/>
+      <c r="V155" s="20"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="20"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="15"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
       <c r="I156" s="4"/>
@@ -7792,13 +7549,13 @@
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="7"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
       <c r="G157" s="20"/>
       <c r="H157" s="20"/>
-      <c r="I157" s="4"/>
+      <c r="I157" s="20"/>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
       <c r="L157" s="20"/>
@@ -7823,7 +7580,7 @@
       <c r="C158" s="4"/>
       <c r="D158" s="20"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
+      <c r="F158" s="20"/>
       <c r="G158" s="20"/>
       <c r="H158" s="20"/>
       <c r="I158" s="20"/>
@@ -7846,32 +7603,32 @@
       <c r="Z158" s="20"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
-      <c r="M159" s="20"/>
-      <c r="N159" s="20"/>
-      <c r="O159" s="20"/>
-      <c r="P159" s="20"/>
-      <c r="Q159" s="20"/>
-      <c r="R159" s="20"/>
-      <c r="S159" s="20"/>
-      <c r="T159" s="20"/>
-      <c r="U159" s="20"/>
-      <c r="V159" s="20"/>
-      <c r="W159" s="20"/>
-      <c r="X159" s="20"/>
-      <c r="Y159" s="20"/>
-      <c r="Z159" s="20"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+      <c r="W159" s="6"/>
+      <c r="X159" s="6"/>
+      <c r="Y159" s="6"/>
+      <c r="Z159" s="6"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
@@ -7901,33 +7658,33 @@
       <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6"/>
-      <c r="T161" s="6"/>
-      <c r="U161" s="6"/>
-      <c r="V161" s="6"/>
-      <c r="W161" s="6"/>
-      <c r="X161" s="6"/>
-      <c r="Y161" s="6"/>
-      <c r="Z161" s="6"/>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="21"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="21"/>
+      <c r="M161" s="21"/>
+      <c r="N161" s="21"/>
+      <c r="O161" s="21"/>
+      <c r="P161" s="21"/>
+      <c r="Q161" s="21"/>
+      <c r="R161" s="21"/>
+      <c r="S161" s="21"/>
+      <c r="T161" s="21"/>
+      <c r="U161" s="21"/>
+      <c r="V161" s="21"/>
+      <c r="W161" s="21"/>
+      <c r="X161" s="21"/>
+      <c r="Y161" s="21"/>
+      <c r="Z161" s="21"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
@@ -8321,61 +8078,61 @@
       <c r="Y175" s="21"/>
       <c r="Z175" s="21"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="21"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="21"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="21"/>
-      <c r="I176" s="21"/>
-      <c r="J176" s="21"/>
-      <c r="K176" s="21"/>
-      <c r="L176" s="21"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="21"/>
-      <c r="O176" s="21"/>
-      <c r="P176" s="21"/>
-      <c r="Q176" s="21"/>
-      <c r="R176" s="21"/>
-      <c r="S176" s="21"/>
-      <c r="T176" s="21"/>
-      <c r="U176" s="21"/>
-      <c r="V176" s="21"/>
-      <c r="W176" s="21"/>
-      <c r="X176" s="21"/>
-      <c r="Y176" s="21"/>
-      <c r="Z176" s="21"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="6"/>
-      <c r="T177" s="6"/>
-      <c r="U177" s="6"/>
-      <c r="V177" s="6"/>
-      <c r="W177" s="6"/>
-      <c r="X177" s="6"/>
-      <c r="Y177" s="6"/>
-      <c r="Z177" s="6"/>
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6"/>
+      <c r="T176" s="6"/>
+      <c r="U176" s="6"/>
+      <c r="V176" s="6"/>
+      <c r="W176" s="6"/>
+      <c r="X176" s="6"/>
+      <c r="Y176" s="6"/>
+      <c r="Z176" s="6"/>
+    </row>
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="21"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
+      <c r="J177" s="21"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="21"/>
+      <c r="M177" s="21"/>
+      <c r="N177" s="21"/>
+      <c r="O177" s="21"/>
+      <c r="P177" s="21"/>
+      <c r="Q177" s="21"/>
+      <c r="R177" s="21"/>
+      <c r="S177" s="21"/>
+      <c r="T177" s="21"/>
+      <c r="U177" s="21"/>
+      <c r="V177" s="21"/>
+      <c r="W177" s="21"/>
+      <c r="X177" s="21"/>
+      <c r="Y177" s="21"/>
+      <c r="Z177" s="21"/>
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21"/>
@@ -11626,32 +11383,7 @@
       <c r="Z293" s="21"/>
     </row>
     <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="21"/>
-      <c r="B294" s="21"/>
-      <c r="C294" s="21"/>
-      <c r="D294" s="21"/>
-      <c r="E294" s="21"/>
-      <c r="F294" s="21"/>
-      <c r="G294" s="21"/>
-      <c r="H294" s="21"/>
-      <c r="I294" s="21"/>
-      <c r="J294" s="21"/>
-      <c r="K294" s="21"/>
-      <c r="L294" s="21"/>
-      <c r="M294" s="21"/>
-      <c r="N294" s="21"/>
-      <c r="O294" s="21"/>
-      <c r="P294" s="21"/>
-      <c r="Q294" s="21"/>
-      <c r="R294" s="21"/>
-      <c r="S294" s="21"/>
-      <c r="T294" s="21"/>
-      <c r="U294" s="21"/>
-      <c r="V294" s="21"/>
-      <c r="W294" s="21"/>
-      <c r="X294" s="21"/>
-      <c r="Y294" s="21"/>
-      <c r="Z294" s="21"/>
+      <c r="D294" s="22"/>
     </row>
     <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D295" s="22"/>
@@ -13414,757 +13146,639 @@
     <row r="881" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D881" s="22"/>
     </row>
-    <row r="882" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D882" s="22"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A73:A882">
-    <cfRule type="containsText" dxfId="148" priority="138" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A72:A881">
+    <cfRule type="containsText" dxfId="125" priority="138" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 N70:Z72 K70:K72 I70:I72 J67:Z69 R66:Z66 J58:Z65">
-    <cfRule type="expression" dxfId="147" priority="139">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 N69:Z71 K69:K71 I69:I71 J58:Z68">
+    <cfRule type="expression" dxfId="124" priority="139">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 N70:Z72 K70:K72 I70:I72 J67:Z69 R66:Z66 J58:Z65">
-    <cfRule type="cellIs" dxfId="146" priority="141" operator="equal">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 N69:Z71 K69:K71 I69:I71 J58:Z68">
+    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C56 C73:C882">
-    <cfRule type="expression" dxfId="145" priority="145">
+  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C56 C72:C881">
+    <cfRule type="expression" dxfId="122" priority="145">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B56 B73:B882">
-    <cfRule type="expression" dxfId="144" priority="146">
+  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B56 B72:B881">
+    <cfRule type="expression" dxfId="121" priority="146">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A73:A882">
-    <cfRule type="cellIs" dxfId="143" priority="147" operator="equal">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A72:A881">
+    <cfRule type="cellIs" dxfId="120" priority="147" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="142" priority="149" operator="notEqual">
+    <cfRule type="cellIs" dxfId="119" priority="149" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="141" priority="150" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="118" priority="150" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="notContainsText" dxfId="140" priority="151" operator="notContains" text="required">
+    <cfRule type="notContainsText" dxfId="117" priority="151" operator="notContains" text="required">
       <formula>ISERROR(SEARCH(("required"),(D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="139" priority="152" operator="notEqual">
+    <cfRule type="cellIs" dxfId="116" priority="152" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="138" priority="153" operator="notEqual">
+    <cfRule type="cellIs" dxfId="115" priority="153" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="137" priority="154" operator="notEqual">
+    <cfRule type="cellIs" dxfId="114" priority="154" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="136" priority="155" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="113" priority="155" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="135" priority="156" operator="notEqual">
+    <cfRule type="cellIs" dxfId="112" priority="156" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="134" priority="157" operator="notEqual">
+    <cfRule type="cellIs" dxfId="111" priority="157" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="133" priority="158" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="110" priority="158" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="132" priority="159" operator="notEqual">
+    <cfRule type="cellIs" dxfId="109" priority="159" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Z1">
-    <cfRule type="cellIs" dxfId="131" priority="160" operator="notEqual">
+    <cfRule type="cellIs" dxfId="108" priority="160" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H57 H73:H882">
-    <cfRule type="expression" dxfId="130" priority="161">
+  <conditionalFormatting sqref="H1:H57 H72:H881">
+    <cfRule type="expression" dxfId="107" priority="161">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 N70:Z72 K70:K72 I70:I72 J67:Z69 R66:Z66 J58:Z65">
-    <cfRule type="expression" dxfId="129" priority="162">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 N69:Z71 K69:K71 I69:I71 J58:Z68">
+    <cfRule type="expression" dxfId="106" priority="162">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="128" priority="128">
+    <cfRule type="expression" dxfId="105" priority="128">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="127" priority="129" operator="notEqual">
+    <cfRule type="cellIs" dxfId="104" priority="129" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I57 I70:I882">
-    <cfRule type="expression" dxfId="126" priority="468">
+  <conditionalFormatting sqref="I1:I57 I69:I881">
+    <cfRule type="expression" dxfId="103" priority="468">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 J67:Z69 R66:Z66 J58:Z65">
-    <cfRule type="expression" dxfId="125" priority="471">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 J58:Z68">
+    <cfRule type="expression" dxfId="102" priority="471">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A73:Z882 J67:Z69 R66:Z66 J58:Z65">
-    <cfRule type="expression" dxfId="124" priority="481">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 J58:Z68">
+    <cfRule type="expression" dxfId="101" priority="481">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="containsText" dxfId="123" priority="121" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="100" priority="121" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A41))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="122" priority="122">
+    <cfRule type="expression" dxfId="99" priority="122">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="121" priority="123">
+    <cfRule type="expression" dxfId="98" priority="123">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="124" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" dxfId="119" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="125" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="118" priority="126">
+    <cfRule type="expression" dxfId="95" priority="126">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="117" priority="127">
+    <cfRule type="expression" dxfId="94" priority="127">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="115" priority="116">
+    <cfRule type="expression" dxfId="92" priority="116">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="114" priority="117">
+    <cfRule type="expression" dxfId="91" priority="117">
       <formula>AND($A49="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="113" priority="118">
+    <cfRule type="expression" dxfId="90" priority="118">
       <formula>AND($A49="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="112" priority="119">
+    <cfRule type="expression" dxfId="89" priority="119">
       <formula>AND($A49="end group", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="111" priority="120">
+    <cfRule type="expression" dxfId="88" priority="120">
       <formula>AND($A49="end repeat", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B2:B35 B46:B56 B73:B882">
-    <cfRule type="expression" dxfId="110" priority="1244">
-      <formula>COUNTIF($B$2:$B$999,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="109" priority="1248">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$1000, "begin group") = COUNTIF($A$1:$A$1000, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="108" priority="1249">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$991, "begin group") = COUNTIF($A$1:$A$1000, "end group")))</formula>
+  <conditionalFormatting sqref="B72:B881 B38:B44 B2:B35 B46:B56">
+    <cfRule type="expression" dxfId="87" priority="1244">
+      <formula>COUNTIF($B$2:$B$998,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="86" priority="105" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="106" priority="106">
+    <cfRule type="expression" dxfId="85" priority="106">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="105" priority="107">
+    <cfRule type="expression" dxfId="84" priority="107">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="108" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="103" priority="109">
+    <cfRule type="expression" dxfId="82" priority="109">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="102" priority="110">
+    <cfRule type="expression" dxfId="81" priority="110">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="111" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="100" priority="112">
-      <formula>COUNTIF($B$2:$B$1132,B57)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="99" priority="113">
+    <cfRule type="expression" dxfId="79" priority="113">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="98" priority="114">
+    <cfRule type="expression" dxfId="78" priority="114">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A69))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:M71">
+    <cfRule type="expression" dxfId="76" priority="94">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:M71">
+    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69:M71">
+    <cfRule type="expression" dxfId="74" priority="97">
+      <formula>AND($M69 = "", $A69 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:M71">
+    <cfRule type="expression" dxfId="73" priority="103">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:H69 H70:H71">
+    <cfRule type="expression" dxfId="72" priority="82">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:H69 H70:H71">
+    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="expression" dxfId="70" priority="84">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" dxfId="69" priority="85">
+      <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="68" priority="86" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" dxfId="67" priority="87">
+      <formula>COUNTIF($B$2:$B$1130,B69)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:H69 H70:H71">
+    <cfRule type="expression" dxfId="66" priority="89">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N69:Z71">
+    <cfRule type="expression" dxfId="65" priority="1250">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N69:Z71">
+    <cfRule type="expression" dxfId="64" priority="1251">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:M71">
+    <cfRule type="expression" dxfId="63" priority="1252">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $E69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $M69 = "", $N69 = "", $O69 = "", $Q69 = "", $R69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:L71">
+    <cfRule type="expression" dxfId="62" priority="1254">
+      <formula>AND(NOT($I69 = ""), $K69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:M71">
+    <cfRule type="expression" dxfId="61" priority="1255">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $E69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $M69 = "", $N69 = "", $O69 = "", $Q69 = "", $R69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:K71 A69:I69 H70:I71">
+    <cfRule type="expression" dxfId="60" priority="1262">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $F69 = "", $G69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $L69 = "", $N69 = "", $O69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:K71 A69:I69 H70:I71">
+    <cfRule type="expression" dxfId="59" priority="1266">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $F69 = "", $G69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $L69 = "", $N69 = "", $O69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="containsText" dxfId="97" priority="81" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A70))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:M72">
-    <cfRule type="expression" dxfId="96" priority="94">
+  <conditionalFormatting sqref="A70:G70">
+    <cfRule type="expression" dxfId="57" priority="72">
       <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:M72">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:M72">
-    <cfRule type="expression" dxfId="94" priority="97">
-      <formula>AND($M70 = "", $A70 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L70:M72">
-    <cfRule type="expression" dxfId="93" priority="103">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:H70 H71:H72">
-    <cfRule type="expression" dxfId="92" priority="82">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:H70 H71:H72">
-    <cfRule type="cellIs" dxfId="91" priority="83" operator="equal">
+  <conditionalFormatting sqref="A70:G70">
+    <cfRule type="cellIs" dxfId="56" priority="73" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="90" priority="84">
+    <cfRule type="expression" dxfId="55" priority="74">
       <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="89" priority="85">
+    <cfRule type="expression" dxfId="54" priority="75">
       <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="76" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="87" priority="87">
-      <formula>COUNTIF($B$2:$B$1131,B70)&gt;1</formula>
+    <cfRule type="expression" dxfId="52" priority="77">
+      <formula>COUNTIF($B$2:$B$1129,B70)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:H70 H71:H72">
-    <cfRule type="expression" dxfId="86" priority="89">
+  <conditionalFormatting sqref="A70:G70">
+    <cfRule type="expression" dxfId="51" priority="78">
       <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70:Z72">
-    <cfRule type="expression" dxfId="85" priority="1250">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+  <conditionalFormatting sqref="A70:G70">
+    <cfRule type="expression" dxfId="50" priority="79">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $M70 = "", $N70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70:Z72">
-    <cfRule type="expression" dxfId="84" priority="1251">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L70:M72">
-    <cfRule type="expression" dxfId="83" priority="1252">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $E70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $M70 = "", $N70 = "", $O70 = "", $Q70 = "", $R70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L72">
-    <cfRule type="expression" dxfId="82" priority="1254">
-      <formula>AND(NOT($I70 = ""), $K70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L70:M72">
-    <cfRule type="expression" dxfId="81" priority="1255">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $E70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $M70 = "", $N70 = "", $O70 = "", $Q70 = "", $R70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70:K72 A70:I70 H71:I72">
-    <cfRule type="expression" dxfId="80" priority="1262">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $F70 = "", $G70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $L70 = "", $N70 = "", $O70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K70:K72 A70:I70 H71:I72">
-    <cfRule type="expression" dxfId="79" priority="1266">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $F70 = "", $G70 = "", $H70 = "", #REF! = "", $I70 = "", $K70 = "", $L70 = "", $N70 = "", $O70 = "")</formula>
+  <conditionalFormatting sqref="A70:G70">
+    <cfRule type="expression" dxfId="49" priority="80">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $M70 = "", $N70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="78" priority="71" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="48" priority="61" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A71))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:G71">
-    <cfRule type="expression" dxfId="77" priority="72">
+    <cfRule type="expression" dxfId="47" priority="62">
       <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:G71">
-    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="75" priority="74">
+    <cfRule type="expression" dxfId="45" priority="64">
       <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="44" priority="65">
       <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="66" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="72" priority="77">
-      <formula>COUNTIF($B$2:$B$1130,B71)&gt;1</formula>
+    <cfRule type="expression" dxfId="42" priority="67">
+      <formula>COUNTIF($B$2:$B$1128,B71)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:G71">
-    <cfRule type="expression" dxfId="71" priority="78">
+    <cfRule type="expression" dxfId="41" priority="68">
       <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:G71">
-    <cfRule type="expression" dxfId="70" priority="79">
+    <cfRule type="expression" dxfId="40" priority="69">
       <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:G71">
-    <cfRule type="expression" dxfId="69" priority="80">
+    <cfRule type="expression" dxfId="39" priority="70">
       <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="containsText" dxfId="68" priority="61" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A72))))</formula>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="containsText" dxfId="38" priority="49" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A67))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:G72">
-    <cfRule type="expression" dxfId="67" priority="62">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+  <conditionalFormatting sqref="A67:I68">
+    <cfRule type="expression" dxfId="37" priority="50">
+      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:G72">
-    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+  <conditionalFormatting sqref="A67:I68">
+    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="65" priority="64">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
+  <conditionalFormatting sqref="C67:C68">
+    <cfRule type="expression" dxfId="35" priority="52">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="64" priority="65">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $B72 = "")</formula>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="expression" dxfId="34" priority="53">
+      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="expression" dxfId="62" priority="67">
-      <formula>COUNTIF($B$2:$B$1129,B72)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:G72">
-    <cfRule type="expression" dxfId="61" priority="68">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:G72">
-    <cfRule type="expression" dxfId="60" priority="69">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:G72">
-    <cfRule type="expression" dxfId="59" priority="70">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $M72 = "", $N72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A69">
-    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A68))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:I69">
-    <cfRule type="expression" dxfId="57" priority="50">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:I69">
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:C69">
-    <cfRule type="expression" dxfId="55" priority="52">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $C68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B69">
-    <cfRule type="expression" dxfId="54" priority="53">
-      <formula>AND(AND(NOT($A68 = "end group"), NOT($A68 = "end repeat"), NOT($A68 = "")), $B68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A69">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:B69">
-    <cfRule type="expression" dxfId="52" priority="55">
-      <formula>COUNTIF($B$2:$B$1127,B68)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68:H69">
-    <cfRule type="expression" dxfId="51" priority="56">
-      <formula>AND(NOT($G68 = ""), $H68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:I69">
-    <cfRule type="expression" dxfId="50" priority="57">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:I69">
-    <cfRule type="expression" dxfId="49" priority="58">
-      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $M68 = "", $N68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68:I69">
-    <cfRule type="expression" dxfId="48" priority="59">
-      <formula>AND($I68 = "", $A68 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:I69">
-    <cfRule type="expression" dxfId="47" priority="60">
-      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $M68 = "", $N68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A67))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:I67">
-    <cfRule type="expression" dxfId="45" priority="38">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67:I67">
-    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="43" priority="40">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="42" priority="41">
-      <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="40" priority="43">
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="expression" dxfId="32" priority="55">
       <formula>COUNTIF($B$2:$B$1126,B67)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="expression" dxfId="39" priority="44">
+  <conditionalFormatting sqref="H67:H68">
+    <cfRule type="expression" dxfId="31" priority="56">
       <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:I67">
-    <cfRule type="expression" dxfId="38" priority="45">
+  <conditionalFormatting sqref="A67:I68">
+    <cfRule type="expression" dxfId="30" priority="57">
       <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:I67">
-    <cfRule type="expression" dxfId="37" priority="46">
+  <conditionalFormatting sqref="A67:I68">
+    <cfRule type="expression" dxfId="29" priority="58">
       <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="36" priority="47">
+  <conditionalFormatting sqref="I67:I68">
+    <cfRule type="expression" dxfId="28" priority="59">
       <formula>AND($I67 = "", $A67 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:I67">
-    <cfRule type="expression" dxfId="35" priority="48">
+  <conditionalFormatting sqref="A67:I68">
+    <cfRule type="expression" dxfId="27" priority="60">
       <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="26" priority="37" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:H66">
-    <cfRule type="expression" dxfId="33" priority="26">
+  <conditionalFormatting sqref="A66:I66">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:H66">
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+  <conditionalFormatting sqref="A66:I66">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="23" priority="40">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="22" priority="41">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="20" priority="43">
       <formula>COUNTIF($B$2:$B$1125,B66)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" dxfId="27" priority="32">
+    <cfRule type="expression" dxfId="19" priority="44">
       <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:H66">
-    <cfRule type="expression" dxfId="26" priority="33">
+  <conditionalFormatting sqref="A66:I66">
+    <cfRule type="expression" dxfId="18" priority="45">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:H66">
-    <cfRule type="expression" dxfId="25" priority="34">
+  <conditionalFormatting sqref="A66:I66">
+    <cfRule type="expression" dxfId="17" priority="46">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q66">
-    <cfRule type="expression" dxfId="24" priority="23">
+  <conditionalFormatting sqref="I66">
+    <cfRule type="expression" dxfId="16" priority="47">
       <formula>AND($I66 = "", $A66 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:H66">
-    <cfRule type="expression" dxfId="23" priority="36">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(I66))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:Q66">
-    <cfRule type="expression" dxfId="21" priority="14">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:Q66">
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="19" priority="16">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>COUNTIF($B$2:$B$1125,J66)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P66">
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:Q66">
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:Q66">
-    <cfRule type="expression" dxfId="13" priority="22">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:Q66">
-    <cfRule type="expression" dxfId="12" priority="24">
+  <conditionalFormatting sqref="A66:I66">
+    <cfRule type="expression" dxfId="15" priority="48">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A65">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C65">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B65">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A65">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B65">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>COUNTIF($B$2:$B$1117,B58)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H58:H65">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>AND(NOT($G58 = ""), $H58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I65">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>AND($I58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="3" priority="1270">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$999, "begin group") = COUNTIF($A$1:$A$999, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="2" priority="1271">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$990, "begin group") = COUNTIF($A$1:$A$999, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="1" priority="1272">
+      <formula>COUNTIF($B$2:$B$1131,B57)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B65">
+    <cfRule type="expression" dxfId="0" priority="1273">
+      <formula>COUNTIF($B$2:$B$1116,B58)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="L66 D2:D882">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D881">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17317,7 +16931,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44867.014315509259</v>
+        <v>44867.018054513886</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>189</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="205">
   <si>
     <t>type</t>
   </si>
@@ -920,12 +920,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="112">
     <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -954,6 +990,88 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1122,14 +1240,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -1242,14 +1352,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -1310,35 +1412,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1347,167 +1424,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEAD1DC"/>
           <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1597,14 +1513,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -1655,17 +1563,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1688,34 +1585,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFB7B7B7"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1765,17 +1640,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2439,13 +2303,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z881"/>
+  <dimension ref="A1:Z879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4490,7 +4354,9 @@
       <c r="D57" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -4959,85 +4825,81 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>66</v>
+      <c r="A70" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
+      <c r="A71" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>38</v>
+      <c r="A72" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>50</v>
@@ -5047,9 +4909,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="15" t="s">
-        <v>144</v>
-      </c>
+      <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -5069,45 +4929,45 @@
       <c r="Z72" s="8"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>51</v>
+      <c r="A73" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>50</v>
@@ -5137,106 +4997,102 @@
       <c r="Z74" s="8"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
+      <c r="A75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
+      <c r="A76" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
+      <c r="A77" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -5266,22 +5122,26 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="K79" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -5300,10 +5160,14 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -5312,7 +5176,9 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+      <c r="L80" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
@@ -5330,27 +5196,25 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
@@ -5371,7 +5235,7 @@
         <v>28</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>50</v>
@@ -5381,11 +5245,13 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
+      <c r="I82" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -5404,10 +5270,10 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>50</v>
@@ -5417,12 +5283,12 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="6" t="s">
-        <v>147</v>
-      </c>
+      <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
@@ -5440,13 +5306,13 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -5454,13 +5320,11 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
@@ -5481,7 +5345,7 @@
         <v>38</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>50</v>
@@ -5492,10 +5356,12 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="K85" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -5512,120 +5378,114 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>150</v>
+    <row r="86" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+    </row>
+    <row r="87" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="A88" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
     </row>
     <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>50</v>
@@ -5655,193 +5515,181 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
+      <c r="A90" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
     </row>
     <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="8"/>
-      <c r="Y91" s="8"/>
-      <c r="Z91" s="8"/>
-    </row>
-    <row r="92" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+      <c r="A91" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-    </row>
-    <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="20"/>
-      <c r="T93" s="20"/>
-      <c r="U93" s="20"/>
-      <c r="V93" s="20"/>
-      <c r="W93" s="20"/>
-      <c r="X93" s="20"/>
-      <c r="Y93" s="20"/>
-      <c r="Z93" s="20"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+    </row>
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+    </row>
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -5868,34 +5716,34 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
-      <c r="W97" s="4"/>
-      <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="Z97" s="4"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -5923,9 +5771,9 @@
       <c r="Z98" s="6"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="6"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -5951,65 +5799,65 @@
       <c r="Z99" s="6"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="7"/>
+      <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -6037,7 +5885,7 @@
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="7"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -6317,7 +6165,7 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -6345,7 +6193,7 @@
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -6373,7 +6221,7 @@
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="7"/>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -6401,7 +6249,7 @@
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="7"/>
+      <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -6457,7 +6305,7 @@
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="C118" s="18"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -6485,7 +6333,7 @@
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="18"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -6541,7 +6389,7 @@
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="18"/>
+      <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -6597,9 +6445,9 @@
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="18"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="E123" s="18"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -6625,7 +6473,7 @@
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="18"/>
+      <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -6653,9 +6501,9 @@
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="18"/>
+      <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="18"/>
+      <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -6848,59 +6696,59 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6"/>
+      <c r="T132" s="6"/>
+      <c r="U132" s="6"/>
+      <c r="V132" s="6"/>
+      <c r="W132" s="6"/>
+      <c r="X132" s="6"/>
+      <c r="Y132" s="6"/>
+      <c r="Z132" s="6"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6"/>
+      <c r="V133" s="6"/>
+      <c r="W133" s="6"/>
+      <c r="X133" s="6"/>
+      <c r="Y133" s="6"/>
+      <c r="Z133" s="6"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
@@ -6932,59 +6780,59 @@
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="6"/>
+      <c r="B135" s="4"/>
       <c r="C135" s="7"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
-      <c r="U135" s="6"/>
-      <c r="V135" s="6"/>
-      <c r="W135" s="6"/>
-      <c r="X135" s="6"/>
-      <c r="Y135" s="6"/>
-      <c r="Z135" s="6"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-      <c r="T136" s="6"/>
-      <c r="U136" s="6"/>
-      <c r="V136" s="6"/>
-      <c r="W136" s="6"/>
-      <c r="X136" s="6"/>
-      <c r="Y136" s="6"/>
-      <c r="Z136" s="6"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
@@ -7017,7 +6865,7 @@
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="18"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -7129,7 +6977,7 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="18"/>
+      <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -7238,38 +7086,38 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="21"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="21"/>
+      <c r="N146" s="21"/>
+      <c r="O146" s="21"/>
+      <c r="P146" s="21"/>
+      <c r="Q146" s="21"/>
+      <c r="R146" s="21"/>
+      <c r="S146" s="21"/>
+      <c r="T146" s="21"/>
+      <c r="U146" s="21"/>
+      <c r="V146" s="21"/>
+      <c r="W146" s="21"/>
+      <c r="X146" s="21"/>
+      <c r="Y146" s="21"/>
+      <c r="Z146" s="21"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="7"/>
+      <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -7294,33 +7142,33 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
-      <c r="M148" s="21"/>
-      <c r="N148" s="21"/>
-      <c r="O148" s="21"/>
-      <c r="P148" s="21"/>
-      <c r="Q148" s="21"/>
-      <c r="R148" s="21"/>
-      <c r="S148" s="21"/>
-      <c r="T148" s="21"/>
-      <c r="U148" s="21"/>
-      <c r="V148" s="21"/>
-      <c r="W148" s="21"/>
-      <c r="X148" s="21"/>
-      <c r="Y148" s="21"/>
-      <c r="Z148" s="21"/>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
@@ -7381,7 +7229,7 @@
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="18"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -7437,58 +7285,58 @@
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="20"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
       <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="4"/>
-      <c r="X153" s="4"/>
-      <c r="Y153" s="4"/>
-      <c r="Z153" s="4"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="20"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="20"/>
+      <c r="Q153" s="20"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="20"/>
+      <c r="T153" s="20"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
       <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
-      <c r="S154" s="4"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="4"/>
-      <c r="X154" s="4"/>
-      <c r="Y154" s="4"/>
-      <c r="Z154" s="4"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="20"/>
+      <c r="T154" s="20"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
@@ -7496,10 +7344,10 @@
       <c r="C155" s="4"/>
       <c r="D155" s="20"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="15"/>
+      <c r="F155" s="4"/>
       <c r="G155" s="20"/>
       <c r="H155" s="20"/>
-      <c r="I155" s="4"/>
+      <c r="I155" s="20"/>
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
       <c r="L155" s="20"/>
@@ -7521,13 +7369,13 @@
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="7"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
-      <c r="I156" s="4"/>
+      <c r="I156" s="20"/>
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
@@ -7547,116 +7395,116 @@
       <c r="Z156" s="20"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
-      <c r="N157" s="20"/>
-      <c r="O157" s="20"/>
-      <c r="P157" s="20"/>
-      <c r="Q157" s="20"/>
-      <c r="R157" s="20"/>
-      <c r="S157" s="20"/>
-      <c r="T157" s="20"/>
-      <c r="U157" s="20"/>
-      <c r="V157" s="20"/>
-      <c r="W157" s="20"/>
-      <c r="X157" s="20"/>
-      <c r="Y157" s="20"/>
-      <c r="Z157" s="20"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="6"/>
+      <c r="W157" s="6"/>
+      <c r="X157" s="6"/>
+      <c r="Y157" s="6"/>
+      <c r="Z157" s="6"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
-      <c r="N158" s="20"/>
-      <c r="O158" s="20"/>
-      <c r="P158" s="20"/>
-      <c r="Q158" s="20"/>
-      <c r="R158" s="20"/>
-      <c r="S158" s="20"/>
-      <c r="T158" s="20"/>
-      <c r="U158" s="20"/>
-      <c r="V158" s="20"/>
-      <c r="W158" s="20"/>
-      <c r="X158" s="20"/>
-      <c r="Y158" s="20"/>
-      <c r="Z158" s="20"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6"/>
-      <c r="T159" s="6"/>
-      <c r="U159" s="6"/>
-      <c r="V159" s="6"/>
-      <c r="W159" s="6"/>
-      <c r="X159" s="6"/>
-      <c r="Y159" s="6"/>
-      <c r="Z159" s="6"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-      <c r="T160" s="6"/>
-      <c r="U160" s="6"/>
-      <c r="V160" s="6"/>
-      <c r="W160" s="6"/>
-      <c r="X160" s="6"/>
-      <c r="Y160" s="6"/>
-      <c r="Z160" s="6"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="6"/>
+      <c r="W158" s="6"/>
+      <c r="X158" s="6"/>
+      <c r="Y158" s="6"/>
+      <c r="Z158" s="6"/>
+    </row>
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="21"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
+      <c r="J159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="21"/>
+      <c r="M159" s="21"/>
+      <c r="N159" s="21"/>
+      <c r="O159" s="21"/>
+      <c r="P159" s="21"/>
+      <c r="Q159" s="21"/>
+      <c r="R159" s="21"/>
+      <c r="S159" s="21"/>
+      <c r="T159" s="21"/>
+      <c r="U159" s="21"/>
+      <c r="V159" s="21"/>
+      <c r="W159" s="21"/>
+      <c r="X159" s="21"/>
+      <c r="Y159" s="21"/>
+      <c r="Z159" s="21"/>
+    </row>
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="21"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
+      <c r="M160" s="21"/>
+      <c r="N160" s="21"/>
+      <c r="O160" s="21"/>
+      <c r="P160" s="21"/>
+      <c r="Q160" s="21"/>
+      <c r="R160" s="21"/>
+      <c r="S160" s="21"/>
+      <c r="T160" s="21"/>
+      <c r="U160" s="21"/>
+      <c r="V160" s="21"/>
+      <c r="W160" s="21"/>
+      <c r="X160" s="21"/>
+      <c r="Y160" s="21"/>
+      <c r="Z160" s="21"/>
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
@@ -8022,33 +7870,33 @@
       <c r="Y173" s="21"/>
       <c r="Z173" s="21"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="21"/>
-      <c r="B174" s="21"/>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
-      <c r="I174" s="21"/>
-      <c r="J174" s="21"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="21"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="21"/>
-      <c r="O174" s="21"/>
-      <c r="P174" s="21"/>
-      <c r="Q174" s="21"/>
-      <c r="R174" s="21"/>
-      <c r="S174" s="21"/>
-      <c r="T174" s="21"/>
-      <c r="U174" s="21"/>
-      <c r="V174" s="21"/>
-      <c r="W174" s="21"/>
-      <c r="X174" s="21"/>
-      <c r="Y174" s="21"/>
-      <c r="Z174" s="21"/>
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+      <c r="U174" s="6"/>
+      <c r="V174" s="6"/>
+      <c r="W174" s="6"/>
+      <c r="X174" s="6"/>
+      <c r="Y174" s="6"/>
+      <c r="Z174" s="6"/>
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
@@ -8078,33 +7926,33 @@
       <c r="Y175" s="21"/>
       <c r="Z175" s="21"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6"/>
-      <c r="T176" s="6"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="6"/>
-      <c r="W176" s="6"/>
-      <c r="X176" s="6"/>
-      <c r="Y176" s="6"/>
-      <c r="Z176" s="6"/>
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="21"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="21"/>
+      <c r="J176" s="21"/>
+      <c r="K176" s="21"/>
+      <c r="L176" s="21"/>
+      <c r="M176" s="21"/>
+      <c r="N176" s="21"/>
+      <c r="O176" s="21"/>
+      <c r="P176" s="21"/>
+      <c r="Q176" s="21"/>
+      <c r="R176" s="21"/>
+      <c r="S176" s="21"/>
+      <c r="T176" s="21"/>
+      <c r="U176" s="21"/>
+      <c r="V176" s="21"/>
+      <c r="W176" s="21"/>
+      <c r="X176" s="21"/>
+      <c r="Y176" s="21"/>
+      <c r="Z176" s="21"/>
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
@@ -11327,60 +11175,10 @@
       <c r="Z291" s="21"/>
     </row>
     <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="21"/>
-      <c r="B292" s="21"/>
-      <c r="C292" s="21"/>
-      <c r="D292" s="21"/>
-      <c r="E292" s="21"/>
-      <c r="F292" s="21"/>
-      <c r="G292" s="21"/>
-      <c r="H292" s="21"/>
-      <c r="I292" s="21"/>
-      <c r="J292" s="21"/>
-      <c r="K292" s="21"/>
-      <c r="L292" s="21"/>
-      <c r="M292" s="21"/>
-      <c r="N292" s="21"/>
-      <c r="O292" s="21"/>
-      <c r="P292" s="21"/>
-      <c r="Q292" s="21"/>
-      <c r="R292" s="21"/>
-      <c r="S292" s="21"/>
-      <c r="T292" s="21"/>
-      <c r="U292" s="21"/>
-      <c r="V292" s="21"/>
-      <c r="W292" s="21"/>
-      <c r="X292" s="21"/>
-      <c r="Y292" s="21"/>
-      <c r="Z292" s="21"/>
+      <c r="D292" s="22"/>
     </row>
     <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="21"/>
-      <c r="B293" s="21"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="21"/>
-      <c r="F293" s="21"/>
-      <c r="G293" s="21"/>
-      <c r="H293" s="21"/>
-      <c r="I293" s="21"/>
-      <c r="J293" s="21"/>
-      <c r="K293" s="21"/>
-      <c r="L293" s="21"/>
-      <c r="M293" s="21"/>
-      <c r="N293" s="21"/>
-      <c r="O293" s="21"/>
-      <c r="P293" s="21"/>
-      <c r="Q293" s="21"/>
-      <c r="R293" s="21"/>
-      <c r="S293" s="21"/>
-      <c r="T293" s="21"/>
-      <c r="U293" s="21"/>
-      <c r="V293" s="21"/>
-      <c r="W293" s="21"/>
-      <c r="X293" s="21"/>
-      <c r="Y293" s="21"/>
-      <c r="Z293" s="21"/>
+      <c r="D293" s="22"/>
     </row>
     <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D294" s="22"/>
@@ -13140,645 +12938,569 @@
     <row r="879" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D879" s="22"/>
     </row>
-    <row r="880" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D880" s="22"/>
-    </row>
-    <row r="881" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D881" s="22"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A72:A881">
-    <cfRule type="containsText" dxfId="125" priority="138" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A70:A879">
+    <cfRule type="containsText" dxfId="111" priority="138" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 N69:Z71 K69:K71 I69:I71 J58:Z68">
-    <cfRule type="expression" dxfId="124" priority="139">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57 A70:Z879 J58:Z68 F57 I69 K69:Z69">
+    <cfRule type="expression" dxfId="110" priority="139">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 N69:Z71 K69:K71 I69:I71 J58:Z68">
-    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 A70:Z879 N69:Z69 K69 I69 J58:Z68 D57:F57">
+    <cfRule type="cellIs" dxfId="109" priority="141" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C56 C72:C881">
-    <cfRule type="expression" dxfId="122" priority="145">
+  <conditionalFormatting sqref="E35 C46:C48 C1:C44 C50:C56 C70:C879">
+    <cfRule type="expression" dxfId="108" priority="145">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B56 B72:B881">
-    <cfRule type="expression" dxfId="121" priority="146">
+  <conditionalFormatting sqref="B38:B44 B1:B35 B46:B56 B70:B879">
+    <cfRule type="expression" dxfId="107" priority="146">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A72:A881">
-    <cfRule type="cellIs" dxfId="120" priority="147" operator="equal">
+  <conditionalFormatting sqref="A43:A44 A1:A40 A46:A56 A70:A879">
+    <cfRule type="cellIs" dxfId="106" priority="147" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="119" priority="149" operator="notEqual">
+    <cfRule type="cellIs" dxfId="105" priority="149" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="118" priority="150" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="104" priority="150" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="notContainsText" dxfId="117" priority="151" operator="notContains" text="required">
+    <cfRule type="notContainsText" dxfId="103" priority="151" operator="notContains" text="required">
       <formula>ISERROR(SEARCH(("required"),(D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="116" priority="152" operator="notEqual">
+    <cfRule type="cellIs" dxfId="102" priority="152" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="115" priority="153" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="153" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="114" priority="154" operator="notEqual">
+    <cfRule type="cellIs" dxfId="100" priority="154" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="113" priority="155" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="99" priority="155" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="112" priority="156" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="156" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="111" priority="157" operator="notEqual">
+    <cfRule type="cellIs" dxfId="97" priority="157" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="110" priority="158" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="96" priority="158" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="109" priority="159" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="159" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Z1">
-    <cfRule type="cellIs" dxfId="108" priority="160" operator="notEqual">
+    <cfRule type="cellIs" dxfId="94" priority="160" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H57 H72:H881">
-    <cfRule type="expression" dxfId="107" priority="161">
+  <conditionalFormatting sqref="H1:H57 H70:H879">
+    <cfRule type="expression" dxfId="93" priority="161">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 N69:Z71 K69:K71 I69:I71 J58:Z68">
-    <cfRule type="expression" dxfId="106" priority="162">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57 A70:Z879 J58:Z68 F57 I69 K69:Z69">
+    <cfRule type="expression" dxfId="92" priority="162">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="105" priority="128">
+    <cfRule type="expression" dxfId="91" priority="128">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="104" priority="129" operator="notEqual">
+    <cfRule type="cellIs" dxfId="90" priority="129" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I57 I69:I881">
-    <cfRule type="expression" dxfId="103" priority="468">
+  <conditionalFormatting sqref="I1:I57 I69:I879">
+    <cfRule type="expression" dxfId="89" priority="468">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 J58:Z68">
-    <cfRule type="expression" dxfId="102" priority="471">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 A50:F56 A70:Z879 J58:Z68 G1:Z56">
+    <cfRule type="expression" dxfId="88" priority="471">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 G1:Z57 A50:F56 D57:F57 A72:Z881 J58:Z68">
-    <cfRule type="expression" dxfId="101" priority="481">
+  <conditionalFormatting sqref="A36:A37 C36:F37 A38:F40 F45 A43:F44 B41:F42 A46:F48 A1:F35 A49:B49 D49:F49 A50:F56 A70:Z879 J58:Z68 G1:Z56">
+    <cfRule type="expression" dxfId="87" priority="481">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="containsText" dxfId="100" priority="121" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="86" priority="121" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A41))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="99" priority="122">
+    <cfRule type="expression" dxfId="85" priority="122">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="98" priority="123">
+    <cfRule type="expression" dxfId="84" priority="123">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" dxfId="97" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="124" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="cellIs" dxfId="96" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="125" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="95" priority="126">
+    <cfRule type="expression" dxfId="81" priority="126">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="94" priority="127">
+    <cfRule type="expression" dxfId="80" priority="127">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $E41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $M41 = "", $N41 = "", $O41 = "", $Q41 = "", $R41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="115" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="92" priority="116">
+    <cfRule type="expression" dxfId="78" priority="116">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="91" priority="117">
+    <cfRule type="expression" dxfId="77" priority="117">
       <formula>AND($A49="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="90" priority="118">
+    <cfRule type="expression" dxfId="76" priority="118">
       <formula>AND($A49="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="89" priority="119">
+    <cfRule type="expression" dxfId="75" priority="119">
       <formula>AND($A49="end group", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="88" priority="120">
+    <cfRule type="expression" dxfId="74" priority="120">
       <formula>AND($A49="end repeat", $B42 = "", $C49 = "", #REF! = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:B881 B38:B44 B2:B35 B46:B56">
-    <cfRule type="expression" dxfId="87" priority="1244">
-      <formula>COUNTIF($B$2:$B$998,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B70:B879 B38:B44 B2:B35 B46:B56">
+    <cfRule type="expression" dxfId="73" priority="1244">
+      <formula>COUNTIF($B$2:$B$996,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="containsText" dxfId="86" priority="105" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="72" priority="105" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A57))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="85" priority="106">
+    <cfRule type="expression" dxfId="71" priority="106">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="84" priority="107">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57">
-    <cfRule type="cellIs" dxfId="83" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="108" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="82" priority="109">
+    <cfRule type="expression" dxfId="69" priority="109">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $C57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="81" priority="110">
+    <cfRule type="expression" dxfId="68" priority="110">
       <formula>AND(AND(NOT($A57 = "end group"), NOT($A57 = "end repeat"), NOT($A57 = "")), $B57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="80" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="111" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="79" priority="113">
+    <cfRule type="expression" dxfId="66" priority="113">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C57">
-    <cfRule type="expression" dxfId="78" priority="114">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $E57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="65" priority="81" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A69))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:M71">
-    <cfRule type="expression" dxfId="76" priority="94">
+  <conditionalFormatting sqref="L69:M69">
+    <cfRule type="cellIs" dxfId="64" priority="96" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69">
+    <cfRule type="expression" dxfId="63" priority="97">
+      <formula>AND($M69 = "", $A69 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:H69">
+    <cfRule type="expression" dxfId="62" priority="82">
       <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:M71">
-    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69:M71">
-    <cfRule type="expression" dxfId="74" priority="97">
-      <formula>AND($M69 = "", $A69 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69:M71">
-    <cfRule type="expression" dxfId="73" priority="103">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:H69 H70:H71">
-    <cfRule type="expression" dxfId="72" priority="82">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:H69 H70:H71">
-    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
+  <conditionalFormatting sqref="A69:H69">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="70" priority="84">
+    <cfRule type="expression" dxfId="60" priority="84">
       <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $C69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="69" priority="85">
+    <cfRule type="expression" dxfId="59" priority="85">
       <formula>AND(AND(NOT($A69 = "end group"), NOT($A69 = "end repeat"), NOT($A69 = "")), $B69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="68" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="67" priority="87">
-      <formula>COUNTIF($B$2:$B$1130,B69)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69:H69 H70:H71">
-    <cfRule type="expression" dxfId="66" priority="89">
+  <conditionalFormatting sqref="A69:H69">
+    <cfRule type="expression" dxfId="57" priority="89">
       <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N69:Z71">
-    <cfRule type="expression" dxfId="65" priority="1250">
+  <conditionalFormatting sqref="N69:Z69">
+    <cfRule type="expression" dxfId="56" priority="1250">
       <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N69:Z71">
-    <cfRule type="expression" dxfId="64" priority="1251">
+  <conditionalFormatting sqref="N69:Z69">
+    <cfRule type="expression" dxfId="55" priority="1251">
       <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:M71">
-    <cfRule type="expression" dxfId="63" priority="1252">
+  <conditionalFormatting sqref="L69:M69">
+    <cfRule type="expression" dxfId="54" priority="1252">
       <formula>AND($A69="end group", $B69 = "", $C69 = "", $E69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $M69 = "", $N69 = "", $O69 = "", $Q69 = "", $R69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:L71">
-    <cfRule type="expression" dxfId="62" priority="1254">
+  <conditionalFormatting sqref="L69">
+    <cfRule type="expression" dxfId="53" priority="1254">
       <formula>AND(NOT($I69 = ""), $K69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:M71">
-    <cfRule type="expression" dxfId="61" priority="1255">
+  <conditionalFormatting sqref="L69:M69">
+    <cfRule type="expression" dxfId="52" priority="1255">
       <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $E69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $M69 = "", $N69 = "", $O69 = "", $Q69 = "", $R69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:K71 A69:I69 H70:I71">
-    <cfRule type="expression" dxfId="60" priority="1262">
+  <conditionalFormatting sqref="A69:I69 K69">
+    <cfRule type="expression" dxfId="51" priority="1262">
       <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $F69 = "", $G69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $L69 = "", $N69 = "", $O69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:K71 A69:I69 H70:I71">
-    <cfRule type="expression" dxfId="59" priority="1266">
+  <conditionalFormatting sqref="A69:I69 K69">
+    <cfRule type="expression" dxfId="50" priority="1266">
       <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $F69 = "", $G69 = "", $H69 = "", #REF! = "", $I69 = "", $K69 = "", $L69 = "", $N69 = "", $O69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A70))))</formula>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="49" priority="77">
+      <formula>COUNTIF($B$2:$B$1129,B57)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:G70">
-    <cfRule type="expression" dxfId="57" priority="72">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:G70">
-    <cfRule type="cellIs" dxfId="56" priority="73" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="55" priority="74">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="54" priority="75">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $B70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="53" priority="76" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="52" priority="77">
-      <formula>COUNTIF($B$2:$B$1129,B70)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:G70">
-    <cfRule type="expression" dxfId="51" priority="78">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:G70">
-    <cfRule type="expression" dxfId="50" priority="79">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $M70 = "", $N70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:G70">
-    <cfRule type="expression" dxfId="49" priority="80">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $M70 = "", $N70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="containsText" dxfId="48" priority="61" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A71))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:G71">
-    <cfRule type="expression" dxfId="47" priority="62">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:G71">
-    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="45" priority="64">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="44" priority="65">
-      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $B71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="43" priority="66" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="42" priority="67">
-      <formula>COUNTIF($B$2:$B$1128,B71)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:G71">
-    <cfRule type="expression" dxfId="41" priority="68">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:G71">
-    <cfRule type="expression" dxfId="40" priority="69">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:G71">
-    <cfRule type="expression" dxfId="39" priority="70">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $M71 = "", $N71 = "")</formula>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" dxfId="48" priority="67">
+      <formula>COUNTIF($B$2:$B$1128,B69)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
-    <cfRule type="containsText" dxfId="38" priority="49" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A67))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:I68">
-    <cfRule type="expression" dxfId="37" priority="50">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:I68">
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:C68">
-    <cfRule type="expression" dxfId="35" priority="52">
+    <cfRule type="expression" dxfId="44" priority="52">
       <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $C67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B68">
-    <cfRule type="expression" dxfId="34" priority="53">
+    <cfRule type="expression" dxfId="43" priority="53">
       <formula>AND(AND(NOT($A67 = "end group"), NOT($A67 = "end repeat"), NOT($A67 = "")), $B67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
-    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B68">
-    <cfRule type="expression" dxfId="32" priority="55">
-      <formula>COUNTIF($B$2:$B$1126,B67)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H67:H68">
-    <cfRule type="expression" dxfId="31" priority="56">
+    <cfRule type="expression" dxfId="41" priority="56">
       <formula>AND(NOT($G67 = ""), $H67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:I68">
-    <cfRule type="expression" dxfId="30" priority="57">
+    <cfRule type="expression" dxfId="40" priority="57">
       <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:I68">
-    <cfRule type="expression" dxfId="29" priority="58">
+    <cfRule type="expression" dxfId="39" priority="58">
       <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:I68">
-    <cfRule type="expression" dxfId="28" priority="59">
+    <cfRule type="expression" dxfId="38" priority="59">
       <formula>AND($I67 = "", $A67 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:I68">
-    <cfRule type="expression" dxfId="27" priority="60">
+    <cfRule type="expression" dxfId="37" priority="60">
       <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $M67 = "", $N67 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="containsText" dxfId="26" priority="37" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A66))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:I66">
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="35" priority="38">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:I66">
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="23" priority="40">
+    <cfRule type="expression" dxfId="33" priority="40">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="22" priority="41">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $B66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="20" priority="43">
-      <formula>COUNTIF($B$2:$B$1125,B66)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" dxfId="19" priority="44">
+    <cfRule type="expression" dxfId="30" priority="44">
       <formula>AND(NOT($G66 = ""), $H66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:I66">
-    <cfRule type="expression" dxfId="18" priority="45">
+    <cfRule type="expression" dxfId="29" priority="45">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:I66">
-    <cfRule type="expression" dxfId="17" priority="46">
+    <cfRule type="expression" dxfId="28" priority="46">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="expression" dxfId="16" priority="47">
+    <cfRule type="expression" dxfId="27" priority="47">
       <formula>AND($I66 = "", $A66 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:I66">
-    <cfRule type="expression" dxfId="15" priority="48">
+    <cfRule type="expression" dxfId="26" priority="48">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $M66 = "", $N66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A65">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C65">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $C58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B65">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>AND(AND(NOT($A58 = "end group"), NOT($A58 = "end repeat"), NOT($A58 = "")), $B58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A65">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H65">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>AND(NOT($G58 = ""), $H58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I65">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>AND($I58 = "", $A58 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:I65">
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $M58 = "", $N58 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="3" priority="1270">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$999, "begin group") = COUNTIF($A$1:$A$999, "end group"))</formula>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="expression" dxfId="14" priority="1302">
+      <formula>COUNTIF($B$2:$B$1124,B67)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57 F57:Z57">
+    <cfRule type="expression" dxfId="13" priority="1310">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", #REF! = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57 F57:Z57">
+    <cfRule type="expression" dxfId="12" priority="1314">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", #REF! = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="11" priority="1317">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", #REF! = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:C57">
+    <cfRule type="expression" dxfId="10" priority="1318">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", #REF! = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "", $O57 = "", $Q57 = "", $R57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="9" priority="1338">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E44 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="8" priority="1341">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E44 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $M57 = "", $N57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
+    <cfRule type="expression" dxfId="7" priority="1359">
+      <formula>COUNTIF($B$2:$B$1123,B66)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="2" priority="1271">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$990, "begin group") = COUNTIF($A$1:$A$999, "end group")))</formula>
+    <cfRule type="expression" dxfId="6" priority="1360">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$997, "begin group") = COUNTIF($A$1:$A$997, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="1" priority="1272">
-      <formula>COUNTIF($B$2:$B$1131,B57)&gt;1</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="5" priority="1361">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$988, "begin group") = COUNTIF($A$1:$A$997, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B65">
-    <cfRule type="expression" dxfId="0" priority="1273">
-      <formula>COUNTIF($B$2:$B$1116,B58)&gt;1</formula>
+    <cfRule type="expression" dxfId="4" priority="1362">
+      <formula>COUNTIF($B$2:$B$1114,B58)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="3" priority="1363">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="2" priority="1364">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="1" priority="1365">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", $E57 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="0" priority="1366">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E57 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D881">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D879">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16931,7 +16653,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44867.018054513886</v>
+        <v>44867.020135416664</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>189</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="204">
   <si>
     <t>type</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>cohort</t>
-  </si>
-  <si>
-    <t>${dob_validation_message}</t>
   </si>
   <si>
     <t>c_dob_calendar2</t>
@@ -2306,10 +2303,10 @@
   <dimension ref="A1:Z879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2889,7 +2886,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3584,7 +3581,7 @@
         <v>93</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>94</v>
@@ -3628,7 +3625,7 @@
         <v>93</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>99</v>
@@ -3910,14 +3907,14 @@
         <v>78</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>195</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>196</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -4053,7 +4050,7 @@
         <v>110</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -4349,7 +4346,7 @@
         <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>40</v>
@@ -4397,9 +4394,7 @@
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="8"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -4424,7 +4419,7 @@
         <v>38</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>50</v>
@@ -4460,10 +4455,10 @@
         <v>74</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
@@ -4496,7 +4491,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>80</v>
@@ -4534,10 +4529,10 @@
         <v>78</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>85</v>
@@ -4547,10 +4542,10 @@
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -4587,7 +4582,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -4612,7 +4607,7 @@
         <v>38</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>50</v>
@@ -4623,7 +4618,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -4648,7 +4643,7 @@
         <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>50</v>
@@ -4659,7 +4654,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -4684,7 +4679,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>50</v>
@@ -4695,7 +4690,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -4731,7 +4726,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -4756,7 +4751,7 @@
         <v>38</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>50</v>
@@ -4767,7 +4762,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -4792,7 +4787,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>50</v>
@@ -4803,12 +4798,12 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -4829,7 +4824,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>50</v>
@@ -4840,7 +4835,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -5028,7 +5023,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -5064,7 +5059,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -5125,10 +5120,10 @@
         <v>14</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -5213,7 +5208,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5284,7 +5279,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -5309,10 +5304,10 @@
         <v>38</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -5320,7 +5315,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -5356,7 +5351,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6" t="s">
@@ -13499,7 +13494,7 @@
       <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", $E57 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" sqref="D2:D879">
       <formula1>"yes,no"</formula1>
     </dataValidation>
@@ -13530,7 +13525,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -13545,30 +13540,30 @@
         <v>125</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>161</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -13578,16 +13573,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>163</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -13608,16 +13603,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -13627,16 +13622,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>170</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -13657,19 +13652,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>175</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -13678,19 +13673,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>178</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>179</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -13710,16 +13705,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>161</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -13729,16 +13724,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>163</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -16623,46 +16618,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44867.020135416664</v>
+        <v>44867.021128125001</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="203">
   <si>
     <t>type</t>
   </si>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>selected(../cohort, 'under_5')
-or selected(../knows_dob, 'yes')</t>
   </si>
   <si>
     <t>hh_age_years</t>
@@ -2303,10 +2299,10 @@
   <dimension ref="A1:Z879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2886,7 +2882,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3393,7 +3389,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -3404,7 +3400,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -3426,31 +3422,31 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="4"/>
@@ -3473,7 +3469,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>50</v>
@@ -3484,7 +3480,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="4"/>
@@ -3509,7 +3505,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>50</v>
@@ -3520,7 +3516,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -3545,14 +3541,14 @@
         <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -3578,31 +3574,31 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -3622,31 +3618,31 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -3669,7 +3665,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>50</v>
@@ -3680,7 +3676,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -3705,10 +3701,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -3716,7 +3712,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -3741,10 +3737,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -3752,7 +3748,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -3835,10 +3831,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -3871,10 +3867,10 @@
         <v>61</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>40</v>
@@ -3904,17 +3900,17 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>194</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>195</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3943,14 +3939,14 @@
         <v>74</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -4009,14 +4005,14 @@
         <v>14</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>27</v>
@@ -4044,13 +4040,13 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -4081,10 +4077,10 @@
         <v>74</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -4118,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -4238,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>40</v>
@@ -4271,7 +4267,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>50</v>
@@ -4282,7 +4278,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -4346,7 +4342,7 @@
         <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>40</v>
@@ -4390,7 +4386,7 @@
         <v>40</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="4"/>
@@ -4419,7 +4415,7 @@
         <v>38</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>50</v>
@@ -4455,10 +4451,10 @@
         <v>74</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
@@ -4488,19 +4484,19 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -4526,26 +4522,26 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -4582,7 +4578,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -4607,7 +4603,7 @@
         <v>38</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>50</v>
@@ -4618,7 +4614,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -4643,7 +4639,7 @@
         <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>50</v>
@@ -4654,7 +4650,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -4679,7 +4675,7 @@
         <v>38</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>50</v>
@@ -4690,7 +4686,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -4715,7 +4711,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>50</v>
@@ -4726,7 +4722,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -4751,7 +4747,7 @@
         <v>38</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>50</v>
@@ -4762,7 +4758,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -4787,7 +4783,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>50</v>
@@ -4798,12 +4794,12 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -4824,7 +4820,7 @@
         <v>38</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>50</v>
@@ -4835,7 +4831,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -5023,7 +5019,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -5059,7 +5055,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -5120,10 +5116,10 @@
         <v>14</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -5208,7 +5204,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5279,7 +5275,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -5304,10 +5300,10 @@
         <v>38</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -5315,7 +5311,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -5351,7 +5347,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6" t="s">
@@ -13525,7 +13521,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -13537,33 +13533,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>160</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -13573,16 +13569,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>162</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -13603,16 +13599,16 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -13622,16 +13618,16 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>168</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>169</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -13652,19 +13648,19 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>174</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -13673,19 +13669,19 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -13705,16 +13701,16 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>160</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -13724,16 +13720,16 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="26" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>162</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -16618,46 +16614,46 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44867.021128125001</v>
+        <v>44867.02205925926</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Configs and Forms for Review\Household\Version 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -401,9 +401,6 @@
     <t>if(../dob_calendar != '',floor( difference-in-months( ../contact_dob_iso, today() ) div 12 ),../age)</t>
   </si>
   <si>
-    <t>_Current Age: ${c_hh_age_string}_</t>
-  </si>
-  <si>
     <t>../hh_age_years</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t xml:space="preserve">selected(/data/repeat-relevant/child, 'yes') </t>
+  </si>
+  <si>
+    <t>_Current Age: ${hh_age_string}_</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="233">
+  <dxfs count="228">
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -2541,17 +2541,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
@@ -2563,48 +2552,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -3630,11 +3578,11 @@
   </sheetPr>
   <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4029,7 +3977,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -4066,10 +4014,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -4516,7 +4464,7 @@
         <v>87</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>101</v>
@@ -4528,7 +4476,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -4552,7 +4500,7 @@
         <v>87</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>101</v>
@@ -4564,7 +4512,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -4588,10 +4536,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="25"/>
@@ -4694,7 +4642,7 @@
         <v>87</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>101</v>
@@ -4706,7 +4654,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -4730,10 +4678,10 @@
         <v>87</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -4742,7 +4690,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4766,10 +4714,10 @@
         <v>87</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -4778,7 +4726,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -5038,7 +4986,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -5067,7 +5015,7 @@
         <v>84</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>79</v>
@@ -5104,7 +5052,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -5117,7 +5065,7 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M43" s="46" t="s">
         <v>103</v>
@@ -5157,10 +5105,10 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
@@ -5197,10 +5145,10 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
@@ -5257,7 +5205,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="46" t="s">
         <v>101</v>
@@ -5269,7 +5217,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -5330,7 +5278,7 @@
         <v>58</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="42"/>
@@ -5399,7 +5347,7 @@
         <v>87</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>101</v>
@@ -5437,10 +5385,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="25"/>
@@ -33030,392 +32978,392 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48">
-    <cfRule type="expression" dxfId="232" priority="262">
+    <cfRule type="expression" dxfId="227" priority="262">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8">
-    <cfRule type="expression" dxfId="231" priority="263">
+    <cfRule type="expression" dxfId="226" priority="263">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A39:C41 A38 C38 A37:C37 A36 C36 C42 A5:B5 A6:C8 A48:C48 C46">
-    <cfRule type="cellIs" dxfId="230" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="264" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B41 B2:B8 B48">
-    <cfRule type="expression" dxfId="229" priority="265">
+    <cfRule type="expression" dxfId="224" priority="265">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A39:C41 A5:B5 A6:C8 A48:C48">
-    <cfRule type="expression" dxfId="228" priority="267">
+    <cfRule type="expression" dxfId="223" priority="267">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C4 A48:C48 A40:C40 A5:B5 A6:C8">
-    <cfRule type="expression" dxfId="227" priority="268">
+    <cfRule type="expression" dxfId="222" priority="268">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "", $O2 = "", $P2 = "", $Q2 = "", $S2 = "", $T2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54 A2:A8 A36:A41 A48">
-    <cfRule type="containsText" dxfId="226" priority="272" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="221" priority="272" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4 C36:C42 C6:C8 C48">
-    <cfRule type="expression" dxfId="225" priority="273">
+    <cfRule type="expression" dxfId="220" priority="273">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $C2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8 A36:A41 A48">
-    <cfRule type="cellIs" dxfId="224" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="274" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:C54">
-    <cfRule type="expression" dxfId="223" priority="275">
+    <cfRule type="expression" dxfId="218" priority="275">
       <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:C54">
-    <cfRule type="expression" dxfId="222" priority="276">
+    <cfRule type="expression" dxfId="217" priority="276">
       <formula>AND($A53="end group", $B53 = "", $C53 = "", $E53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "", $O53 = "", $P53 = "", $Q53 = "", $S53 = "", $T53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:C54">
-    <cfRule type="cellIs" dxfId="221" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="277" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="expression" dxfId="220" priority="278">
+    <cfRule type="expression" dxfId="215" priority="278">
       <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="expression" dxfId="219" priority="279">
+    <cfRule type="expression" dxfId="214" priority="279">
       <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54">
-    <cfRule type="cellIs" dxfId="218" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="280" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:C54">
-    <cfRule type="expression" dxfId="217" priority="281">
+    <cfRule type="expression" dxfId="212" priority="281">
       <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:C54">
-    <cfRule type="expression" dxfId="216" priority="282">
+    <cfRule type="expression" dxfId="211" priority="282">
       <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $E53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "", $O53 = "", $P53 = "", $Q53 = "", $S53 = "", $T53 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="containsText" dxfId="215" priority="292" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="210" priority="292" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A49))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="214" priority="293">
+    <cfRule type="expression" dxfId="209" priority="293">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="213" priority="294">
+    <cfRule type="expression" dxfId="208" priority="294">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="cellIs" dxfId="212" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="295" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="cellIs" dxfId="211" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="296" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="210" priority="297">
+    <cfRule type="expression" dxfId="205" priority="297">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:C49">
-    <cfRule type="expression" dxfId="209" priority="298">
+    <cfRule type="expression" dxfId="204" priority="298">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $E49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "", $O49 = "", $P49 = "", $Q49 = "", $S49 = "", $T49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="containsText" dxfId="208" priority="299" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="203" priority="299" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="207" priority="283">
+    <cfRule type="expression" dxfId="202" priority="283">
       <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="206" priority="284">
+    <cfRule type="expression" dxfId="201" priority="284">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="cellIs" dxfId="205" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="285" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="204" priority="286">
+    <cfRule type="expression" dxfId="199" priority="286">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="203" priority="287">
+    <cfRule type="expression" dxfId="198" priority="287">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="202" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="288" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="201" priority="290">
+    <cfRule type="expression" dxfId="196" priority="290">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:C50">
-    <cfRule type="expression" dxfId="200" priority="291">
+    <cfRule type="expression" dxfId="195" priority="291">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "", $O50 = "", $P50 = "", $Q50 = "", $S50 = "", $T50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="containsText" dxfId="199" priority="255" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="194" priority="255" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="198" priority="256">
+    <cfRule type="expression" dxfId="193" priority="256">
       <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="197" priority="257">
+    <cfRule type="expression" dxfId="192" priority="257">
       <formula>AND($A18="end group", $B18 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="196" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="258" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="195" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="259" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="194" priority="260">
+    <cfRule type="expression" dxfId="189" priority="260">
       <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="193" priority="261">
+    <cfRule type="expression" dxfId="188" priority="261">
       <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="192" priority="248">
+    <cfRule type="expression" dxfId="187" priority="248">
       <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="191" priority="249">
+    <cfRule type="expression" dxfId="186" priority="249">
       <formula>AND($A18="end group", $B18 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="190" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="250" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="189" priority="251">
+    <cfRule type="expression" dxfId="184" priority="251">
       <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="188" priority="253">
+    <cfRule type="expression" dxfId="183" priority="253">
       <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="187" priority="254">
+    <cfRule type="expression" dxfId="182" priority="254">
       <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "", $Q18 = "", $S18 = "", $T18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="186" priority="234">
+    <cfRule type="expression" dxfId="181" priority="234">
       <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="185" priority="235">
+    <cfRule type="expression" dxfId="180" priority="235">
       <formula>AND($A61="end group", $B61 = "", $C61 = "", $E61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "", $O61 = "", $P61 = "", $Q61 = "", $S61 = "", $T61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="184" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="236" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="183" priority="237">
+    <cfRule type="expression" dxfId="178" priority="237">
       <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="182" priority="238">
+    <cfRule type="expression" dxfId="177" priority="238">
       <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $E61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "", $O61 = "", $P61 = "", $Q61 = "", $S61 = "", $T61 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="containsText" dxfId="181" priority="239" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="176" priority="239" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A61))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41 A39:C39">
-    <cfRule type="expression" dxfId="180" priority="416">
+    <cfRule type="expression" dxfId="175" priority="416">
       <formula>AND($A39="end group", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:C41 A39:C39">
-    <cfRule type="expression" dxfId="179" priority="419">
+    <cfRule type="expression" dxfId="174" priority="419">
       <formula>AND($A39="end repeat", $B39 = "", $C39 = "", #REF! = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "", $O39 = "", $P39 = "", $Q39 = "", $S39 = "", $T39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="178" priority="444">
+    <cfRule type="expression" dxfId="173" priority="444">
       <formula>AND($A38="begin group", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38 C37:C38">
-    <cfRule type="expression" dxfId="177" priority="445">
+    <cfRule type="expression" dxfId="172" priority="445">
       <formula>AND($A37="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="176" priority="450">
+    <cfRule type="expression" dxfId="171" priority="450">
       <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="175" priority="452">
+    <cfRule type="expression" dxfId="170" priority="452">
       <formula>AND($A38="begin repeat", NOT($B37 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38 C37:C38">
-    <cfRule type="expression" dxfId="174" priority="453">
+    <cfRule type="expression" dxfId="169" priority="453">
       <formula>AND($A37="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="173" priority="462">
+    <cfRule type="expression" dxfId="168" priority="462">
       <formula>AND($A38="end group", $B37 = "", $C38 = "", $E40 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="172" priority="463">
+    <cfRule type="expression" dxfId="167" priority="463">
       <formula>AND($A38="end group", $B37 = "", $C38 = "", $E40 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="171" priority="464">
+    <cfRule type="expression" dxfId="166" priority="464">
       <formula>AND($A37="end group", #REF! = "", $C37 = "", $E39 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38">
-    <cfRule type="expression" dxfId="170" priority="466">
+    <cfRule type="expression" dxfId="165" priority="466">
       <formula>AND($A38="end repeat", $B37 = "", $C38 = "", $E40 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="169" priority="467">
+    <cfRule type="expression" dxfId="164" priority="467">
       <formula>AND($A38="end repeat", $B37 = "", $C38 = "", $E40 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "", $O38 = "", $P38 = "", $Q38 = "", $S38 = "", $T38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37 C37">
-    <cfRule type="expression" dxfId="168" priority="468">
+    <cfRule type="expression" dxfId="163" priority="468">
       <formula>AND($A37="end repeat", #REF! = "", $C37 = "", $E39 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "", $O37 = "", $P37 = "", $Q37 = "", $S37 = "", $T37 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="167" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="214" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="containsText" dxfId="166" priority="216" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="161" priority="216" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A42))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="165" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="217" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" dxfId="164" priority="207">
+    <cfRule type="expression" dxfId="159" priority="207">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" dxfId="163" priority="208">
+    <cfRule type="expression" dxfId="158" priority="208">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $E55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "", $O55 = "", $P55 = "", $Q55 = "", $S55 = "", $T55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="162" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="209" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" dxfId="161" priority="210">
+    <cfRule type="expression" dxfId="156" priority="210">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" dxfId="160" priority="211">
+    <cfRule type="expression" dxfId="155" priority="211">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $E55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "", $O55 = "", $P55 = "", $Q55 = "", $S55 = "", $T55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" dxfId="159" priority="212" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="154" priority="212" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 C36">
-    <cfRule type="expression" dxfId="158" priority="491">
+    <cfRule type="expression" dxfId="153" priority="491">
       <formula>AND($A36="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 C36">
-    <cfRule type="expression" dxfId="156" priority="493">
+    <cfRule type="expression" dxfId="152" priority="493">
       <formula>AND($A36="end group", $B42 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 C36">
-    <cfRule type="expression" dxfId="153" priority="498">
+    <cfRule type="expression" dxfId="151" priority="498">
       <formula>AND($A36="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 C36">
-    <cfRule type="expression" dxfId="151" priority="500">
+    <cfRule type="expression" dxfId="150" priority="500">
       <formula>AND($A36="end repeat", $B42 = "", $C36 = "", $E36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "", $O36 = "", $P36 = "", $Q36 = "", $S36 = "", $T36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34335,7 +34283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -34388,7 +34336,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-03 12-46</v>
+        <v>2022-11-03 12-51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -154,9 +154,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>Does ${house_name} know their date of birth</t>
-  </si>
-  <si>
     <t>Age limit =&gt; 10 years=&lt;100</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Are there other family members currently living in ${house_name}'s homestead?</t>
   </si>
   <si>
     <t>knows_dob</t>
@@ -481,6 +475,12 @@
   </si>
   <si>
     <t>_Current Age: ${hh_age_string}_</t>
+  </si>
+  <si>
+    <t>Does ${contact_name} know their date of birth</t>
+  </si>
+  <si>
+    <t>Are there other family members currently living in ${contact_name}'s homestead?</t>
   </si>
 </sst>
 </file>
@@ -3579,10 +3579,10 @@
   <dimension ref="A1:Z1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3610,37 +3610,37 @@
         <v>24</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3657,13 +3657,13 @@
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -3691,13 +3691,13 @@
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -3725,13 +3725,13 @@
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3759,13 +3759,13 @@
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="10"/>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3887,18 +3887,18 @@
     </row>
     <row r="9" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A9" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3923,13 +3923,13 @@
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A10" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -3941,7 +3941,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="1"/>
@@ -3959,13 +3959,13 @@
     </row>
     <row r="11" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>106</v>
-      </c>
       <c r="C11" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -3977,7 +3977,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -3995,18 +3995,18 @@
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A12" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4014,10 +4014,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -4035,13 +4035,13 @@
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A13" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>2</v>
@@ -4052,7 +4052,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A14" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>3</v>
@@ -4088,7 +4088,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4109,13 +4109,13 @@
     </row>
     <row r="15" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A15" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -4124,7 +4124,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -4145,13 +4145,13 @@
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A16" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -4160,7 +4160,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="17" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A17" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -4211,13 +4211,13 @@
     </row>
     <row r="18" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A18" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>0</v>
@@ -4317,13 +4317,13 @@
     </row>
     <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>2</v>
@@ -4365,7 +4365,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -4391,30 +4391,30 @@
     </row>
     <row r="23" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.2">
@@ -4431,15 +4431,15 @@
         <v>2</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -4461,13 +4461,13 @@
     </row>
     <row r="26" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A26" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="25"/>
@@ -4476,7 +4476,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -4497,13 +4497,13 @@
     </row>
     <row r="27" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A27" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="25"/>
@@ -4512,7 +4512,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -4536,10 +4536,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="25"/>
@@ -4639,13 +4639,13 @@
     </row>
     <row r="31" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A31" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -4654,7 +4654,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -4675,13 +4675,13 @@
     </row>
     <row r="32" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A32" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -4690,7 +4690,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4711,13 +4711,13 @@
     </row>
     <row r="33" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A33" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -4726,7 +4726,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="34" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A34" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -4805,18 +4805,18 @@
     </row>
     <row r="36" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A36" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="C36" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
@@ -4841,13 +4841,13 @@
     </row>
     <row r="37" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A37" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -4875,13 +4875,13 @@
     </row>
     <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A38" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -4912,14 +4912,14 @@
         <v>11</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="40" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A40" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
       <c r="E40" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -4976,17 +4976,17 @@
     </row>
     <row r="41" spans="1:26" s="8" customFormat="1" ht="27.6">
       <c r="A41" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -5012,13 +5012,13 @@
     </row>
     <row r="42" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A42" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -5046,18 +5046,18 @@
     </row>
     <row r="43" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A43" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
@@ -5065,10 +5065,10 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M43" s="46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N43" s="29"/>
       <c r="O43" s="9"/>
@@ -5086,18 +5086,18 @@
     </row>
     <row r="44" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A44" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="46" t="s">
-        <v>106</v>
-      </c>
       <c r="C44" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
@@ -5105,10 +5105,10 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
@@ -5126,18 +5126,18 @@
     </row>
     <row r="45" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A45" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
@@ -5145,10 +5145,10 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
@@ -5166,13 +5166,13 @@
     </row>
     <row r="46" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A46" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>2</v>
@@ -5202,13 +5202,13 @@
     </row>
     <row r="47" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A47" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -5217,7 +5217,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -5272,13 +5272,13 @@
     </row>
     <row r="49" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A49" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="42"/>
@@ -5318,7 +5318,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -5344,24 +5344,24 @@
     </row>
     <row r="51" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A51" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
@@ -5385,10 +5385,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="25"/>
@@ -5419,16 +5419,16 @@
         <v>7</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="55" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A55" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="34"/>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="56" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A56" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="57" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A57" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -5557,7 +5557,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="58" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A58" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
@@ -5591,7 +5591,7 @@
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="59" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A59" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
@@ -5625,7 +5625,7 @@
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
       <c r="J59" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="60" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A60" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="40"/>
       <c r="C60" s="34"/>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="61" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A61" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="34"/>
@@ -34246,7 +34246,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2</v>
@@ -34257,7 +34257,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
@@ -34336,7 +34336,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-03 12-51</v>
+        <v>2022-11-03 12-53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -353,9 +353,6 @@
     <t>Names</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>Date of Birth</t>
   </si>
   <si>
@@ -378,9 +375,6 @@
   </si>
   <si>
     <t>contact_name</t>
-  </si>
-  <si>
-    <t>${gender}</t>
   </si>
   <si>
     <t>hh_age_years</t>
@@ -481,6 +475,12 @@
   </si>
   <si>
     <t>Are there other family members currently living in ${contact_name}'s homestead?</t>
+  </si>
+  <si>
+    <t>h_gender</t>
+  </si>
+  <si>
+    <t>${h_gender}</t>
   </si>
 </sst>
 </file>
@@ -3579,10 +3579,10 @@
   <dimension ref="A1:Z1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3977,7 +3977,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -4014,10 +4014,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -4052,7 +4052,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4076,7 +4076,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>3</v>
@@ -4088,7 +4088,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4115,7 +4115,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -4124,7 +4124,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -4148,10 +4148,10 @@
         <v>85</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -4160,7 +4160,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -4214,7 +4214,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>65</v>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>3</v>
@@ -4323,7 +4323,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>2</v>
@@ -4394,13 +4394,13 @@
         <v>85</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>99</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
@@ -4408,13 +4408,13 @@
         <v>85</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.2">
@@ -4464,7 +4464,7 @@
         <v>85</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>99</v>
@@ -4476,7 +4476,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -4500,7 +4500,7 @@
         <v>85</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>99</v>
@@ -4512,7 +4512,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -4536,10 +4536,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="25"/>
@@ -4642,7 +4642,7 @@
         <v>85</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="43" t="s">
         <v>99</v>
@@ -4654,7 +4654,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -4678,10 +4678,10 @@
         <v>85</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -4690,7 +4690,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4714,10 +4714,10 @@
         <v>85</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -4726,7 +4726,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -4847,7 +4847,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -5015,7 +5015,7 @@
         <v>82</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>77</v>
@@ -5052,7 +5052,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -5065,7 +5065,7 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M43" s="46" t="s">
         <v>101</v>
@@ -5105,10 +5105,10 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
@@ -5145,10 +5145,10 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
@@ -5205,7 +5205,7 @@
         <v>85</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" s="46" t="s">
         <v>99</v>
@@ -5217,7 +5217,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -5278,7 +5278,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="42"/>
@@ -5347,7 +5347,7 @@
         <v>85</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>99</v>
@@ -5361,7 +5361,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
@@ -5385,10 +5385,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="25"/>
@@ -34132,7 +34132,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -34336,7 +34336,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-03 12-53</v>
+        <v>2022-11-03 12-57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -465,9 +465,6 @@
     <t>child</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(/data/repeat-relevant/child, 'yes') </t>
-  </si>
-  <si>
     <t>_Current Age: ${hh_age_string}_</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t>${h_gender}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(../repeat-relevant/child, 'yes') </t>
   </si>
 </sst>
 </file>
@@ -3579,10 +3579,10 @@
   <dimension ref="A1:Z1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3591,7 +3591,7 @@
     <col min="2" max="2" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
@@ -4088,7 +4088,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4284,7 +4284,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>3</v>
@@ -4323,7 +4323,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>2</v>
@@ -4397,7 +4397,7 @@
         <v>118</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>119</v>
@@ -4539,7 +4539,7 @@
         <v>125</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="25"/>
@@ -4847,7 +4847,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -4974,7 +4974,7 @@
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
     </row>
-    <row r="41" spans="1:26" s="8" customFormat="1" ht="27.6">
+    <row r="41" spans="1:26" s="8" customFormat="1" ht="13.8">
       <c r="A41" s="30" t="s">
         <v>49</v>
       </c>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="49" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -34336,7 +34336,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-03 12-57</v>
+        <v>2022-11-03 13-05</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="151">
   <si>
     <t xml:space="preserve">Name of Household Head </t>
   </si>
@@ -242,13 +242,6 @@
   </si>
   <si>
     <t>field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../date_of_birth, 'yes')
-</t>
-  </si>
-  <si>
-    <t>selected(../date_of_birth, 'no')</t>
   </si>
   <si>
     <t>selected(../knows_dob, 'yes')</t>
@@ -480,14 +473,21 @@
     <t>${h_gender}</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(../repeat-relevant/child, 'yes') </t>
+    <t xml:space="preserve">selected(../knows_dob, 'yes')
+</t>
+  </si>
+  <si>
+    <t>selected(../knows_dob, 'no')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(/data/repeat-relevant/house_member, 'yes') </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -630,12 +630,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -814,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -910,9 +904,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3579,10 +3570,10 @@
   <dimension ref="A1:Z1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3619,7 +3610,7 @@
         <v>71</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>44</v>
@@ -3628,19 +3619,19 @@
         <v>46</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3762,10 +3753,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="10"/>
@@ -3890,10 +3881,10 @@
         <v>49</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -3923,13 +3914,13 @@
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A10" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -3941,7 +3932,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="1"/>
@@ -3959,13 +3950,13 @@
     </row>
     <row r="11" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A11" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>104</v>
-      </c>
       <c r="C11" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -3977,7 +3968,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -3995,18 +3986,18 @@
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A12" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4014,10 +4005,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -4035,13 +4026,13 @@
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A13" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>2</v>
@@ -4052,7 +4043,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4073,7 +4064,7 @@
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A14" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>27</v>
@@ -4088,7 +4079,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4109,13 +4100,13 @@
     </row>
     <row r="15" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A15" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -4124,7 +4115,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -4145,13 +4136,13 @@
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A16" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -4160,7 +4151,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -4214,7 +4205,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>65</v>
@@ -4248,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>0</v>
@@ -4284,7 +4275,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>3</v>
@@ -4323,7 +4314,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>2</v>
@@ -4365,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -4391,30 +4382,30 @@
     </row>
     <row r="23" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>4</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.2">
@@ -4431,7 +4422,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
@@ -4461,13 +4452,13 @@
     </row>
     <row r="26" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A26" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="25"/>
@@ -4476,7 +4467,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -4497,13 +4488,13 @@
     </row>
     <row r="27" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A27" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="25"/>
@@ -4512,7 +4503,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -4536,10 +4527,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="25"/>
@@ -4639,13 +4630,13 @@
     </row>
     <row r="31" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A31" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -4654,7 +4645,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -4675,13 +4666,13 @@
     </row>
     <row r="32" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A32" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -4690,7 +4681,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4711,13 +4702,13 @@
     </row>
     <row r="33" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A33" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -4726,7 +4717,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -4776,9 +4767,9 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" s="2" customFormat="1" ht="13.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -4841,13 +4832,13 @@
     </row>
     <row r="37" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A37" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -4875,16 +4866,18 @@
     </row>
     <row r="38" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A38" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="31" t="s">
+        <v>79</v>
+      </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
@@ -4919,7 +4912,7 @@
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="28"/>
@@ -4949,9 +4942,7 @@
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="31" t="s">
-        <v>81</v>
-      </c>
+      <c r="E40" s="31"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
@@ -4974,7 +4965,7 @@
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
     </row>
-    <row r="41" spans="1:26" s="8" customFormat="1" ht="13.8">
+    <row r="41" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A41" s="30" t="s">
         <v>49</v>
       </c>
@@ -4985,7 +4976,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="27"/>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="31" t="s">
         <v>150</v>
       </c>
       <c r="F41" s="27"/>
@@ -5012,15 +5003,17 @@
     </row>
     <row r="42" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A42" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
-      <c r="D42" s="27"/>
+      <c r="D42" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -5046,18 +5039,18 @@
     </row>
     <row r="43" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A43" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
@@ -5065,10 +5058,10 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M43" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N43" s="29"/>
       <c r="O43" s="9"/>
@@ -5086,18 +5079,18 @@
     </row>
     <row r="44" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A44" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="46" t="s">
-        <v>104</v>
-      </c>
       <c r="C44" s="46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
@@ -5105,10 +5098,10 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="9"/>
@@ -5126,18 +5119,18 @@
     </row>
     <row r="45" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A45" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
@@ -5145,10 +5138,10 @@
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="9"/>
@@ -5202,13 +5195,13 @@
     </row>
     <row r="47" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A47" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -5217,7 +5210,7 @@
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -5278,7 +5271,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="42"/>
@@ -5318,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -5344,24 +5337,24 @@
     </row>
     <row r="51" spans="1:26" s="8" customFormat="1" ht="13.2">
       <c r="A51" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
@@ -5385,10 +5378,10 @@
         <v>11</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="25"/>
@@ -5428,7 +5421,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
@@ -5482,7 +5475,7 @@
     </row>
     <row r="55" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A55" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="34"/>
@@ -5515,7 +5508,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
@@ -5544,10 +5537,10 @@
     </row>
     <row r="57" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A57" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -5557,7 +5550,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -5578,10 +5571,10 @@
     </row>
     <row r="58" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A58" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
@@ -5591,7 +5584,7 @@
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -5612,10 +5605,10 @@
     </row>
     <row r="59" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A59" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
@@ -5625,7 +5618,7 @@
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
       <c r="J59" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -33617,31 +33610,6 @@
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="99" priority="106">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="98" priority="107" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="97" priority="108">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="96" priority="109">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="95" priority="110">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B36">
     <cfRule type="expression" dxfId="94" priority="101">
       <formula>AND(AND(NOT($A36 = "end group"), NOT($A36 = "end repeat"), NOT($A36 = "")), $B36 = "")</formula>
@@ -34336,7 +34304,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-03 13-05</v>
+        <v>2022-11-03 13-17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>

--- a/forms/contact/house_hold-create.xlsx
+++ b/forms/contact/house_hold-create.xlsx
@@ -268,9 +268,6 @@
     <t>begin_repeat</t>
   </si>
   <si>
-    <t>end_repeat</t>
-  </si>
-  <si>
     <t>meta</t>
   </si>
   <si>
@@ -480,7 +477,10 @@
     <t>selected(../knows_dob, 'no')</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(/data/repeat-relevant/house_member, 'yes') </t>
+    <t xml:space="preserve">selected(/data/repeat-relevant/register_house_member, 'yes') </t>
+  </si>
+  <si>
+    <t>select_one h_gender</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="229">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1899,61 +1962,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3569,11 +3577,11 @@
   </sheetPr>
   <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3582,7 +3590,7 @@
     <col min="2" max="2" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
@@ -3610,7 +3618,7 @@
         <v>71</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>44</v>
@@ -3619,19 +3627,19 @@
         <v>46</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3753,10 +3761,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="10"/>
@@ -3881,10 +3889,10 @@
         <v>49</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -3914,13 +3922,13 @@
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A10" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -3932,7 +3940,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="1"/>
@@ -3950,13 +3958,13 @@
     </row>
     <row r="11" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A11" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -3968,7 +3976,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="1"/>
@@ -3986,18 +3994,18 @@
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A12" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4005,10 +4013,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="1"/>
@@ -4026,13 +4034,13 @@
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A13" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>2</v>
@@ -4043,7 +4051,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -4064,7 +4072,7 @@
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A14" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>27</v>
@@ -4079,7 +4087,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -4100,13 +4108,13 @@
     </row>
     <row r="15" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A15" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -4115,7 +4123,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -4136,13 +4144,13 @@
     </row>
     <row r="16" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A16" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -4151,7 +4159,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -4205,7 +4213,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>65</v>
@@ -4239,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>0</v>
@@ -4272,10 +4280,10 @@
     </row>
     <row r="20" spans="1:26" ht="13.2">
       <c r="A20" s="19" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>3</v>
@@ -4314,7 +4322,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>2</v>
@@ -4356,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -4382,30 +4390,30 @@
     </row>
     <row r="23" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>4</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="24" customFormat="1" ht="19.2" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="13.2">
@@ -4422,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
@@ -4452,13 +4460,13 @@
     </row>
     <row r="26" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A26" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="25"/>
@@ -4467,7 +4475,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -4488,13 +4496,13 @@
     </row>
     <row r="27" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A27" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="25"/>
@@ -4503,7 +4511,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -4527,10 +4535,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="25"/>
@@ -4630,13 +4638,13 @@
     </row>
     <row r="31" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A31" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -4645,7 +4653,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -4666,13 +4674,13 @@
     </row>
     <row r="32" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A32" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -4681,7 +4689,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -4702,13 +4710,13 @@
     </row>
     <row r="33" spans="1:26" s="2" customFormat="1" ht="13.2">
       <c r="A33" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -4717,7 +4725,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -4838,7 +4846,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -4977,7 +4985,7 @@
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -5006,7 +5014,7 @@
         <v>80</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
     